--- a/ccs/plants.xlsx
+++ b/ccs/plants.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="9525" yWindow="465" windowWidth="6675" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="10455" yWindow="465" windowWidth="6675" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="COAL and NG calcs" sheetId="3" r:id="rId1"/>
@@ -1915,18 +1915,156 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1939,205 +2077,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2899,24 +2899,24 @@
     </row>
     <row r="11" spans="1:23" ht="33" customHeight="1">
       <c r="K11" s="25"/>
-      <c r="L11" s="126" t="s">
+      <c r="L11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126" t="s">
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="127" t="s">
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="128"/>
+      <c r="W11" s="65"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -3007,15 +3007,15 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="B14" s="64"/>
-      <c r="C14" s="67" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="114"/>
       <c r="K14" s="26" t="s">
         <v>15</v>
       </c>
@@ -3057,13 +3057,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" thickBot="1">
-      <c r="B15" s="65"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="116"/>
       <c r="K15" s="26" t="s">
         <v>33</v>
       </c>
@@ -3105,19 +3105,19 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="65"/>
-      <c r="C16" s="73" t="s">
+      <c r="B16" s="111"/>
+      <c r="C16" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="73" t="s">
+      <c r="D16" s="118"/>
+      <c r="E16" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="73" t="s">
+      <c r="F16" s="118"/>
+      <c r="G16" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="74"/>
+      <c r="H16" s="118"/>
       <c r="K16" s="26" t="s">
         <v>34</v>
       </c>
@@ -3159,13 +3159,13 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B17" s="66"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="72"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="116"/>
       <c r="K17" s="26" t="s">
         <v>20</v>
       </c>
@@ -3255,72 +3255,72 @@
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="104" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="129" t="s">
+      <c r="L19" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="129" t="s">
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="130"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="129" t="s">
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="W19" s="131"/>
+      <c r="W19" s="68"/>
     </row>
     <row r="20" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B20" s="76"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="76"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="106"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="123" t="s">
+      <c r="L20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="123" t="s">
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="125"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="62"/>
       <c r="V20" s="15"/>
       <c r="W20" s="16"/>
     </row>
@@ -3467,25 +3467,25 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="121">
         <v>0</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="123">
         <v>0.9</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="121">
         <v>0</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="123">
         <v>0.9</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="121">
         <v>0</v>
       </c>
-      <c r="H24" s="79">
+      <c r="H24" s="123">
         <v>0.9</v>
       </c>
       <c r="K24" s="26" t="s">
@@ -3541,13 +3541,13 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B25" s="76"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="80"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="124"/>
       <c r="K25" s="26" t="s">
         <v>33</v>
       </c>
@@ -3604,22 +3604,22 @@
       <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="109">
         <v>747800</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="90">
         <v>734000</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="109">
         <v>738200</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="90">
         <v>703700</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="109">
         <v>737000</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="90">
         <v>673400</v>
       </c>
       <c r="K26" s="26" t="s">
@@ -3678,12 +3678,12 @@
       <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="63"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
       <c r="K27" s="26" t="s">
         <v>104</v>
       </c>
@@ -4476,22 +4476,22 @@
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="60">
+      <c r="C43" s="100">
         <v>125750</v>
       </c>
-      <c r="D43" s="62">
+      <c r="D43" s="102">
         <v>190750</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="100">
         <v>113140</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="102">
         <v>190090</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="100">
         <v>108020</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="102">
         <v>176540</v>
       </c>
       <c r="K43" s="31" t="s">
@@ -4532,12 +4532,12 @@
       <c r="B44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="63"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="108"/>
       <c r="K44" s="27" t="s">
         <v>77</v>
       </c>
@@ -5144,22 +5144,22 @@
       <c r="B58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="60">
+      <c r="C58" s="100">
         <v>622050</v>
       </c>
-      <c r="D58" s="62">
+      <c r="D58" s="102">
         <v>543250</v>
       </c>
-      <c r="E58" s="60">
+      <c r="E58" s="100">
         <v>625060</v>
       </c>
-      <c r="F58" s="62">
+      <c r="F58" s="102">
         <v>513610</v>
       </c>
-      <c r="G58" s="60">
+      <c r="G58" s="100">
         <v>628980</v>
       </c>
-      <c r="H58" s="62">
+      <c r="H58" s="102">
         <v>496860</v>
       </c>
       <c r="M58" s="11"/>
@@ -5168,34 +5168,34 @@
       <c r="B59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="63"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="108"/>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="2:23">
       <c r="B60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="60">
+      <c r="C60" s="100">
         <v>466901</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="102">
         <v>487011</v>
       </c>
-      <c r="E60" s="60">
+      <c r="E60" s="100">
         <v>459958</v>
       </c>
-      <c r="F60" s="62">
+      <c r="F60" s="102">
         <v>484212</v>
       </c>
-      <c r="G60" s="60">
+      <c r="G60" s="100">
         <v>436646</v>
       </c>
-      <c r="H60" s="62">
+      <c r="H60" s="102">
         <v>465264</v>
       </c>
       <c r="M60" s="11"/>
@@ -5207,279 +5207,279 @@
       <c r="B61" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="63"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="108"/>
       <c r="U61" s="30"/>
     </row>
     <row r="62" spans="2:23">
       <c r="B62" s="4"/>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="87" t="s">
+      <c r="D62" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="85" t="s">
+      <c r="E62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="85" t="s">
+      <c r="G62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="87" t="s">
+      <c r="H62" s="93" t="s">
         <v>22</v>
       </c>
       <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="2:23">
       <c r="B63" s="4"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="88"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="94"/>
     </row>
     <row r="64" spans="2:23">
       <c r="B64" s="4"/>
-      <c r="C64" s="60">
+      <c r="C64" s="100">
         <v>1596320</v>
       </c>
-      <c r="D64" s="62">
+      <c r="D64" s="102">
         <v>1665074</v>
       </c>
-      <c r="E64" s="60">
+      <c r="E64" s="100">
         <v>1572582</v>
       </c>
-      <c r="F64" s="62">
+      <c r="F64" s="102">
         <v>1655503</v>
       </c>
-      <c r="G64" s="60">
+      <c r="G64" s="100">
         <v>1492878</v>
       </c>
-      <c r="H64" s="62">
+      <c r="H64" s="102">
         <v>1590722</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="63"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="108"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4"/>
-      <c r="C66" s="91">
+      <c r="C66" s="96">
         <v>0.39</v>
       </c>
-      <c r="D66" s="93">
+      <c r="D66" s="98">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E66" s="91">
+      <c r="E66" s="96">
         <v>0.39700000000000002</v>
       </c>
-      <c r="F66" s="93">
+      <c r="F66" s="98">
         <v>0.31</v>
       </c>
-      <c r="G66" s="91">
+      <c r="G66" s="96">
         <v>0.42099999999999999</v>
       </c>
-      <c r="H66" s="93">
+      <c r="H66" s="98">
         <v>0.312</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="94"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="99"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4"/>
-      <c r="C68" s="60">
+      <c r="C68" s="100">
         <v>8756</v>
       </c>
-      <c r="D68" s="62">
+      <c r="D68" s="102">
         <v>10458</v>
       </c>
-      <c r="E68" s="60">
+      <c r="E68" s="100">
         <v>8585</v>
       </c>
-      <c r="F68" s="62">
+      <c r="F68" s="102">
         <v>10998</v>
       </c>
-      <c r="G68" s="60">
+      <c r="G68" s="100">
         <v>8099</v>
       </c>
-      <c r="H68" s="62">
+      <c r="H68" s="102">
         <v>10924</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="16.5" thickBot="1">
       <c r="B69" s="5"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="90"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="103"/>
     </row>
     <row r="70" spans="2:8" ht="33" customHeight="1">
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="96">
+      <c r="C70" s="89">
         <v>7.6</v>
       </c>
-      <c r="D70" s="97">
+      <c r="D70" s="95">
         <v>10.7</v>
       </c>
-      <c r="E70" s="96">
+      <c r="E70" s="89">
         <v>7</v>
       </c>
-      <c r="F70" s="97">
+      <c r="F70" s="95">
         <v>11.1</v>
       </c>
-      <c r="G70" s="96">
+      <c r="G70" s="89">
         <v>6.6</v>
       </c>
-      <c r="H70" s="97">
+      <c r="H70" s="95">
         <v>11.3</v>
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="95"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="88"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="94"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="95"/>
-      <c r="C72" s="85">
+      <c r="B72" s="105"/>
+      <c r="C72" s="91">
         <v>1.6</v>
       </c>
-      <c r="D72" s="87">
+      <c r="D72" s="93">
         <v>2</v>
       </c>
-      <c r="E72" s="85">
+      <c r="E72" s="91">
         <v>1.4</v>
       </c>
-      <c r="F72" s="87">
+      <c r="F72" s="93">
         <v>2.1</v>
       </c>
-      <c r="G72" s="85">
+      <c r="G72" s="91">
         <v>1.2</v>
       </c>
-      <c r="H72" s="87">
+      <c r="H72" s="93">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="95"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="88"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="94"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="95"/>
-      <c r="C74" s="85">
+      <c r="B74" s="105"/>
+      <c r="C74" s="91">
         <v>6</v>
       </c>
-      <c r="D74" s="87">
+      <c r="D74" s="93">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E74" s="85">
+      <c r="E74" s="91">
         <v>5.5</v>
       </c>
-      <c r="F74" s="87">
+      <c r="F74" s="93">
         <v>9</v>
       </c>
-      <c r="G74" s="85">
+      <c r="G74" s="91">
         <v>5.3</v>
       </c>
-      <c r="H74" s="87">
+      <c r="H74" s="93">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B75" s="76"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="99"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="82"/>
     </row>
     <row r="76" spans="2:8" ht="48">
       <c r="B76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="96">
+      <c r="C76" s="89">
         <v>197</v>
       </c>
-      <c r="D76" s="97">
+      <c r="D76" s="95">
         <v>20</v>
       </c>
-      <c r="E76" s="96">
+      <c r="E76" s="89">
         <v>199</v>
       </c>
-      <c r="F76" s="97">
+      <c r="F76" s="95">
         <v>20</v>
       </c>
-      <c r="G76" s="96">
+      <c r="G76" s="89">
         <v>197</v>
       </c>
-      <c r="H76" s="97">
+      <c r="H76" s="95">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="88"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="94"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="60">
+      <c r="C78" s="100">
         <v>1434</v>
       </c>
-      <c r="D78" s="87">
+      <c r="D78" s="93">
         <v>152</v>
       </c>
-      <c r="E78" s="60">
+      <c r="E78" s="100">
         <v>1448</v>
       </c>
-      <c r="F78" s="87">
+      <c r="F78" s="93">
         <v>158</v>
       </c>
-      <c r="G78" s="60">
+      <c r="G78" s="100">
         <v>1361</v>
       </c>
-      <c r="H78" s="87">
+      <c r="H78" s="93">
         <v>161</v>
       </c>
     </row>
@@ -5487,794 +5487,794 @@
       <c r="B79" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="88"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="94"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4"/>
-      <c r="C80" s="60">
+      <c r="C80" s="100">
         <v>1723</v>
       </c>
-      <c r="D80" s="87">
+      <c r="D80" s="93">
         <v>206</v>
       </c>
-      <c r="E80" s="60">
+      <c r="E80" s="100">
         <v>1710</v>
       </c>
-      <c r="F80" s="87">
+      <c r="F80" s="93">
         <v>217</v>
       </c>
-      <c r="G80" s="60">
+      <c r="G80" s="100">
         <v>1595</v>
       </c>
-      <c r="H80" s="87">
+      <c r="H80" s="93">
         <v>218</v>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="4"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="88"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="88"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="94"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="94"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="4"/>
-      <c r="C82" s="85">
+      <c r="C82" s="91">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D82" s="87">
+      <c r="D82" s="93">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E82" s="85">
+      <c r="E82" s="91">
         <v>1.17E-2</v>
       </c>
-      <c r="F82" s="87">
+      <c r="F82" s="93">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="G82" s="85">
+      <c r="G82" s="91">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H82" s="87">
+      <c r="H82" s="93">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="4"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="86"/>
-      <c r="H83" s="88"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="94"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="4"/>
-      <c r="C84" s="85">
+      <c r="C84" s="91">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D84" s="87">
+      <c r="D84" s="93">
         <v>1.66E-2</v>
       </c>
-      <c r="E84" s="85">
+      <c r="E84" s="91">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="F84" s="87">
+      <c r="F84" s="93">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="G84" s="85">
+      <c r="G84" s="91">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H84" s="87">
+      <c r="H84" s="93">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="4"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="88"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="94"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="4"/>
-      <c r="C86" s="85">
+      <c r="C86" s="91">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D86" s="87">
+      <c r="D86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E86" s="85">
+      <c r="E86" s="91">
         <v>0.06</v>
       </c>
-      <c r="F86" s="87">
+      <c r="F86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G86" s="85">
+      <c r="G86" s="91">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H86" s="87">
+      <c r="H86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="4"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="88"/>
-      <c r="G87" s="86"/>
-      <c r="H87" s="88"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="94"/>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="4"/>
-      <c r="C88" s="85">
+      <c r="C88" s="91">
         <v>0.43</v>
       </c>
-      <c r="D88" s="87">
+      <c r="D88" s="93">
         <v>0.376</v>
       </c>
-      <c r="E88" s="85">
+      <c r="E88" s="91">
         <v>0.434</v>
       </c>
-      <c r="F88" s="87">
+      <c r="F88" s="93">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G88" s="85">
+      <c r="G88" s="91">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H88" s="87">
+      <c r="H88" s="93">
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="4"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="88"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="94"/>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="4"/>
-      <c r="C90" s="85">
+      <c r="C90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D90" s="87">
+      <c r="D90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E90" s="85">
+      <c r="E90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="F90" s="87">
+      <c r="F90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G90" s="85">
+      <c r="G90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="H90" s="87">
+      <c r="H90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="4"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="88"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="94"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="4"/>
-      <c r="C92" s="85">
+      <c r="C92" s="91">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D92" s="87">
+      <c r="D92" s="93">
         <v>5.5E-2</v>
       </c>
-      <c r="E92" s="85">
+      <c r="E92" s="91">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F92" s="87">
+      <c r="F92" s="93">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G92" s="85">
+      <c r="G92" s="91">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H92" s="87">
+      <c r="H92" s="93">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="4"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="88"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="88"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="94"/>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="4"/>
-      <c r="C94" s="85">
+      <c r="C94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D94" s="87">
+      <c r="D94" s="93">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E94" s="85">
+      <c r="E94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="F94" s="87">
+      <c r="F94" s="93">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G94" s="85">
+      <c r="G94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="H94" s="87">
+      <c r="H94" s="93">
         <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="4"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="86"/>
-      <c r="H95" s="88"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="94"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="94"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="94"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="4"/>
-      <c r="C96" s="100">
+      <c r="C96" s="129">
         <v>4.16E-6</v>
       </c>
-      <c r="D96" s="102">
+      <c r="D96" s="131">
         <v>4.42E-6</v>
       </c>
-      <c r="E96" s="100">
+      <c r="E96" s="129">
         <v>4.1500000000000001E-6</v>
       </c>
-      <c r="F96" s="102">
+      <c r="F96" s="131">
         <v>4.5900000000000001E-6</v>
       </c>
-      <c r="G96" s="100">
+      <c r="G96" s="129">
         <v>3.9500000000000003E-6</v>
       </c>
-      <c r="H96" s="102">
+      <c r="H96" s="131">
         <v>4.6099999999999999E-6</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="16.5" thickBot="1">
       <c r="B97" s="5"/>
-      <c r="C97" s="101"/>
-      <c r="D97" s="103"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="103"/>
-      <c r="G97" s="101"/>
-      <c r="H97" s="103"/>
+      <c r="C97" s="130"/>
+      <c r="D97" s="132"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="132"/>
+      <c r="G97" s="130"/>
+      <c r="H97" s="132"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="104" t="s">
+      <c r="B98" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="105"/>
-      <c r="D98" s="105"/>
-      <c r="E98" s="105"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="106"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="84"/>
+      <c r="G98" s="84"/>
+      <c r="H98" s="85"/>
     </row>
     <row r="99" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B99" s="107"/>
-      <c r="C99" s="108"/>
-      <c r="D99" s="108"/>
-      <c r="E99" s="108"/>
-      <c r="F99" s="108"/>
-      <c r="G99" s="108"/>
-      <c r="H99" s="109"/>
+      <c r="B99" s="86"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="87"/>
+      <c r="E99" s="87"/>
+      <c r="F99" s="87"/>
+      <c r="G99" s="87"/>
+      <c r="H99" s="88"/>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="81">
+      <c r="C100" s="109">
         <v>1987</v>
       </c>
-      <c r="D100" s="82">
+      <c r="D100" s="90">
         <v>2711</v>
       </c>
-      <c r="E100" s="81">
+      <c r="E100" s="109">
         <v>1913</v>
       </c>
-      <c r="F100" s="82">
+      <c r="F100" s="90">
         <v>2817</v>
       </c>
-      <c r="G100" s="81">
+      <c r="G100" s="109">
         <v>2217</v>
       </c>
-      <c r="H100" s="82">
+      <c r="H100" s="90">
         <v>3181</v>
       </c>
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="2"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="63"/>
+      <c r="C101" s="107"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="107"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="107"/>
+      <c r="H101" s="108"/>
     </row>
     <row r="102" spans="2:9" ht="21">
       <c r="B102" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="60">
+      <c r="C102" s="100">
         <v>2447</v>
       </c>
-      <c r="D102" s="62">
+      <c r="D102" s="102">
         <v>3334</v>
       </c>
-      <c r="E102" s="60">
+      <c r="E102" s="100">
         <v>2351</v>
       </c>
-      <c r="F102" s="62">
+      <c r="F102" s="102">
         <v>3466</v>
       </c>
-      <c r="G102" s="60">
+      <c r="G102" s="100">
         <v>2716</v>
       </c>
-      <c r="H102" s="62">
+      <c r="H102" s="102">
         <v>3904</v>
       </c>
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="2"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="63"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="107"/>
+      <c r="H103" s="108"/>
     </row>
     <row r="104" spans="2:9" ht="24">
       <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="60">
+      <c r="C104" s="100">
         <v>1528</v>
       </c>
-      <c r="D104" s="62">
+      <c r="D104" s="102">
         <v>2032</v>
       </c>
-      <c r="E104" s="60">
+      <c r="E104" s="100">
         <v>1470</v>
       </c>
-      <c r="F104" s="62">
+      <c r="F104" s="102">
         <v>2113</v>
       </c>
-      <c r="G104" s="60">
+      <c r="G104" s="100">
         <v>1695</v>
       </c>
-      <c r="H104" s="62">
+      <c r="H104" s="102">
         <v>2385</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2"/>
-      <c r="C105" s="61"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="63"/>
+      <c r="C105" s="107"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="107"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="107"/>
+      <c r="H105" s="108"/>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="85">
+      <c r="C106" s="91">
         <v>144</v>
       </c>
-      <c r="D106" s="87">
+      <c r="D106" s="93">
         <v>191</v>
       </c>
-      <c r="E106" s="85">
+      <c r="E106" s="91">
         <v>138</v>
       </c>
-      <c r="F106" s="87">
+      <c r="F106" s="93">
         <v>199</v>
       </c>
-      <c r="G106" s="85">
+      <c r="G106" s="91">
         <v>156</v>
       </c>
-      <c r="H106" s="87">
+      <c r="H106" s="93">
         <v>221</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="2"/>
-      <c r="C107" s="86"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="86"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="88"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="94"/>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="85">
+      <c r="C108" s="91">
         <v>265</v>
       </c>
-      <c r="D108" s="87">
+      <c r="D108" s="93">
         <v>369</v>
       </c>
-      <c r="E108" s="85">
+      <c r="E108" s="91">
         <v>256</v>
       </c>
-      <c r="F108" s="87">
+      <c r="F108" s="93">
         <v>385</v>
       </c>
-      <c r="G108" s="85">
+      <c r="G108" s="91">
         <v>302</v>
       </c>
-      <c r="H108" s="87">
+      <c r="H108" s="93">
         <v>444</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="2"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="86"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="88"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="92"/>
+      <c r="F109" s="94"/>
+      <c r="G109" s="92"/>
+      <c r="H109" s="94"/>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="2"/>
-      <c r="C110" s="85">
+      <c r="C110" s="91">
         <v>50</v>
       </c>
-      <c r="D110" s="87">
+      <c r="D110" s="93">
         <v>119</v>
       </c>
-      <c r="E110" s="85">
+      <c r="E110" s="91">
         <v>50</v>
       </c>
-      <c r="F110" s="87">
+      <c r="F110" s="93">
         <v>120</v>
       </c>
-      <c r="G110" s="85">
+      <c r="G110" s="91">
         <v>63</v>
       </c>
-      <c r="H110" s="87">
+      <c r="H110" s="93">
         <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="2"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="88"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="94"/>
+      <c r="E111" s="92"/>
+      <c r="F111" s="94"/>
+      <c r="G111" s="92"/>
+      <c r="H111" s="94"/>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="2"/>
-      <c r="C112" s="85">
+      <c r="C112" s="91">
         <v>460</v>
       </c>
-      <c r="D112" s="87">
+      <c r="D112" s="93">
         <v>623</v>
       </c>
-      <c r="E112" s="85">
+      <c r="E112" s="91">
         <v>438</v>
       </c>
-      <c r="F112" s="87">
+      <c r="F112" s="93">
         <v>649</v>
       </c>
-      <c r="G112" s="85">
+      <c r="G112" s="91">
         <v>500</v>
       </c>
-      <c r="H112" s="87">
+      <c r="H112" s="93">
         <v>723</v>
       </c>
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="2"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="86"/>
-      <c r="H113" s="88"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="92"/>
+      <c r="F113" s="94"/>
+      <c r="G113" s="92"/>
+      <c r="H113" s="94"/>
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="2"/>
-      <c r="C114" s="60">
+      <c r="C114" s="100">
         <v>1521880</v>
       </c>
-      <c r="D114" s="62">
+      <c r="D114" s="102">
         <v>1811411</v>
       </c>
-      <c r="E114" s="60">
+      <c r="E114" s="100">
         <v>1469577</v>
       </c>
-      <c r="F114" s="62">
+      <c r="F114" s="102">
         <v>1780290</v>
       </c>
-      <c r="G114" s="60">
+      <c r="G114" s="100">
         <v>1708524</v>
       </c>
-      <c r="H114" s="62">
+      <c r="H114" s="102">
         <v>1939878</v>
       </c>
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="2"/>
-      <c r="C115" s="61"/>
-      <c r="D115" s="63"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="63"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="63"/>
+      <c r="C115" s="107"/>
+      <c r="D115" s="108"/>
+      <c r="E115" s="107"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="107"/>
+      <c r="H115" s="108"/>
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="2"/>
-      <c r="C116" s="60">
+      <c r="C116" s="100">
         <v>2789</v>
       </c>
-      <c r="D116" s="62">
+      <c r="D116" s="102">
         <v>3801</v>
       </c>
-      <c r="E116" s="60">
+      <c r="E116" s="100">
         <v>2680</v>
       </c>
-      <c r="F116" s="62">
+      <c r="F116" s="102">
         <v>3952</v>
       </c>
-      <c r="G116" s="60">
+      <c r="G116" s="100">
         <v>3097</v>
       </c>
-      <c r="H116" s="62">
+      <c r="H116" s="102">
         <v>4451</v>
       </c>
     </row>
     <row r="117" spans="2:8">
       <c r="B117" s="2"/>
-      <c r="C117" s="61"/>
-      <c r="D117" s="63"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="63"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="63"/>
+      <c r="C117" s="107"/>
+      <c r="D117" s="108"/>
+      <c r="E117" s="107"/>
+      <c r="F117" s="108"/>
+      <c r="G117" s="107"/>
+      <c r="H117" s="108"/>
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="2"/>
-      <c r="C118" s="85">
+      <c r="C118" s="91">
         <v>76.3</v>
       </c>
-      <c r="D118" s="87">
+      <c r="D118" s="93">
         <v>105.6</v>
       </c>
-      <c r="E118" s="85">
+      <c r="E118" s="91">
         <v>74</v>
       </c>
-      <c r="F118" s="87">
+      <c r="F118" s="93">
         <v>110.3</v>
       </c>
-      <c r="G118" s="85">
+      <c r="G118" s="91">
         <v>81.3</v>
       </c>
-      <c r="H118" s="87">
+      <c r="H118" s="93">
         <v>119.4</v>
       </c>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="2"/>
-      <c r="C119" s="86"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="86"/>
-      <c r="H119" s="88"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="92"/>
+      <c r="F119" s="94"/>
+      <c r="G119" s="92"/>
+      <c r="H119" s="94"/>
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="2"/>
-      <c r="C120" s="110">
+      <c r="C120" s="125">
         <v>0</v>
       </c>
-      <c r="D120" s="112">
+      <c r="D120" s="127">
         <v>5.2</v>
       </c>
-      <c r="E120" s="110">
+      <c r="E120" s="125">
         <v>0</v>
       </c>
-      <c r="F120" s="112">
+      <c r="F120" s="127">
         <v>5.5</v>
       </c>
-      <c r="G120" s="110">
+      <c r="G120" s="125">
         <v>0</v>
       </c>
-      <c r="H120" s="112">
+      <c r="H120" s="127">
         <v>5.6</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="2"/>
-      <c r="C121" s="111"/>
-      <c r="D121" s="113"/>
-      <c r="E121" s="111"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="111"/>
-      <c r="H121" s="113"/>
+      <c r="C121" s="126"/>
+      <c r="D121" s="128"/>
+      <c r="E121" s="126"/>
+      <c r="F121" s="128"/>
+      <c r="G121" s="126"/>
+      <c r="H121" s="128"/>
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="2"/>
-      <c r="C122" s="110">
+      <c r="C122" s="125">
         <v>14.3</v>
       </c>
-      <c r="D122" s="112">
+      <c r="D122" s="127">
         <v>17.100000000000001</v>
       </c>
-      <c r="E122" s="110">
+      <c r="E122" s="125">
         <v>14</v>
       </c>
-      <c r="F122" s="112">
+      <c r="F122" s="127">
         <v>18</v>
       </c>
-      <c r="G122" s="110">
+      <c r="G122" s="125">
         <v>13.3</v>
       </c>
-      <c r="H122" s="112">
+      <c r="H122" s="127">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="123" spans="2:8">
       <c r="B123" s="2"/>
-      <c r="C123" s="111"/>
-      <c r="D123" s="113"/>
-      <c r="E123" s="111"/>
-      <c r="F123" s="113"/>
-      <c r="G123" s="111"/>
-      <c r="H123" s="113"/>
+      <c r="C123" s="126"/>
+      <c r="D123" s="128"/>
+      <c r="E123" s="126"/>
+      <c r="F123" s="128"/>
+      <c r="G123" s="126"/>
+      <c r="H123" s="128"/>
     </row>
     <row r="124" spans="2:8">
       <c r="B124" s="2"/>
-      <c r="C124" s="110">
+      <c r="C124" s="125">
         <v>7.3</v>
       </c>
-      <c r="D124" s="112">
+      <c r="D124" s="127">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E124" s="110">
+      <c r="E124" s="125">
         <v>7.2</v>
       </c>
-      <c r="F124" s="112">
+      <c r="F124" s="127">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G124" s="110">
+      <c r="G124" s="125">
         <v>7.8</v>
       </c>
-      <c r="H124" s="112">
+      <c r="H124" s="127">
         <v>9.9</v>
       </c>
     </row>
     <row r="125" spans="2:8">
       <c r="B125" s="2"/>
-      <c r="C125" s="111"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="113"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="113"/>
+      <c r="C125" s="126"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="126"/>
+      <c r="F125" s="128"/>
+      <c r="G125" s="126"/>
+      <c r="H125" s="128"/>
     </row>
     <row r="126" spans="2:8">
       <c r="B126" s="2"/>
-      <c r="C126" s="110">
+      <c r="C126" s="125">
         <v>11.3</v>
       </c>
-      <c r="D126" s="112">
+      <c r="D126" s="127">
         <v>14.8</v>
       </c>
-      <c r="E126" s="110">
+      <c r="E126" s="125">
         <v>11.1</v>
       </c>
-      <c r="F126" s="112">
+      <c r="F126" s="127">
         <v>15.5</v>
       </c>
-      <c r="G126" s="110">
+      <c r="G126" s="125">
         <v>12.1</v>
       </c>
-      <c r="H126" s="112">
+      <c r="H126" s="127">
         <v>16.7</v>
       </c>
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="2"/>
-      <c r="C127" s="111"/>
-      <c r="D127" s="113"/>
-      <c r="E127" s="111"/>
-      <c r="F127" s="113"/>
-      <c r="G127" s="111"/>
-      <c r="H127" s="113"/>
+      <c r="C127" s="126"/>
+      <c r="D127" s="128"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="128"/>
+      <c r="G127" s="126"/>
+      <c r="H127" s="128"/>
     </row>
     <row r="128" spans="2:8">
       <c r="B128" s="2"/>
-      <c r="C128" s="110">
+      <c r="C128" s="125">
         <v>43.4</v>
       </c>
-      <c r="D128" s="112">
+      <c r="D128" s="127">
         <v>59.1</v>
       </c>
-      <c r="E128" s="110">
+      <c r="E128" s="125">
         <v>41.7</v>
       </c>
-      <c r="F128" s="112">
+      <c r="F128" s="127">
         <v>61.5</v>
       </c>
-      <c r="G128" s="110">
+      <c r="G128" s="125">
         <v>48.2</v>
       </c>
-      <c r="H128" s="112">
+      <c r="H128" s="127">
         <v>69.2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" s="2"/>
-      <c r="C129" s="111"/>
-      <c r="D129" s="113"/>
-      <c r="E129" s="111"/>
-      <c r="F129" s="113"/>
-      <c r="G129" s="111"/>
-      <c r="H129" s="113"/>
+      <c r="C129" s="126"/>
+      <c r="D129" s="128"/>
+      <c r="E129" s="126"/>
+      <c r="F129" s="128"/>
+      <c r="G129" s="126"/>
+      <c r="H129" s="128"/>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" s="2"/>
-      <c r="C130" s="85">
+      <c r="C130" s="91">
         <v>96.7</v>
       </c>
-      <c r="D130" s="87">
+      <c r="D130" s="93">
         <v>133.9</v>
       </c>
-      <c r="E130" s="85">
+      <c r="E130" s="91">
         <v>93.8</v>
       </c>
-      <c r="F130" s="87">
+      <c r="F130" s="93">
         <v>139.9</v>
       </c>
-      <c r="G130" s="85">
+      <c r="G130" s="91">
         <v>103.1</v>
       </c>
-      <c r="H130" s="87">
+      <c r="H130" s="93">
         <v>151.4</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" thickBot="1">
       <c r="B131" s="3"/>
-      <c r="C131" s="98"/>
-      <c r="D131" s="99"/>
-      <c r="E131" s="98"/>
-      <c r="F131" s="99"/>
-      <c r="G131" s="98"/>
-      <c r="H131" s="99"/>
+      <c r="C131" s="81"/>
+      <c r="D131" s="82"/>
+      <c r="E131" s="81"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="81"/>
+      <c r="H131" s="82"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
@@ -6285,101 +6285,101 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="B134" s="64"/>
-      <c r="C134" s="67" t="s">
+      <c r="B134" s="110"/>
+      <c r="C134" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="D134" s="68"/>
-      <c r="E134" s="68"/>
-      <c r="F134" s="69"/>
+      <c r="D134" s="133"/>
+      <c r="E134" s="133"/>
+      <c r="F134" s="114"/>
     </row>
     <row r="135" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B135" s="65"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="71"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="72"/>
+      <c r="B135" s="111"/>
+      <c r="C135" s="115"/>
+      <c r="D135" s="134"/>
+      <c r="E135" s="134"/>
+      <c r="F135" s="116"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="B136" s="65"/>
-      <c r="C136" s="73" t="s">
+      <c r="B136" s="111"/>
+      <c r="C136" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="74"/>
-      <c r="E136" s="73" t="s">
+      <c r="D136" s="118"/>
+      <c r="E136" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="F136" s="74"/>
+      <c r="F136" s="118"/>
     </row>
     <row r="137" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B137" s="66"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="70"/>
-      <c r="F137" s="72"/>
+      <c r="B137" s="112"/>
+      <c r="C137" s="115"/>
+      <c r="D137" s="116"/>
+      <c r="E137" s="115"/>
+      <c r="F137" s="116"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="B138" s="75" t="s">
+      <c r="B138" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="83" t="s">
+      <c r="C138" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="75" t="s">
+      <c r="D138" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="E138" s="83" t="s">
+      <c r="E138" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="F138" s="75" t="s">
+      <c r="F138" s="104" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B139" s="76"/>
-      <c r="C139" s="84"/>
-      <c r="D139" s="76"/>
-      <c r="E139" s="84"/>
-      <c r="F139" s="76"/>
+      <c r="B139" s="106"/>
+      <c r="C139" s="120"/>
+      <c r="D139" s="106"/>
+      <c r="E139" s="120"/>
+      <c r="F139" s="106"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="B140" s="75" t="s">
+      <c r="B140" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C140" s="77">
+      <c r="C140" s="121">
         <v>0</v>
       </c>
-      <c r="D140" s="79">
+      <c r="D140" s="123">
         <v>0.9</v>
       </c>
-      <c r="E140" s="77">
+      <c r="E140" s="121">
         <v>0</v>
       </c>
-      <c r="F140" s="79">
+      <c r="F140" s="123">
         <v>0.9</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B141" s="76"/>
-      <c r="C141" s="78"/>
-      <c r="D141" s="80"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="80"/>
+      <c r="B141" s="106"/>
+      <c r="C141" s="122"/>
+      <c r="D141" s="124"/>
+      <c r="E141" s="122"/>
+      <c r="F141" s="124"/>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="81">
+      <c r="C142" s="109">
         <v>582600</v>
       </c>
-      <c r="D142" s="82">
+      <c r="D142" s="90">
         <v>672700</v>
       </c>
-      <c r="E142" s="81">
+      <c r="E142" s="109">
         <v>580400</v>
       </c>
-      <c r="F142" s="82">
+      <c r="F142" s="90">
         <v>662800</v>
       </c>
     </row>
@@ -6387,25 +6387,25 @@
       <c r="B143" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="61"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="63"/>
+      <c r="C143" s="107"/>
+      <c r="D143" s="108"/>
+      <c r="E143" s="107"/>
+      <c r="F143" s="108"/>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="60">
+      <c r="C144" s="100">
         <v>32580</v>
       </c>
-      <c r="D144" s="62">
+      <c r="D144" s="102">
         <v>122740</v>
       </c>
-      <c r="E144" s="60">
+      <c r="E144" s="100">
         <v>30410</v>
       </c>
-      <c r="F144" s="62">
+      <c r="F144" s="102">
         <v>112830</v>
       </c>
     </row>
@@ -6413,25 +6413,25 @@
       <c r="B145" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="61"/>
-      <c r="D145" s="63"/>
-      <c r="E145" s="61"/>
-      <c r="F145" s="63"/>
+      <c r="C145" s="107"/>
+      <c r="D145" s="108"/>
+      <c r="E145" s="107"/>
+      <c r="F145" s="108"/>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="60">
+      <c r="C146" s="100">
         <v>550020</v>
       </c>
-      <c r="D146" s="62">
+      <c r="D146" s="102">
         <v>549960</v>
       </c>
-      <c r="E146" s="60">
+      <c r="E146" s="100">
         <v>549990</v>
       </c>
-      <c r="F146" s="62">
+      <c r="F146" s="102">
         <v>549970</v>
       </c>
     </row>
@@ -6439,229 +6439,229 @@
       <c r="B147" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C147" s="61"/>
-      <c r="D147" s="63"/>
-      <c r="E147" s="61"/>
-      <c r="F147" s="63"/>
+      <c r="C147" s="107"/>
+      <c r="D147" s="108"/>
+      <c r="E147" s="107"/>
+      <c r="F147" s="108"/>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C148" s="60">
+      <c r="C148" s="100">
         <v>437378</v>
       </c>
-      <c r="D148" s="62">
+      <c r="D148" s="102">
         <v>614994</v>
       </c>
-      <c r="E148" s="60">
+      <c r="E148" s="100">
         <v>409528</v>
       </c>
-      <c r="F148" s="62">
+      <c r="F148" s="102">
         <v>565820</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="4"/>
-      <c r="C149" s="61"/>
-      <c r="D149" s="63"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="63"/>
+      <c r="C149" s="107"/>
+      <c r="D149" s="108"/>
+      <c r="E149" s="107"/>
+      <c r="F149" s="108"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="4"/>
-      <c r="C150" s="85" t="s">
+      <c r="C150" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="87" t="s">
+      <c r="D150" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E150" s="85" t="s">
+      <c r="E150" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F150" s="87" t="s">
+      <c r="F150" s="93" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="4"/>
-      <c r="C151" s="86"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="86"/>
-      <c r="F151" s="88"/>
+      <c r="C151" s="92"/>
+      <c r="D151" s="94"/>
+      <c r="E151" s="92"/>
+      <c r="F151" s="94"/>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="4"/>
-      <c r="C152" s="60">
+      <c r="C152" s="100">
         <v>1495379</v>
       </c>
-      <c r="D152" s="62">
+      <c r="D152" s="102">
         <v>2102643</v>
       </c>
-      <c r="E152" s="60">
+      <c r="E152" s="100">
         <v>1400162</v>
       </c>
-      <c r="F152" s="62">
+      <c r="F152" s="102">
         <v>1934519</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="4"/>
-      <c r="C153" s="61"/>
-      <c r="D153" s="63"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="63"/>
+      <c r="C153" s="107"/>
+      <c r="D153" s="108"/>
+      <c r="E153" s="107"/>
+      <c r="F153" s="108"/>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="4"/>
-      <c r="C154" s="91">
+      <c r="C154" s="96">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D154" s="93">
+      <c r="D154" s="98">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E154" s="91">
+      <c r="E154" s="96">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F154" s="93">
+      <c r="F154" s="98">
         <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="4"/>
-      <c r="C155" s="92"/>
-      <c r="D155" s="94"/>
-      <c r="E155" s="92"/>
-      <c r="F155" s="94"/>
+      <c r="C155" s="97"/>
+      <c r="D155" s="99"/>
+      <c r="E155" s="97"/>
+      <c r="F155" s="99"/>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="4"/>
-      <c r="C156" s="60">
+      <c r="C156" s="100">
         <v>9277</v>
       </c>
-      <c r="D156" s="62">
+      <c r="D156" s="102">
         <v>13046</v>
       </c>
-      <c r="E156" s="60">
+      <c r="E156" s="100">
         <v>8687</v>
       </c>
-      <c r="F156" s="62">
+      <c r="F156" s="102">
         <v>12002</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="16.5" thickBot="1">
       <c r="B157" s="5"/>
-      <c r="C157" s="89"/>
-      <c r="D157" s="90"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="90"/>
+      <c r="C157" s="101"/>
+      <c r="D157" s="103"/>
+      <c r="E157" s="101"/>
+      <c r="F157" s="103"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="75" t="s">
+      <c r="B158" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C158" s="96">
+      <c r="C158" s="89">
         <v>10.7</v>
       </c>
-      <c r="D158" s="97">
+      <c r="D158" s="95">
         <v>20.399999999999999</v>
       </c>
-      <c r="E158" s="96">
+      <c r="E158" s="89">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F158" s="97">
+      <c r="F158" s="95">
         <v>18.3</v>
       </c>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="95"/>
-      <c r="C159" s="86"/>
-      <c r="D159" s="88"/>
-      <c r="E159" s="86"/>
-      <c r="F159" s="88"/>
+      <c r="B159" s="105"/>
+      <c r="C159" s="92"/>
+      <c r="D159" s="94"/>
+      <c r="E159" s="92"/>
+      <c r="F159" s="94"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="95"/>
-      <c r="C160" s="85">
+      <c r="B160" s="105"/>
+      <c r="C160" s="91">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D160" s="87">
+      <c r="D160" s="93">
         <v>4.7</v>
       </c>
-      <c r="E160" s="85">
+      <c r="E160" s="91">
         <v>2</v>
       </c>
-      <c r="F160" s="87">
+      <c r="F160" s="93">
         <v>4.3</v>
       </c>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="95"/>
-      <c r="C161" s="86"/>
-      <c r="D161" s="88"/>
-      <c r="E161" s="86"/>
-      <c r="F161" s="88"/>
+      <c r="B161" s="105"/>
+      <c r="C161" s="92"/>
+      <c r="D161" s="94"/>
+      <c r="E161" s="92"/>
+      <c r="F161" s="94"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="95"/>
-      <c r="C162" s="85">
+      <c r="B162" s="105"/>
+      <c r="C162" s="91">
         <v>8.5</v>
       </c>
-      <c r="D162" s="87">
+      <c r="D162" s="93">
         <v>15.7</v>
       </c>
-      <c r="E162" s="85">
+      <c r="E162" s="91">
         <v>7.7</v>
       </c>
-      <c r="F162" s="87">
+      <c r="F162" s="93">
         <v>14.1</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B163" s="76"/>
-      <c r="C163" s="98"/>
-      <c r="D163" s="99"/>
-      <c r="E163" s="98"/>
-      <c r="F163" s="99"/>
+      <c r="B163" s="106"/>
+      <c r="C163" s="81"/>
+      <c r="D163" s="82"/>
+      <c r="E163" s="81"/>
+      <c r="F163" s="82"/>
     </row>
     <row r="164" spans="2:6" ht="48">
       <c r="B164" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C164" s="96">
+      <c r="C164" s="89">
         <v>204</v>
       </c>
-      <c r="D164" s="97">
+      <c r="D164" s="95">
         <v>20</v>
       </c>
-      <c r="E164" s="96">
+      <c r="E164" s="89">
         <v>204</v>
       </c>
-      <c r="F164" s="97">
+      <c r="F164" s="95">
         <v>20</v>
       </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="4"/>
-      <c r="C165" s="86"/>
-      <c r="D165" s="88"/>
-      <c r="E165" s="86"/>
-      <c r="F165" s="88"/>
+      <c r="C165" s="92"/>
+      <c r="D165" s="94"/>
+      <c r="E165" s="92"/>
+      <c r="F165" s="94"/>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="60">
+      <c r="C166" s="100">
         <v>1783</v>
       </c>
-      <c r="D166" s="87">
+      <c r="D166" s="93">
         <v>217</v>
       </c>
-      <c r="E166" s="60">
+      <c r="E166" s="100">
         <v>1675</v>
       </c>
-      <c r="F166" s="87">
+      <c r="F166" s="93">
         <v>203</v>
       </c>
     </row>
@@ -6669,586 +6669,586 @@
       <c r="B167" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C167" s="61"/>
-      <c r="D167" s="88"/>
-      <c r="E167" s="61"/>
-      <c r="F167" s="88"/>
+      <c r="C167" s="107"/>
+      <c r="D167" s="94"/>
+      <c r="E167" s="107"/>
+      <c r="F167" s="94"/>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="4"/>
-      <c r="C168" s="60">
+      <c r="C168" s="100">
         <v>1888</v>
       </c>
-      <c r="D168" s="87">
+      <c r="D168" s="93">
         <v>266</v>
       </c>
-      <c r="E168" s="60">
+      <c r="E168" s="100">
         <v>1768</v>
       </c>
-      <c r="F168" s="87">
+      <c r="F168" s="93">
         <v>244</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="4"/>
-      <c r="C169" s="61"/>
-      <c r="D169" s="88"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="88"/>
+      <c r="C169" s="107"/>
+      <c r="D169" s="94"/>
+      <c r="E169" s="107"/>
+      <c r="F169" s="94"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="4"/>
-      <c r="C170" s="85">
+      <c r="C170" s="91">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="D170" s="87">
+      <c r="D170" s="93">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E170" s="85">
+      <c r="E170" s="91">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F170" s="87">
+      <c r="F170" s="93">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="4"/>
-      <c r="C171" s="86"/>
-      <c r="D171" s="88"/>
-      <c r="E171" s="86"/>
-      <c r="F171" s="88"/>
+      <c r="C171" s="92"/>
+      <c r="D171" s="94"/>
+      <c r="E171" s="92"/>
+      <c r="F171" s="94"/>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="4"/>
-      <c r="C172" s="85">
+      <c r="C172" s="91">
         <v>0.75149999999999995</v>
       </c>
-      <c r="D172" s="87">
+      <c r="D172" s="93">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="E172" s="85">
+      <c r="E172" s="91">
         <v>0.70630000000000004</v>
       </c>
-      <c r="F172" s="87">
+      <c r="F172" s="93">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="4"/>
-      <c r="C173" s="86"/>
-      <c r="D173" s="88"/>
-      <c r="E173" s="86"/>
-      <c r="F173" s="88"/>
+      <c r="C173" s="92"/>
+      <c r="D173" s="94"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="94"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="4"/>
-      <c r="C174" s="85">
+      <c r="C174" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D174" s="87">
+      <c r="D174" s="93">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E174" s="85">
+      <c r="E174" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F174" s="87">
+      <c r="F174" s="93">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="4"/>
-      <c r="C175" s="86"/>
-      <c r="D175" s="88"/>
-      <c r="E175" s="86"/>
-      <c r="F175" s="88"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="94"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="94"/>
     </row>
     <row r="176" spans="2:6">
       <c r="B176" s="4"/>
-      <c r="C176" s="85">
+      <c r="C176" s="91">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D176" s="87">
+      <c r="D176" s="93">
         <v>0.747</v>
       </c>
-      <c r="E176" s="85">
+      <c r="E176" s="91">
         <v>0.57599999999999996</v>
       </c>
-      <c r="F176" s="87">
+      <c r="F176" s="93">
         <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="177" spans="2:6">
       <c r="B177" s="4"/>
-      <c r="C177" s="86"/>
-      <c r="D177" s="88"/>
-      <c r="E177" s="86"/>
-      <c r="F177" s="88"/>
+      <c r="C177" s="92"/>
+      <c r="D177" s="94"/>
+      <c r="E177" s="92"/>
+      <c r="F177" s="94"/>
     </row>
     <row r="178" spans="2:6">
       <c r="B178" s="4"/>
-      <c r="C178" s="85">
+      <c r="C178" s="91">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D178" s="87">
+      <c r="D178" s="93">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E178" s="85">
+      <c r="E178" s="91">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F178" s="87">
+      <c r="F178" s="93">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" s="4"/>
-      <c r="C179" s="86"/>
-      <c r="D179" s="88"/>
-      <c r="E179" s="86"/>
-      <c r="F179" s="88"/>
+      <c r="C179" s="92"/>
+      <c r="D179" s="94"/>
+      <c r="E179" s="92"/>
+      <c r="F179" s="94"/>
     </row>
     <row r="180" spans="2:6">
       <c r="B180" s="4"/>
-      <c r="C180" s="85">
+      <c r="C180" s="91">
         <v>0.114</v>
       </c>
-      <c r="D180" s="87">
+      <c r="D180" s="93">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E180" s="85">
+      <c r="E180" s="91">
         <v>0.107</v>
       </c>
-      <c r="F180" s="87">
+      <c r="F180" s="93">
         <v>0.129</v>
       </c>
     </row>
     <row r="181" spans="2:6">
       <c r="B181" s="4"/>
-      <c r="C181" s="86"/>
-      <c r="D181" s="88"/>
-      <c r="E181" s="86"/>
-      <c r="F181" s="88"/>
+      <c r="C181" s="92"/>
+      <c r="D181" s="94"/>
+      <c r="E181" s="92"/>
+      <c r="F181" s="94"/>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" s="4"/>
-      <c r="C182" s="85">
+      <c r="C182" s="91">
         <v>1.143</v>
       </c>
-      <c r="D182" s="87">
+      <c r="D182" s="93">
         <v>1.143</v>
       </c>
-      <c r="E182" s="85">
+      <c r="E182" s="91">
         <v>1.143</v>
       </c>
-      <c r="F182" s="87">
+      <c r="F182" s="93">
         <v>1.143</v>
       </c>
     </row>
     <row r="183" spans="2:6">
       <c r="B183" s="4"/>
-      <c r="C183" s="86"/>
-      <c r="D183" s="88"/>
-      <c r="E183" s="86"/>
-      <c r="F183" s="88"/>
+      <c r="C183" s="92"/>
+      <c r="D183" s="94"/>
+      <c r="E183" s="92"/>
+      <c r="F183" s="94"/>
     </row>
     <row r="184" spans="2:6">
       <c r="B184" s="4"/>
-      <c r="C184" s="100">
+      <c r="C184" s="129">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D184" s="102">
+      <c r="D184" s="131">
         <v>1.22E-5</v>
       </c>
-      <c r="E184" s="100">
+      <c r="E184" s="129">
         <v>9.4099999999999997E-6</v>
       </c>
-      <c r="F184" s="102">
+      <c r="F184" s="131">
         <v>1.1399999999999999E-5</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="16.5" thickBot="1">
       <c r="B185" s="5"/>
-      <c r="C185" s="101"/>
-      <c r="D185" s="103"/>
-      <c r="E185" s="101"/>
-      <c r="F185" s="103"/>
+      <c r="C185" s="130"/>
+      <c r="D185" s="132"/>
+      <c r="E185" s="130"/>
+      <c r="F185" s="132"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="104" t="s">
+      <c r="B186" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C186" s="105"/>
-      <c r="D186" s="105"/>
-      <c r="E186" s="105"/>
-      <c r="F186" s="106"/>
+      <c r="C186" s="84"/>
+      <c r="D186" s="84"/>
+      <c r="E186" s="84"/>
+      <c r="F186" s="85"/>
     </row>
     <row r="187" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B187" s="107"/>
-      <c r="C187" s="108"/>
-      <c r="D187" s="108"/>
-      <c r="E187" s="108"/>
-      <c r="F187" s="109"/>
+      <c r="B187" s="86"/>
+      <c r="C187" s="87"/>
+      <c r="D187" s="87"/>
+      <c r="E187" s="87"/>
+      <c r="F187" s="88"/>
     </row>
     <row r="188" spans="2:6">
       <c r="B188" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C188" s="81">
+      <c r="C188" s="109">
         <v>1622</v>
       </c>
-      <c r="D188" s="82">
+      <c r="D188" s="90">
         <v>2942</v>
       </c>
-      <c r="E188" s="81">
+      <c r="E188" s="109">
         <v>1647</v>
       </c>
-      <c r="F188" s="82">
+      <c r="F188" s="90">
         <v>2913</v>
       </c>
     </row>
     <row r="189" spans="2:6">
       <c r="B189" s="2"/>
-      <c r="C189" s="61"/>
-      <c r="D189" s="63"/>
-      <c r="E189" s="61"/>
-      <c r="F189" s="63"/>
+      <c r="C189" s="107"/>
+      <c r="D189" s="108"/>
+      <c r="E189" s="107"/>
+      <c r="F189" s="108"/>
     </row>
     <row r="190" spans="2:6" ht="21">
       <c r="B190" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C190" s="60">
+      <c r="C190" s="100">
         <v>1996</v>
       </c>
-      <c r="D190" s="62">
+      <c r="D190" s="102">
         <v>3610</v>
       </c>
-      <c r="E190" s="60">
+      <c r="E190" s="100">
         <v>2024</v>
       </c>
-      <c r="F190" s="62">
+      <c r="F190" s="102">
         <v>3570</v>
       </c>
     </row>
     <row r="191" spans="2:6">
       <c r="B191" s="2"/>
-      <c r="C191" s="61"/>
-      <c r="D191" s="63"/>
-      <c r="E191" s="61"/>
-      <c r="F191" s="63"/>
+      <c r="C191" s="107"/>
+      <c r="D191" s="108"/>
+      <c r="E191" s="107"/>
+      <c r="F191" s="108"/>
     </row>
     <row r="192" spans="2:6" ht="24">
       <c r="B192" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C192" s="60">
+      <c r="C192" s="100">
         <v>1317</v>
       </c>
-      <c r="D192" s="62">
+      <c r="D192" s="102">
         <v>2255</v>
       </c>
-      <c r="E192" s="60">
+      <c r="E192" s="100">
         <v>1345</v>
       </c>
-      <c r="F192" s="62">
+      <c r="F192" s="102">
         <v>2239</v>
       </c>
     </row>
     <row r="193" spans="2:6">
       <c r="B193" s="2"/>
-      <c r="C193" s="61"/>
-      <c r="D193" s="63"/>
-      <c r="E193" s="61"/>
-      <c r="F193" s="63"/>
+      <c r="C193" s="107"/>
+      <c r="D193" s="108"/>
+      <c r="E193" s="107"/>
+      <c r="F193" s="108"/>
     </row>
     <row r="194" spans="2:6">
       <c r="B194" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="85">
+      <c r="C194" s="91">
         <v>124</v>
       </c>
-      <c r="D194" s="87">
+      <c r="D194" s="93">
         <v>213</v>
       </c>
-      <c r="E194" s="85">
+      <c r="E194" s="91">
         <v>127</v>
       </c>
-      <c r="F194" s="87">
+      <c r="F194" s="93">
         <v>211</v>
       </c>
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="2"/>
-      <c r="C195" s="86"/>
-      <c r="D195" s="88"/>
-      <c r="E195" s="86"/>
-      <c r="F195" s="88"/>
+      <c r="C195" s="92"/>
+      <c r="D195" s="94"/>
+      <c r="E195" s="92"/>
+      <c r="F195" s="94"/>
     </row>
     <row r="196" spans="2:6">
       <c r="B196" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C196" s="85">
+      <c r="C196" s="91">
         <v>182</v>
       </c>
-      <c r="D196" s="87">
+      <c r="D196" s="93">
         <v>369</v>
       </c>
-      <c r="E196" s="85">
+      <c r="E196" s="91">
         <v>176</v>
       </c>
-      <c r="F196" s="87">
+      <c r="F196" s="93">
         <v>362</v>
       </c>
     </row>
     <row r="197" spans="2:6">
       <c r="B197" s="2"/>
-      <c r="C197" s="86"/>
-      <c r="D197" s="88"/>
-      <c r="E197" s="86"/>
-      <c r="F197" s="88"/>
+      <c r="C197" s="92"/>
+      <c r="D197" s="94"/>
+      <c r="E197" s="92"/>
+      <c r="F197" s="94"/>
     </row>
     <row r="198" spans="2:6">
       <c r="B198" s="2"/>
-      <c r="C198" s="85">
+      <c r="C198" s="91">
         <v>0</v>
       </c>
-      <c r="D198" s="87">
+      <c r="D198" s="93">
         <v>105</v>
       </c>
-      <c r="E198" s="85">
+      <c r="E198" s="91">
         <v>0</v>
       </c>
-      <c r="F198" s="87">
+      <c r="F198" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="2"/>
-      <c r="C199" s="86"/>
-      <c r="D199" s="88"/>
-      <c r="E199" s="86"/>
-      <c r="F199" s="88"/>
+      <c r="C199" s="92"/>
+      <c r="D199" s="94"/>
+      <c r="E199" s="92"/>
+      <c r="F199" s="94"/>
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="2"/>
-      <c r="C200" s="85">
+      <c r="C200" s="91">
         <v>374</v>
       </c>
-      <c r="D200" s="87">
+      <c r="D200" s="93">
         <v>667</v>
       </c>
-      <c r="E200" s="85">
+      <c r="E200" s="91">
         <v>377</v>
       </c>
-      <c r="F200" s="87">
+      <c r="F200" s="93">
         <v>657</v>
       </c>
     </row>
     <row r="201" spans="2:6">
       <c r="B201" s="2"/>
-      <c r="C201" s="86"/>
-      <c r="D201" s="88"/>
-      <c r="E201" s="86"/>
-      <c r="F201" s="88"/>
+      <c r="C201" s="92"/>
+      <c r="D201" s="94"/>
+      <c r="E201" s="92"/>
+      <c r="F201" s="94"/>
     </row>
     <row r="202" spans="2:6">
       <c r="B202" s="2"/>
-      <c r="C202" s="60">
+      <c r="C202" s="100">
         <v>1098124</v>
       </c>
-      <c r="D202" s="62">
+      <c r="D202" s="102">
         <v>1985432</v>
       </c>
-      <c r="E202" s="60">
+      <c r="E202" s="100">
         <v>1113445</v>
       </c>
-      <c r="F202" s="62">
+      <c r="F202" s="102">
         <v>1963644</v>
       </c>
     </row>
     <row r="203" spans="2:6">
       <c r="B203" s="2"/>
-      <c r="C203" s="61"/>
-      <c r="D203" s="63"/>
-      <c r="E203" s="61"/>
-      <c r="F203" s="63"/>
+      <c r="C203" s="107"/>
+      <c r="D203" s="108"/>
+      <c r="E203" s="107"/>
+      <c r="F203" s="108"/>
     </row>
     <row r="204" spans="2:6">
       <c r="B204" s="2"/>
-      <c r="C204" s="60">
+      <c r="C204" s="100">
         <v>2264</v>
       </c>
-      <c r="D204" s="62">
+      <c r="D204" s="102">
         <v>4115</v>
       </c>
-      <c r="E204" s="60">
+      <c r="E204" s="100">
         <v>2296</v>
       </c>
-      <c r="F204" s="62">
+      <c r="F204" s="102">
         <v>4070</v>
       </c>
     </row>
     <row r="205" spans="2:6">
       <c r="B205" s="2"/>
-      <c r="C205" s="61"/>
-      <c r="D205" s="63"/>
-      <c r="E205" s="61"/>
-      <c r="F205" s="63"/>
+      <c r="C205" s="107"/>
+      <c r="D205" s="108"/>
+      <c r="E205" s="107"/>
+      <c r="F205" s="108"/>
     </row>
     <row r="206" spans="2:6">
       <c r="B206" s="2"/>
-      <c r="C206" s="85">
+      <c r="C206" s="91">
         <v>59.4</v>
       </c>
-      <c r="D206" s="87">
+      <c r="D206" s="93">
         <v>109.6</v>
       </c>
-      <c r="E206" s="85">
+      <c r="E206" s="91">
         <v>58.9</v>
       </c>
-      <c r="F206" s="87">
+      <c r="F206" s="93">
         <v>106.5</v>
       </c>
     </row>
     <row r="207" spans="2:6">
       <c r="B207" s="2"/>
-      <c r="C207" s="86"/>
-      <c r="D207" s="88"/>
-      <c r="E207" s="86"/>
-      <c r="F207" s="88"/>
+      <c r="C207" s="92"/>
+      <c r="D207" s="94"/>
+      <c r="E207" s="92"/>
+      <c r="F207" s="94"/>
     </row>
     <row r="208" spans="2:6">
       <c r="B208" s="2"/>
-      <c r="C208" s="110">
+      <c r="C208" s="125">
         <v>0</v>
       </c>
-      <c r="D208" s="112">
+      <c r="D208" s="127">
         <v>5.8</v>
       </c>
-      <c r="E208" s="110">
+      <c r="E208" s="125">
         <v>0</v>
       </c>
-      <c r="F208" s="112">
+      <c r="F208" s="127">
         <v>5.6</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="B209" s="2"/>
-      <c r="C209" s="111"/>
-      <c r="D209" s="113"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="113"/>
+      <c r="C209" s="126"/>
+      <c r="D209" s="128"/>
+      <c r="E209" s="126"/>
+      <c r="F209" s="128"/>
     </row>
     <row r="210" spans="1:6">
       <c r="B210" s="2"/>
-      <c r="C210" s="110">
+      <c r="C210" s="125">
         <v>15.2</v>
       </c>
-      <c r="D210" s="112">
+      <c r="D210" s="127">
         <v>21.3</v>
       </c>
-      <c r="E210" s="110">
+      <c r="E210" s="125">
         <v>14.2</v>
       </c>
-      <c r="F210" s="112">
+      <c r="F210" s="127">
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="B211" s="2"/>
-      <c r="C211" s="111"/>
-      <c r="D211" s="113"/>
-      <c r="E211" s="111"/>
-      <c r="F211" s="113"/>
+      <c r="C211" s="126"/>
+      <c r="D211" s="128"/>
+      <c r="E211" s="126"/>
+      <c r="F211" s="128"/>
     </row>
     <row r="212" spans="1:6">
       <c r="B212" s="2"/>
-      <c r="C212" s="110">
+      <c r="C212" s="125">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D212" s="112">
+      <c r="D212" s="127">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E212" s="110">
+      <c r="E212" s="125">
         <v>5</v>
       </c>
-      <c r="F212" s="112">
+      <c r="F212" s="127">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="B213" s="2"/>
-      <c r="C213" s="111"/>
-      <c r="D213" s="113"/>
-      <c r="E213" s="111"/>
-      <c r="F213" s="113"/>
+      <c r="C213" s="126"/>
+      <c r="D213" s="128"/>
+      <c r="E213" s="126"/>
+      <c r="F213" s="128"/>
     </row>
     <row r="214" spans="1:6">
       <c r="B214" s="2"/>
-      <c r="C214" s="110">
+      <c r="C214" s="125">
         <v>7.8</v>
       </c>
-      <c r="D214" s="112">
+      <c r="D214" s="127">
         <v>13.1</v>
       </c>
-      <c r="E214" s="110">
+      <c r="E214" s="125">
         <v>8</v>
       </c>
-      <c r="F214" s="112">
+      <c r="F214" s="127">
         <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="B215" s="2"/>
-      <c r="C215" s="111"/>
-      <c r="D215" s="113"/>
-      <c r="E215" s="111"/>
-      <c r="F215" s="113"/>
+      <c r="C215" s="126"/>
+      <c r="D215" s="128"/>
+      <c r="E215" s="126"/>
+      <c r="F215" s="128"/>
     </row>
     <row r="216" spans="1:6">
       <c r="B216" s="2"/>
-      <c r="C216" s="110">
+      <c r="C216" s="125">
         <v>31.2</v>
       </c>
-      <c r="D216" s="112">
+      <c r="D216" s="127">
         <v>60.2</v>
       </c>
-      <c r="E216" s="110">
+      <c r="E216" s="125">
         <v>31.7</v>
       </c>
-      <c r="F216" s="112">
+      <c r="F216" s="127">
         <v>59.6</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="B217" s="2"/>
-      <c r="C217" s="111"/>
-      <c r="D217" s="113"/>
-      <c r="E217" s="111"/>
-      <c r="F217" s="113"/>
+      <c r="C217" s="126"/>
+      <c r="D217" s="128"/>
+      <c r="E217" s="126"/>
+      <c r="F217" s="128"/>
     </row>
     <row r="218" spans="1:6">
       <c r="B218" s="2"/>
-      <c r="C218" s="85">
+      <c r="C218" s="91">
         <v>75.3</v>
       </c>
-      <c r="D218" s="87">
+      <c r="D218" s="93">
         <v>139</v>
       </c>
-      <c r="E218" s="85">
+      <c r="E218" s="91">
         <v>74.7</v>
       </c>
-      <c r="F218" s="87">
+      <c r="F218" s="93">
         <v>135.19999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16.5" thickBot="1">
       <c r="B219" s="3"/>
-      <c r="C219" s="98"/>
-      <c r="D219" s="99"/>
-      <c r="E219" s="98"/>
-      <c r="F219" s="99"/>
+      <c r="C219" s="81"/>
+      <c r="D219" s="82"/>
+      <c r="E219" s="81"/>
+      <c r="F219" s="82"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
@@ -7259,69 +7259,69 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="B223" s="64"/>
-      <c r="C223" s="67" t="s">
+      <c r="B223" s="110"/>
+      <c r="C223" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="D223" s="69"/>
+      <c r="D223" s="114"/>
     </row>
     <row r="224" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B224" s="65"/>
-      <c r="C224" s="70"/>
-      <c r="D224" s="72"/>
+      <c r="B224" s="111"/>
+      <c r="C224" s="115"/>
+      <c r="D224" s="116"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="65"/>
-      <c r="C225" s="73" t="s">
+      <c r="B225" s="111"/>
+      <c r="C225" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D225" s="74"/>
+      <c r="D225" s="118"/>
     </row>
     <row r="226" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B226" s="66"/>
-      <c r="C226" s="70"/>
-      <c r="D226" s="72"/>
+      <c r="B226" s="112"/>
+      <c r="C226" s="115"/>
+      <c r="D226" s="116"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="75" t="s">
+      <c r="B227" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C227" s="83" t="s">
+      <c r="C227" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="D227" s="75" t="s">
+      <c r="D227" s="104" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B228" s="76"/>
-      <c r="C228" s="84"/>
-      <c r="D228" s="76"/>
+      <c r="B228" s="106"/>
+      <c r="C228" s="120"/>
+      <c r="D228" s="106"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="75" t="s">
+      <c r="B229" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C229" s="77">
+      <c r="C229" s="121">
         <v>0</v>
       </c>
-      <c r="D229" s="79">
+      <c r="D229" s="123">
         <v>0.9</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B230" s="76"/>
-      <c r="C230" s="78"/>
-      <c r="D230" s="80"/>
+      <c r="B230" s="106"/>
+      <c r="C230" s="122"/>
+      <c r="D230" s="124"/>
     </row>
     <row r="231" spans="2:4">
       <c r="B231" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C231" s="81">
+      <c r="C231" s="109">
         <v>564700</v>
       </c>
-      <c r="D231" s="82">
+      <c r="D231" s="90">
         <v>511000</v>
       </c>
     </row>
@@ -7329,17 +7329,17 @@
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="61"/>
-      <c r="D232" s="63"/>
+      <c r="C232" s="107"/>
+      <c r="D232" s="108"/>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C233" s="60">
+      <c r="C233" s="100">
         <v>9620</v>
       </c>
-      <c r="D233" s="62">
+      <c r="D233" s="102">
         <v>37430</v>
       </c>
     </row>
@@ -7347,17 +7347,17 @@
       <c r="B234" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C234" s="61"/>
-      <c r="D234" s="63"/>
+      <c r="C234" s="107"/>
+      <c r="D234" s="108"/>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C235" s="60">
+      <c r="C235" s="100">
         <v>555080</v>
       </c>
-      <c r="D235" s="62">
+      <c r="D235" s="102">
         <v>473570</v>
       </c>
     </row>
@@ -7365,149 +7365,149 @@
       <c r="B236" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C236" s="61"/>
-      <c r="D236" s="63"/>
+      <c r="C236" s="107"/>
+      <c r="D236" s="108"/>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C237" s="85" t="s">
+      <c r="C237" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D237" s="87" t="s">
+      <c r="D237" s="93" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" s="4"/>
-      <c r="C238" s="86"/>
-      <c r="D238" s="88"/>
+      <c r="C238" s="92"/>
+      <c r="D238" s="94"/>
     </row>
     <row r="239" spans="2:4">
       <c r="B239" s="4"/>
-      <c r="C239" s="60">
+      <c r="C239" s="100">
         <v>167333</v>
       </c>
-      <c r="D239" s="62">
+      <c r="D239" s="102">
         <v>167333</v>
       </c>
     </row>
     <row r="240" spans="2:4">
       <c r="B240" s="4"/>
-      <c r="C240" s="61"/>
-      <c r="D240" s="63"/>
+      <c r="C240" s="107"/>
+      <c r="D240" s="108"/>
     </row>
     <row r="241" spans="2:4">
       <c r="B241" s="4"/>
-      <c r="C241" s="60">
+      <c r="C241" s="100">
         <v>1105812</v>
       </c>
-      <c r="D241" s="62">
+      <c r="D241" s="102">
         <v>1105812</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" s="4"/>
-      <c r="C242" s="61"/>
-      <c r="D242" s="63"/>
+      <c r="C242" s="107"/>
+      <c r="D242" s="108"/>
     </row>
     <row r="243" spans="2:4">
       <c r="B243" s="4"/>
-      <c r="C243" s="91">
+      <c r="C243" s="96">
         <v>0.502</v>
       </c>
-      <c r="D243" s="93">
+      <c r="D243" s="98">
         <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="244" spans="2:4">
       <c r="B244" s="4"/>
-      <c r="C244" s="92"/>
-      <c r="D244" s="94"/>
+      <c r="C244" s="97"/>
+      <c r="D244" s="99"/>
     </row>
     <row r="245" spans="2:4">
       <c r="B245" s="4"/>
-      <c r="C245" s="60">
+      <c r="C245" s="100">
         <v>6798</v>
       </c>
-      <c r="D245" s="62">
+      <c r="D245" s="102">
         <v>7968</v>
       </c>
     </row>
     <row r="246" spans="2:4" ht="16.5" thickBot="1">
       <c r="B246" s="5"/>
-      <c r="C246" s="89"/>
-      <c r="D246" s="90"/>
+      <c r="C246" s="101"/>
+      <c r="D246" s="103"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="75" t="s">
+      <c r="B247" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C247" s="96">
+      <c r="C247" s="89">
         <v>4.3</v>
       </c>
-      <c r="D247" s="97">
+      <c r="D247" s="95">
         <v>8.4</v>
       </c>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="95"/>
-      <c r="C248" s="86"/>
-      <c r="D248" s="88"/>
+      <c r="B248" s="105"/>
+      <c r="C248" s="92"/>
+      <c r="D248" s="94"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="95"/>
-      <c r="C249" s="85">
+      <c r="B249" s="105"/>
+      <c r="C249" s="91">
         <v>1</v>
       </c>
-      <c r="D249" s="87">
+      <c r="D249" s="93">
         <v>2.1</v>
       </c>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="95"/>
-      <c r="C250" s="86"/>
-      <c r="D250" s="88"/>
+      <c r="B250" s="105"/>
+      <c r="C250" s="92"/>
+      <c r="D250" s="94"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="95"/>
-      <c r="C251" s="85">
+      <c r="B251" s="105"/>
+      <c r="C251" s="91">
         <v>3.3</v>
       </c>
-      <c r="D251" s="87">
+      <c r="D251" s="93">
         <v>6.3</v>
       </c>
     </row>
     <row r="252" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B252" s="76"/>
-      <c r="C252" s="98"/>
-      <c r="D252" s="99"/>
+      <c r="B252" s="106"/>
+      <c r="C252" s="81"/>
+      <c r="D252" s="82"/>
     </row>
     <row r="253" spans="2:4" ht="48">
       <c r="B253" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C253" s="96">
+      <c r="C253" s="89">
         <v>118</v>
       </c>
-      <c r="D253" s="97">
+      <c r="D253" s="95">
         <v>12</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" s="4"/>
-      <c r="C254" s="86"/>
-      <c r="D254" s="88"/>
+      <c r="C254" s="92"/>
+      <c r="D254" s="94"/>
     </row>
     <row r="255" spans="2:4">
       <c r="B255" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C255" s="85">
+      <c r="C255" s="91">
         <v>790</v>
       </c>
-      <c r="D255" s="87">
+      <c r="D255" s="93">
         <v>87</v>
       </c>
     </row>
@@ -7515,383 +7515,871 @@
       <c r="B256" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C256" s="86"/>
-      <c r="D256" s="88"/>
+      <c r="C256" s="92"/>
+      <c r="D256" s="94"/>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" s="4"/>
-      <c r="C257" s="85">
+      <c r="C257" s="91">
         <v>804</v>
       </c>
-      <c r="D257" s="87">
+      <c r="D257" s="93">
         <v>94</v>
       </c>
     </row>
     <row r="258" spans="2:4">
       <c r="B258" s="4"/>
-      <c r="C258" s="86"/>
-      <c r="D258" s="88"/>
+      <c r="C258" s="92"/>
+      <c r="D258" s="94"/>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" s="4"/>
-      <c r="C259" s="85" t="s">
+      <c r="C259" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D259" s="87" t="s">
+      <c r="D259" s="93" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" s="4"/>
-      <c r="C260" s="86"/>
-      <c r="D260" s="88"/>
+      <c r="C260" s="92"/>
+      <c r="D260" s="94"/>
     </row>
     <row r="261" spans="2:4">
       <c r="B261" s="4"/>
-      <c r="C261" s="85" t="s">
+      <c r="C261" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D261" s="87" t="s">
+      <c r="D261" s="93" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="262" spans="2:4">
       <c r="B262" s="4"/>
-      <c r="C262" s="86"/>
-      <c r="D262" s="88"/>
+      <c r="C262" s="92"/>
+      <c r="D262" s="94"/>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" s="4"/>
-      <c r="C263" s="85">
+      <c r="C263" s="91">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D263" s="87">
+      <c r="D263" s="93">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="264" spans="2:4">
       <c r="B264" s="4"/>
-      <c r="C264" s="86"/>
-      <c r="D264" s="116"/>
+      <c r="C264" s="92"/>
+      <c r="D264" s="80"/>
     </row>
     <row r="265" spans="2:4">
       <c r="B265" s="4"/>
-      <c r="C265" s="85">
+      <c r="C265" s="91">
         <v>0.06</v>
       </c>
-      <c r="D265" s="115">
+      <c r="D265" s="79">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="266" spans="2:4">
       <c r="B266" s="4"/>
-      <c r="C266" s="114"/>
-      <c r="D266" s="116"/>
+      <c r="C266" s="78"/>
+      <c r="D266" s="80"/>
     </row>
     <row r="267" spans="2:4">
       <c r="B267" s="4"/>
-      <c r="C267" s="117" t="s">
+      <c r="C267" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D267" s="115" t="s">
+      <c r="D267" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="268" spans="2:4">
       <c r="B268" s="4"/>
-      <c r="C268" s="114"/>
-      <c r="D268" s="116"/>
+      <c r="C268" s="78"/>
+      <c r="D268" s="80"/>
     </row>
     <row r="269" spans="2:4">
       <c r="B269" s="4"/>
-      <c r="C269" s="117" t="s">
+      <c r="C269" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D269" s="115" t="s">
+      <c r="D269" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="270" spans="2:4">
       <c r="B270" s="4"/>
-      <c r="C270" s="114"/>
-      <c r="D270" s="116"/>
+      <c r="C270" s="78"/>
+      <c r="D270" s="80"/>
     </row>
     <row r="271" spans="2:4">
       <c r="B271" s="4"/>
-      <c r="C271" s="117" t="s">
+      <c r="C271" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D271" s="115" t="s">
+      <c r="D271" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="272" spans="2:4">
       <c r="B272" s="4"/>
-      <c r="C272" s="114"/>
-      <c r="D272" s="116"/>
+      <c r="C272" s="78"/>
+      <c r="D272" s="80"/>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" s="4"/>
-      <c r="C273" s="117" t="s">
+      <c r="C273" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D273" s="115" t="s">
+      <c r="D273" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="274" spans="2:4" ht="16.5" thickBot="1">
       <c r="B274" s="5"/>
-      <c r="C274" s="98"/>
-      <c r="D274" s="99"/>
+      <c r="C274" s="81"/>
+      <c r="D274" s="82"/>
     </row>
     <row r="275" spans="2:4">
-      <c r="B275" s="104" t="s">
+      <c r="B275" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C275" s="105"/>
-      <c r="D275" s="106"/>
+      <c r="C275" s="84"/>
+      <c r="D275" s="85"/>
     </row>
     <row r="276" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B276" s="107"/>
-      <c r="C276" s="108"/>
-      <c r="D276" s="109"/>
+      <c r="B276" s="86"/>
+      <c r="C276" s="87"/>
+      <c r="D276" s="88"/>
     </row>
     <row r="277" spans="2:4">
       <c r="B277" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C277" s="96">
+      <c r="C277" s="89">
         <v>584</v>
       </c>
-      <c r="D277" s="82">
+      <c r="D277" s="90">
         <v>1226</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="B278" s="2"/>
-      <c r="C278" s="114"/>
-      <c r="D278" s="118"/>
+      <c r="C278" s="78"/>
+      <c r="D278" s="76"/>
     </row>
     <row r="279" spans="2:4" ht="21">
       <c r="B279" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C279" s="117">
+      <c r="C279" s="77">
         <v>718</v>
       </c>
-      <c r="D279" s="134">
+      <c r="D279" s="75">
         <v>1497</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="B280" s="2"/>
-      <c r="C280" s="114"/>
-      <c r="D280" s="118"/>
+      <c r="C280" s="78"/>
+      <c r="D280" s="76"/>
     </row>
     <row r="281" spans="2:4" ht="24">
       <c r="B281" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C281" s="117">
+      <c r="C281" s="77">
         <v>482</v>
       </c>
-      <c r="D281" s="115">
+      <c r="D281" s="79">
         <v>926</v>
       </c>
     </row>
     <row r="282" spans="2:4">
       <c r="B282" s="2"/>
-      <c r="C282" s="114"/>
-      <c r="D282" s="116"/>
+      <c r="C282" s="78"/>
+      <c r="D282" s="80"/>
     </row>
     <row r="283" spans="2:4">
       <c r="B283" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C283" s="117">
+      <c r="C283" s="77">
         <v>40</v>
       </c>
-      <c r="D283" s="115">
+      <c r="D283" s="79">
         <v>78</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="B284" s="2"/>
-      <c r="C284" s="114"/>
-      <c r="D284" s="116"/>
+      <c r="C284" s="78"/>
+      <c r="D284" s="80"/>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C285" s="117">
+      <c r="C285" s="77">
         <v>62</v>
       </c>
-      <c r="D285" s="115">
+      <c r="D285" s="79">
         <v>162</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" s="2"/>
-      <c r="C286" s="114"/>
-      <c r="D286" s="116"/>
+      <c r="C286" s="78"/>
+      <c r="D286" s="80"/>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" s="2"/>
-      <c r="C287" s="117">
+      <c r="C287" s="77">
         <v>0</v>
       </c>
-      <c r="D287" s="115">
+      <c r="D287" s="79">
         <v>60</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" s="2"/>
-      <c r="C288" s="114"/>
-      <c r="D288" s="116"/>
+      <c r="C288" s="78"/>
+      <c r="D288" s="80"/>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" s="2"/>
-      <c r="C289" s="117">
+      <c r="C289" s="77">
         <v>133</v>
       </c>
-      <c r="D289" s="115">
+      <c r="D289" s="79">
         <v>271</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="B290" s="2"/>
-      <c r="C290" s="114"/>
-      <c r="D290" s="116"/>
+      <c r="C290" s="78"/>
+      <c r="D290" s="80"/>
     </row>
     <row r="291" spans="2:4">
       <c r="B291" s="2"/>
-      <c r="C291" s="132">
+      <c r="C291" s="73">
         <v>398290</v>
       </c>
-      <c r="D291" s="134">
+      <c r="D291" s="75">
         <v>709039</v>
       </c>
     </row>
     <row r="292" spans="2:4">
       <c r="B292" s="2"/>
-      <c r="C292" s="133"/>
-      <c r="D292" s="118"/>
+      <c r="C292" s="74"/>
+      <c r="D292" s="76"/>
     </row>
     <row r="293" spans="2:4">
       <c r="B293" s="2"/>
-      <c r="C293" s="117">
+      <c r="C293" s="77">
         <v>771</v>
       </c>
-      <c r="D293" s="134">
+      <c r="D293" s="75">
         <v>1614</v>
       </c>
     </row>
     <row r="294" spans="2:4">
       <c r="B294" s="2"/>
-      <c r="C294" s="114"/>
-      <c r="D294" s="118"/>
+      <c r="C294" s="78"/>
+      <c r="D294" s="76"/>
     </row>
     <row r="295" spans="2:4">
       <c r="B295" s="2"/>
-      <c r="C295" s="117">
+      <c r="C295" s="77">
         <v>58.9</v>
       </c>
-      <c r="D295" s="115">
+      <c r="D295" s="79">
         <v>85.9</v>
       </c>
     </row>
     <row r="296" spans="2:4">
       <c r="B296" s="2"/>
-      <c r="C296" s="114"/>
-      <c r="D296" s="116"/>
+      <c r="C296" s="78"/>
+      <c r="D296" s="80"/>
     </row>
     <row r="297" spans="2:4">
       <c r="B297" s="2"/>
-      <c r="C297" s="119">
+      <c r="C297" s="69">
         <v>0</v>
       </c>
-      <c r="D297" s="121">
+      <c r="D297" s="71">
         <v>3.2</v>
       </c>
     </row>
     <row r="298" spans="2:4">
       <c r="B298" s="2"/>
-      <c r="C298" s="120"/>
-      <c r="D298" s="122"/>
+      <c r="C298" s="70"/>
+      <c r="D298" s="72"/>
     </row>
     <row r="299" spans="2:4">
       <c r="B299" s="2"/>
-      <c r="C299" s="119">
+      <c r="C299" s="69">
         <v>44.5</v>
       </c>
-      <c r="D299" s="121">
+      <c r="D299" s="71">
         <v>52.2</v>
       </c>
     </row>
     <row r="300" spans="2:4">
       <c r="B300" s="2"/>
-      <c r="C300" s="120"/>
-      <c r="D300" s="122"/>
+      <c r="C300" s="70"/>
+      <c r="D300" s="72"/>
     </row>
     <row r="301" spans="2:4">
       <c r="B301" s="2"/>
-      <c r="C301" s="119">
+      <c r="C301" s="69">
         <v>1.3</v>
       </c>
-      <c r="D301" s="121">
+      <c r="D301" s="71">
         <v>2.6</v>
       </c>
     </row>
     <row r="302" spans="2:4">
       <c r="B302" s="2"/>
-      <c r="C302" s="120"/>
-      <c r="D302" s="122"/>
+      <c r="C302" s="70"/>
+      <c r="D302" s="72"/>
     </row>
     <row r="303" spans="2:4">
       <c r="B303" s="2"/>
-      <c r="C303" s="119">
+      <c r="C303" s="69">
         <v>3</v>
       </c>
-      <c r="D303" s="121">
+      <c r="D303" s="71">
         <v>5.7</v>
       </c>
     </row>
     <row r="304" spans="2:4">
       <c r="B304" s="2"/>
-      <c r="C304" s="120"/>
-      <c r="D304" s="122"/>
+      <c r="C304" s="70"/>
+      <c r="D304" s="72"/>
     </row>
     <row r="305" spans="2:4">
       <c r="B305" s="2"/>
-      <c r="C305" s="119">
+      <c r="C305" s="69">
         <v>10.1</v>
       </c>
-      <c r="D305" s="121">
+      <c r="D305" s="71">
         <v>22.3</v>
       </c>
     </row>
     <row r="306" spans="2:4">
       <c r="B306" s="2"/>
-      <c r="C306" s="120"/>
-      <c r="D306" s="122"/>
+      <c r="C306" s="70"/>
+      <c r="D306" s="72"/>
     </row>
     <row r="307" spans="2:4">
       <c r="B307" s="2"/>
-      <c r="C307" s="117">
+      <c r="C307" s="77">
         <v>74.7</v>
       </c>
-      <c r="D307" s="115">
+      <c r="D307" s="79">
         <v>108.9</v>
       </c>
     </row>
     <row r="308" spans="2:4" ht="16.5" thickBot="1">
       <c r="B308" s="3"/>
-      <c r="C308" s="98"/>
-      <c r="D308" s="99"/>
+      <c r="C308" s="81"/>
+      <c r="D308" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="512">
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:F135"/>
+    <mergeCell ref="C136:D137"/>
+    <mergeCell ref="E136:F137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="B98:H99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="B186:F187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F206:F207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:D224"/>
+    <mergeCell ref="C225:D226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="B247:B252"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="B275:D276"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="D301:D302"/>
     <mergeCell ref="L20:Q20"/>
     <mergeCell ref="R20:U20"/>
     <mergeCell ref="L11:Q11"/>
@@ -7916,494 +8404,6 @@
     <mergeCell ref="D289:D290"/>
     <mergeCell ref="C279:C280"/>
     <mergeCell ref="D279:D280"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D299:D300"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="B275:D276"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="B247:B252"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:D224"/>
-    <mergeCell ref="C225:D226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:F207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="B186:F187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="B98:H99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:F135"/>
-    <mergeCell ref="C136:D137"/>
-    <mergeCell ref="E136:F137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ccs/plants.xlsx
+++ b/ccs/plants.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="465" windowWidth="6675" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="1860" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="COAL and NG calcs" sheetId="3" r:id="rId1"/>
@@ -1915,6 +1915,195 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1942,18 +2131,6 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1961,183 +2138,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2899,24 +2899,24 @@
     </row>
     <row r="11" spans="1:23" ht="33" customHeight="1">
       <c r="K11" s="25"/>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63" t="s">
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="64" t="s">
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="65"/>
+      <c r="W11" s="128"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -3007,15 +3007,15 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="B14" s="110"/>
-      <c r="C14" s="113" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="114"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="K14" s="26" t="s">
         <v>15</v>
       </c>
@@ -3057,13 +3057,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" thickBot="1">
-      <c r="B15" s="111"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="116"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
       <c r="K15" s="26" t="s">
         <v>33</v>
       </c>
@@ -3105,19 +3105,19 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="111"/>
-      <c r="C16" s="117" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="117" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="117" t="s">
+      <c r="F16" s="74"/>
+      <c r="G16" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="118"/>
+      <c r="H16" s="74"/>
       <c r="K16" s="26" t="s">
         <v>34</v>
       </c>
@@ -3159,13 +3159,13 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B17" s="112"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="72"/>
       <c r="K17" s="26" t="s">
         <v>20</v>
       </c>
@@ -3255,72 +3255,72 @@
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="119" t="s">
+      <c r="G19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="104" t="s">
+      <c r="H19" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="66" t="s">
+      <c r="L19" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="66" t="s">
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="66" t="s">
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="W19" s="68"/>
+      <c r="W19" s="131"/>
     </row>
     <row r="20" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B20" s="106"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="106"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="76"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="60" t="s">
+      <c r="L20" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="60" t="s">
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="62"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="125"/>
       <c r="V20" s="15"/>
       <c r="W20" s="16"/>
     </row>
@@ -3467,25 +3467,25 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="121">
+      <c r="C24" s="77">
         <v>0</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="79">
         <v>0.9</v>
       </c>
-      <c r="E24" s="121">
+      <c r="E24" s="77">
         <v>0</v>
       </c>
-      <c r="F24" s="123">
+      <c r="F24" s="79">
         <v>0.9</v>
       </c>
-      <c r="G24" s="121">
+      <c r="G24" s="77">
         <v>0</v>
       </c>
-      <c r="H24" s="123">
+      <c r="H24" s="79">
         <v>0.9</v>
       </c>
       <c r="K24" s="26" t="s">
@@ -3541,13 +3541,13 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B25" s="106"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="124"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="80"/>
       <c r="K25" s="26" t="s">
         <v>33</v>
       </c>
@@ -3604,22 +3604,22 @@
       <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="109">
+      <c r="C26" s="81">
         <v>747800</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="82">
         <v>734000</v>
       </c>
-      <c r="E26" s="109">
+      <c r="E26" s="81">
         <v>738200</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="82">
         <v>703700</v>
       </c>
-      <c r="G26" s="109">
+      <c r="G26" s="81">
         <v>737000</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="82">
         <v>673400</v>
       </c>
       <c r="K26" s="26" t="s">
@@ -3678,12 +3678,12 @@
       <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="108"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="63"/>
       <c r="K27" s="26" t="s">
         <v>104</v>
       </c>
@@ -4476,22 +4476,22 @@
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="100">
+      <c r="C43" s="60">
         <v>125750</v>
       </c>
-      <c r="D43" s="102">
+      <c r="D43" s="62">
         <v>190750</v>
       </c>
-      <c r="E43" s="100">
+      <c r="E43" s="60">
         <v>113140</v>
       </c>
-      <c r="F43" s="102">
+      <c r="F43" s="62">
         <v>190090</v>
       </c>
-      <c r="G43" s="100">
+      <c r="G43" s="60">
         <v>108020</v>
       </c>
-      <c r="H43" s="102">
+      <c r="H43" s="62">
         <v>176540</v>
       </c>
       <c r="K43" s="31" t="s">
@@ -4532,12 +4532,12 @@
       <c r="B44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="108"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="63"/>
       <c r="K44" s="27" t="s">
         <v>77</v>
       </c>
@@ -5144,22 +5144,22 @@
       <c r="B58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="100">
+      <c r="C58" s="60">
         <v>622050</v>
       </c>
-      <c r="D58" s="102">
+      <c r="D58" s="62">
         <v>543250</v>
       </c>
-      <c r="E58" s="100">
+      <c r="E58" s="60">
         <v>625060</v>
       </c>
-      <c r="F58" s="102">
+      <c r="F58" s="62">
         <v>513610</v>
       </c>
-      <c r="G58" s="100">
+      <c r="G58" s="60">
         <v>628980</v>
       </c>
-      <c r="H58" s="102">
+      <c r="H58" s="62">
         <v>496860</v>
       </c>
       <c r="M58" s="11"/>
@@ -5168,34 +5168,34 @@
       <c r="B59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="108"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="63"/>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="2:23">
       <c r="B60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="100">
+      <c r="C60" s="60">
         <v>466901</v>
       </c>
-      <c r="D60" s="102">
+      <c r="D60" s="62">
         <v>487011</v>
       </c>
-      <c r="E60" s="100">
+      <c r="E60" s="60">
         <v>459958</v>
       </c>
-      <c r="F60" s="102">
+      <c r="F60" s="62">
         <v>484212</v>
       </c>
-      <c r="G60" s="100">
+      <c r="G60" s="60">
         <v>436646</v>
       </c>
-      <c r="H60" s="102">
+      <c r="H60" s="62">
         <v>465264</v>
       </c>
       <c r="M60" s="11"/>
@@ -5207,279 +5207,279 @@
       <c r="B61" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="107"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="108"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="63"/>
       <c r="U61" s="30"/>
     </row>
     <row r="62" spans="2:23">
       <c r="B62" s="4"/>
-      <c r="C62" s="91" t="s">
+      <c r="C62" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="93" t="s">
+      <c r="D62" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="91" t="s">
+      <c r="E62" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="93" t="s">
+      <c r="F62" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="91" t="s">
+      <c r="G62" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="93" t="s">
+      <c r="H62" s="87" t="s">
         <v>22</v>
       </c>
       <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="2:23">
       <c r="B63" s="4"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="94"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="88"/>
     </row>
     <row r="64" spans="2:23">
       <c r="B64" s="4"/>
-      <c r="C64" s="100">
+      <c r="C64" s="60">
         <v>1596320</v>
       </c>
-      <c r="D64" s="102">
+      <c r="D64" s="62">
         <v>1665074</v>
       </c>
-      <c r="E64" s="100">
+      <c r="E64" s="60">
         <v>1572582</v>
       </c>
-      <c r="F64" s="102">
+      <c r="F64" s="62">
         <v>1655503</v>
       </c>
-      <c r="G64" s="100">
+      <c r="G64" s="60">
         <v>1492878</v>
       </c>
-      <c r="H64" s="102">
+      <c r="H64" s="62">
         <v>1590722</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="108"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="63"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4"/>
-      <c r="C66" s="96">
+      <c r="C66" s="91">
         <v>0.39</v>
       </c>
-      <c r="D66" s="98">
+      <c r="D66" s="93">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E66" s="96">
+      <c r="E66" s="91">
         <v>0.39700000000000002</v>
       </c>
-      <c r="F66" s="98">
+      <c r="F66" s="93">
         <v>0.31</v>
       </c>
-      <c r="G66" s="96">
+      <c r="G66" s="91">
         <v>0.42099999999999999</v>
       </c>
-      <c r="H66" s="98">
+      <c r="H66" s="93">
         <v>0.312</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="99"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="94"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4"/>
-      <c r="C68" s="100">
+      <c r="C68" s="60">
         <v>8756</v>
       </c>
-      <c r="D68" s="102">
+      <c r="D68" s="62">
         <v>10458</v>
       </c>
-      <c r="E68" s="100">
+      <c r="E68" s="60">
         <v>8585</v>
       </c>
-      <c r="F68" s="102">
+      <c r="F68" s="62">
         <v>10998</v>
       </c>
-      <c r="G68" s="100">
+      <c r="G68" s="60">
         <v>8099</v>
       </c>
-      <c r="H68" s="102">
+      <c r="H68" s="62">
         <v>10924</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="16.5" thickBot="1">
       <c r="B69" s="5"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="103"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="90"/>
     </row>
     <row r="70" spans="2:8" ht="33" customHeight="1">
-      <c r="B70" s="104" t="s">
+      <c r="B70" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="89">
+      <c r="C70" s="96">
         <v>7.6</v>
       </c>
-      <c r="D70" s="95">
+      <c r="D70" s="97">
         <v>10.7</v>
       </c>
-      <c r="E70" s="89">
+      <c r="E70" s="96">
         <v>7</v>
       </c>
-      <c r="F70" s="95">
+      <c r="F70" s="97">
         <v>11.1</v>
       </c>
-      <c r="G70" s="89">
+      <c r="G70" s="96">
         <v>6.6</v>
       </c>
-      <c r="H70" s="95">
+      <c r="H70" s="97">
         <v>11.3</v>
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="105"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="94"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="88"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="105"/>
-      <c r="C72" s="91">
+      <c r="B72" s="95"/>
+      <c r="C72" s="85">
         <v>1.6</v>
       </c>
-      <c r="D72" s="93">
+      <c r="D72" s="87">
         <v>2</v>
       </c>
-      <c r="E72" s="91">
+      <c r="E72" s="85">
         <v>1.4</v>
       </c>
-      <c r="F72" s="93">
+      <c r="F72" s="87">
         <v>2.1</v>
       </c>
-      <c r="G72" s="91">
+      <c r="G72" s="85">
         <v>1.2</v>
       </c>
-      <c r="H72" s="93">
+      <c r="H72" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="105"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="94"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="88"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="105"/>
-      <c r="C74" s="91">
+      <c r="B74" s="95"/>
+      <c r="C74" s="85">
         <v>6</v>
       </c>
-      <c r="D74" s="93">
+      <c r="D74" s="87">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E74" s="91">
+      <c r="E74" s="85">
         <v>5.5</v>
       </c>
-      <c r="F74" s="93">
+      <c r="F74" s="87">
         <v>9</v>
       </c>
-      <c r="G74" s="91">
+      <c r="G74" s="85">
         <v>5.3</v>
       </c>
-      <c r="H74" s="93">
+      <c r="H74" s="87">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B75" s="106"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="82"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="99"/>
     </row>
     <row r="76" spans="2:8" ht="48">
       <c r="B76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="89">
+      <c r="C76" s="96">
         <v>197</v>
       </c>
-      <c r="D76" s="95">
+      <c r="D76" s="97">
         <v>20</v>
       </c>
-      <c r="E76" s="89">
+      <c r="E76" s="96">
         <v>199</v>
       </c>
-      <c r="F76" s="95">
+      <c r="F76" s="97">
         <v>20</v>
       </c>
-      <c r="G76" s="89">
+      <c r="G76" s="96">
         <v>197</v>
       </c>
-      <c r="H76" s="95">
+      <c r="H76" s="97">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="94"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="88"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="100">
+      <c r="C78" s="60">
         <v>1434</v>
       </c>
-      <c r="D78" s="93">
+      <c r="D78" s="87">
         <v>152</v>
       </c>
-      <c r="E78" s="100">
+      <c r="E78" s="60">
         <v>1448</v>
       </c>
-      <c r="F78" s="93">
+      <c r="F78" s="87">
         <v>158</v>
       </c>
-      <c r="G78" s="100">
+      <c r="G78" s="60">
         <v>1361</v>
       </c>
-      <c r="H78" s="93">
+      <c r="H78" s="87">
         <v>161</v>
       </c>
     </row>
@@ -5487,794 +5487,794 @@
       <c r="B79" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="107"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="107"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="94"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="88"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4"/>
-      <c r="C80" s="100">
+      <c r="C80" s="60">
         <v>1723</v>
       </c>
-      <c r="D80" s="93">
+      <c r="D80" s="87">
         <v>206</v>
       </c>
-      <c r="E80" s="100">
+      <c r="E80" s="60">
         <v>1710</v>
       </c>
-      <c r="F80" s="93">
+      <c r="F80" s="87">
         <v>217</v>
       </c>
-      <c r="G80" s="100">
+      <c r="G80" s="60">
         <v>1595</v>
       </c>
-      <c r="H80" s="93">
+      <c r="H80" s="87">
         <v>218</v>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="4"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="94"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="88"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="4"/>
-      <c r="C82" s="91">
+      <c r="C82" s="85">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D82" s="93">
+      <c r="D82" s="87">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E82" s="91">
+      <c r="E82" s="85">
         <v>1.17E-2</v>
       </c>
-      <c r="F82" s="93">
+      <c r="F82" s="87">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="G82" s="91">
+      <c r="G82" s="85">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H82" s="93">
+      <c r="H82" s="87">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="4"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="94"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="86"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="88"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="4"/>
-      <c r="C84" s="91">
+      <c r="C84" s="85">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D84" s="93">
+      <c r="D84" s="87">
         <v>1.66E-2</v>
       </c>
-      <c r="E84" s="91">
+      <c r="E84" s="85">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="F84" s="93">
+      <c r="F84" s="87">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="G84" s="91">
+      <c r="G84" s="85">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H84" s="93">
+      <c r="H84" s="87">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="4"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="94"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="86"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="88"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="4"/>
-      <c r="C86" s="91">
+      <c r="C86" s="85">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D86" s="93">
+      <c r="D86" s="87">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E86" s="91">
+      <c r="E86" s="85">
         <v>0.06</v>
       </c>
-      <c r="F86" s="93">
+      <c r="F86" s="87">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G86" s="91">
+      <c r="G86" s="85">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H86" s="93">
+      <c r="H86" s="87">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="4"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="94"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="94"/>
-      <c r="G87" s="92"/>
-      <c r="H87" s="94"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="88"/>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="4"/>
-      <c r="C88" s="91">
+      <c r="C88" s="85">
         <v>0.43</v>
       </c>
-      <c r="D88" s="93">
+      <c r="D88" s="87">
         <v>0.376</v>
       </c>
-      <c r="E88" s="91">
+      <c r="E88" s="85">
         <v>0.434</v>
       </c>
-      <c r="F88" s="93">
+      <c r="F88" s="87">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G88" s="91">
+      <c r="G88" s="85">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H88" s="93">
+      <c r="H88" s="87">
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="4"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="92"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="92"/>
-      <c r="H89" s="94"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="86"/>
+      <c r="H89" s="88"/>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="4"/>
-      <c r="C90" s="91">
+      <c r="C90" s="85">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D90" s="93">
+      <c r="D90" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E90" s="91">
+      <c r="E90" s="85">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="F90" s="93">
+      <c r="F90" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G90" s="91">
+      <c r="G90" s="85">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="H90" s="93">
+      <c r="H90" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="4"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="94"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="94"/>
-      <c r="G91" s="92"/>
-      <c r="H91" s="94"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="88"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="4"/>
-      <c r="C92" s="91">
+      <c r="C92" s="85">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D92" s="93">
+      <c r="D92" s="87">
         <v>5.5E-2</v>
       </c>
-      <c r="E92" s="91">
+      <c r="E92" s="85">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F92" s="93">
+      <c r="F92" s="87">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G92" s="91">
+      <c r="G92" s="85">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H92" s="93">
+      <c r="H92" s="87">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="4"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="94"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="94"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="94"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="88"/>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="4"/>
-      <c r="C94" s="91">
+      <c r="C94" s="85">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D94" s="93">
+      <c r="D94" s="87">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E94" s="91">
+      <c r="E94" s="85">
         <v>0.57099999999999995</v>
       </c>
-      <c r="F94" s="93">
+      <c r="F94" s="87">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G94" s="91">
+      <c r="G94" s="85">
         <v>0.57099999999999995</v>
       </c>
-      <c r="H94" s="93">
+      <c r="H94" s="87">
         <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="4"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="94"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="94"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="94"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="86"/>
+      <c r="H95" s="88"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="4"/>
-      <c r="C96" s="129">
+      <c r="C96" s="100">
         <v>4.16E-6</v>
       </c>
-      <c r="D96" s="131">
+      <c r="D96" s="102">
         <v>4.42E-6</v>
       </c>
-      <c r="E96" s="129">
+      <c r="E96" s="100">
         <v>4.1500000000000001E-6</v>
       </c>
-      <c r="F96" s="131">
+      <c r="F96" s="102">
         <v>4.5900000000000001E-6</v>
       </c>
-      <c r="G96" s="129">
+      <c r="G96" s="100">
         <v>3.9500000000000003E-6</v>
       </c>
-      <c r="H96" s="131">
+      <c r="H96" s="102">
         <v>4.6099999999999999E-6</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="16.5" thickBot="1">
       <c r="B97" s="5"/>
-      <c r="C97" s="130"/>
-      <c r="D97" s="132"/>
-      <c r="E97" s="130"/>
-      <c r="F97" s="132"/>
-      <c r="G97" s="130"/>
-      <c r="H97" s="132"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="103"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="83" t="s">
+      <c r="B98" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="84"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="84"/>
-      <c r="G98" s="84"/>
-      <c r="H98" s="85"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="105"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="106"/>
     </row>
     <row r="99" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B99" s="86"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="87"/>
-      <c r="G99" s="87"/>
-      <c r="H99" s="88"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="109"/>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="109">
+      <c r="C100" s="81">
         <v>1987</v>
       </c>
-      <c r="D100" s="90">
+      <c r="D100" s="82">
         <v>2711</v>
       </c>
-      <c r="E100" s="109">
+      <c r="E100" s="81">
         <v>1913</v>
       </c>
-      <c r="F100" s="90">
+      <c r="F100" s="82">
         <v>2817</v>
       </c>
-      <c r="G100" s="109">
+      <c r="G100" s="81">
         <v>2217</v>
       </c>
-      <c r="H100" s="90">
+      <c r="H100" s="82">
         <v>3181</v>
       </c>
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="2"/>
-      <c r="C101" s="107"/>
-      <c r="D101" s="108"/>
-      <c r="E101" s="107"/>
-      <c r="F101" s="108"/>
-      <c r="G101" s="107"/>
-      <c r="H101" s="108"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="63"/>
     </row>
     <row r="102" spans="2:9" ht="21">
       <c r="B102" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="100">
+      <c r="C102" s="60">
         <v>2447</v>
       </c>
-      <c r="D102" s="102">
+      <c r="D102" s="62">
         <v>3334</v>
       </c>
-      <c r="E102" s="100">
+      <c r="E102" s="60">
         <v>2351</v>
       </c>
-      <c r="F102" s="102">
+      <c r="F102" s="62">
         <v>3466</v>
       </c>
-      <c r="G102" s="100">
+      <c r="G102" s="60">
         <v>2716</v>
       </c>
-      <c r="H102" s="102">
+      <c r="H102" s="62">
         <v>3904</v>
       </c>
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="2"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="108"/>
-      <c r="G103" s="107"/>
-      <c r="H103" s="108"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="63"/>
     </row>
     <row r="104" spans="2:9" ht="24">
       <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="100">
+      <c r="C104" s="60">
         <v>1528</v>
       </c>
-      <c r="D104" s="102">
+      <c r="D104" s="62">
         <v>2032</v>
       </c>
-      <c r="E104" s="100">
+      <c r="E104" s="60">
         <v>1470</v>
       </c>
-      <c r="F104" s="102">
+      <c r="F104" s="62">
         <v>2113</v>
       </c>
-      <c r="G104" s="100">
+      <c r="G104" s="60">
         <v>1695</v>
       </c>
-      <c r="H104" s="102">
+      <c r="H104" s="62">
         <v>2385</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2"/>
-      <c r="C105" s="107"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="107"/>
-      <c r="F105" s="108"/>
-      <c r="G105" s="107"/>
-      <c r="H105" s="108"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="63"/>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="91">
+      <c r="C106" s="85">
         <v>144</v>
       </c>
-      <c r="D106" s="93">
+      <c r="D106" s="87">
         <v>191</v>
       </c>
-      <c r="E106" s="91">
+      <c r="E106" s="85">
         <v>138</v>
       </c>
-      <c r="F106" s="93">
+      <c r="F106" s="87">
         <v>199</v>
       </c>
-      <c r="G106" s="91">
+      <c r="G106" s="85">
         <v>156</v>
       </c>
-      <c r="H106" s="93">
+      <c r="H106" s="87">
         <v>221</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="2"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="94"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="94"/>
-      <c r="G107" s="92"/>
-      <c r="H107" s="94"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="88"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="86"/>
+      <c r="H107" s="88"/>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="91">
+      <c r="C108" s="85">
         <v>265</v>
       </c>
-      <c r="D108" s="93">
+      <c r="D108" s="87">
         <v>369</v>
       </c>
-      <c r="E108" s="91">
+      <c r="E108" s="85">
         <v>256</v>
       </c>
-      <c r="F108" s="93">
+      <c r="F108" s="87">
         <v>385</v>
       </c>
-      <c r="G108" s="91">
+      <c r="G108" s="85">
         <v>302</v>
       </c>
-      <c r="H108" s="93">
+      <c r="H108" s="87">
         <v>444</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="2"/>
-      <c r="C109" s="92"/>
-      <c r="D109" s="94"/>
-      <c r="E109" s="92"/>
-      <c r="F109" s="94"/>
-      <c r="G109" s="92"/>
-      <c r="H109" s="94"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="86"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="86"/>
+      <c r="H109" s="88"/>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="2"/>
-      <c r="C110" s="91">
+      <c r="C110" s="85">
         <v>50</v>
       </c>
-      <c r="D110" s="93">
+      <c r="D110" s="87">
         <v>119</v>
       </c>
-      <c r="E110" s="91">
+      <c r="E110" s="85">
         <v>50</v>
       </c>
-      <c r="F110" s="93">
+      <c r="F110" s="87">
         <v>120</v>
       </c>
-      <c r="G110" s="91">
+      <c r="G110" s="85">
         <v>63</v>
       </c>
-      <c r="H110" s="93">
+      <c r="H110" s="87">
         <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="2"/>
-      <c r="C111" s="92"/>
-      <c r="D111" s="94"/>
-      <c r="E111" s="92"/>
-      <c r="F111" s="94"/>
-      <c r="G111" s="92"/>
-      <c r="H111" s="94"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="86"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="86"/>
+      <c r="H111" s="88"/>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="2"/>
-      <c r="C112" s="91">
+      <c r="C112" s="85">
         <v>460</v>
       </c>
-      <c r="D112" s="93">
+      <c r="D112" s="87">
         <v>623</v>
       </c>
-      <c r="E112" s="91">
+      <c r="E112" s="85">
         <v>438</v>
       </c>
-      <c r="F112" s="93">
+      <c r="F112" s="87">
         <v>649</v>
       </c>
-      <c r="G112" s="91">
+      <c r="G112" s="85">
         <v>500</v>
       </c>
-      <c r="H112" s="93">
+      <c r="H112" s="87">
         <v>723</v>
       </c>
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="2"/>
-      <c r="C113" s="92"/>
-      <c r="D113" s="94"/>
-      <c r="E113" s="92"/>
-      <c r="F113" s="94"/>
-      <c r="G113" s="92"/>
-      <c r="H113" s="94"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="86"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="86"/>
+      <c r="H113" s="88"/>
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="2"/>
-      <c r="C114" s="100">
+      <c r="C114" s="60">
         <v>1521880</v>
       </c>
-      <c r="D114" s="102">
+      <c r="D114" s="62">
         <v>1811411</v>
       </c>
-      <c r="E114" s="100">
+      <c r="E114" s="60">
         <v>1469577</v>
       </c>
-      <c r="F114" s="102">
+      <c r="F114" s="62">
         <v>1780290</v>
       </c>
-      <c r="G114" s="100">
+      <c r="G114" s="60">
         <v>1708524</v>
       </c>
-      <c r="H114" s="102">
+      <c r="H114" s="62">
         <v>1939878</v>
       </c>
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="2"/>
-      <c r="C115" s="107"/>
-      <c r="D115" s="108"/>
-      <c r="E115" s="107"/>
-      <c r="F115" s="108"/>
-      <c r="G115" s="107"/>
-      <c r="H115" s="108"/>
+      <c r="C115" s="61"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="63"/>
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="2"/>
-      <c r="C116" s="100">
+      <c r="C116" s="60">
         <v>2789</v>
       </c>
-      <c r="D116" s="102">
+      <c r="D116" s="62">
         <v>3801</v>
       </c>
-      <c r="E116" s="100">
+      <c r="E116" s="60">
         <v>2680</v>
       </c>
-      <c r="F116" s="102">
+      <c r="F116" s="62">
         <v>3952</v>
       </c>
-      <c r="G116" s="100">
+      <c r="G116" s="60">
         <v>3097</v>
       </c>
-      <c r="H116" s="102">
+      <c r="H116" s="62">
         <v>4451</v>
       </c>
     </row>
     <row r="117" spans="2:8">
       <c r="B117" s="2"/>
-      <c r="C117" s="107"/>
-      <c r="D117" s="108"/>
-      <c r="E117" s="107"/>
-      <c r="F117" s="108"/>
-      <c r="G117" s="107"/>
-      <c r="H117" s="108"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="63"/>
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="2"/>
-      <c r="C118" s="91">
+      <c r="C118" s="85">
         <v>76.3</v>
       </c>
-      <c r="D118" s="93">
+      <c r="D118" s="87">
         <v>105.6</v>
       </c>
-      <c r="E118" s="91">
+      <c r="E118" s="85">
         <v>74</v>
       </c>
-      <c r="F118" s="93">
+      <c r="F118" s="87">
         <v>110.3</v>
       </c>
-      <c r="G118" s="91">
+      <c r="G118" s="85">
         <v>81.3</v>
       </c>
-      <c r="H118" s="93">
+      <c r="H118" s="87">
         <v>119.4</v>
       </c>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="2"/>
-      <c r="C119" s="92"/>
-      <c r="D119" s="94"/>
-      <c r="E119" s="92"/>
-      <c r="F119" s="94"/>
-      <c r="G119" s="92"/>
-      <c r="H119" s="94"/>
+      <c r="C119" s="86"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="86"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="86"/>
+      <c r="H119" s="88"/>
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="2"/>
-      <c r="C120" s="125">
+      <c r="C120" s="110">
         <v>0</v>
       </c>
-      <c r="D120" s="127">
+      <c r="D120" s="112">
         <v>5.2</v>
       </c>
-      <c r="E120" s="125">
+      <c r="E120" s="110">
         <v>0</v>
       </c>
-      <c r="F120" s="127">
+      <c r="F120" s="112">
         <v>5.5</v>
       </c>
-      <c r="G120" s="125">
+      <c r="G120" s="110">
         <v>0</v>
       </c>
-      <c r="H120" s="127">
+      <c r="H120" s="112">
         <v>5.6</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="2"/>
-      <c r="C121" s="126"/>
-      <c r="D121" s="128"/>
-      <c r="E121" s="126"/>
-      <c r="F121" s="128"/>
-      <c r="G121" s="126"/>
-      <c r="H121" s="128"/>
+      <c r="C121" s="111"/>
+      <c r="D121" s="113"/>
+      <c r="E121" s="111"/>
+      <c r="F121" s="113"/>
+      <c r="G121" s="111"/>
+      <c r="H121" s="113"/>
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="2"/>
-      <c r="C122" s="125">
+      <c r="C122" s="110">
         <v>14.3</v>
       </c>
-      <c r="D122" s="127">
+      <c r="D122" s="112">
         <v>17.100000000000001</v>
       </c>
-      <c r="E122" s="125">
+      <c r="E122" s="110">
         <v>14</v>
       </c>
-      <c r="F122" s="127">
+      <c r="F122" s="112">
         <v>18</v>
       </c>
-      <c r="G122" s="125">
+      <c r="G122" s="110">
         <v>13.3</v>
       </c>
-      <c r="H122" s="127">
+      <c r="H122" s="112">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="123" spans="2:8">
       <c r="B123" s="2"/>
-      <c r="C123" s="126"/>
-      <c r="D123" s="128"/>
-      <c r="E123" s="126"/>
-      <c r="F123" s="128"/>
-      <c r="G123" s="126"/>
-      <c r="H123" s="128"/>
+      <c r="C123" s="111"/>
+      <c r="D123" s="113"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="113"/>
+      <c r="G123" s="111"/>
+      <c r="H123" s="113"/>
     </row>
     <row r="124" spans="2:8">
       <c r="B124" s="2"/>
-      <c r="C124" s="125">
+      <c r="C124" s="110">
         <v>7.3</v>
       </c>
-      <c r="D124" s="127">
+      <c r="D124" s="112">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E124" s="125">
+      <c r="E124" s="110">
         <v>7.2</v>
       </c>
-      <c r="F124" s="127">
+      <c r="F124" s="112">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G124" s="125">
+      <c r="G124" s="110">
         <v>7.8</v>
       </c>
-      <c r="H124" s="127">
+      <c r="H124" s="112">
         <v>9.9</v>
       </c>
     </row>
     <row r="125" spans="2:8">
       <c r="B125" s="2"/>
-      <c r="C125" s="126"/>
-      <c r="D125" s="128"/>
-      <c r="E125" s="126"/>
-      <c r="F125" s="128"/>
-      <c r="G125" s="126"/>
-      <c r="H125" s="128"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="113"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="113"/>
     </row>
     <row r="126" spans="2:8">
       <c r="B126" s="2"/>
-      <c r="C126" s="125">
+      <c r="C126" s="110">
         <v>11.3</v>
       </c>
-      <c r="D126" s="127">
+      <c r="D126" s="112">
         <v>14.8</v>
       </c>
-      <c r="E126" s="125">
+      <c r="E126" s="110">
         <v>11.1</v>
       </c>
-      <c r="F126" s="127">
+      <c r="F126" s="112">
         <v>15.5</v>
       </c>
-      <c r="G126" s="125">
+      <c r="G126" s="110">
         <v>12.1</v>
       </c>
-      <c r="H126" s="127">
+      <c r="H126" s="112">
         <v>16.7</v>
       </c>
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="2"/>
-      <c r="C127" s="126"/>
-      <c r="D127" s="128"/>
-      <c r="E127" s="126"/>
-      <c r="F127" s="128"/>
-      <c r="G127" s="126"/>
-      <c r="H127" s="128"/>
+      <c r="C127" s="111"/>
+      <c r="D127" s="113"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="113"/>
+      <c r="G127" s="111"/>
+      <c r="H127" s="113"/>
     </row>
     <row r="128" spans="2:8">
       <c r="B128" s="2"/>
-      <c r="C128" s="125">
+      <c r="C128" s="110">
         <v>43.4</v>
       </c>
-      <c r="D128" s="127">
+      <c r="D128" s="112">
         <v>59.1</v>
       </c>
-      <c r="E128" s="125">
+      <c r="E128" s="110">
         <v>41.7</v>
       </c>
-      <c r="F128" s="127">
+      <c r="F128" s="112">
         <v>61.5</v>
       </c>
-      <c r="G128" s="125">
+      <c r="G128" s="110">
         <v>48.2</v>
       </c>
-      <c r="H128" s="127">
+      <c r="H128" s="112">
         <v>69.2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" s="2"/>
-      <c r="C129" s="126"/>
-      <c r="D129" s="128"/>
-      <c r="E129" s="126"/>
-      <c r="F129" s="128"/>
-      <c r="G129" s="126"/>
-      <c r="H129" s="128"/>
+      <c r="C129" s="111"/>
+      <c r="D129" s="113"/>
+      <c r="E129" s="111"/>
+      <c r="F129" s="113"/>
+      <c r="G129" s="111"/>
+      <c r="H129" s="113"/>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" s="2"/>
-      <c r="C130" s="91">
+      <c r="C130" s="85">
         <v>96.7</v>
       </c>
-      <c r="D130" s="93">
+      <c r="D130" s="87">
         <v>133.9</v>
       </c>
-      <c r="E130" s="91">
+      <c r="E130" s="85">
         <v>93.8</v>
       </c>
-      <c r="F130" s="93">
+      <c r="F130" s="87">
         <v>139.9</v>
       </c>
-      <c r="G130" s="91">
+      <c r="G130" s="85">
         <v>103.1</v>
       </c>
-      <c r="H130" s="93">
+      <c r="H130" s="87">
         <v>151.4</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" thickBot="1">
       <c r="B131" s="3"/>
-      <c r="C131" s="81"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="81"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="81"/>
-      <c r="H131" s="82"/>
+      <c r="C131" s="98"/>
+      <c r="D131" s="99"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="99"/>
+      <c r="G131" s="98"/>
+      <c r="H131" s="99"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
@@ -6285,101 +6285,101 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="B134" s="110"/>
-      <c r="C134" s="113" t="s">
+      <c r="B134" s="64"/>
+      <c r="C134" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D134" s="133"/>
-      <c r="E134" s="133"/>
-      <c r="F134" s="114"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="69"/>
     </row>
     <row r="135" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B135" s="111"/>
-      <c r="C135" s="115"/>
-      <c r="D135" s="134"/>
-      <c r="E135" s="134"/>
-      <c r="F135" s="116"/>
+      <c r="B135" s="65"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="72"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="B136" s="111"/>
-      <c r="C136" s="117" t="s">
+      <c r="B136" s="65"/>
+      <c r="C136" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="118"/>
-      <c r="E136" s="117" t="s">
+      <c r="D136" s="74"/>
+      <c r="E136" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="F136" s="118"/>
+      <c r="F136" s="74"/>
     </row>
     <row r="137" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B137" s="112"/>
-      <c r="C137" s="115"/>
-      <c r="D137" s="116"/>
-      <c r="E137" s="115"/>
-      <c r="F137" s="116"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="70"/>
+      <c r="F137" s="72"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="B138" s="104" t="s">
+      <c r="B138" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="119" t="s">
+      <c r="C138" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="104" t="s">
+      <c r="D138" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E138" s="119" t="s">
+      <c r="E138" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F138" s="104" t="s">
+      <c r="F138" s="75" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B139" s="106"/>
-      <c r="C139" s="120"/>
-      <c r="D139" s="106"/>
-      <c r="E139" s="120"/>
-      <c r="F139" s="106"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="84"/>
+      <c r="D139" s="76"/>
+      <c r="E139" s="84"/>
+      <c r="F139" s="76"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="B140" s="104" t="s">
+      <c r="B140" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C140" s="121">
+      <c r="C140" s="77">
         <v>0</v>
       </c>
-      <c r="D140" s="123">
+      <c r="D140" s="79">
         <v>0.9</v>
       </c>
-      <c r="E140" s="121">
+      <c r="E140" s="77">
         <v>0</v>
       </c>
-      <c r="F140" s="123">
+      <c r="F140" s="79">
         <v>0.9</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B141" s="106"/>
-      <c r="C141" s="122"/>
-      <c r="D141" s="124"/>
-      <c r="E141" s="122"/>
-      <c r="F141" s="124"/>
+      <c r="B141" s="76"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="80"/>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="109">
+      <c r="C142" s="81">
         <v>582600</v>
       </c>
-      <c r="D142" s="90">
+      <c r="D142" s="82">
         <v>672700</v>
       </c>
-      <c r="E142" s="109">
+      <c r="E142" s="81">
         <v>580400</v>
       </c>
-      <c r="F142" s="90">
+      <c r="F142" s="82">
         <v>662800</v>
       </c>
     </row>
@@ -6387,25 +6387,25 @@
       <c r="B143" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="107"/>
-      <c r="D143" s="108"/>
-      <c r="E143" s="107"/>
-      <c r="F143" s="108"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="63"/>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="100">
+      <c r="C144" s="60">
         <v>32580</v>
       </c>
-      <c r="D144" s="102">
+      <c r="D144" s="62">
         <v>122740</v>
       </c>
-      <c r="E144" s="100">
+      <c r="E144" s="60">
         <v>30410</v>
       </c>
-      <c r="F144" s="102">
+      <c r="F144" s="62">
         <v>112830</v>
       </c>
     </row>
@@ -6413,25 +6413,25 @@
       <c r="B145" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="107"/>
-      <c r="D145" s="108"/>
-      <c r="E145" s="107"/>
-      <c r="F145" s="108"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="63"/>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="100">
+      <c r="C146" s="60">
         <v>550020</v>
       </c>
-      <c r="D146" s="102">
+      <c r="D146" s="62">
         <v>549960</v>
       </c>
-      <c r="E146" s="100">
+      <c r="E146" s="60">
         <v>549990</v>
       </c>
-      <c r="F146" s="102">
+      <c r="F146" s="62">
         <v>549970</v>
       </c>
     </row>
@@ -6439,229 +6439,229 @@
       <c r="B147" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C147" s="107"/>
-      <c r="D147" s="108"/>
-      <c r="E147" s="107"/>
-      <c r="F147" s="108"/>
+      <c r="C147" s="61"/>
+      <c r="D147" s="63"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="63"/>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C148" s="100">
+      <c r="C148" s="60">
         <v>437378</v>
       </c>
-      <c r="D148" s="102">
+      <c r="D148" s="62">
         <v>614994</v>
       </c>
-      <c r="E148" s="100">
+      <c r="E148" s="60">
         <v>409528</v>
       </c>
-      <c r="F148" s="102">
+      <c r="F148" s="62">
         <v>565820</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="4"/>
-      <c r="C149" s="107"/>
-      <c r="D149" s="108"/>
-      <c r="E149" s="107"/>
-      <c r="F149" s="108"/>
+      <c r="C149" s="61"/>
+      <c r="D149" s="63"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="63"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="4"/>
-      <c r="C150" s="91" t="s">
+      <c r="C150" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="93" t="s">
+      <c r="D150" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E150" s="91" t="s">
+      <c r="E150" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F150" s="93" t="s">
+      <c r="F150" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="4"/>
-      <c r="C151" s="92"/>
-      <c r="D151" s="94"/>
-      <c r="E151" s="92"/>
-      <c r="F151" s="94"/>
+      <c r="C151" s="86"/>
+      <c r="D151" s="88"/>
+      <c r="E151" s="86"/>
+      <c r="F151" s="88"/>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="4"/>
-      <c r="C152" s="100">
+      <c r="C152" s="60">
         <v>1495379</v>
       </c>
-      <c r="D152" s="102">
+      <c r="D152" s="62">
         <v>2102643</v>
       </c>
-      <c r="E152" s="100">
+      <c r="E152" s="60">
         <v>1400162</v>
       </c>
-      <c r="F152" s="102">
+      <c r="F152" s="62">
         <v>1934519</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="4"/>
-      <c r="C153" s="107"/>
-      <c r="D153" s="108"/>
-      <c r="E153" s="107"/>
-      <c r="F153" s="108"/>
+      <c r="C153" s="61"/>
+      <c r="D153" s="63"/>
+      <c r="E153" s="61"/>
+      <c r="F153" s="63"/>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="4"/>
-      <c r="C154" s="96">
+      <c r="C154" s="91">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D154" s="98">
+      <c r="D154" s="93">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E154" s="96">
+      <c r="E154" s="91">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F154" s="98">
+      <c r="F154" s="93">
         <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="4"/>
-      <c r="C155" s="97"/>
-      <c r="D155" s="99"/>
-      <c r="E155" s="97"/>
-      <c r="F155" s="99"/>
+      <c r="C155" s="92"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="92"/>
+      <c r="F155" s="94"/>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="4"/>
-      <c r="C156" s="100">
+      <c r="C156" s="60">
         <v>9277</v>
       </c>
-      <c r="D156" s="102">
+      <c r="D156" s="62">
         <v>13046</v>
       </c>
-      <c r="E156" s="100">
+      <c r="E156" s="60">
         <v>8687</v>
       </c>
-      <c r="F156" s="102">
+      <c r="F156" s="62">
         <v>12002</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="16.5" thickBot="1">
       <c r="B157" s="5"/>
-      <c r="C157" s="101"/>
-      <c r="D157" s="103"/>
-      <c r="E157" s="101"/>
-      <c r="F157" s="103"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="90"/>
+      <c r="E157" s="89"/>
+      <c r="F157" s="90"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="104" t="s">
+      <c r="B158" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C158" s="89">
+      <c r="C158" s="96">
         <v>10.7</v>
       </c>
-      <c r="D158" s="95">
+      <c r="D158" s="97">
         <v>20.399999999999999</v>
       </c>
-      <c r="E158" s="89">
+      <c r="E158" s="96">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F158" s="95">
+      <c r="F158" s="97">
         <v>18.3</v>
       </c>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="105"/>
-      <c r="C159" s="92"/>
-      <c r="D159" s="94"/>
-      <c r="E159" s="92"/>
-      <c r="F159" s="94"/>
+      <c r="B159" s="95"/>
+      <c r="C159" s="86"/>
+      <c r="D159" s="88"/>
+      <c r="E159" s="86"/>
+      <c r="F159" s="88"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="105"/>
-      <c r="C160" s="91">
+      <c r="B160" s="95"/>
+      <c r="C160" s="85">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D160" s="93">
+      <c r="D160" s="87">
         <v>4.7</v>
       </c>
-      <c r="E160" s="91">
+      <c r="E160" s="85">
         <v>2</v>
       </c>
-      <c r="F160" s="93">
+      <c r="F160" s="87">
         <v>4.3</v>
       </c>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="105"/>
-      <c r="C161" s="92"/>
-      <c r="D161" s="94"/>
-      <c r="E161" s="92"/>
-      <c r="F161" s="94"/>
+      <c r="B161" s="95"/>
+      <c r="C161" s="86"/>
+      <c r="D161" s="88"/>
+      <c r="E161" s="86"/>
+      <c r="F161" s="88"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="105"/>
-      <c r="C162" s="91">
+      <c r="B162" s="95"/>
+      <c r="C162" s="85">
         <v>8.5</v>
       </c>
-      <c r="D162" s="93">
+      <c r="D162" s="87">
         <v>15.7</v>
       </c>
-      <c r="E162" s="91">
+      <c r="E162" s="85">
         <v>7.7</v>
       </c>
-      <c r="F162" s="93">
+      <c r="F162" s="87">
         <v>14.1</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B163" s="106"/>
-      <c r="C163" s="81"/>
-      <c r="D163" s="82"/>
-      <c r="E163" s="81"/>
-      <c r="F163" s="82"/>
+      <c r="B163" s="76"/>
+      <c r="C163" s="98"/>
+      <c r="D163" s="99"/>
+      <c r="E163" s="98"/>
+      <c r="F163" s="99"/>
     </row>
     <row r="164" spans="2:6" ht="48">
       <c r="B164" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C164" s="89">
+      <c r="C164" s="96">
         <v>204</v>
       </c>
-      <c r="D164" s="95">
+      <c r="D164" s="97">
         <v>20</v>
       </c>
-      <c r="E164" s="89">
+      <c r="E164" s="96">
         <v>204</v>
       </c>
-      <c r="F164" s="95">
+      <c r="F164" s="97">
         <v>20</v>
       </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="4"/>
-      <c r="C165" s="92"/>
-      <c r="D165" s="94"/>
-      <c r="E165" s="92"/>
-      <c r="F165" s="94"/>
+      <c r="C165" s="86"/>
+      <c r="D165" s="88"/>
+      <c r="E165" s="86"/>
+      <c r="F165" s="88"/>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="100">
+      <c r="C166" s="60">
         <v>1783</v>
       </c>
-      <c r="D166" s="93">
+      <c r="D166" s="87">
         <v>217</v>
       </c>
-      <c r="E166" s="100">
+      <c r="E166" s="60">
         <v>1675</v>
       </c>
-      <c r="F166" s="93">
+      <c r="F166" s="87">
         <v>203</v>
       </c>
     </row>
@@ -6669,586 +6669,586 @@
       <c r="B167" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C167" s="107"/>
-      <c r="D167" s="94"/>
-      <c r="E167" s="107"/>
-      <c r="F167" s="94"/>
+      <c r="C167" s="61"/>
+      <c r="D167" s="88"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="88"/>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="4"/>
-      <c r="C168" s="100">
+      <c r="C168" s="60">
         <v>1888</v>
       </c>
-      <c r="D168" s="93">
+      <c r="D168" s="87">
         <v>266</v>
       </c>
-      <c r="E168" s="100">
+      <c r="E168" s="60">
         <v>1768</v>
       </c>
-      <c r="F168" s="93">
+      <c r="F168" s="87">
         <v>244</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="4"/>
-      <c r="C169" s="107"/>
-      <c r="D169" s="94"/>
-      <c r="E169" s="107"/>
-      <c r="F169" s="94"/>
+      <c r="C169" s="61"/>
+      <c r="D169" s="88"/>
+      <c r="E169" s="61"/>
+      <c r="F169" s="88"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="4"/>
-      <c r="C170" s="91">
+      <c r="C170" s="85">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="D170" s="93">
+      <c r="D170" s="87">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E170" s="91">
+      <c r="E170" s="85">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F170" s="93">
+      <c r="F170" s="87">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="4"/>
-      <c r="C171" s="92"/>
-      <c r="D171" s="94"/>
-      <c r="E171" s="92"/>
-      <c r="F171" s="94"/>
+      <c r="C171" s="86"/>
+      <c r="D171" s="88"/>
+      <c r="E171" s="86"/>
+      <c r="F171" s="88"/>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="4"/>
-      <c r="C172" s="91">
+      <c r="C172" s="85">
         <v>0.75149999999999995</v>
       </c>
-      <c r="D172" s="93">
+      <c r="D172" s="87">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="E172" s="91">
+      <c r="E172" s="85">
         <v>0.70630000000000004</v>
       </c>
-      <c r="F172" s="93">
+      <c r="F172" s="87">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="4"/>
-      <c r="C173" s="92"/>
-      <c r="D173" s="94"/>
-      <c r="E173" s="92"/>
-      <c r="F173" s="94"/>
+      <c r="C173" s="86"/>
+      <c r="D173" s="88"/>
+      <c r="E173" s="86"/>
+      <c r="F173" s="88"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="4"/>
-      <c r="C174" s="91">
+      <c r="C174" s="85">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D174" s="93">
+      <c r="D174" s="87">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E174" s="91">
+      <c r="E174" s="85">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F174" s="93">
+      <c r="F174" s="87">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="4"/>
-      <c r="C175" s="92"/>
-      <c r="D175" s="94"/>
-      <c r="E175" s="92"/>
-      <c r="F175" s="94"/>
+      <c r="C175" s="86"/>
+      <c r="D175" s="88"/>
+      <c r="E175" s="86"/>
+      <c r="F175" s="88"/>
     </row>
     <row r="176" spans="2:6">
       <c r="B176" s="4"/>
-      <c r="C176" s="91">
+      <c r="C176" s="85">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D176" s="93">
+      <c r="D176" s="87">
         <v>0.747</v>
       </c>
-      <c r="E176" s="91">
+      <c r="E176" s="85">
         <v>0.57599999999999996</v>
       </c>
-      <c r="F176" s="93">
+      <c r="F176" s="87">
         <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="177" spans="2:6">
       <c r="B177" s="4"/>
-      <c r="C177" s="92"/>
-      <c r="D177" s="94"/>
-      <c r="E177" s="92"/>
-      <c r="F177" s="94"/>
+      <c r="C177" s="86"/>
+      <c r="D177" s="88"/>
+      <c r="E177" s="86"/>
+      <c r="F177" s="88"/>
     </row>
     <row r="178" spans="2:6">
       <c r="B178" s="4"/>
-      <c r="C178" s="91">
+      <c r="C178" s="85">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D178" s="93">
+      <c r="D178" s="87">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E178" s="91">
+      <c r="E178" s="85">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F178" s="93">
+      <c r="F178" s="87">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" s="4"/>
-      <c r="C179" s="92"/>
-      <c r="D179" s="94"/>
-      <c r="E179" s="92"/>
-      <c r="F179" s="94"/>
+      <c r="C179" s="86"/>
+      <c r="D179" s="88"/>
+      <c r="E179" s="86"/>
+      <c r="F179" s="88"/>
     </row>
     <row r="180" spans="2:6">
       <c r="B180" s="4"/>
-      <c r="C180" s="91">
+      <c r="C180" s="85">
         <v>0.114</v>
       </c>
-      <c r="D180" s="93">
+      <c r="D180" s="87">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E180" s="91">
+      <c r="E180" s="85">
         <v>0.107</v>
       </c>
-      <c r="F180" s="93">
+      <c r="F180" s="87">
         <v>0.129</v>
       </c>
     </row>
     <row r="181" spans="2:6">
       <c r="B181" s="4"/>
-      <c r="C181" s="92"/>
-      <c r="D181" s="94"/>
-      <c r="E181" s="92"/>
-      <c r="F181" s="94"/>
+      <c r="C181" s="86"/>
+      <c r="D181" s="88"/>
+      <c r="E181" s="86"/>
+      <c r="F181" s="88"/>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" s="4"/>
-      <c r="C182" s="91">
+      <c r="C182" s="85">
         <v>1.143</v>
       </c>
-      <c r="D182" s="93">
+      <c r="D182" s="87">
         <v>1.143</v>
       </c>
-      <c r="E182" s="91">
+      <c r="E182" s="85">
         <v>1.143</v>
       </c>
-      <c r="F182" s="93">
+      <c r="F182" s="87">
         <v>1.143</v>
       </c>
     </row>
     <row r="183" spans="2:6">
       <c r="B183" s="4"/>
-      <c r="C183" s="92"/>
-      <c r="D183" s="94"/>
-      <c r="E183" s="92"/>
-      <c r="F183" s="94"/>
+      <c r="C183" s="86"/>
+      <c r="D183" s="88"/>
+      <c r="E183" s="86"/>
+      <c r="F183" s="88"/>
     </row>
     <row r="184" spans="2:6">
       <c r="B184" s="4"/>
-      <c r="C184" s="129">
+      <c r="C184" s="100">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D184" s="131">
+      <c r="D184" s="102">
         <v>1.22E-5</v>
       </c>
-      <c r="E184" s="129">
+      <c r="E184" s="100">
         <v>9.4099999999999997E-6</v>
       </c>
-      <c r="F184" s="131">
+      <c r="F184" s="102">
         <v>1.1399999999999999E-5</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="16.5" thickBot="1">
       <c r="B185" s="5"/>
-      <c r="C185" s="130"/>
-      <c r="D185" s="132"/>
-      <c r="E185" s="130"/>
-      <c r="F185" s="132"/>
+      <c r="C185" s="101"/>
+      <c r="D185" s="103"/>
+      <c r="E185" s="101"/>
+      <c r="F185" s="103"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="83" t="s">
+      <c r="B186" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C186" s="84"/>
-      <c r="D186" s="84"/>
-      <c r="E186" s="84"/>
-      <c r="F186" s="85"/>
+      <c r="C186" s="105"/>
+      <c r="D186" s="105"/>
+      <c r="E186" s="105"/>
+      <c r="F186" s="106"/>
     </row>
     <row r="187" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B187" s="86"/>
-      <c r="C187" s="87"/>
-      <c r="D187" s="87"/>
-      <c r="E187" s="87"/>
-      <c r="F187" s="88"/>
+      <c r="B187" s="107"/>
+      <c r="C187" s="108"/>
+      <c r="D187" s="108"/>
+      <c r="E187" s="108"/>
+      <c r="F187" s="109"/>
     </row>
     <row r="188" spans="2:6">
       <c r="B188" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C188" s="109">
+      <c r="C188" s="81">
         <v>1622</v>
       </c>
-      <c r="D188" s="90">
+      <c r="D188" s="82">
         <v>2942</v>
       </c>
-      <c r="E188" s="109">
+      <c r="E188" s="81">
         <v>1647</v>
       </c>
-      <c r="F188" s="90">
+      <c r="F188" s="82">
         <v>2913</v>
       </c>
     </row>
     <row r="189" spans="2:6">
       <c r="B189" s="2"/>
-      <c r="C189" s="107"/>
-      <c r="D189" s="108"/>
-      <c r="E189" s="107"/>
-      <c r="F189" s="108"/>
+      <c r="C189" s="61"/>
+      <c r="D189" s="63"/>
+      <c r="E189" s="61"/>
+      <c r="F189" s="63"/>
     </row>
     <row r="190" spans="2:6" ht="21">
       <c r="B190" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C190" s="100">
+      <c r="C190" s="60">
         <v>1996</v>
       </c>
-      <c r="D190" s="102">
+      <c r="D190" s="62">
         <v>3610</v>
       </c>
-      <c r="E190" s="100">
+      <c r="E190" s="60">
         <v>2024</v>
       </c>
-      <c r="F190" s="102">
+      <c r="F190" s="62">
         <v>3570</v>
       </c>
     </row>
     <row r="191" spans="2:6">
       <c r="B191" s="2"/>
-      <c r="C191" s="107"/>
-      <c r="D191" s="108"/>
-      <c r="E191" s="107"/>
-      <c r="F191" s="108"/>
+      <c r="C191" s="61"/>
+      <c r="D191" s="63"/>
+      <c r="E191" s="61"/>
+      <c r="F191" s="63"/>
     </row>
     <row r="192" spans="2:6" ht="24">
       <c r="B192" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C192" s="100">
+      <c r="C192" s="60">
         <v>1317</v>
       </c>
-      <c r="D192" s="102">
+      <c r="D192" s="62">
         <v>2255</v>
       </c>
-      <c r="E192" s="100">
+      <c r="E192" s="60">
         <v>1345</v>
       </c>
-      <c r="F192" s="102">
+      <c r="F192" s="62">
         <v>2239</v>
       </c>
     </row>
     <row r="193" spans="2:6">
       <c r="B193" s="2"/>
-      <c r="C193" s="107"/>
-      <c r="D193" s="108"/>
-      <c r="E193" s="107"/>
-      <c r="F193" s="108"/>
+      <c r="C193" s="61"/>
+      <c r="D193" s="63"/>
+      <c r="E193" s="61"/>
+      <c r="F193" s="63"/>
     </row>
     <row r="194" spans="2:6">
       <c r="B194" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="91">
+      <c r="C194" s="85">
         <v>124</v>
       </c>
-      <c r="D194" s="93">
+      <c r="D194" s="87">
         <v>213</v>
       </c>
-      <c r="E194" s="91">
+      <c r="E194" s="85">
         <v>127</v>
       </c>
-      <c r="F194" s="93">
+      <c r="F194" s="87">
         <v>211</v>
       </c>
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="2"/>
-      <c r="C195" s="92"/>
-      <c r="D195" s="94"/>
-      <c r="E195" s="92"/>
-      <c r="F195" s="94"/>
+      <c r="C195" s="86"/>
+      <c r="D195" s="88"/>
+      <c r="E195" s="86"/>
+      <c r="F195" s="88"/>
     </row>
     <row r="196" spans="2:6">
       <c r="B196" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C196" s="91">
+      <c r="C196" s="85">
         <v>182</v>
       </c>
-      <c r="D196" s="93">
+      <c r="D196" s="87">
         <v>369</v>
       </c>
-      <c r="E196" s="91">
+      <c r="E196" s="85">
         <v>176</v>
       </c>
-      <c r="F196" s="93">
+      <c r="F196" s="87">
         <v>362</v>
       </c>
     </row>
     <row r="197" spans="2:6">
       <c r="B197" s="2"/>
-      <c r="C197" s="92"/>
-      <c r="D197" s="94"/>
-      <c r="E197" s="92"/>
-      <c r="F197" s="94"/>
+      <c r="C197" s="86"/>
+      <c r="D197" s="88"/>
+      <c r="E197" s="86"/>
+      <c r="F197" s="88"/>
     </row>
     <row r="198" spans="2:6">
       <c r="B198" s="2"/>
-      <c r="C198" s="91">
+      <c r="C198" s="85">
         <v>0</v>
       </c>
-      <c r="D198" s="93">
+      <c r="D198" s="87">
         <v>105</v>
       </c>
-      <c r="E198" s="91">
+      <c r="E198" s="85">
         <v>0</v>
       </c>
-      <c r="F198" s="93">
+      <c r="F198" s="87">
         <v>100</v>
       </c>
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="2"/>
-      <c r="C199" s="92"/>
-      <c r="D199" s="94"/>
-      <c r="E199" s="92"/>
-      <c r="F199" s="94"/>
+      <c r="C199" s="86"/>
+      <c r="D199" s="88"/>
+      <c r="E199" s="86"/>
+      <c r="F199" s="88"/>
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="2"/>
-      <c r="C200" s="91">
+      <c r="C200" s="85">
         <v>374</v>
       </c>
-      <c r="D200" s="93">
+      <c r="D200" s="87">
         <v>667</v>
       </c>
-      <c r="E200" s="91">
+      <c r="E200" s="85">
         <v>377</v>
       </c>
-      <c r="F200" s="93">
+      <c r="F200" s="87">
         <v>657</v>
       </c>
     </row>
     <row r="201" spans="2:6">
       <c r="B201" s="2"/>
-      <c r="C201" s="92"/>
-      <c r="D201" s="94"/>
-      <c r="E201" s="92"/>
-      <c r="F201" s="94"/>
+      <c r="C201" s="86"/>
+      <c r="D201" s="88"/>
+      <c r="E201" s="86"/>
+      <c r="F201" s="88"/>
     </row>
     <row r="202" spans="2:6">
       <c r="B202" s="2"/>
-      <c r="C202" s="100">
+      <c r="C202" s="60">
         <v>1098124</v>
       </c>
-      <c r="D202" s="102">
+      <c r="D202" s="62">
         <v>1985432</v>
       </c>
-      <c r="E202" s="100">
+      <c r="E202" s="60">
         <v>1113445</v>
       </c>
-      <c r="F202" s="102">
+      <c r="F202" s="62">
         <v>1963644</v>
       </c>
     </row>
     <row r="203" spans="2:6">
       <c r="B203" s="2"/>
-      <c r="C203" s="107"/>
-      <c r="D203" s="108"/>
-      <c r="E203" s="107"/>
-      <c r="F203" s="108"/>
+      <c r="C203" s="61"/>
+      <c r="D203" s="63"/>
+      <c r="E203" s="61"/>
+      <c r="F203" s="63"/>
     </row>
     <row r="204" spans="2:6">
       <c r="B204" s="2"/>
-      <c r="C204" s="100">
+      <c r="C204" s="60">
         <v>2264</v>
       </c>
-      <c r="D204" s="102">
+      <c r="D204" s="62">
         <v>4115</v>
       </c>
-      <c r="E204" s="100">
+      <c r="E204" s="60">
         <v>2296</v>
       </c>
-      <c r="F204" s="102">
+      <c r="F204" s="62">
         <v>4070</v>
       </c>
     </row>
     <row r="205" spans="2:6">
       <c r="B205" s="2"/>
-      <c r="C205" s="107"/>
-      <c r="D205" s="108"/>
-      <c r="E205" s="107"/>
-      <c r="F205" s="108"/>
+      <c r="C205" s="61"/>
+      <c r="D205" s="63"/>
+      <c r="E205" s="61"/>
+      <c r="F205" s="63"/>
     </row>
     <row r="206" spans="2:6">
       <c r="B206" s="2"/>
-      <c r="C206" s="91">
+      <c r="C206" s="85">
         <v>59.4</v>
       </c>
-      <c r="D206" s="93">
+      <c r="D206" s="87">
         <v>109.6</v>
       </c>
-      <c r="E206" s="91">
+      <c r="E206" s="85">
         <v>58.9</v>
       </c>
-      <c r="F206" s="93">
+      <c r="F206" s="87">
         <v>106.5</v>
       </c>
     </row>
     <row r="207" spans="2:6">
       <c r="B207" s="2"/>
-      <c r="C207" s="92"/>
-      <c r="D207" s="94"/>
-      <c r="E207" s="92"/>
-      <c r="F207" s="94"/>
+      <c r="C207" s="86"/>
+      <c r="D207" s="88"/>
+      <c r="E207" s="86"/>
+      <c r="F207" s="88"/>
     </row>
     <row r="208" spans="2:6">
       <c r="B208" s="2"/>
-      <c r="C208" s="125">
+      <c r="C208" s="110">
         <v>0</v>
       </c>
-      <c r="D208" s="127">
+      <c r="D208" s="112">
         <v>5.8</v>
       </c>
-      <c r="E208" s="125">
+      <c r="E208" s="110">
         <v>0</v>
       </c>
-      <c r="F208" s="127">
+      <c r="F208" s="112">
         <v>5.6</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="B209" s="2"/>
-      <c r="C209" s="126"/>
-      <c r="D209" s="128"/>
-      <c r="E209" s="126"/>
-      <c r="F209" s="128"/>
+      <c r="C209" s="111"/>
+      <c r="D209" s="113"/>
+      <c r="E209" s="111"/>
+      <c r="F209" s="113"/>
     </row>
     <row r="210" spans="1:6">
       <c r="B210" s="2"/>
-      <c r="C210" s="125">
+      <c r="C210" s="110">
         <v>15.2</v>
       </c>
-      <c r="D210" s="127">
+      <c r="D210" s="112">
         <v>21.3</v>
       </c>
-      <c r="E210" s="125">
+      <c r="E210" s="110">
         <v>14.2</v>
       </c>
-      <c r="F210" s="127">
+      <c r="F210" s="112">
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="B211" s="2"/>
-      <c r="C211" s="126"/>
-      <c r="D211" s="128"/>
-      <c r="E211" s="126"/>
-      <c r="F211" s="128"/>
+      <c r="C211" s="111"/>
+      <c r="D211" s="113"/>
+      <c r="E211" s="111"/>
+      <c r="F211" s="113"/>
     </row>
     <row r="212" spans="1:6">
       <c r="B212" s="2"/>
-      <c r="C212" s="125">
+      <c r="C212" s="110">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D212" s="127">
+      <c r="D212" s="112">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E212" s="125">
+      <c r="E212" s="110">
         <v>5</v>
       </c>
-      <c r="F212" s="127">
+      <c r="F212" s="112">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="B213" s="2"/>
-      <c r="C213" s="126"/>
-      <c r="D213" s="128"/>
-      <c r="E213" s="126"/>
-      <c r="F213" s="128"/>
+      <c r="C213" s="111"/>
+      <c r="D213" s="113"/>
+      <c r="E213" s="111"/>
+      <c r="F213" s="113"/>
     </row>
     <row r="214" spans="1:6">
       <c r="B214" s="2"/>
-      <c r="C214" s="125">
+      <c r="C214" s="110">
         <v>7.8</v>
       </c>
-      <c r="D214" s="127">
+      <c r="D214" s="112">
         <v>13.1</v>
       </c>
-      <c r="E214" s="125">
+      <c r="E214" s="110">
         <v>8</v>
       </c>
-      <c r="F214" s="127">
+      <c r="F214" s="112">
         <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="B215" s="2"/>
-      <c r="C215" s="126"/>
-      <c r="D215" s="128"/>
-      <c r="E215" s="126"/>
-      <c r="F215" s="128"/>
+      <c r="C215" s="111"/>
+      <c r="D215" s="113"/>
+      <c r="E215" s="111"/>
+      <c r="F215" s="113"/>
     </row>
     <row r="216" spans="1:6">
       <c r="B216" s="2"/>
-      <c r="C216" s="125">
+      <c r="C216" s="110">
         <v>31.2</v>
       </c>
-      <c r="D216" s="127">
+      <c r="D216" s="112">
         <v>60.2</v>
       </c>
-      <c r="E216" s="125">
+      <c r="E216" s="110">
         <v>31.7</v>
       </c>
-      <c r="F216" s="127">
+      <c r="F216" s="112">
         <v>59.6</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="B217" s="2"/>
-      <c r="C217" s="126"/>
-      <c r="D217" s="128"/>
-      <c r="E217" s="126"/>
-      <c r="F217" s="128"/>
+      <c r="C217" s="111"/>
+      <c r="D217" s="113"/>
+      <c r="E217" s="111"/>
+      <c r="F217" s="113"/>
     </row>
     <row r="218" spans="1:6">
       <c r="B218" s="2"/>
-      <c r="C218" s="91">
+      <c r="C218" s="85">
         <v>75.3</v>
       </c>
-      <c r="D218" s="93">
+      <c r="D218" s="87">
         <v>139</v>
       </c>
-      <c r="E218" s="91">
+      <c r="E218" s="85">
         <v>74.7</v>
       </c>
-      <c r="F218" s="93">
+      <c r="F218" s="87">
         <v>135.19999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16.5" thickBot="1">
       <c r="B219" s="3"/>
-      <c r="C219" s="81"/>
-      <c r="D219" s="82"/>
-      <c r="E219" s="81"/>
-      <c r="F219" s="82"/>
+      <c r="C219" s="98"/>
+      <c r="D219" s="99"/>
+      <c r="E219" s="98"/>
+      <c r="F219" s="99"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
@@ -7259,69 +7259,69 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="B223" s="110"/>
-      <c r="C223" s="113" t="s">
+      <c r="B223" s="64"/>
+      <c r="C223" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D223" s="114"/>
+      <c r="D223" s="69"/>
     </row>
     <row r="224" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B224" s="111"/>
-      <c r="C224" s="115"/>
-      <c r="D224" s="116"/>
+      <c r="B224" s="65"/>
+      <c r="C224" s="70"/>
+      <c r="D224" s="72"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="111"/>
-      <c r="C225" s="117" t="s">
+      <c r="B225" s="65"/>
+      <c r="C225" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D225" s="118"/>
+      <c r="D225" s="74"/>
     </row>
     <row r="226" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B226" s="112"/>
-      <c r="C226" s="115"/>
-      <c r="D226" s="116"/>
+      <c r="B226" s="66"/>
+      <c r="C226" s="70"/>
+      <c r="D226" s="72"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="104" t="s">
+      <c r="B227" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C227" s="119" t="s">
+      <c r="C227" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="D227" s="104" t="s">
+      <c r="D227" s="75" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B228" s="106"/>
-      <c r="C228" s="120"/>
-      <c r="D228" s="106"/>
+      <c r="B228" s="76"/>
+      <c r="C228" s="84"/>
+      <c r="D228" s="76"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="104" t="s">
+      <c r="B229" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C229" s="121">
+      <c r="C229" s="77">
         <v>0</v>
       </c>
-      <c r="D229" s="123">
+      <c r="D229" s="79">
         <v>0.9</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B230" s="106"/>
-      <c r="C230" s="122"/>
-      <c r="D230" s="124"/>
+      <c r="B230" s="76"/>
+      <c r="C230" s="78"/>
+      <c r="D230" s="80"/>
     </row>
     <row r="231" spans="2:4">
       <c r="B231" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C231" s="109">
+      <c r="C231" s="81">
         <v>564700</v>
       </c>
-      <c r="D231" s="90">
+      <c r="D231" s="82">
         <v>511000</v>
       </c>
     </row>
@@ -7329,17 +7329,17 @@
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="107"/>
-      <c r="D232" s="108"/>
+      <c r="C232" s="61"/>
+      <c r="D232" s="63"/>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C233" s="100">
+      <c r="C233" s="60">
         <v>9620</v>
       </c>
-      <c r="D233" s="102">
+      <c r="D233" s="62">
         <v>37430</v>
       </c>
     </row>
@@ -7347,17 +7347,17 @@
       <c r="B234" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C234" s="107"/>
-      <c r="D234" s="108"/>
+      <c r="C234" s="61"/>
+      <c r="D234" s="63"/>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C235" s="100">
+      <c r="C235" s="60">
         <v>555080</v>
       </c>
-      <c r="D235" s="102">
+      <c r="D235" s="62">
         <v>473570</v>
       </c>
     </row>
@@ -7365,149 +7365,149 @@
       <c r="B236" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C236" s="107"/>
-      <c r="D236" s="108"/>
+      <c r="C236" s="61"/>
+      <c r="D236" s="63"/>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C237" s="91" t="s">
+      <c r="C237" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D237" s="93" t="s">
+      <c r="D237" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" s="4"/>
-      <c r="C238" s="92"/>
-      <c r="D238" s="94"/>
+      <c r="C238" s="86"/>
+      <c r="D238" s="88"/>
     </row>
     <row r="239" spans="2:4">
       <c r="B239" s="4"/>
-      <c r="C239" s="100">
+      <c r="C239" s="60">
         <v>167333</v>
       </c>
-      <c r="D239" s="102">
+      <c r="D239" s="62">
         <v>167333</v>
       </c>
     </row>
     <row r="240" spans="2:4">
       <c r="B240" s="4"/>
-      <c r="C240" s="107"/>
-      <c r="D240" s="108"/>
+      <c r="C240" s="61"/>
+      <c r="D240" s="63"/>
     </row>
     <row r="241" spans="2:4">
       <c r="B241" s="4"/>
-      <c r="C241" s="100">
+      <c r="C241" s="60">
         <v>1105812</v>
       </c>
-      <c r="D241" s="102">
+      <c r="D241" s="62">
         <v>1105812</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" s="4"/>
-      <c r="C242" s="107"/>
-      <c r="D242" s="108"/>
+      <c r="C242" s="61"/>
+      <c r="D242" s="63"/>
     </row>
     <row r="243" spans="2:4">
       <c r="B243" s="4"/>
-      <c r="C243" s="96">
+      <c r="C243" s="91">
         <v>0.502</v>
       </c>
-      <c r="D243" s="98">
+      <c r="D243" s="93">
         <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="244" spans="2:4">
       <c r="B244" s="4"/>
-      <c r="C244" s="97"/>
-      <c r="D244" s="99"/>
+      <c r="C244" s="92"/>
+      <c r="D244" s="94"/>
     </row>
     <row r="245" spans="2:4">
       <c r="B245" s="4"/>
-      <c r="C245" s="100">
+      <c r="C245" s="60">
         <v>6798</v>
       </c>
-      <c r="D245" s="102">
+      <c r="D245" s="62">
         <v>7968</v>
       </c>
     </row>
     <row r="246" spans="2:4" ht="16.5" thickBot="1">
       <c r="B246" s="5"/>
-      <c r="C246" s="101"/>
-      <c r="D246" s="103"/>
+      <c r="C246" s="89"/>
+      <c r="D246" s="90"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="104" t="s">
+      <c r="B247" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C247" s="89">
+      <c r="C247" s="96">
         <v>4.3</v>
       </c>
-      <c r="D247" s="95">
+      <c r="D247" s="97">
         <v>8.4</v>
       </c>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="105"/>
-      <c r="C248" s="92"/>
-      <c r="D248" s="94"/>
+      <c r="B248" s="95"/>
+      <c r="C248" s="86"/>
+      <c r="D248" s="88"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="105"/>
-      <c r="C249" s="91">
+      <c r="B249" s="95"/>
+      <c r="C249" s="85">
         <v>1</v>
       </c>
-      <c r="D249" s="93">
+      <c r="D249" s="87">
         <v>2.1</v>
       </c>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="105"/>
-      <c r="C250" s="92"/>
-      <c r="D250" s="94"/>
+      <c r="B250" s="95"/>
+      <c r="C250" s="86"/>
+      <c r="D250" s="88"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="105"/>
-      <c r="C251" s="91">
+      <c r="B251" s="95"/>
+      <c r="C251" s="85">
         <v>3.3</v>
       </c>
-      <c r="D251" s="93">
+      <c r="D251" s="87">
         <v>6.3</v>
       </c>
     </row>
     <row r="252" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B252" s="106"/>
-      <c r="C252" s="81"/>
-      <c r="D252" s="82"/>
+      <c r="B252" s="76"/>
+      <c r="C252" s="98"/>
+      <c r="D252" s="99"/>
     </row>
     <row r="253" spans="2:4" ht="48">
       <c r="B253" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C253" s="89">
+      <c r="C253" s="96">
         <v>118</v>
       </c>
-      <c r="D253" s="95">
+      <c r="D253" s="97">
         <v>12</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" s="4"/>
-      <c r="C254" s="92"/>
-      <c r="D254" s="94"/>
+      <c r="C254" s="86"/>
+      <c r="D254" s="88"/>
     </row>
     <row r="255" spans="2:4">
       <c r="B255" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C255" s="91">
+      <c r="C255" s="85">
         <v>790</v>
       </c>
-      <c r="D255" s="93">
+      <c r="D255" s="87">
         <v>87</v>
       </c>
     </row>
@@ -7515,383 +7515,871 @@
       <c r="B256" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C256" s="92"/>
-      <c r="D256" s="94"/>
+      <c r="C256" s="86"/>
+      <c r="D256" s="88"/>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" s="4"/>
-      <c r="C257" s="91">
+      <c r="C257" s="85">
         <v>804</v>
       </c>
-      <c r="D257" s="93">
+      <c r="D257" s="87">
         <v>94</v>
       </c>
     </row>
     <row r="258" spans="2:4">
       <c r="B258" s="4"/>
-      <c r="C258" s="92"/>
-      <c r="D258" s="94"/>
+      <c r="C258" s="86"/>
+      <c r="D258" s="88"/>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" s="4"/>
-      <c r="C259" s="91" t="s">
+      <c r="C259" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D259" s="93" t="s">
+      <c r="D259" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" s="4"/>
-      <c r="C260" s="92"/>
-      <c r="D260" s="94"/>
+      <c r="C260" s="86"/>
+      <c r="D260" s="88"/>
     </row>
     <row r="261" spans="2:4">
       <c r="B261" s="4"/>
-      <c r="C261" s="91" t="s">
+      <c r="C261" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D261" s="93" t="s">
+      <c r="D261" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="262" spans="2:4">
       <c r="B262" s="4"/>
-      <c r="C262" s="92"/>
-      <c r="D262" s="94"/>
+      <c r="C262" s="86"/>
+      <c r="D262" s="88"/>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" s="4"/>
-      <c r="C263" s="91">
+      <c r="C263" s="85">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D263" s="93">
+      <c r="D263" s="87">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="264" spans="2:4">
       <c r="B264" s="4"/>
-      <c r="C264" s="92"/>
-      <c r="D264" s="80"/>
+      <c r="C264" s="86"/>
+      <c r="D264" s="116"/>
     </row>
     <row r="265" spans="2:4">
       <c r="B265" s="4"/>
-      <c r="C265" s="91">
+      <c r="C265" s="85">
         <v>0.06</v>
       </c>
-      <c r="D265" s="79">
+      <c r="D265" s="115">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="266" spans="2:4">
       <c r="B266" s="4"/>
-      <c r="C266" s="78"/>
-      <c r="D266" s="80"/>
+      <c r="C266" s="114"/>
+      <c r="D266" s="116"/>
     </row>
     <row r="267" spans="2:4">
       <c r="B267" s="4"/>
-      <c r="C267" s="77" t="s">
+      <c r="C267" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D267" s="79" t="s">
+      <c r="D267" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="268" spans="2:4">
       <c r="B268" s="4"/>
-      <c r="C268" s="78"/>
-      <c r="D268" s="80"/>
+      <c r="C268" s="114"/>
+      <c r="D268" s="116"/>
     </row>
     <row r="269" spans="2:4">
       <c r="B269" s="4"/>
-      <c r="C269" s="77" t="s">
+      <c r="C269" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D269" s="79" t="s">
+      <c r="D269" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="270" spans="2:4">
       <c r="B270" s="4"/>
-      <c r="C270" s="78"/>
-      <c r="D270" s="80"/>
+      <c r="C270" s="114"/>
+      <c r="D270" s="116"/>
     </row>
     <row r="271" spans="2:4">
       <c r="B271" s="4"/>
-      <c r="C271" s="77" t="s">
+      <c r="C271" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D271" s="79" t="s">
+      <c r="D271" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="272" spans="2:4">
       <c r="B272" s="4"/>
-      <c r="C272" s="78"/>
-      <c r="D272" s="80"/>
+      <c r="C272" s="114"/>
+      <c r="D272" s="116"/>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" s="4"/>
-      <c r="C273" s="77" t="s">
+      <c r="C273" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D273" s="79" t="s">
+      <c r="D273" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="274" spans="2:4" ht="16.5" thickBot="1">
       <c r="B274" s="5"/>
-      <c r="C274" s="81"/>
-      <c r="D274" s="82"/>
+      <c r="C274" s="98"/>
+      <c r="D274" s="99"/>
     </row>
     <row r="275" spans="2:4">
-      <c r="B275" s="83" t="s">
+      <c r="B275" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C275" s="84"/>
-      <c r="D275" s="85"/>
+      <c r="C275" s="105"/>
+      <c r="D275" s="106"/>
     </row>
     <row r="276" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B276" s="86"/>
-      <c r="C276" s="87"/>
-      <c r="D276" s="88"/>
+      <c r="B276" s="107"/>
+      <c r="C276" s="108"/>
+      <c r="D276" s="109"/>
     </row>
     <row r="277" spans="2:4">
       <c r="B277" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C277" s="89">
+      <c r="C277" s="96">
         <v>584</v>
       </c>
-      <c r="D277" s="90">
+      <c r="D277" s="82">
         <v>1226</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="B278" s="2"/>
-      <c r="C278" s="78"/>
-      <c r="D278" s="76"/>
+      <c r="C278" s="114"/>
+      <c r="D278" s="118"/>
     </row>
     <row r="279" spans="2:4" ht="21">
       <c r="B279" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C279" s="77">
+      <c r="C279" s="117">
         <v>718</v>
       </c>
-      <c r="D279" s="75">
+      <c r="D279" s="134">
         <v>1497</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="B280" s="2"/>
-      <c r="C280" s="78"/>
-      <c r="D280" s="76"/>
+      <c r="C280" s="114"/>
+      <c r="D280" s="118"/>
     </row>
     <row r="281" spans="2:4" ht="24">
       <c r="B281" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C281" s="77">
+      <c r="C281" s="117">
         <v>482</v>
       </c>
-      <c r="D281" s="79">
+      <c r="D281" s="115">
         <v>926</v>
       </c>
     </row>
     <row r="282" spans="2:4">
       <c r="B282" s="2"/>
-      <c r="C282" s="78"/>
-      <c r="D282" s="80"/>
+      <c r="C282" s="114"/>
+      <c r="D282" s="116"/>
     </row>
     <row r="283" spans="2:4">
       <c r="B283" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C283" s="77">
+      <c r="C283" s="117">
         <v>40</v>
       </c>
-      <c r="D283" s="79">
+      <c r="D283" s="115">
         <v>78</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="B284" s="2"/>
-      <c r="C284" s="78"/>
-      <c r="D284" s="80"/>
+      <c r="C284" s="114"/>
+      <c r="D284" s="116"/>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C285" s="77">
+      <c r="C285" s="117">
         <v>62</v>
       </c>
-      <c r="D285" s="79">
+      <c r="D285" s="115">
         <v>162</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" s="2"/>
-      <c r="C286" s="78"/>
-      <c r="D286" s="80"/>
+      <c r="C286" s="114"/>
+      <c r="D286" s="116"/>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" s="2"/>
-      <c r="C287" s="77">
+      <c r="C287" s="117">
         <v>0</v>
       </c>
-      <c r="D287" s="79">
+      <c r="D287" s="115">
         <v>60</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" s="2"/>
-      <c r="C288" s="78"/>
-      <c r="D288" s="80"/>
+      <c r="C288" s="114"/>
+      <c r="D288" s="116"/>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" s="2"/>
-      <c r="C289" s="77">
+      <c r="C289" s="117">
         <v>133</v>
       </c>
-      <c r="D289" s="79">
+      <c r="D289" s="115">
         <v>271</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="B290" s="2"/>
-      <c r="C290" s="78"/>
-      <c r="D290" s="80"/>
+      <c r="C290" s="114"/>
+      <c r="D290" s="116"/>
     </row>
     <row r="291" spans="2:4">
       <c r="B291" s="2"/>
-      <c r="C291" s="73">
+      <c r="C291" s="132">
         <v>398290</v>
       </c>
-      <c r="D291" s="75">
+      <c r="D291" s="134">
         <v>709039</v>
       </c>
     </row>
     <row r="292" spans="2:4">
       <c r="B292" s="2"/>
-      <c r="C292" s="74"/>
-      <c r="D292" s="76"/>
+      <c r="C292" s="133"/>
+      <c r="D292" s="118"/>
     </row>
     <row r="293" spans="2:4">
       <c r="B293" s="2"/>
-      <c r="C293" s="77">
+      <c r="C293" s="117">
         <v>771</v>
       </c>
-      <c r="D293" s="75">
+      <c r="D293" s="134">
         <v>1614</v>
       </c>
     </row>
     <row r="294" spans="2:4">
       <c r="B294" s="2"/>
-      <c r="C294" s="78"/>
-      <c r="D294" s="76"/>
+      <c r="C294" s="114"/>
+      <c r="D294" s="118"/>
     </row>
     <row r="295" spans="2:4">
       <c r="B295" s="2"/>
-      <c r="C295" s="77">
+      <c r="C295" s="117">
         <v>58.9</v>
       </c>
-      <c r="D295" s="79">
+      <c r="D295" s="115">
         <v>85.9</v>
       </c>
     </row>
     <row r="296" spans="2:4">
       <c r="B296" s="2"/>
-      <c r="C296" s="78"/>
-      <c r="D296" s="80"/>
+      <c r="C296" s="114"/>
+      <c r="D296" s="116"/>
     </row>
     <row r="297" spans="2:4">
       <c r="B297" s="2"/>
-      <c r="C297" s="69">
+      <c r="C297" s="119">
         <v>0</v>
       </c>
-      <c r="D297" s="71">
+      <c r="D297" s="121">
         <v>3.2</v>
       </c>
     </row>
     <row r="298" spans="2:4">
       <c r="B298" s="2"/>
-      <c r="C298" s="70"/>
-      <c r="D298" s="72"/>
+      <c r="C298" s="120"/>
+      <c r="D298" s="122"/>
     </row>
     <row r="299" spans="2:4">
       <c r="B299" s="2"/>
-      <c r="C299" s="69">
+      <c r="C299" s="119">
         <v>44.5</v>
       </c>
-      <c r="D299" s="71">
+      <c r="D299" s="121">
         <v>52.2</v>
       </c>
     </row>
     <row r="300" spans="2:4">
       <c r="B300" s="2"/>
-      <c r="C300" s="70"/>
-      <c r="D300" s="72"/>
+      <c r="C300" s="120"/>
+      <c r="D300" s="122"/>
     </row>
     <row r="301" spans="2:4">
       <c r="B301" s="2"/>
-      <c r="C301" s="69">
+      <c r="C301" s="119">
         <v>1.3</v>
       </c>
-      <c r="D301" s="71">
+      <c r="D301" s="121">
         <v>2.6</v>
       </c>
     </row>
     <row r="302" spans="2:4">
       <c r="B302" s="2"/>
-      <c r="C302" s="70"/>
-      <c r="D302" s="72"/>
+      <c r="C302" s="120"/>
+      <c r="D302" s="122"/>
     </row>
     <row r="303" spans="2:4">
       <c r="B303" s="2"/>
-      <c r="C303" s="69">
+      <c r="C303" s="119">
         <v>3</v>
       </c>
-      <c r="D303" s="71">
+      <c r="D303" s="121">
         <v>5.7</v>
       </c>
     </row>
     <row r="304" spans="2:4">
       <c r="B304" s="2"/>
-      <c r="C304" s="70"/>
-      <c r="D304" s="72"/>
+      <c r="C304" s="120"/>
+      <c r="D304" s="122"/>
     </row>
     <row r="305" spans="2:4">
       <c r="B305" s="2"/>
-      <c r="C305" s="69">
+      <c r="C305" s="119">
         <v>10.1</v>
       </c>
-      <c r="D305" s="71">
+      <c r="D305" s="121">
         <v>22.3</v>
       </c>
     </row>
     <row r="306" spans="2:4">
       <c r="B306" s="2"/>
-      <c r="C306" s="70"/>
-      <c r="D306" s="72"/>
+      <c r="C306" s="120"/>
+      <c r="D306" s="122"/>
     </row>
     <row r="307" spans="2:4">
       <c r="B307" s="2"/>
-      <c r="C307" s="77">
+      <c r="C307" s="117">
         <v>74.7</v>
       </c>
-      <c r="D307" s="79">
+      <c r="D307" s="115">
         <v>108.9</v>
       </c>
     </row>
     <row r="308" spans="2:4" ht="16.5" thickBot="1">
       <c r="B308" s="3"/>
-      <c r="C308" s="81"/>
-      <c r="D308" s="82"/>
+      <c r="C308" s="98"/>
+      <c r="D308" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="512">
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="D303:D304"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="D291:D292"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="D293:D294"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="B275:D276"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="B247:B252"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:D224"/>
+    <mergeCell ref="C225:D226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F206:F207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="B186:F187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="B98:H99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:F135"/>
+    <mergeCell ref="C136:D137"/>
+    <mergeCell ref="E136:F137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
     <mergeCell ref="C144:C145"/>
     <mergeCell ref="D144:D145"/>
     <mergeCell ref="E144:E145"/>
@@ -7916,494 +8404,6 @@
     <mergeCell ref="E142:E143"/>
     <mergeCell ref="F142:F143"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:F135"/>
-    <mergeCell ref="C136:D137"/>
-    <mergeCell ref="E136:F137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="B98:H99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="B186:F187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:F207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:D224"/>
-    <mergeCell ref="C225:D226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="B247:B252"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="B275:D276"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D299:D300"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="D303:D304"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="D291:D292"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="D293:D294"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ccs/plants.xlsx
+++ b/ccs/plants.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500"/>
+    <workbookView xWindow="2790" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="COAL and NG calcs" sheetId="3" r:id="rId1"/>
@@ -1915,18 +1915,156 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1939,205 +2077,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2899,24 +2899,24 @@
     </row>
     <row r="11" spans="1:23" ht="33" customHeight="1">
       <c r="K11" s="25"/>
-      <c r="L11" s="126" t="s">
+      <c r="L11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126" t="s">
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="127" t="s">
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="128"/>
+      <c r="W11" s="65"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -3007,15 +3007,15 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="B14" s="64"/>
-      <c r="C14" s="67" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="114"/>
       <c r="K14" s="26" t="s">
         <v>15</v>
       </c>
@@ -3057,13 +3057,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" thickBot="1">
-      <c r="B15" s="65"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="116"/>
       <c r="K15" s="26" t="s">
         <v>33</v>
       </c>
@@ -3105,19 +3105,19 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="65"/>
-      <c r="C16" s="73" t="s">
+      <c r="B16" s="111"/>
+      <c r="C16" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="73" t="s">
+      <c r="D16" s="118"/>
+      <c r="E16" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="73" t="s">
+      <c r="F16" s="118"/>
+      <c r="G16" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="74"/>
+      <c r="H16" s="118"/>
       <c r="K16" s="26" t="s">
         <v>34</v>
       </c>
@@ -3159,13 +3159,13 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B17" s="66"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="72"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="116"/>
       <c r="K17" s="26" t="s">
         <v>20</v>
       </c>
@@ -3255,72 +3255,72 @@
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="104" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="129" t="s">
+      <c r="L19" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="129" t="s">
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="130"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="129" t="s">
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="W19" s="131"/>
+      <c r="W19" s="68"/>
     </row>
     <row r="20" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B20" s="76"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="76"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="106"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="123" t="s">
+      <c r="L20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="123" t="s">
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="125"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="62"/>
       <c r="V20" s="15"/>
       <c r="W20" s="16"/>
     </row>
@@ -3467,25 +3467,25 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="121">
         <v>0</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="123">
         <v>0.9</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="121">
         <v>0</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="123">
         <v>0.9</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="121">
         <v>0</v>
       </c>
-      <c r="H24" s="79">
+      <c r="H24" s="123">
         <v>0.9</v>
       </c>
       <c r="K24" s="26" t="s">
@@ -3541,13 +3541,13 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B25" s="76"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="80"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="124"/>
       <c r="K25" s="26" t="s">
         <v>33</v>
       </c>
@@ -3604,22 +3604,22 @@
       <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="109">
         <v>747800</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="90">
         <v>734000</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="109">
         <v>738200</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="90">
         <v>703700</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="109">
         <v>737000</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="90">
         <v>673400</v>
       </c>
       <c r="K26" s="26" t="s">
@@ -3678,12 +3678,12 @@
       <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="63"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
       <c r="K27" s="26" t="s">
         <v>104</v>
       </c>
@@ -4476,22 +4476,22 @@
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="60">
+      <c r="C43" s="100">
         <v>125750</v>
       </c>
-      <c r="D43" s="62">
+      <c r="D43" s="102">
         <v>190750</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="100">
         <v>113140</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="102">
         <v>190090</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="100">
         <v>108020</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="102">
         <v>176540</v>
       </c>
       <c r="K43" s="31" t="s">
@@ -4532,12 +4532,12 @@
       <c r="B44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="63"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="108"/>
       <c r="K44" s="27" t="s">
         <v>77</v>
       </c>
@@ -5144,22 +5144,22 @@
       <c r="B58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="60">
+      <c r="C58" s="100">
         <v>622050</v>
       </c>
-      <c r="D58" s="62">
+      <c r="D58" s="102">
         <v>543250</v>
       </c>
-      <c r="E58" s="60">
+      <c r="E58" s="100">
         <v>625060</v>
       </c>
-      <c r="F58" s="62">
+      <c r="F58" s="102">
         <v>513610</v>
       </c>
-      <c r="G58" s="60">
+      <c r="G58" s="100">
         <v>628980</v>
       </c>
-      <c r="H58" s="62">
+      <c r="H58" s="102">
         <v>496860</v>
       </c>
       <c r="M58" s="11"/>
@@ -5168,34 +5168,34 @@
       <c r="B59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="63"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="108"/>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="2:23">
       <c r="B60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="60">
+      <c r="C60" s="100">
         <v>466901</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="102">
         <v>487011</v>
       </c>
-      <c r="E60" s="60">
+      <c r="E60" s="100">
         <v>459958</v>
       </c>
-      <c r="F60" s="62">
+      <c r="F60" s="102">
         <v>484212</v>
       </c>
-      <c r="G60" s="60">
+      <c r="G60" s="100">
         <v>436646</v>
       </c>
-      <c r="H60" s="62">
+      <c r="H60" s="102">
         <v>465264</v>
       </c>
       <c r="M60" s="11"/>
@@ -5207,279 +5207,279 @@
       <c r="B61" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="63"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="108"/>
       <c r="U61" s="30"/>
     </row>
     <row r="62" spans="2:23">
       <c r="B62" s="4"/>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="87" t="s">
+      <c r="D62" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="85" t="s">
+      <c r="E62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="85" t="s">
+      <c r="G62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="87" t="s">
+      <c r="H62" s="93" t="s">
         <v>22</v>
       </c>
       <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="2:23">
       <c r="B63" s="4"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="88"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="94"/>
     </row>
     <row r="64" spans="2:23">
       <c r="B64" s="4"/>
-      <c r="C64" s="60">
+      <c r="C64" s="100">
         <v>1596320</v>
       </c>
-      <c r="D64" s="62">
+      <c r="D64" s="102">
         <v>1665074</v>
       </c>
-      <c r="E64" s="60">
+      <c r="E64" s="100">
         <v>1572582</v>
       </c>
-      <c r="F64" s="62">
+      <c r="F64" s="102">
         <v>1655503</v>
       </c>
-      <c r="G64" s="60">
+      <c r="G64" s="100">
         <v>1492878</v>
       </c>
-      <c r="H64" s="62">
+      <c r="H64" s="102">
         <v>1590722</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="63"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="108"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4"/>
-      <c r="C66" s="91">
+      <c r="C66" s="96">
         <v>0.39</v>
       </c>
-      <c r="D66" s="93">
+      <c r="D66" s="98">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E66" s="91">
+      <c r="E66" s="96">
         <v>0.39700000000000002</v>
       </c>
-      <c r="F66" s="93">
+      <c r="F66" s="98">
         <v>0.31</v>
       </c>
-      <c r="G66" s="91">
+      <c r="G66" s="96">
         <v>0.42099999999999999</v>
       </c>
-      <c r="H66" s="93">
+      <c r="H66" s="98">
         <v>0.312</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="94"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="99"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4"/>
-      <c r="C68" s="60">
+      <c r="C68" s="100">
         <v>8756</v>
       </c>
-      <c r="D68" s="62">
+      <c r="D68" s="102">
         <v>10458</v>
       </c>
-      <c r="E68" s="60">
+      <c r="E68" s="100">
         <v>8585</v>
       </c>
-      <c r="F68" s="62">
+      <c r="F68" s="102">
         <v>10998</v>
       </c>
-      <c r="G68" s="60">
+      <c r="G68" s="100">
         <v>8099</v>
       </c>
-      <c r="H68" s="62">
+      <c r="H68" s="102">
         <v>10924</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="16.5" thickBot="1">
       <c r="B69" s="5"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="90"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="103"/>
     </row>
     <row r="70" spans="2:8" ht="33" customHeight="1">
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="96">
+      <c r="C70" s="89">
         <v>7.6</v>
       </c>
-      <c r="D70" s="97">
+      <c r="D70" s="95">
         <v>10.7</v>
       </c>
-      <c r="E70" s="96">
+      <c r="E70" s="89">
         <v>7</v>
       </c>
-      <c r="F70" s="97">
+      <c r="F70" s="95">
         <v>11.1</v>
       </c>
-      <c r="G70" s="96">
+      <c r="G70" s="89">
         <v>6.6</v>
       </c>
-      <c r="H70" s="97">
+      <c r="H70" s="95">
         <v>11.3</v>
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="95"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="88"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="94"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="95"/>
-      <c r="C72" s="85">
+      <c r="B72" s="105"/>
+      <c r="C72" s="91">
         <v>1.6</v>
       </c>
-      <c r="D72" s="87">
+      <c r="D72" s="93">
         <v>2</v>
       </c>
-      <c r="E72" s="85">
+      <c r="E72" s="91">
         <v>1.4</v>
       </c>
-      <c r="F72" s="87">
+      <c r="F72" s="93">
         <v>2.1</v>
       </c>
-      <c r="G72" s="85">
+      <c r="G72" s="91">
         <v>1.2</v>
       </c>
-      <c r="H72" s="87">
+      <c r="H72" s="93">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="95"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="88"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="94"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="95"/>
-      <c r="C74" s="85">
+      <c r="B74" s="105"/>
+      <c r="C74" s="91">
         <v>6</v>
       </c>
-      <c r="D74" s="87">
+      <c r="D74" s="93">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E74" s="85">
+      <c r="E74" s="91">
         <v>5.5</v>
       </c>
-      <c r="F74" s="87">
+      <c r="F74" s="93">
         <v>9</v>
       </c>
-      <c r="G74" s="85">
+      <c r="G74" s="91">
         <v>5.3</v>
       </c>
-      <c r="H74" s="87">
+      <c r="H74" s="93">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B75" s="76"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="99"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="82"/>
     </row>
     <row r="76" spans="2:8" ht="48">
       <c r="B76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="96">
+      <c r="C76" s="89">
         <v>197</v>
       </c>
-      <c r="D76" s="97">
+      <c r="D76" s="95">
         <v>20</v>
       </c>
-      <c r="E76" s="96">
+      <c r="E76" s="89">
         <v>199</v>
       </c>
-      <c r="F76" s="97">
+      <c r="F76" s="95">
         <v>20</v>
       </c>
-      <c r="G76" s="96">
+      <c r="G76" s="89">
         <v>197</v>
       </c>
-      <c r="H76" s="97">
+      <c r="H76" s="95">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="88"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="94"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="60">
+      <c r="C78" s="100">
         <v>1434</v>
       </c>
-      <c r="D78" s="87">
+      <c r="D78" s="93">
         <v>152</v>
       </c>
-      <c r="E78" s="60">
+      <c r="E78" s="100">
         <v>1448</v>
       </c>
-      <c r="F78" s="87">
+      <c r="F78" s="93">
         <v>158</v>
       </c>
-      <c r="G78" s="60">
+      <c r="G78" s="100">
         <v>1361</v>
       </c>
-      <c r="H78" s="87">
+      <c r="H78" s="93">
         <v>161</v>
       </c>
     </row>
@@ -5487,794 +5487,794 @@
       <c r="B79" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="88"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="94"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4"/>
-      <c r="C80" s="60">
+      <c r="C80" s="100">
         <v>1723</v>
       </c>
-      <c r="D80" s="87">
+      <c r="D80" s="93">
         <v>206</v>
       </c>
-      <c r="E80" s="60">
+      <c r="E80" s="100">
         <v>1710</v>
       </c>
-      <c r="F80" s="87">
+      <c r="F80" s="93">
         <v>217</v>
       </c>
-      <c r="G80" s="60">
+      <c r="G80" s="100">
         <v>1595</v>
       </c>
-      <c r="H80" s="87">
+      <c r="H80" s="93">
         <v>218</v>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="4"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="88"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="88"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="94"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="94"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="4"/>
-      <c r="C82" s="85">
+      <c r="C82" s="91">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D82" s="87">
+      <c r="D82" s="93">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E82" s="85">
+      <c r="E82" s="91">
         <v>1.17E-2</v>
       </c>
-      <c r="F82" s="87">
+      <c r="F82" s="93">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="G82" s="85">
+      <c r="G82" s="91">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H82" s="87">
+      <c r="H82" s="93">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="4"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="86"/>
-      <c r="H83" s="88"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="94"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="4"/>
-      <c r="C84" s="85">
+      <c r="C84" s="91">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D84" s="87">
+      <c r="D84" s="93">
         <v>1.66E-2</v>
       </c>
-      <c r="E84" s="85">
+      <c r="E84" s="91">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="F84" s="87">
+      <c r="F84" s="93">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="G84" s="85">
+      <c r="G84" s="91">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H84" s="87">
+      <c r="H84" s="93">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="4"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="88"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="94"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="4"/>
-      <c r="C86" s="85">
+      <c r="C86" s="91">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D86" s="87">
+      <c r="D86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E86" s="85">
+      <c r="E86" s="91">
         <v>0.06</v>
       </c>
-      <c r="F86" s="87">
+      <c r="F86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G86" s="85">
+      <c r="G86" s="91">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H86" s="87">
+      <c r="H86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="4"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="88"/>
-      <c r="G87" s="86"/>
-      <c r="H87" s="88"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="94"/>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="4"/>
-      <c r="C88" s="85">
+      <c r="C88" s="91">
         <v>0.43</v>
       </c>
-      <c r="D88" s="87">
+      <c r="D88" s="93">
         <v>0.376</v>
       </c>
-      <c r="E88" s="85">
+      <c r="E88" s="91">
         <v>0.434</v>
       </c>
-      <c r="F88" s="87">
+      <c r="F88" s="93">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G88" s="85">
+      <c r="G88" s="91">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H88" s="87">
+      <c r="H88" s="93">
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="4"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="88"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="94"/>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="4"/>
-      <c r="C90" s="85">
+      <c r="C90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D90" s="87">
+      <c r="D90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E90" s="85">
+      <c r="E90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="F90" s="87">
+      <c r="F90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G90" s="85">
+      <c r="G90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="H90" s="87">
+      <c r="H90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="4"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="88"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="94"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="4"/>
-      <c r="C92" s="85">
+      <c r="C92" s="91">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D92" s="87">
+      <c r="D92" s="93">
         <v>5.5E-2</v>
       </c>
-      <c r="E92" s="85">
+      <c r="E92" s="91">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F92" s="87">
+      <c r="F92" s="93">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G92" s="85">
+      <c r="G92" s="91">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H92" s="87">
+      <c r="H92" s="93">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="4"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="88"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="88"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="94"/>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="4"/>
-      <c r="C94" s="85">
+      <c r="C94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D94" s="87">
+      <c r="D94" s="93">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E94" s="85">
+      <c r="E94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="F94" s="87">
+      <c r="F94" s="93">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G94" s="85">
+      <c r="G94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="H94" s="87">
+      <c r="H94" s="93">
         <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="4"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="86"/>
-      <c r="H95" s="88"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="94"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="94"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="94"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="4"/>
-      <c r="C96" s="100">
+      <c r="C96" s="129">
         <v>4.16E-6</v>
       </c>
-      <c r="D96" s="102">
+      <c r="D96" s="131">
         <v>4.42E-6</v>
       </c>
-      <c r="E96" s="100">
+      <c r="E96" s="129">
         <v>4.1500000000000001E-6</v>
       </c>
-      <c r="F96" s="102">
+      <c r="F96" s="131">
         <v>4.5900000000000001E-6</v>
       </c>
-      <c r="G96" s="100">
+      <c r="G96" s="129">
         <v>3.9500000000000003E-6</v>
       </c>
-      <c r="H96" s="102">
+      <c r="H96" s="131">
         <v>4.6099999999999999E-6</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="16.5" thickBot="1">
       <c r="B97" s="5"/>
-      <c r="C97" s="101"/>
-      <c r="D97" s="103"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="103"/>
-      <c r="G97" s="101"/>
-      <c r="H97" s="103"/>
+      <c r="C97" s="130"/>
+      <c r="D97" s="132"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="132"/>
+      <c r="G97" s="130"/>
+      <c r="H97" s="132"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="104" t="s">
+      <c r="B98" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="105"/>
-      <c r="D98" s="105"/>
-      <c r="E98" s="105"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="106"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="84"/>
+      <c r="G98" s="84"/>
+      <c r="H98" s="85"/>
     </row>
     <row r="99" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B99" s="107"/>
-      <c r="C99" s="108"/>
-      <c r="D99" s="108"/>
-      <c r="E99" s="108"/>
-      <c r="F99" s="108"/>
-      <c r="G99" s="108"/>
-      <c r="H99" s="109"/>
+      <c r="B99" s="86"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="87"/>
+      <c r="E99" s="87"/>
+      <c r="F99" s="87"/>
+      <c r="G99" s="87"/>
+      <c r="H99" s="88"/>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="81">
+      <c r="C100" s="109">
         <v>1987</v>
       </c>
-      <c r="D100" s="82">
+      <c r="D100" s="90">
         <v>2711</v>
       </c>
-      <c r="E100" s="81">
+      <c r="E100" s="109">
         <v>1913</v>
       </c>
-      <c r="F100" s="82">
+      <c r="F100" s="90">
         <v>2817</v>
       </c>
-      <c r="G100" s="81">
+      <c r="G100" s="109">
         <v>2217</v>
       </c>
-      <c r="H100" s="82">
+      <c r="H100" s="90">
         <v>3181</v>
       </c>
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="2"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="63"/>
+      <c r="C101" s="107"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="107"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="107"/>
+      <c r="H101" s="108"/>
     </row>
     <row r="102" spans="2:9" ht="21">
       <c r="B102" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="60">
+      <c r="C102" s="100">
         <v>2447</v>
       </c>
-      <c r="D102" s="62">
+      <c r="D102" s="102">
         <v>3334</v>
       </c>
-      <c r="E102" s="60">
+      <c r="E102" s="100">
         <v>2351</v>
       </c>
-      <c r="F102" s="62">
+      <c r="F102" s="102">
         <v>3466</v>
       </c>
-      <c r="G102" s="60">
+      <c r="G102" s="100">
         <v>2716</v>
       </c>
-      <c r="H102" s="62">
+      <c r="H102" s="102">
         <v>3904</v>
       </c>
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="2"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="63"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="107"/>
+      <c r="H103" s="108"/>
     </row>
     <row r="104" spans="2:9" ht="24">
       <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="60">
+      <c r="C104" s="100">
         <v>1528</v>
       </c>
-      <c r="D104" s="62">
+      <c r="D104" s="102">
         <v>2032</v>
       </c>
-      <c r="E104" s="60">
+      <c r="E104" s="100">
         <v>1470</v>
       </c>
-      <c r="F104" s="62">
+      <c r="F104" s="102">
         <v>2113</v>
       </c>
-      <c r="G104" s="60">
+      <c r="G104" s="100">
         <v>1695</v>
       </c>
-      <c r="H104" s="62">
+      <c r="H104" s="102">
         <v>2385</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2"/>
-      <c r="C105" s="61"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="63"/>
+      <c r="C105" s="107"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="107"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="107"/>
+      <c r="H105" s="108"/>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="85">
+      <c r="C106" s="91">
         <v>144</v>
       </c>
-      <c r="D106" s="87">
+      <c r="D106" s="93">
         <v>191</v>
       </c>
-      <c r="E106" s="85">
+      <c r="E106" s="91">
         <v>138</v>
       </c>
-      <c r="F106" s="87">
+      <c r="F106" s="93">
         <v>199</v>
       </c>
-      <c r="G106" s="85">
+      <c r="G106" s="91">
         <v>156</v>
       </c>
-      <c r="H106" s="87">
+      <c r="H106" s="93">
         <v>221</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="2"/>
-      <c r="C107" s="86"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="86"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="88"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="94"/>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="85">
+      <c r="C108" s="91">
         <v>265</v>
       </c>
-      <c r="D108" s="87">
+      <c r="D108" s="93">
         <v>369</v>
       </c>
-      <c r="E108" s="85">
+      <c r="E108" s="91">
         <v>256</v>
       </c>
-      <c r="F108" s="87">
+      <c r="F108" s="93">
         <v>385</v>
       </c>
-      <c r="G108" s="85">
+      <c r="G108" s="91">
         <v>302</v>
       </c>
-      <c r="H108" s="87">
+      <c r="H108" s="93">
         <v>444</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="2"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="86"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="88"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="92"/>
+      <c r="F109" s="94"/>
+      <c r="G109" s="92"/>
+      <c r="H109" s="94"/>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="2"/>
-      <c r="C110" s="85">
+      <c r="C110" s="91">
         <v>50</v>
       </c>
-      <c r="D110" s="87">
+      <c r="D110" s="93">
         <v>119</v>
       </c>
-      <c r="E110" s="85">
+      <c r="E110" s="91">
         <v>50</v>
       </c>
-      <c r="F110" s="87">
+      <c r="F110" s="93">
         <v>120</v>
       </c>
-      <c r="G110" s="85">
+      <c r="G110" s="91">
         <v>63</v>
       </c>
-      <c r="H110" s="87">
+      <c r="H110" s="93">
         <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="2"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="88"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="94"/>
+      <c r="E111" s="92"/>
+      <c r="F111" s="94"/>
+      <c r="G111" s="92"/>
+      <c r="H111" s="94"/>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="2"/>
-      <c r="C112" s="85">
+      <c r="C112" s="91">
         <v>460</v>
       </c>
-      <c r="D112" s="87">
+      <c r="D112" s="93">
         <v>623</v>
       </c>
-      <c r="E112" s="85">
+      <c r="E112" s="91">
         <v>438</v>
       </c>
-      <c r="F112" s="87">
+      <c r="F112" s="93">
         <v>649</v>
       </c>
-      <c r="G112" s="85">
+      <c r="G112" s="91">
         <v>500</v>
       </c>
-      <c r="H112" s="87">
+      <c r="H112" s="93">
         <v>723</v>
       </c>
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="2"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="86"/>
-      <c r="H113" s="88"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="92"/>
+      <c r="F113" s="94"/>
+      <c r="G113" s="92"/>
+      <c r="H113" s="94"/>
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="2"/>
-      <c r="C114" s="60">
+      <c r="C114" s="100">
         <v>1521880</v>
       </c>
-      <c r="D114" s="62">
+      <c r="D114" s="102">
         <v>1811411</v>
       </c>
-      <c r="E114" s="60">
+      <c r="E114" s="100">
         <v>1469577</v>
       </c>
-      <c r="F114" s="62">
+      <c r="F114" s="102">
         <v>1780290</v>
       </c>
-      <c r="G114" s="60">
+      <c r="G114" s="100">
         <v>1708524</v>
       </c>
-      <c r="H114" s="62">
+      <c r="H114" s="102">
         <v>1939878</v>
       </c>
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="2"/>
-      <c r="C115" s="61"/>
-      <c r="D115" s="63"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="63"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="63"/>
+      <c r="C115" s="107"/>
+      <c r="D115" s="108"/>
+      <c r="E115" s="107"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="107"/>
+      <c r="H115" s="108"/>
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="2"/>
-      <c r="C116" s="60">
+      <c r="C116" s="100">
         <v>2789</v>
       </c>
-      <c r="D116" s="62">
+      <c r="D116" s="102">
         <v>3801</v>
       </c>
-      <c r="E116" s="60">
+      <c r="E116" s="100">
         <v>2680</v>
       </c>
-      <c r="F116" s="62">
+      <c r="F116" s="102">
         <v>3952</v>
       </c>
-      <c r="G116" s="60">
+      <c r="G116" s="100">
         <v>3097</v>
       </c>
-      <c r="H116" s="62">
+      <c r="H116" s="102">
         <v>4451</v>
       </c>
     </row>
     <row r="117" spans="2:8">
       <c r="B117" s="2"/>
-      <c r="C117" s="61"/>
-      <c r="D117" s="63"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="63"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="63"/>
+      <c r="C117" s="107"/>
+      <c r="D117" s="108"/>
+      <c r="E117" s="107"/>
+      <c r="F117" s="108"/>
+      <c r="G117" s="107"/>
+      <c r="H117" s="108"/>
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="2"/>
-      <c r="C118" s="85">
+      <c r="C118" s="91">
         <v>76.3</v>
       </c>
-      <c r="D118" s="87">
+      <c r="D118" s="93">
         <v>105.6</v>
       </c>
-      <c r="E118" s="85">
+      <c r="E118" s="91">
         <v>74</v>
       </c>
-      <c r="F118" s="87">
+      <c r="F118" s="93">
         <v>110.3</v>
       </c>
-      <c r="G118" s="85">
+      <c r="G118" s="91">
         <v>81.3</v>
       </c>
-      <c r="H118" s="87">
+      <c r="H118" s="93">
         <v>119.4</v>
       </c>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="2"/>
-      <c r="C119" s="86"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="86"/>
-      <c r="H119" s="88"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="92"/>
+      <c r="F119" s="94"/>
+      <c r="G119" s="92"/>
+      <c r="H119" s="94"/>
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="2"/>
-      <c r="C120" s="110">
+      <c r="C120" s="125">
         <v>0</v>
       </c>
-      <c r="D120" s="112">
+      <c r="D120" s="127">
         <v>5.2</v>
       </c>
-      <c r="E120" s="110">
+      <c r="E120" s="125">
         <v>0</v>
       </c>
-      <c r="F120" s="112">
+      <c r="F120" s="127">
         <v>5.5</v>
       </c>
-      <c r="G120" s="110">
+      <c r="G120" s="125">
         <v>0</v>
       </c>
-      <c r="H120" s="112">
+      <c r="H120" s="127">
         <v>5.6</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="2"/>
-      <c r="C121" s="111"/>
-      <c r="D121" s="113"/>
-      <c r="E121" s="111"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="111"/>
-      <c r="H121" s="113"/>
+      <c r="C121" s="126"/>
+      <c r="D121" s="128"/>
+      <c r="E121" s="126"/>
+      <c r="F121" s="128"/>
+      <c r="G121" s="126"/>
+      <c r="H121" s="128"/>
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="2"/>
-      <c r="C122" s="110">
+      <c r="C122" s="125">
         <v>14.3</v>
       </c>
-      <c r="D122" s="112">
+      <c r="D122" s="127">
         <v>17.100000000000001</v>
       </c>
-      <c r="E122" s="110">
+      <c r="E122" s="125">
         <v>14</v>
       </c>
-      <c r="F122" s="112">
+      <c r="F122" s="127">
         <v>18</v>
       </c>
-      <c r="G122" s="110">
+      <c r="G122" s="125">
         <v>13.3</v>
       </c>
-      <c r="H122" s="112">
+      <c r="H122" s="127">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="123" spans="2:8">
       <c r="B123" s="2"/>
-      <c r="C123" s="111"/>
-      <c r="D123" s="113"/>
-      <c r="E123" s="111"/>
-      <c r="F123" s="113"/>
-      <c r="G123" s="111"/>
-      <c r="H123" s="113"/>
+      <c r="C123" s="126"/>
+      <c r="D123" s="128"/>
+      <c r="E123" s="126"/>
+      <c r="F123" s="128"/>
+      <c r="G123" s="126"/>
+      <c r="H123" s="128"/>
     </row>
     <row r="124" spans="2:8">
       <c r="B124" s="2"/>
-      <c r="C124" s="110">
+      <c r="C124" s="125">
         <v>7.3</v>
       </c>
-      <c r="D124" s="112">
+      <c r="D124" s="127">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E124" s="110">
+      <c r="E124" s="125">
         <v>7.2</v>
       </c>
-      <c r="F124" s="112">
+      <c r="F124" s="127">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G124" s="110">
+      <c r="G124" s="125">
         <v>7.8</v>
       </c>
-      <c r="H124" s="112">
+      <c r="H124" s="127">
         <v>9.9</v>
       </c>
     </row>
     <row r="125" spans="2:8">
       <c r="B125" s="2"/>
-      <c r="C125" s="111"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="113"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="113"/>
+      <c r="C125" s="126"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="126"/>
+      <c r="F125" s="128"/>
+      <c r="G125" s="126"/>
+      <c r="H125" s="128"/>
     </row>
     <row r="126" spans="2:8">
       <c r="B126" s="2"/>
-      <c r="C126" s="110">
+      <c r="C126" s="125">
         <v>11.3</v>
       </c>
-      <c r="D126" s="112">
+      <c r="D126" s="127">
         <v>14.8</v>
       </c>
-      <c r="E126" s="110">
+      <c r="E126" s="125">
         <v>11.1</v>
       </c>
-      <c r="F126" s="112">
+      <c r="F126" s="127">
         <v>15.5</v>
       </c>
-      <c r="G126" s="110">
+      <c r="G126" s="125">
         <v>12.1</v>
       </c>
-      <c r="H126" s="112">
+      <c r="H126" s="127">
         <v>16.7</v>
       </c>
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="2"/>
-      <c r="C127" s="111"/>
-      <c r="D127" s="113"/>
-      <c r="E127" s="111"/>
-      <c r="F127" s="113"/>
-      <c r="G127" s="111"/>
-      <c r="H127" s="113"/>
+      <c r="C127" s="126"/>
+      <c r="D127" s="128"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="128"/>
+      <c r="G127" s="126"/>
+      <c r="H127" s="128"/>
     </row>
     <row r="128" spans="2:8">
       <c r="B128" s="2"/>
-      <c r="C128" s="110">
+      <c r="C128" s="125">
         <v>43.4</v>
       </c>
-      <c r="D128" s="112">
+      <c r="D128" s="127">
         <v>59.1</v>
       </c>
-      <c r="E128" s="110">
+      <c r="E128" s="125">
         <v>41.7</v>
       </c>
-      <c r="F128" s="112">
+      <c r="F128" s="127">
         <v>61.5</v>
       </c>
-      <c r="G128" s="110">
+      <c r="G128" s="125">
         <v>48.2</v>
       </c>
-      <c r="H128" s="112">
+      <c r="H128" s="127">
         <v>69.2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" s="2"/>
-      <c r="C129" s="111"/>
-      <c r="D129" s="113"/>
-      <c r="E129" s="111"/>
-      <c r="F129" s="113"/>
-      <c r="G129" s="111"/>
-      <c r="H129" s="113"/>
+      <c r="C129" s="126"/>
+      <c r="D129" s="128"/>
+      <c r="E129" s="126"/>
+      <c r="F129" s="128"/>
+      <c r="G129" s="126"/>
+      <c r="H129" s="128"/>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" s="2"/>
-      <c r="C130" s="85">
+      <c r="C130" s="91">
         <v>96.7</v>
       </c>
-      <c r="D130" s="87">
+      <c r="D130" s="93">
         <v>133.9</v>
       </c>
-      <c r="E130" s="85">
+      <c r="E130" s="91">
         <v>93.8</v>
       </c>
-      <c r="F130" s="87">
+      <c r="F130" s="93">
         <v>139.9</v>
       </c>
-      <c r="G130" s="85">
+      <c r="G130" s="91">
         <v>103.1</v>
       </c>
-      <c r="H130" s="87">
+      <c r="H130" s="93">
         <v>151.4</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" thickBot="1">
       <c r="B131" s="3"/>
-      <c r="C131" s="98"/>
-      <c r="D131" s="99"/>
-      <c r="E131" s="98"/>
-      <c r="F131" s="99"/>
-      <c r="G131" s="98"/>
-      <c r="H131" s="99"/>
+      <c r="C131" s="81"/>
+      <c r="D131" s="82"/>
+      <c r="E131" s="81"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="81"/>
+      <c r="H131" s="82"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
@@ -6285,101 +6285,101 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="B134" s="64"/>
-      <c r="C134" s="67" t="s">
+      <c r="B134" s="110"/>
+      <c r="C134" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="D134" s="68"/>
-      <c r="E134" s="68"/>
-      <c r="F134" s="69"/>
+      <c r="D134" s="133"/>
+      <c r="E134" s="133"/>
+      <c r="F134" s="114"/>
     </row>
     <row r="135" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B135" s="65"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="71"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="72"/>
+      <c r="B135" s="111"/>
+      <c r="C135" s="115"/>
+      <c r="D135" s="134"/>
+      <c r="E135" s="134"/>
+      <c r="F135" s="116"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="B136" s="65"/>
-      <c r="C136" s="73" t="s">
+      <c r="B136" s="111"/>
+      <c r="C136" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="74"/>
-      <c r="E136" s="73" t="s">
+      <c r="D136" s="118"/>
+      <c r="E136" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="F136" s="74"/>
+      <c r="F136" s="118"/>
     </row>
     <row r="137" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B137" s="66"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="70"/>
-      <c r="F137" s="72"/>
+      <c r="B137" s="112"/>
+      <c r="C137" s="115"/>
+      <c r="D137" s="116"/>
+      <c r="E137" s="115"/>
+      <c r="F137" s="116"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="B138" s="75" t="s">
+      <c r="B138" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="83" t="s">
+      <c r="C138" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="75" t="s">
+      <c r="D138" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="E138" s="83" t="s">
+      <c r="E138" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="F138" s="75" t="s">
+      <c r="F138" s="104" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B139" s="76"/>
-      <c r="C139" s="84"/>
-      <c r="D139" s="76"/>
-      <c r="E139" s="84"/>
-      <c r="F139" s="76"/>
+      <c r="B139" s="106"/>
+      <c r="C139" s="120"/>
+      <c r="D139" s="106"/>
+      <c r="E139" s="120"/>
+      <c r="F139" s="106"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="B140" s="75" t="s">
+      <c r="B140" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C140" s="77">
+      <c r="C140" s="121">
         <v>0</v>
       </c>
-      <c r="D140" s="79">
+      <c r="D140" s="123">
         <v>0.9</v>
       </c>
-      <c r="E140" s="77">
+      <c r="E140" s="121">
         <v>0</v>
       </c>
-      <c r="F140" s="79">
+      <c r="F140" s="123">
         <v>0.9</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B141" s="76"/>
-      <c r="C141" s="78"/>
-      <c r="D141" s="80"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="80"/>
+      <c r="B141" s="106"/>
+      <c r="C141" s="122"/>
+      <c r="D141" s="124"/>
+      <c r="E141" s="122"/>
+      <c r="F141" s="124"/>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="81">
+      <c r="C142" s="109">
         <v>582600</v>
       </c>
-      <c r="D142" s="82">
+      <c r="D142" s="90">
         <v>672700</v>
       </c>
-      <c r="E142" s="81">
+      <c r="E142" s="109">
         <v>580400</v>
       </c>
-      <c r="F142" s="82">
+      <c r="F142" s="90">
         <v>662800</v>
       </c>
     </row>
@@ -6387,25 +6387,25 @@
       <c r="B143" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="61"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="63"/>
+      <c r="C143" s="107"/>
+      <c r="D143" s="108"/>
+      <c r="E143" s="107"/>
+      <c r="F143" s="108"/>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="60">
+      <c r="C144" s="100">
         <v>32580</v>
       </c>
-      <c r="D144" s="62">
+      <c r="D144" s="102">
         <v>122740</v>
       </c>
-      <c r="E144" s="60">
+      <c r="E144" s="100">
         <v>30410</v>
       </c>
-      <c r="F144" s="62">
+      <c r="F144" s="102">
         <v>112830</v>
       </c>
     </row>
@@ -6413,25 +6413,25 @@
       <c r="B145" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="61"/>
-      <c r="D145" s="63"/>
-      <c r="E145" s="61"/>
-      <c r="F145" s="63"/>
+      <c r="C145" s="107"/>
+      <c r="D145" s="108"/>
+      <c r="E145" s="107"/>
+      <c r="F145" s="108"/>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="60">
+      <c r="C146" s="100">
         <v>550020</v>
       </c>
-      <c r="D146" s="62">
+      <c r="D146" s="102">
         <v>549960</v>
       </c>
-      <c r="E146" s="60">
+      <c r="E146" s="100">
         <v>549990</v>
       </c>
-      <c r="F146" s="62">
+      <c r="F146" s="102">
         <v>549970</v>
       </c>
     </row>
@@ -6439,229 +6439,229 @@
       <c r="B147" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C147" s="61"/>
-      <c r="D147" s="63"/>
-      <c r="E147" s="61"/>
-      <c r="F147" s="63"/>
+      <c r="C147" s="107"/>
+      <c r="D147" s="108"/>
+      <c r="E147" s="107"/>
+      <c r="F147" s="108"/>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C148" s="60">
+      <c r="C148" s="100">
         <v>437378</v>
       </c>
-      <c r="D148" s="62">
+      <c r="D148" s="102">
         <v>614994</v>
       </c>
-      <c r="E148" s="60">
+      <c r="E148" s="100">
         <v>409528</v>
       </c>
-      <c r="F148" s="62">
+      <c r="F148" s="102">
         <v>565820</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="4"/>
-      <c r="C149" s="61"/>
-      <c r="D149" s="63"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="63"/>
+      <c r="C149" s="107"/>
+      <c r="D149" s="108"/>
+      <c r="E149" s="107"/>
+      <c r="F149" s="108"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="4"/>
-      <c r="C150" s="85" t="s">
+      <c r="C150" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="87" t="s">
+      <c r="D150" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E150" s="85" t="s">
+      <c r="E150" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F150" s="87" t="s">
+      <c r="F150" s="93" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="4"/>
-      <c r="C151" s="86"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="86"/>
-      <c r="F151" s="88"/>
+      <c r="C151" s="92"/>
+      <c r="D151" s="94"/>
+      <c r="E151" s="92"/>
+      <c r="F151" s="94"/>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="4"/>
-      <c r="C152" s="60">
+      <c r="C152" s="100">
         <v>1495379</v>
       </c>
-      <c r="D152" s="62">
+      <c r="D152" s="102">
         <v>2102643</v>
       </c>
-      <c r="E152" s="60">
+      <c r="E152" s="100">
         <v>1400162</v>
       </c>
-      <c r="F152" s="62">
+      <c r="F152" s="102">
         <v>1934519</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="4"/>
-      <c r="C153" s="61"/>
-      <c r="D153" s="63"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="63"/>
+      <c r="C153" s="107"/>
+      <c r="D153" s="108"/>
+      <c r="E153" s="107"/>
+      <c r="F153" s="108"/>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="4"/>
-      <c r="C154" s="91">
+      <c r="C154" s="96">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D154" s="93">
+      <c r="D154" s="98">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E154" s="91">
+      <c r="E154" s="96">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F154" s="93">
+      <c r="F154" s="98">
         <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="4"/>
-      <c r="C155" s="92"/>
-      <c r="D155" s="94"/>
-      <c r="E155" s="92"/>
-      <c r="F155" s="94"/>
+      <c r="C155" s="97"/>
+      <c r="D155" s="99"/>
+      <c r="E155" s="97"/>
+      <c r="F155" s="99"/>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="4"/>
-      <c r="C156" s="60">
+      <c r="C156" s="100">
         <v>9277</v>
       </c>
-      <c r="D156" s="62">
+      <c r="D156" s="102">
         <v>13046</v>
       </c>
-      <c r="E156" s="60">
+      <c r="E156" s="100">
         <v>8687</v>
       </c>
-      <c r="F156" s="62">
+      <c r="F156" s="102">
         <v>12002</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="16.5" thickBot="1">
       <c r="B157" s="5"/>
-      <c r="C157" s="89"/>
-      <c r="D157" s="90"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="90"/>
+      <c r="C157" s="101"/>
+      <c r="D157" s="103"/>
+      <c r="E157" s="101"/>
+      <c r="F157" s="103"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="75" t="s">
+      <c r="B158" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C158" s="96">
+      <c r="C158" s="89">
         <v>10.7</v>
       </c>
-      <c r="D158" s="97">
+      <c r="D158" s="95">
         <v>20.399999999999999</v>
       </c>
-      <c r="E158" s="96">
+      <c r="E158" s="89">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F158" s="97">
+      <c r="F158" s="95">
         <v>18.3</v>
       </c>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="95"/>
-      <c r="C159" s="86"/>
-      <c r="D159" s="88"/>
-      <c r="E159" s="86"/>
-      <c r="F159" s="88"/>
+      <c r="B159" s="105"/>
+      <c r="C159" s="92"/>
+      <c r="D159" s="94"/>
+      <c r="E159" s="92"/>
+      <c r="F159" s="94"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="95"/>
-      <c r="C160" s="85">
+      <c r="B160" s="105"/>
+      <c r="C160" s="91">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D160" s="87">
+      <c r="D160" s="93">
         <v>4.7</v>
       </c>
-      <c r="E160" s="85">
+      <c r="E160" s="91">
         <v>2</v>
       </c>
-      <c r="F160" s="87">
+      <c r="F160" s="93">
         <v>4.3</v>
       </c>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="95"/>
-      <c r="C161" s="86"/>
-      <c r="D161" s="88"/>
-      <c r="E161" s="86"/>
-      <c r="F161" s="88"/>
+      <c r="B161" s="105"/>
+      <c r="C161" s="92"/>
+      <c r="D161" s="94"/>
+      <c r="E161" s="92"/>
+      <c r="F161" s="94"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="95"/>
-      <c r="C162" s="85">
+      <c r="B162" s="105"/>
+      <c r="C162" s="91">
         <v>8.5</v>
       </c>
-      <c r="D162" s="87">
+      <c r="D162" s="93">
         <v>15.7</v>
       </c>
-      <c r="E162" s="85">
+      <c r="E162" s="91">
         <v>7.7</v>
       </c>
-      <c r="F162" s="87">
+      <c r="F162" s="93">
         <v>14.1</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B163" s="76"/>
-      <c r="C163" s="98"/>
-      <c r="D163" s="99"/>
-      <c r="E163" s="98"/>
-      <c r="F163" s="99"/>
+      <c r="B163" s="106"/>
+      <c r="C163" s="81"/>
+      <c r="D163" s="82"/>
+      <c r="E163" s="81"/>
+      <c r="F163" s="82"/>
     </row>
     <row r="164" spans="2:6" ht="48">
       <c r="B164" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C164" s="96">
+      <c r="C164" s="89">
         <v>204</v>
       </c>
-      <c r="D164" s="97">
+      <c r="D164" s="95">
         <v>20</v>
       </c>
-      <c r="E164" s="96">
+      <c r="E164" s="89">
         <v>204</v>
       </c>
-      <c r="F164" s="97">
+      <c r="F164" s="95">
         <v>20</v>
       </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="4"/>
-      <c r="C165" s="86"/>
-      <c r="D165" s="88"/>
-      <c r="E165" s="86"/>
-      <c r="F165" s="88"/>
+      <c r="C165" s="92"/>
+      <c r="D165" s="94"/>
+      <c r="E165" s="92"/>
+      <c r="F165" s="94"/>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="60">
+      <c r="C166" s="100">
         <v>1783</v>
       </c>
-      <c r="D166" s="87">
+      <c r="D166" s="93">
         <v>217</v>
       </c>
-      <c r="E166" s="60">
+      <c r="E166" s="100">
         <v>1675</v>
       </c>
-      <c r="F166" s="87">
+      <c r="F166" s="93">
         <v>203</v>
       </c>
     </row>
@@ -6669,586 +6669,586 @@
       <c r="B167" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C167" s="61"/>
-      <c r="D167" s="88"/>
-      <c r="E167" s="61"/>
-      <c r="F167" s="88"/>
+      <c r="C167" s="107"/>
+      <c r="D167" s="94"/>
+      <c r="E167" s="107"/>
+      <c r="F167" s="94"/>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="4"/>
-      <c r="C168" s="60">
+      <c r="C168" s="100">
         <v>1888</v>
       </c>
-      <c r="D168" s="87">
+      <c r="D168" s="93">
         <v>266</v>
       </c>
-      <c r="E168" s="60">
+      <c r="E168" s="100">
         <v>1768</v>
       </c>
-      <c r="F168" s="87">
+      <c r="F168" s="93">
         <v>244</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="4"/>
-      <c r="C169" s="61"/>
-      <c r="D169" s="88"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="88"/>
+      <c r="C169" s="107"/>
+      <c r="D169" s="94"/>
+      <c r="E169" s="107"/>
+      <c r="F169" s="94"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="4"/>
-      <c r="C170" s="85">
+      <c r="C170" s="91">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="D170" s="87">
+      <c r="D170" s="93">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E170" s="85">
+      <c r="E170" s="91">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F170" s="87">
+      <c r="F170" s="93">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="4"/>
-      <c r="C171" s="86"/>
-      <c r="D171" s="88"/>
-      <c r="E171" s="86"/>
-      <c r="F171" s="88"/>
+      <c r="C171" s="92"/>
+      <c r="D171" s="94"/>
+      <c r="E171" s="92"/>
+      <c r="F171" s="94"/>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="4"/>
-      <c r="C172" s="85">
+      <c r="C172" s="91">
         <v>0.75149999999999995</v>
       </c>
-      <c r="D172" s="87">
+      <c r="D172" s="93">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="E172" s="85">
+      <c r="E172" s="91">
         <v>0.70630000000000004</v>
       </c>
-      <c r="F172" s="87">
+      <c r="F172" s="93">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="4"/>
-      <c r="C173" s="86"/>
-      <c r="D173" s="88"/>
-      <c r="E173" s="86"/>
-      <c r="F173" s="88"/>
+      <c r="C173" s="92"/>
+      <c r="D173" s="94"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="94"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="4"/>
-      <c r="C174" s="85">
+      <c r="C174" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D174" s="87">
+      <c r="D174" s="93">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E174" s="85">
+      <c r="E174" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F174" s="87">
+      <c r="F174" s="93">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="4"/>
-      <c r="C175" s="86"/>
-      <c r="D175" s="88"/>
-      <c r="E175" s="86"/>
-      <c r="F175" s="88"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="94"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="94"/>
     </row>
     <row r="176" spans="2:6">
       <c r="B176" s="4"/>
-      <c r="C176" s="85">
+      <c r="C176" s="91">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D176" s="87">
+      <c r="D176" s="93">
         <v>0.747</v>
       </c>
-      <c r="E176" s="85">
+      <c r="E176" s="91">
         <v>0.57599999999999996</v>
       </c>
-      <c r="F176" s="87">
+      <c r="F176" s="93">
         <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="177" spans="2:6">
       <c r="B177" s="4"/>
-      <c r="C177" s="86"/>
-      <c r="D177" s="88"/>
-      <c r="E177" s="86"/>
-      <c r="F177" s="88"/>
+      <c r="C177" s="92"/>
+      <c r="D177" s="94"/>
+      <c r="E177" s="92"/>
+      <c r="F177" s="94"/>
     </row>
     <row r="178" spans="2:6">
       <c r="B178" s="4"/>
-      <c r="C178" s="85">
+      <c r="C178" s="91">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D178" s="87">
+      <c r="D178" s="93">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E178" s="85">
+      <c r="E178" s="91">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F178" s="87">
+      <c r="F178" s="93">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" s="4"/>
-      <c r="C179" s="86"/>
-      <c r="D179" s="88"/>
-      <c r="E179" s="86"/>
-      <c r="F179" s="88"/>
+      <c r="C179" s="92"/>
+      <c r="D179" s="94"/>
+      <c r="E179" s="92"/>
+      <c r="F179" s="94"/>
     </row>
     <row r="180" spans="2:6">
       <c r="B180" s="4"/>
-      <c r="C180" s="85">
+      <c r="C180" s="91">
         <v>0.114</v>
       </c>
-      <c r="D180" s="87">
+      <c r="D180" s="93">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E180" s="85">
+      <c r="E180" s="91">
         <v>0.107</v>
       </c>
-      <c r="F180" s="87">
+      <c r="F180" s="93">
         <v>0.129</v>
       </c>
     </row>
     <row r="181" spans="2:6">
       <c r="B181" s="4"/>
-      <c r="C181" s="86"/>
-      <c r="D181" s="88"/>
-      <c r="E181" s="86"/>
-      <c r="F181" s="88"/>
+      <c r="C181" s="92"/>
+      <c r="D181" s="94"/>
+      <c r="E181" s="92"/>
+      <c r="F181" s="94"/>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" s="4"/>
-      <c r="C182" s="85">
+      <c r="C182" s="91">
         <v>1.143</v>
       </c>
-      <c r="D182" s="87">
+      <c r="D182" s="93">
         <v>1.143</v>
       </c>
-      <c r="E182" s="85">
+      <c r="E182" s="91">
         <v>1.143</v>
       </c>
-      <c r="F182" s="87">
+      <c r="F182" s="93">
         <v>1.143</v>
       </c>
     </row>
     <row r="183" spans="2:6">
       <c r="B183" s="4"/>
-      <c r="C183" s="86"/>
-      <c r="D183" s="88"/>
-      <c r="E183" s="86"/>
-      <c r="F183" s="88"/>
+      <c r="C183" s="92"/>
+      <c r="D183" s="94"/>
+      <c r="E183" s="92"/>
+      <c r="F183" s="94"/>
     </row>
     <row r="184" spans="2:6">
       <c r="B184" s="4"/>
-      <c r="C184" s="100">
+      <c r="C184" s="129">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D184" s="102">
+      <c r="D184" s="131">
         <v>1.22E-5</v>
       </c>
-      <c r="E184" s="100">
+      <c r="E184" s="129">
         <v>9.4099999999999997E-6</v>
       </c>
-      <c r="F184" s="102">
+      <c r="F184" s="131">
         <v>1.1399999999999999E-5</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="16.5" thickBot="1">
       <c r="B185" s="5"/>
-      <c r="C185" s="101"/>
-      <c r="D185" s="103"/>
-      <c r="E185" s="101"/>
-      <c r="F185" s="103"/>
+      <c r="C185" s="130"/>
+      <c r="D185" s="132"/>
+      <c r="E185" s="130"/>
+      <c r="F185" s="132"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="104" t="s">
+      <c r="B186" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C186" s="105"/>
-      <c r="D186" s="105"/>
-      <c r="E186" s="105"/>
-      <c r="F186" s="106"/>
+      <c r="C186" s="84"/>
+      <c r="D186" s="84"/>
+      <c r="E186" s="84"/>
+      <c r="F186" s="85"/>
     </row>
     <row r="187" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B187" s="107"/>
-      <c r="C187" s="108"/>
-      <c r="D187" s="108"/>
-      <c r="E187" s="108"/>
-      <c r="F187" s="109"/>
+      <c r="B187" s="86"/>
+      <c r="C187" s="87"/>
+      <c r="D187" s="87"/>
+      <c r="E187" s="87"/>
+      <c r="F187" s="88"/>
     </row>
     <row r="188" spans="2:6">
       <c r="B188" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C188" s="81">
+      <c r="C188" s="109">
         <v>1622</v>
       </c>
-      <c r="D188" s="82">
+      <c r="D188" s="90">
         <v>2942</v>
       </c>
-      <c r="E188" s="81">
+      <c r="E188" s="109">
         <v>1647</v>
       </c>
-      <c r="F188" s="82">
+      <c r="F188" s="90">
         <v>2913</v>
       </c>
     </row>
     <row r="189" spans="2:6">
       <c r="B189" s="2"/>
-      <c r="C189" s="61"/>
-      <c r="D189" s="63"/>
-      <c r="E189" s="61"/>
-      <c r="F189" s="63"/>
+      <c r="C189" s="107"/>
+      <c r="D189" s="108"/>
+      <c r="E189" s="107"/>
+      <c r="F189" s="108"/>
     </row>
     <row r="190" spans="2:6" ht="21">
       <c r="B190" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C190" s="60">
+      <c r="C190" s="100">
         <v>1996</v>
       </c>
-      <c r="D190" s="62">
+      <c r="D190" s="102">
         <v>3610</v>
       </c>
-      <c r="E190" s="60">
+      <c r="E190" s="100">
         <v>2024</v>
       </c>
-      <c r="F190" s="62">
+      <c r="F190" s="102">
         <v>3570</v>
       </c>
     </row>
     <row r="191" spans="2:6">
       <c r="B191" s="2"/>
-      <c r="C191" s="61"/>
-      <c r="D191" s="63"/>
-      <c r="E191" s="61"/>
-      <c r="F191" s="63"/>
+      <c r="C191" s="107"/>
+      <c r="D191" s="108"/>
+      <c r="E191" s="107"/>
+      <c r="F191" s="108"/>
     </row>
     <row r="192" spans="2:6" ht="24">
       <c r="B192" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C192" s="60">
+      <c r="C192" s="100">
         <v>1317</v>
       </c>
-      <c r="D192" s="62">
+      <c r="D192" s="102">
         <v>2255</v>
       </c>
-      <c r="E192" s="60">
+      <c r="E192" s="100">
         <v>1345</v>
       </c>
-      <c r="F192" s="62">
+      <c r="F192" s="102">
         <v>2239</v>
       </c>
     </row>
     <row r="193" spans="2:6">
       <c r="B193" s="2"/>
-      <c r="C193" s="61"/>
-      <c r="D193" s="63"/>
-      <c r="E193" s="61"/>
-      <c r="F193" s="63"/>
+      <c r="C193" s="107"/>
+      <c r="D193" s="108"/>
+      <c r="E193" s="107"/>
+      <c r="F193" s="108"/>
     </row>
     <row r="194" spans="2:6">
       <c r="B194" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="85">
+      <c r="C194" s="91">
         <v>124</v>
       </c>
-      <c r="D194" s="87">
+      <c r="D194" s="93">
         <v>213</v>
       </c>
-      <c r="E194" s="85">
+      <c r="E194" s="91">
         <v>127</v>
       </c>
-      <c r="F194" s="87">
+      <c r="F194" s="93">
         <v>211</v>
       </c>
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="2"/>
-      <c r="C195" s="86"/>
-      <c r="D195" s="88"/>
-      <c r="E195" s="86"/>
-      <c r="F195" s="88"/>
+      <c r="C195" s="92"/>
+      <c r="D195" s="94"/>
+      <c r="E195" s="92"/>
+      <c r="F195" s="94"/>
     </row>
     <row r="196" spans="2:6">
       <c r="B196" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C196" s="85">
+      <c r="C196" s="91">
         <v>182</v>
       </c>
-      <c r="D196" s="87">
+      <c r="D196" s="93">
         <v>369</v>
       </c>
-      <c r="E196" s="85">
+      <c r="E196" s="91">
         <v>176</v>
       </c>
-      <c r="F196" s="87">
+      <c r="F196" s="93">
         <v>362</v>
       </c>
     </row>
     <row r="197" spans="2:6">
       <c r="B197" s="2"/>
-      <c r="C197" s="86"/>
-      <c r="D197" s="88"/>
-      <c r="E197" s="86"/>
-      <c r="F197" s="88"/>
+      <c r="C197" s="92"/>
+      <c r="D197" s="94"/>
+      <c r="E197" s="92"/>
+      <c r="F197" s="94"/>
     </row>
     <row r="198" spans="2:6">
       <c r="B198" s="2"/>
-      <c r="C198" s="85">
+      <c r="C198" s="91">
         <v>0</v>
       </c>
-      <c r="D198" s="87">
+      <c r="D198" s="93">
         <v>105</v>
       </c>
-      <c r="E198" s="85">
+      <c r="E198" s="91">
         <v>0</v>
       </c>
-      <c r="F198" s="87">
+      <c r="F198" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="2"/>
-      <c r="C199" s="86"/>
-      <c r="D199" s="88"/>
-      <c r="E199" s="86"/>
-      <c r="F199" s="88"/>
+      <c r="C199" s="92"/>
+      <c r="D199" s="94"/>
+      <c r="E199" s="92"/>
+      <c r="F199" s="94"/>
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="2"/>
-      <c r="C200" s="85">
+      <c r="C200" s="91">
         <v>374</v>
       </c>
-      <c r="D200" s="87">
+      <c r="D200" s="93">
         <v>667</v>
       </c>
-      <c r="E200" s="85">
+      <c r="E200" s="91">
         <v>377</v>
       </c>
-      <c r="F200" s="87">
+      <c r="F200" s="93">
         <v>657</v>
       </c>
     </row>
     <row r="201" spans="2:6">
       <c r="B201" s="2"/>
-      <c r="C201" s="86"/>
-      <c r="D201" s="88"/>
-      <c r="E201" s="86"/>
-      <c r="F201" s="88"/>
+      <c r="C201" s="92"/>
+      <c r="D201" s="94"/>
+      <c r="E201" s="92"/>
+      <c r="F201" s="94"/>
     </row>
     <row r="202" spans="2:6">
       <c r="B202" s="2"/>
-      <c r="C202" s="60">
+      <c r="C202" s="100">
         <v>1098124</v>
       </c>
-      <c r="D202" s="62">
+      <c r="D202" s="102">
         <v>1985432</v>
       </c>
-      <c r="E202" s="60">
+      <c r="E202" s="100">
         <v>1113445</v>
       </c>
-      <c r="F202" s="62">
+      <c r="F202" s="102">
         <v>1963644</v>
       </c>
     </row>
     <row r="203" spans="2:6">
       <c r="B203" s="2"/>
-      <c r="C203" s="61"/>
-      <c r="D203" s="63"/>
-      <c r="E203" s="61"/>
-      <c r="F203" s="63"/>
+      <c r="C203" s="107"/>
+      <c r="D203" s="108"/>
+      <c r="E203" s="107"/>
+      <c r="F203" s="108"/>
     </row>
     <row r="204" spans="2:6">
       <c r="B204" s="2"/>
-      <c r="C204" s="60">
+      <c r="C204" s="100">
         <v>2264</v>
       </c>
-      <c r="D204" s="62">
+      <c r="D204" s="102">
         <v>4115</v>
       </c>
-      <c r="E204" s="60">
+      <c r="E204" s="100">
         <v>2296</v>
       </c>
-      <c r="F204" s="62">
+      <c r="F204" s="102">
         <v>4070</v>
       </c>
     </row>
     <row r="205" spans="2:6">
       <c r="B205" s="2"/>
-      <c r="C205" s="61"/>
-      <c r="D205" s="63"/>
-      <c r="E205" s="61"/>
-      <c r="F205" s="63"/>
+      <c r="C205" s="107"/>
+      <c r="D205" s="108"/>
+      <c r="E205" s="107"/>
+      <c r="F205" s="108"/>
     </row>
     <row r="206" spans="2:6">
       <c r="B206" s="2"/>
-      <c r="C206" s="85">
+      <c r="C206" s="91">
         <v>59.4</v>
       </c>
-      <c r="D206" s="87">
+      <c r="D206" s="93">
         <v>109.6</v>
       </c>
-      <c r="E206" s="85">
+      <c r="E206" s="91">
         <v>58.9</v>
       </c>
-      <c r="F206" s="87">
+      <c r="F206" s="93">
         <v>106.5</v>
       </c>
     </row>
     <row r="207" spans="2:6">
       <c r="B207" s="2"/>
-      <c r="C207" s="86"/>
-      <c r="D207" s="88"/>
-      <c r="E207" s="86"/>
-      <c r="F207" s="88"/>
+      <c r="C207" s="92"/>
+      <c r="D207" s="94"/>
+      <c r="E207" s="92"/>
+      <c r="F207" s="94"/>
     </row>
     <row r="208" spans="2:6">
       <c r="B208" s="2"/>
-      <c r="C208" s="110">
+      <c r="C208" s="125">
         <v>0</v>
       </c>
-      <c r="D208" s="112">
+      <c r="D208" s="127">
         <v>5.8</v>
       </c>
-      <c r="E208" s="110">
+      <c r="E208" s="125">
         <v>0</v>
       </c>
-      <c r="F208" s="112">
+      <c r="F208" s="127">
         <v>5.6</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="B209" s="2"/>
-      <c r="C209" s="111"/>
-      <c r="D209" s="113"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="113"/>
+      <c r="C209" s="126"/>
+      <c r="D209" s="128"/>
+      <c r="E209" s="126"/>
+      <c r="F209" s="128"/>
     </row>
     <row r="210" spans="1:6">
       <c r="B210" s="2"/>
-      <c r="C210" s="110">
+      <c r="C210" s="125">
         <v>15.2</v>
       </c>
-      <c r="D210" s="112">
+      <c r="D210" s="127">
         <v>21.3</v>
       </c>
-      <c r="E210" s="110">
+      <c r="E210" s="125">
         <v>14.2</v>
       </c>
-      <c r="F210" s="112">
+      <c r="F210" s="127">
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="B211" s="2"/>
-      <c r="C211" s="111"/>
-      <c r="D211" s="113"/>
-      <c r="E211" s="111"/>
-      <c r="F211" s="113"/>
+      <c r="C211" s="126"/>
+      <c r="D211" s="128"/>
+      <c r="E211" s="126"/>
+      <c r="F211" s="128"/>
     </row>
     <row r="212" spans="1:6">
       <c r="B212" s="2"/>
-      <c r="C212" s="110">
+      <c r="C212" s="125">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D212" s="112">
+      <c r="D212" s="127">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E212" s="110">
+      <c r="E212" s="125">
         <v>5</v>
       </c>
-      <c r="F212" s="112">
+      <c r="F212" s="127">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="B213" s="2"/>
-      <c r="C213" s="111"/>
-      <c r="D213" s="113"/>
-      <c r="E213" s="111"/>
-      <c r="F213" s="113"/>
+      <c r="C213" s="126"/>
+      <c r="D213" s="128"/>
+      <c r="E213" s="126"/>
+      <c r="F213" s="128"/>
     </row>
     <row r="214" spans="1:6">
       <c r="B214" s="2"/>
-      <c r="C214" s="110">
+      <c r="C214" s="125">
         <v>7.8</v>
       </c>
-      <c r="D214" s="112">
+      <c r="D214" s="127">
         <v>13.1</v>
       </c>
-      <c r="E214" s="110">
+      <c r="E214" s="125">
         <v>8</v>
       </c>
-      <c r="F214" s="112">
+      <c r="F214" s="127">
         <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="B215" s="2"/>
-      <c r="C215" s="111"/>
-      <c r="D215" s="113"/>
-      <c r="E215" s="111"/>
-      <c r="F215" s="113"/>
+      <c r="C215" s="126"/>
+      <c r="D215" s="128"/>
+      <c r="E215" s="126"/>
+      <c r="F215" s="128"/>
     </row>
     <row r="216" spans="1:6">
       <c r="B216" s="2"/>
-      <c r="C216" s="110">
+      <c r="C216" s="125">
         <v>31.2</v>
       </c>
-      <c r="D216" s="112">
+      <c r="D216" s="127">
         <v>60.2</v>
       </c>
-      <c r="E216" s="110">
+      <c r="E216" s="125">
         <v>31.7</v>
       </c>
-      <c r="F216" s="112">
+      <c r="F216" s="127">
         <v>59.6</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="B217" s="2"/>
-      <c r="C217" s="111"/>
-      <c r="D217" s="113"/>
-      <c r="E217" s="111"/>
-      <c r="F217" s="113"/>
+      <c r="C217" s="126"/>
+      <c r="D217" s="128"/>
+      <c r="E217" s="126"/>
+      <c r="F217" s="128"/>
     </row>
     <row r="218" spans="1:6">
       <c r="B218" s="2"/>
-      <c r="C218" s="85">
+      <c r="C218" s="91">
         <v>75.3</v>
       </c>
-      <c r="D218" s="87">
+      <c r="D218" s="93">
         <v>139</v>
       </c>
-      <c r="E218" s="85">
+      <c r="E218" s="91">
         <v>74.7</v>
       </c>
-      <c r="F218" s="87">
+      <c r="F218" s="93">
         <v>135.19999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16.5" thickBot="1">
       <c r="B219" s="3"/>
-      <c r="C219" s="98"/>
-      <c r="D219" s="99"/>
-      <c r="E219" s="98"/>
-      <c r="F219" s="99"/>
+      <c r="C219" s="81"/>
+      <c r="D219" s="82"/>
+      <c r="E219" s="81"/>
+      <c r="F219" s="82"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
@@ -7259,69 +7259,69 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="B223" s="64"/>
-      <c r="C223" s="67" t="s">
+      <c r="B223" s="110"/>
+      <c r="C223" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="D223" s="69"/>
+      <c r="D223" s="114"/>
     </row>
     <row r="224" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B224" s="65"/>
-      <c r="C224" s="70"/>
-      <c r="D224" s="72"/>
+      <c r="B224" s="111"/>
+      <c r="C224" s="115"/>
+      <c r="D224" s="116"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="65"/>
-      <c r="C225" s="73" t="s">
+      <c r="B225" s="111"/>
+      <c r="C225" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D225" s="74"/>
+      <c r="D225" s="118"/>
     </row>
     <row r="226" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B226" s="66"/>
-      <c r="C226" s="70"/>
-      <c r="D226" s="72"/>
+      <c r="B226" s="112"/>
+      <c r="C226" s="115"/>
+      <c r="D226" s="116"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="75" t="s">
+      <c r="B227" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C227" s="83" t="s">
+      <c r="C227" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="D227" s="75" t="s">
+      <c r="D227" s="104" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B228" s="76"/>
-      <c r="C228" s="84"/>
-      <c r="D228" s="76"/>
+      <c r="B228" s="106"/>
+      <c r="C228" s="120"/>
+      <c r="D228" s="106"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="75" t="s">
+      <c r="B229" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C229" s="77">
+      <c r="C229" s="121">
         <v>0</v>
       </c>
-      <c r="D229" s="79">
+      <c r="D229" s="123">
         <v>0.9</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B230" s="76"/>
-      <c r="C230" s="78"/>
-      <c r="D230" s="80"/>
+      <c r="B230" s="106"/>
+      <c r="C230" s="122"/>
+      <c r="D230" s="124"/>
     </row>
     <row r="231" spans="2:4">
       <c r="B231" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C231" s="81">
+      <c r="C231" s="109">
         <v>564700</v>
       </c>
-      <c r="D231" s="82">
+      <c r="D231" s="90">
         <v>511000</v>
       </c>
     </row>
@@ -7329,17 +7329,17 @@
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="61"/>
-      <c r="D232" s="63"/>
+      <c r="C232" s="107"/>
+      <c r="D232" s="108"/>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C233" s="60">
+      <c r="C233" s="100">
         <v>9620</v>
       </c>
-      <c r="D233" s="62">
+      <c r="D233" s="102">
         <v>37430</v>
       </c>
     </row>
@@ -7347,17 +7347,17 @@
       <c r="B234" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C234" s="61"/>
-      <c r="D234" s="63"/>
+      <c r="C234" s="107"/>
+      <c r="D234" s="108"/>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C235" s="60">
+      <c r="C235" s="100">
         <v>555080</v>
       </c>
-      <c r="D235" s="62">
+      <c r="D235" s="102">
         <v>473570</v>
       </c>
     </row>
@@ -7365,149 +7365,149 @@
       <c r="B236" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C236" s="61"/>
-      <c r="D236" s="63"/>
+      <c r="C236" s="107"/>
+      <c r="D236" s="108"/>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C237" s="85" t="s">
+      <c r="C237" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D237" s="87" t="s">
+      <c r="D237" s="93" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" s="4"/>
-      <c r="C238" s="86"/>
-      <c r="D238" s="88"/>
+      <c r="C238" s="92"/>
+      <c r="D238" s="94"/>
     </row>
     <row r="239" spans="2:4">
       <c r="B239" s="4"/>
-      <c r="C239" s="60">
+      <c r="C239" s="100">
         <v>167333</v>
       </c>
-      <c r="D239" s="62">
+      <c r="D239" s="102">
         <v>167333</v>
       </c>
     </row>
     <row r="240" spans="2:4">
       <c r="B240" s="4"/>
-      <c r="C240" s="61"/>
-      <c r="D240" s="63"/>
+      <c r="C240" s="107"/>
+      <c r="D240" s="108"/>
     </row>
     <row r="241" spans="2:4">
       <c r="B241" s="4"/>
-      <c r="C241" s="60">
+      <c r="C241" s="100">
         <v>1105812</v>
       </c>
-      <c r="D241" s="62">
+      <c r="D241" s="102">
         <v>1105812</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" s="4"/>
-      <c r="C242" s="61"/>
-      <c r="D242" s="63"/>
+      <c r="C242" s="107"/>
+      <c r="D242" s="108"/>
     </row>
     <row r="243" spans="2:4">
       <c r="B243" s="4"/>
-      <c r="C243" s="91">
+      <c r="C243" s="96">
         <v>0.502</v>
       </c>
-      <c r="D243" s="93">
+      <c r="D243" s="98">
         <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="244" spans="2:4">
       <c r="B244" s="4"/>
-      <c r="C244" s="92"/>
-      <c r="D244" s="94"/>
+      <c r="C244" s="97"/>
+      <c r="D244" s="99"/>
     </row>
     <row r="245" spans="2:4">
       <c r="B245" s="4"/>
-      <c r="C245" s="60">
+      <c r="C245" s="100">
         <v>6798</v>
       </c>
-      <c r="D245" s="62">
+      <c r="D245" s="102">
         <v>7968</v>
       </c>
     </row>
     <row r="246" spans="2:4" ht="16.5" thickBot="1">
       <c r="B246" s="5"/>
-      <c r="C246" s="89"/>
-      <c r="D246" s="90"/>
+      <c r="C246" s="101"/>
+      <c r="D246" s="103"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="75" t="s">
+      <c r="B247" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C247" s="96">
+      <c r="C247" s="89">
         <v>4.3</v>
       </c>
-      <c r="D247" s="97">
+      <c r="D247" s="95">
         <v>8.4</v>
       </c>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="95"/>
-      <c r="C248" s="86"/>
-      <c r="D248" s="88"/>
+      <c r="B248" s="105"/>
+      <c r="C248" s="92"/>
+      <c r="D248" s="94"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="95"/>
-      <c r="C249" s="85">
+      <c r="B249" s="105"/>
+      <c r="C249" s="91">
         <v>1</v>
       </c>
-      <c r="D249" s="87">
+      <c r="D249" s="93">
         <v>2.1</v>
       </c>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="95"/>
-      <c r="C250" s="86"/>
-      <c r="D250" s="88"/>
+      <c r="B250" s="105"/>
+      <c r="C250" s="92"/>
+      <c r="D250" s="94"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="95"/>
-      <c r="C251" s="85">
+      <c r="B251" s="105"/>
+      <c r="C251" s="91">
         <v>3.3</v>
       </c>
-      <c r="D251" s="87">
+      <c r="D251" s="93">
         <v>6.3</v>
       </c>
     </row>
     <row r="252" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B252" s="76"/>
-      <c r="C252" s="98"/>
-      <c r="D252" s="99"/>
+      <c r="B252" s="106"/>
+      <c r="C252" s="81"/>
+      <c r="D252" s="82"/>
     </row>
     <row r="253" spans="2:4" ht="48">
       <c r="B253" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C253" s="96">
+      <c r="C253" s="89">
         <v>118</v>
       </c>
-      <c r="D253" s="97">
+      <c r="D253" s="95">
         <v>12</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" s="4"/>
-      <c r="C254" s="86"/>
-      <c r="D254" s="88"/>
+      <c r="C254" s="92"/>
+      <c r="D254" s="94"/>
     </row>
     <row r="255" spans="2:4">
       <c r="B255" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C255" s="85">
+      <c r="C255" s="91">
         <v>790</v>
       </c>
-      <c r="D255" s="87">
+      <c r="D255" s="93">
         <v>87</v>
       </c>
     </row>
@@ -7515,383 +7515,871 @@
       <c r="B256" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C256" s="86"/>
-      <c r="D256" s="88"/>
+      <c r="C256" s="92"/>
+      <c r="D256" s="94"/>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" s="4"/>
-      <c r="C257" s="85">
+      <c r="C257" s="91">
         <v>804</v>
       </c>
-      <c r="D257" s="87">
+      <c r="D257" s="93">
         <v>94</v>
       </c>
     </row>
     <row r="258" spans="2:4">
       <c r="B258" s="4"/>
-      <c r="C258" s="86"/>
-      <c r="D258" s="88"/>
+      <c r="C258" s="92"/>
+      <c r="D258" s="94"/>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" s="4"/>
-      <c r="C259" s="85" t="s">
+      <c r="C259" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D259" s="87" t="s">
+      <c r="D259" s="93" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" s="4"/>
-      <c r="C260" s="86"/>
-      <c r="D260" s="88"/>
+      <c r="C260" s="92"/>
+      <c r="D260" s="94"/>
     </row>
     <row r="261" spans="2:4">
       <c r="B261" s="4"/>
-      <c r="C261" s="85" t="s">
+      <c r="C261" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D261" s="87" t="s">
+      <c r="D261" s="93" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="262" spans="2:4">
       <c r="B262" s="4"/>
-      <c r="C262" s="86"/>
-      <c r="D262" s="88"/>
+      <c r="C262" s="92"/>
+      <c r="D262" s="94"/>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" s="4"/>
-      <c r="C263" s="85">
+      <c r="C263" s="91">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D263" s="87">
+      <c r="D263" s="93">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="264" spans="2:4">
       <c r="B264" s="4"/>
-      <c r="C264" s="86"/>
-      <c r="D264" s="116"/>
+      <c r="C264" s="92"/>
+      <c r="D264" s="80"/>
     </row>
     <row r="265" spans="2:4">
       <c r="B265" s="4"/>
-      <c r="C265" s="85">
+      <c r="C265" s="91">
         <v>0.06</v>
       </c>
-      <c r="D265" s="115">
+      <c r="D265" s="79">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="266" spans="2:4">
       <c r="B266" s="4"/>
-      <c r="C266" s="114"/>
-      <c r="D266" s="116"/>
+      <c r="C266" s="78"/>
+      <c r="D266" s="80"/>
     </row>
     <row r="267" spans="2:4">
       <c r="B267" s="4"/>
-      <c r="C267" s="117" t="s">
+      <c r="C267" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D267" s="115" t="s">
+      <c r="D267" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="268" spans="2:4">
       <c r="B268" s="4"/>
-      <c r="C268" s="114"/>
-      <c r="D268" s="116"/>
+      <c r="C268" s="78"/>
+      <c r="D268" s="80"/>
     </row>
     <row r="269" spans="2:4">
       <c r="B269" s="4"/>
-      <c r="C269" s="117" t="s">
+      <c r="C269" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D269" s="115" t="s">
+      <c r="D269" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="270" spans="2:4">
       <c r="B270" s="4"/>
-      <c r="C270" s="114"/>
-      <c r="D270" s="116"/>
+      <c r="C270" s="78"/>
+      <c r="D270" s="80"/>
     </row>
     <row r="271" spans="2:4">
       <c r="B271" s="4"/>
-      <c r="C271" s="117" t="s">
+      <c r="C271" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D271" s="115" t="s">
+      <c r="D271" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="272" spans="2:4">
       <c r="B272" s="4"/>
-      <c r="C272" s="114"/>
-      <c r="D272" s="116"/>
+      <c r="C272" s="78"/>
+      <c r="D272" s="80"/>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" s="4"/>
-      <c r="C273" s="117" t="s">
+      <c r="C273" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D273" s="115" t="s">
+      <c r="D273" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="274" spans="2:4" ht="16.5" thickBot="1">
       <c r="B274" s="5"/>
-      <c r="C274" s="98"/>
-      <c r="D274" s="99"/>
+      <c r="C274" s="81"/>
+      <c r="D274" s="82"/>
     </row>
     <row r="275" spans="2:4">
-      <c r="B275" s="104" t="s">
+      <c r="B275" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C275" s="105"/>
-      <c r="D275" s="106"/>
+      <c r="C275" s="84"/>
+      <c r="D275" s="85"/>
     </row>
     <row r="276" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B276" s="107"/>
-      <c r="C276" s="108"/>
-      <c r="D276" s="109"/>
+      <c r="B276" s="86"/>
+      <c r="C276" s="87"/>
+      <c r="D276" s="88"/>
     </row>
     <row r="277" spans="2:4">
       <c r="B277" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C277" s="96">
+      <c r="C277" s="89">
         <v>584</v>
       </c>
-      <c r="D277" s="82">
+      <c r="D277" s="90">
         <v>1226</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="B278" s="2"/>
-      <c r="C278" s="114"/>
-      <c r="D278" s="118"/>
+      <c r="C278" s="78"/>
+      <c r="D278" s="76"/>
     </row>
     <row r="279" spans="2:4" ht="21">
       <c r="B279" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C279" s="117">
+      <c r="C279" s="77">
         <v>718</v>
       </c>
-      <c r="D279" s="134">
+      <c r="D279" s="75">
         <v>1497</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="B280" s="2"/>
-      <c r="C280" s="114"/>
-      <c r="D280" s="118"/>
+      <c r="C280" s="78"/>
+      <c r="D280" s="76"/>
     </row>
     <row r="281" spans="2:4" ht="24">
       <c r="B281" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C281" s="117">
+      <c r="C281" s="77">
         <v>482</v>
       </c>
-      <c r="D281" s="115">
+      <c r="D281" s="79">
         <v>926</v>
       </c>
     </row>
     <row r="282" spans="2:4">
       <c r="B282" s="2"/>
-      <c r="C282" s="114"/>
-      <c r="D282" s="116"/>
+      <c r="C282" s="78"/>
+      <c r="D282" s="80"/>
     </row>
     <row r="283" spans="2:4">
       <c r="B283" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C283" s="117">
+      <c r="C283" s="77">
         <v>40</v>
       </c>
-      <c r="D283" s="115">
+      <c r="D283" s="79">
         <v>78</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="B284" s="2"/>
-      <c r="C284" s="114"/>
-      <c r="D284" s="116"/>
+      <c r="C284" s="78"/>
+      <c r="D284" s="80"/>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C285" s="117">
+      <c r="C285" s="77">
         <v>62</v>
       </c>
-      <c r="D285" s="115">
+      <c r="D285" s="79">
         <v>162</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" s="2"/>
-      <c r="C286" s="114"/>
-      <c r="D286" s="116"/>
+      <c r="C286" s="78"/>
+      <c r="D286" s="80"/>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" s="2"/>
-      <c r="C287" s="117">
+      <c r="C287" s="77">
         <v>0</v>
       </c>
-      <c r="D287" s="115">
+      <c r="D287" s="79">
         <v>60</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" s="2"/>
-      <c r="C288" s="114"/>
-      <c r="D288" s="116"/>
+      <c r="C288" s="78"/>
+      <c r="D288" s="80"/>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" s="2"/>
-      <c r="C289" s="117">
+      <c r="C289" s="77">
         <v>133</v>
       </c>
-      <c r="D289" s="115">
+      <c r="D289" s="79">
         <v>271</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="B290" s="2"/>
-      <c r="C290" s="114"/>
-      <c r="D290" s="116"/>
+      <c r="C290" s="78"/>
+      <c r="D290" s="80"/>
     </row>
     <row r="291" spans="2:4">
       <c r="B291" s="2"/>
-      <c r="C291" s="132">
+      <c r="C291" s="73">
         <v>398290</v>
       </c>
-      <c r="D291" s="134">
+      <c r="D291" s="75">
         <v>709039</v>
       </c>
     </row>
     <row r="292" spans="2:4">
       <c r="B292" s="2"/>
-      <c r="C292" s="133"/>
-      <c r="D292" s="118"/>
+      <c r="C292" s="74"/>
+      <c r="D292" s="76"/>
     </row>
     <row r="293" spans="2:4">
       <c r="B293" s="2"/>
-      <c r="C293" s="117">
+      <c r="C293" s="77">
         <v>771</v>
       </c>
-      <c r="D293" s="134">
+      <c r="D293" s="75">
         <v>1614</v>
       </c>
     </row>
     <row r="294" spans="2:4">
       <c r="B294" s="2"/>
-      <c r="C294" s="114"/>
-      <c r="D294" s="118"/>
+      <c r="C294" s="78"/>
+      <c r="D294" s="76"/>
     </row>
     <row r="295" spans="2:4">
       <c r="B295" s="2"/>
-      <c r="C295" s="117">
+      <c r="C295" s="77">
         <v>58.9</v>
       </c>
-      <c r="D295" s="115">
+      <c r="D295" s="79">
         <v>85.9</v>
       </c>
     </row>
     <row r="296" spans="2:4">
       <c r="B296" s="2"/>
-      <c r="C296" s="114"/>
-      <c r="D296" s="116"/>
+      <c r="C296" s="78"/>
+      <c r="D296" s="80"/>
     </row>
     <row r="297" spans="2:4">
       <c r="B297" s="2"/>
-      <c r="C297" s="119">
+      <c r="C297" s="69">
         <v>0</v>
       </c>
-      <c r="D297" s="121">
+      <c r="D297" s="71">
         <v>3.2</v>
       </c>
     </row>
     <row r="298" spans="2:4">
       <c r="B298" s="2"/>
-      <c r="C298" s="120"/>
-      <c r="D298" s="122"/>
+      <c r="C298" s="70"/>
+      <c r="D298" s="72"/>
     </row>
     <row r="299" spans="2:4">
       <c r="B299" s="2"/>
-      <c r="C299" s="119">
+      <c r="C299" s="69">
         <v>44.5</v>
       </c>
-      <c r="D299" s="121">
+      <c r="D299" s="71">
         <v>52.2</v>
       </c>
     </row>
     <row r="300" spans="2:4">
       <c r="B300" s="2"/>
-      <c r="C300" s="120"/>
-      <c r="D300" s="122"/>
+      <c r="C300" s="70"/>
+      <c r="D300" s="72"/>
     </row>
     <row r="301" spans="2:4">
       <c r="B301" s="2"/>
-      <c r="C301" s="119">
+      <c r="C301" s="69">
         <v>1.3</v>
       </c>
-      <c r="D301" s="121">
+      <c r="D301" s="71">
         <v>2.6</v>
       </c>
     </row>
     <row r="302" spans="2:4">
       <c r="B302" s="2"/>
-      <c r="C302" s="120"/>
-      <c r="D302" s="122"/>
+      <c r="C302" s="70"/>
+      <c r="D302" s="72"/>
     </row>
     <row r="303" spans="2:4">
       <c r="B303" s="2"/>
-      <c r="C303" s="119">
+      <c r="C303" s="69">
         <v>3</v>
       </c>
-      <c r="D303" s="121">
+      <c r="D303" s="71">
         <v>5.7</v>
       </c>
     </row>
     <row r="304" spans="2:4">
       <c r="B304" s="2"/>
-      <c r="C304" s="120"/>
-      <c r="D304" s="122"/>
+      <c r="C304" s="70"/>
+      <c r="D304" s="72"/>
     </row>
     <row r="305" spans="2:4">
       <c r="B305" s="2"/>
-      <c r="C305" s="119">
+      <c r="C305" s="69">
         <v>10.1</v>
       </c>
-      <c r="D305" s="121">
+      <c r="D305" s="71">
         <v>22.3</v>
       </c>
     </row>
     <row r="306" spans="2:4">
       <c r="B306" s="2"/>
-      <c r="C306" s="120"/>
-      <c r="D306" s="122"/>
+      <c r="C306" s="70"/>
+      <c r="D306" s="72"/>
     </row>
     <row r="307" spans="2:4">
       <c r="B307" s="2"/>
-      <c r="C307" s="117">
+      <c r="C307" s="77">
         <v>74.7</v>
       </c>
-      <c r="D307" s="115">
+      <c r="D307" s="79">
         <v>108.9</v>
       </c>
     </row>
     <row r="308" spans="2:4" ht="16.5" thickBot="1">
       <c r="B308" s="3"/>
-      <c r="C308" s="98"/>
-      <c r="D308" s="99"/>
+      <c r="C308" s="81"/>
+      <c r="D308" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="512">
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:F135"/>
+    <mergeCell ref="C136:D137"/>
+    <mergeCell ref="E136:F137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="B98:H99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="B186:F187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F206:F207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:D224"/>
+    <mergeCell ref="C225:D226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="B247:B252"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="B275:D276"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="D301:D302"/>
     <mergeCell ref="L20:Q20"/>
     <mergeCell ref="R20:U20"/>
     <mergeCell ref="L11:Q11"/>
@@ -7916,494 +8404,6 @@
     <mergeCell ref="D289:D290"/>
     <mergeCell ref="C279:C280"/>
     <mergeCell ref="D279:D280"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D299:D300"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="B275:D276"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="B247:B252"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:D224"/>
-    <mergeCell ref="C225:D226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:F207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="B186:F187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="B98:H99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:F135"/>
-    <mergeCell ref="C136:D137"/>
-    <mergeCell ref="E136:F137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ccs/plants.xlsx
+++ b/ccs/plants.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csala\OneDrive\Github\sustainable-energy-transitions\ccs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\sustainable-energy-transitions\ccs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA1EE18A-2947-44DF-BE52-5A7598D3AD60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500"/>
+    <workbookView xWindow="3720" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COAL and NG calcs" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -948,11 +944,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1624,7 +1620,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1824,10 +1820,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1836,10 +1832,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1859,14 +1855,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1886,35 +1882,224 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="12" fillId="4" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1933,26 +2118,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1961,183 +2134,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2670,7 +2666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W308"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I22" zoomScale="108" workbookViewId="0">
@@ -2899,24 +2895,24 @@
     </row>
     <row r="11" spans="1:23" ht="33" customHeight="1">
       <c r="K11" s="25"/>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63" t="s">
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="64" t="s">
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="65"/>
+      <c r="W11" s="128"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -3007,15 +3003,15 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="B14" s="110"/>
-      <c r="C14" s="113" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="114"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="K14" s="26" t="s">
         <v>15</v>
       </c>
@@ -3057,13 +3053,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" thickBot="1">
-      <c r="B15" s="111"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="116"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
       <c r="K15" s="26" t="s">
         <v>33</v>
       </c>
@@ -3105,19 +3101,19 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="111"/>
-      <c r="C16" s="117" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="117" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="117" t="s">
+      <c r="F16" s="74"/>
+      <c r="G16" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="118"/>
+      <c r="H16" s="74"/>
       <c r="K16" s="26" t="s">
         <v>34</v>
       </c>
@@ -3159,13 +3155,13 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B17" s="112"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="72"/>
       <c r="K17" s="26" t="s">
         <v>20</v>
       </c>
@@ -3255,72 +3251,72 @@
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="119" t="s">
+      <c r="G19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="104" t="s">
+      <c r="H19" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="66" t="s">
+      <c r="L19" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="66" t="s">
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="66" t="s">
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="W19" s="68"/>
+      <c r="W19" s="131"/>
     </row>
     <row r="20" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B20" s="106"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="106"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="76"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="60" t="s">
+      <c r="L20" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="60" t="s">
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="62"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="125"/>
       <c r="V20" s="15"/>
       <c r="W20" s="16"/>
     </row>
@@ -3467,25 +3463,25 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="121">
+      <c r="C24" s="77">
         <v>0</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="79">
         <v>0.9</v>
       </c>
-      <c r="E24" s="121">
+      <c r="E24" s="77">
         <v>0</v>
       </c>
-      <c r="F24" s="123">
+      <c r="F24" s="79">
         <v>0.9</v>
       </c>
-      <c r="G24" s="121">
+      <c r="G24" s="77">
         <v>0</v>
       </c>
-      <c r="H24" s="123">
+      <c r="H24" s="79">
         <v>0.9</v>
       </c>
       <c r="K24" s="26" t="s">
@@ -3541,13 +3537,13 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B25" s="106"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="124"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="80"/>
       <c r="K25" s="26" t="s">
         <v>33</v>
       </c>
@@ -3604,22 +3600,22 @@
       <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="109">
+      <c r="C26" s="81">
         <v>747800</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="82">
         <v>734000</v>
       </c>
-      <c r="E26" s="109">
+      <c r="E26" s="81">
         <v>738200</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="82">
         <v>703700</v>
       </c>
-      <c r="G26" s="109">
+      <c r="G26" s="81">
         <v>737000</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="82">
         <v>673400</v>
       </c>
       <c r="K26" s="26" t="s">
@@ -3678,12 +3674,12 @@
       <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="108"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="63"/>
       <c r="K27" s="26" t="s">
         <v>104</v>
       </c>
@@ -4476,22 +4472,22 @@
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="100">
+      <c r="C43" s="60">
         <v>125750</v>
       </c>
-      <c r="D43" s="102">
+      <c r="D43" s="62">
         <v>190750</v>
       </c>
-      <c r="E43" s="100">
+      <c r="E43" s="60">
         <v>113140</v>
       </c>
-      <c r="F43" s="102">
+      <c r="F43" s="62">
         <v>190090</v>
       </c>
-      <c r="G43" s="100">
+      <c r="G43" s="60">
         <v>108020</v>
       </c>
-      <c r="H43" s="102">
+      <c r="H43" s="62">
         <v>176540</v>
       </c>
       <c r="K43" s="31" t="s">
@@ -4532,12 +4528,12 @@
       <c r="B44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="108"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="63"/>
       <c r="K44" s="27" t="s">
         <v>77</v>
       </c>
@@ -5144,22 +5140,22 @@
       <c r="B58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="100">
+      <c r="C58" s="60">
         <v>622050</v>
       </c>
-      <c r="D58" s="102">
+      <c r="D58" s="62">
         <v>543250</v>
       </c>
-      <c r="E58" s="100">
+      <c r="E58" s="60">
         <v>625060</v>
       </c>
-      <c r="F58" s="102">
+      <c r="F58" s="62">
         <v>513610</v>
       </c>
-      <c r="G58" s="100">
+      <c r="G58" s="60">
         <v>628980</v>
       </c>
-      <c r="H58" s="102">
+      <c r="H58" s="62">
         <v>496860</v>
       </c>
       <c r="M58" s="11"/>
@@ -5168,34 +5164,34 @@
       <c r="B59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="108"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="63"/>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="2:23">
       <c r="B60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="100">
+      <c r="C60" s="60">
         <v>466901</v>
       </c>
-      <c r="D60" s="102">
+      <c r="D60" s="62">
         <v>487011</v>
       </c>
-      <c r="E60" s="100">
+      <c r="E60" s="60">
         <v>459958</v>
       </c>
-      <c r="F60" s="102">
+      <c r="F60" s="62">
         <v>484212</v>
       </c>
-      <c r="G60" s="100">
+      <c r="G60" s="60">
         <v>436646</v>
       </c>
-      <c r="H60" s="102">
+      <c r="H60" s="62">
         <v>465264</v>
       </c>
       <c r="M60" s="11"/>
@@ -5207,279 +5203,279 @@
       <c r="B61" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="107"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="108"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="63"/>
       <c r="U61" s="30"/>
     </row>
     <row r="62" spans="2:23">
       <c r="B62" s="4"/>
-      <c r="C62" s="91" t="s">
+      <c r="C62" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="93" t="s">
+      <c r="D62" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="91" t="s">
+      <c r="E62" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="93" t="s">
+      <c r="F62" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="91" t="s">
+      <c r="G62" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="93" t="s">
+      <c r="H62" s="87" t="s">
         <v>22</v>
       </c>
       <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="2:23">
       <c r="B63" s="4"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="94"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="88"/>
     </row>
     <row r="64" spans="2:23">
       <c r="B64" s="4"/>
-      <c r="C64" s="100">
+      <c r="C64" s="60">
         <v>1596320</v>
       </c>
-      <c r="D64" s="102">
+      <c r="D64" s="62">
         <v>1665074</v>
       </c>
-      <c r="E64" s="100">
+      <c r="E64" s="60">
         <v>1572582</v>
       </c>
-      <c r="F64" s="102">
+      <c r="F64" s="62">
         <v>1655503</v>
       </c>
-      <c r="G64" s="100">
+      <c r="G64" s="60">
         <v>1492878</v>
       </c>
-      <c r="H64" s="102">
+      <c r="H64" s="62">
         <v>1590722</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="108"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="63"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4"/>
-      <c r="C66" s="96">
+      <c r="C66" s="91">
         <v>0.39</v>
       </c>
-      <c r="D66" s="98">
+      <c r="D66" s="93">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E66" s="96">
+      <c r="E66" s="91">
         <v>0.39700000000000002</v>
       </c>
-      <c r="F66" s="98">
+      <c r="F66" s="93">
         <v>0.31</v>
       </c>
-      <c r="G66" s="96">
+      <c r="G66" s="91">
         <v>0.42099999999999999</v>
       </c>
-      <c r="H66" s="98">
+      <c r="H66" s="93">
         <v>0.312</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="99"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="94"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4"/>
-      <c r="C68" s="100">
+      <c r="C68" s="60">
         <v>8756</v>
       </c>
-      <c r="D68" s="102">
+      <c r="D68" s="62">
         <v>10458</v>
       </c>
-      <c r="E68" s="100">
+      <c r="E68" s="60">
         <v>8585</v>
       </c>
-      <c r="F68" s="102">
+      <c r="F68" s="62">
         <v>10998</v>
       </c>
-      <c r="G68" s="100">
+      <c r="G68" s="60">
         <v>8099</v>
       </c>
-      <c r="H68" s="102">
+      <c r="H68" s="62">
         <v>10924</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="16.5" thickBot="1">
       <c r="B69" s="5"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="103"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="90"/>
     </row>
     <row r="70" spans="2:8" ht="33" customHeight="1">
-      <c r="B70" s="104" t="s">
+      <c r="B70" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="89">
+      <c r="C70" s="96">
         <v>7.6</v>
       </c>
-      <c r="D70" s="95">
+      <c r="D70" s="97">
         <v>10.7</v>
       </c>
-      <c r="E70" s="89">
+      <c r="E70" s="96">
         <v>7</v>
       </c>
-      <c r="F70" s="95">
+      <c r="F70" s="97">
         <v>11.1</v>
       </c>
-      <c r="G70" s="89">
+      <c r="G70" s="96">
         <v>6.6</v>
       </c>
-      <c r="H70" s="95">
+      <c r="H70" s="97">
         <v>11.3</v>
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="105"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="94"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="88"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="105"/>
-      <c r="C72" s="91">
+      <c r="B72" s="95"/>
+      <c r="C72" s="85">
         <v>1.6</v>
       </c>
-      <c r="D72" s="93">
+      <c r="D72" s="87">
         <v>2</v>
       </c>
-      <c r="E72" s="91">
+      <c r="E72" s="85">
         <v>1.4</v>
       </c>
-      <c r="F72" s="93">
+      <c r="F72" s="87">
         <v>2.1</v>
       </c>
-      <c r="G72" s="91">
+      <c r="G72" s="85">
         <v>1.2</v>
       </c>
-      <c r="H72" s="93">
+      <c r="H72" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="105"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="94"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="88"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="105"/>
-      <c r="C74" s="91">
+      <c r="B74" s="95"/>
+      <c r="C74" s="85">
         <v>6</v>
       </c>
-      <c r="D74" s="93">
+      <c r="D74" s="87">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E74" s="91">
+      <c r="E74" s="85">
         <v>5.5</v>
       </c>
-      <c r="F74" s="93">
+      <c r="F74" s="87">
         <v>9</v>
       </c>
-      <c r="G74" s="91">
+      <c r="G74" s="85">
         <v>5.3</v>
       </c>
-      <c r="H74" s="93">
+      <c r="H74" s="87">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B75" s="106"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="82"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="99"/>
     </row>
     <row r="76" spans="2:8" ht="48">
       <c r="B76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="89">
+      <c r="C76" s="96">
         <v>197</v>
       </c>
-      <c r="D76" s="95">
+      <c r="D76" s="97">
         <v>20</v>
       </c>
-      <c r="E76" s="89">
+      <c r="E76" s="96">
         <v>199</v>
       </c>
-      <c r="F76" s="95">
+      <c r="F76" s="97">
         <v>20</v>
       </c>
-      <c r="G76" s="89">
+      <c r="G76" s="96">
         <v>197</v>
       </c>
-      <c r="H76" s="95">
+      <c r="H76" s="97">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="94"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="88"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="100">
+      <c r="C78" s="60">
         <v>1434</v>
       </c>
-      <c r="D78" s="93">
+      <c r="D78" s="87">
         <v>152</v>
       </c>
-      <c r="E78" s="100">
+      <c r="E78" s="60">
         <v>1448</v>
       </c>
-      <c r="F78" s="93">
+      <c r="F78" s="87">
         <v>158</v>
       </c>
-      <c r="G78" s="100">
+      <c r="G78" s="60">
         <v>1361</v>
       </c>
-      <c r="H78" s="93">
+      <c r="H78" s="87">
         <v>161</v>
       </c>
     </row>
@@ -5487,794 +5483,794 @@
       <c r="B79" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="107"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="107"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="94"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="88"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4"/>
-      <c r="C80" s="100">
+      <c r="C80" s="60">
         <v>1723</v>
       </c>
-      <c r="D80" s="93">
+      <c r="D80" s="87">
         <v>206</v>
       </c>
-      <c r="E80" s="100">
+      <c r="E80" s="60">
         <v>1710</v>
       </c>
-      <c r="F80" s="93">
+      <c r="F80" s="87">
         <v>217</v>
       </c>
-      <c r="G80" s="100">
+      <c r="G80" s="60">
         <v>1595</v>
       </c>
-      <c r="H80" s="93">
+      <c r="H80" s="87">
         <v>218</v>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="4"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="94"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="88"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="4"/>
-      <c r="C82" s="91">
+      <c r="C82" s="85">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D82" s="93">
+      <c r="D82" s="87">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E82" s="91">
+      <c r="E82" s="85">
         <v>1.17E-2</v>
       </c>
-      <c r="F82" s="93">
+      <c r="F82" s="87">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="G82" s="91">
+      <c r="G82" s="85">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H82" s="93">
+      <c r="H82" s="87">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="4"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="94"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="86"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="88"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="4"/>
-      <c r="C84" s="91">
+      <c r="C84" s="85">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D84" s="93">
+      <c r="D84" s="87">
         <v>1.66E-2</v>
       </c>
-      <c r="E84" s="91">
+      <c r="E84" s="85">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="F84" s="93">
+      <c r="F84" s="87">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="G84" s="91">
+      <c r="G84" s="85">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H84" s="93">
+      <c r="H84" s="87">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="4"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="94"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="86"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="88"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="4"/>
-      <c r="C86" s="91">
+      <c r="C86" s="85">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D86" s="93">
+      <c r="D86" s="87">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E86" s="91">
+      <c r="E86" s="85">
         <v>0.06</v>
       </c>
-      <c r="F86" s="93">
+      <c r="F86" s="87">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G86" s="91">
+      <c r="G86" s="85">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H86" s="93">
+      <c r="H86" s="87">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="4"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="94"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="94"/>
-      <c r="G87" s="92"/>
-      <c r="H87" s="94"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="88"/>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="4"/>
-      <c r="C88" s="91">
+      <c r="C88" s="85">
         <v>0.43</v>
       </c>
-      <c r="D88" s="93">
+      <c r="D88" s="87">
         <v>0.376</v>
       </c>
-      <c r="E88" s="91">
+      <c r="E88" s="85">
         <v>0.434</v>
       </c>
-      <c r="F88" s="93">
+      <c r="F88" s="87">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G88" s="91">
+      <c r="G88" s="85">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H88" s="93">
+      <c r="H88" s="87">
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="4"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="92"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="92"/>
-      <c r="H89" s="94"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="86"/>
+      <c r="H89" s="88"/>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="4"/>
-      <c r="C90" s="91">
+      <c r="C90" s="85">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D90" s="93">
+      <c r="D90" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E90" s="91">
+      <c r="E90" s="85">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="F90" s="93">
+      <c r="F90" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G90" s="91">
+      <c r="G90" s="85">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="H90" s="93">
+      <c r="H90" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="4"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="94"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="94"/>
-      <c r="G91" s="92"/>
-      <c r="H91" s="94"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="88"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="4"/>
-      <c r="C92" s="91">
+      <c r="C92" s="85">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D92" s="93">
+      <c r="D92" s="87">
         <v>5.5E-2</v>
       </c>
-      <c r="E92" s="91">
+      <c r="E92" s="85">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F92" s="93">
+      <c r="F92" s="87">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G92" s="91">
+      <c r="G92" s="85">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H92" s="93">
+      <c r="H92" s="87">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="4"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="94"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="94"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="94"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="88"/>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="4"/>
-      <c r="C94" s="91">
+      <c r="C94" s="85">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D94" s="93">
+      <c r="D94" s="87">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E94" s="91">
+      <c r="E94" s="85">
         <v>0.57099999999999995</v>
       </c>
-      <c r="F94" s="93">
+      <c r="F94" s="87">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G94" s="91">
+      <c r="G94" s="85">
         <v>0.57099999999999995</v>
       </c>
-      <c r="H94" s="93">
+      <c r="H94" s="87">
         <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="4"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="94"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="94"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="94"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="86"/>
+      <c r="H95" s="88"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="4"/>
-      <c r="C96" s="129">
+      <c r="C96" s="100">
         <v>4.16E-6</v>
       </c>
-      <c r="D96" s="131">
+      <c r="D96" s="102">
         <v>4.42E-6</v>
       </c>
-      <c r="E96" s="129">
+      <c r="E96" s="100">
         <v>4.1500000000000001E-6</v>
       </c>
-      <c r="F96" s="131">
+      <c r="F96" s="102">
         <v>4.5900000000000001E-6</v>
       </c>
-      <c r="G96" s="129">
+      <c r="G96" s="100">
         <v>3.9500000000000003E-6</v>
       </c>
-      <c r="H96" s="131">
+      <c r="H96" s="102">
         <v>4.6099999999999999E-6</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="16.5" thickBot="1">
       <c r="B97" s="5"/>
-      <c r="C97" s="130"/>
-      <c r="D97" s="132"/>
-      <c r="E97" s="130"/>
-      <c r="F97" s="132"/>
-      <c r="G97" s="130"/>
-      <c r="H97" s="132"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="103"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="83" t="s">
+      <c r="B98" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="84"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="84"/>
-      <c r="G98" s="84"/>
-      <c r="H98" s="85"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="105"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="106"/>
     </row>
     <row r="99" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B99" s="86"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="87"/>
-      <c r="G99" s="87"/>
-      <c r="H99" s="88"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="109"/>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="109">
+      <c r="C100" s="81">
         <v>1987</v>
       </c>
-      <c r="D100" s="90">
+      <c r="D100" s="82">
         <v>2711</v>
       </c>
-      <c r="E100" s="109">
+      <c r="E100" s="81">
         <v>1913</v>
       </c>
-      <c r="F100" s="90">
+      <c r="F100" s="82">
         <v>2817</v>
       </c>
-      <c r="G100" s="109">
+      <c r="G100" s="81">
         <v>2217</v>
       </c>
-      <c r="H100" s="90">
+      <c r="H100" s="82">
         <v>3181</v>
       </c>
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="2"/>
-      <c r="C101" s="107"/>
-      <c r="D101" s="108"/>
-      <c r="E101" s="107"/>
-      <c r="F101" s="108"/>
-      <c r="G101" s="107"/>
-      <c r="H101" s="108"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="63"/>
     </row>
     <row r="102" spans="2:9" ht="21">
       <c r="B102" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="100">
+      <c r="C102" s="60">
         <v>2447</v>
       </c>
-      <c r="D102" s="102">
+      <c r="D102" s="62">
         <v>3334</v>
       </c>
-      <c r="E102" s="100">
+      <c r="E102" s="60">
         <v>2351</v>
       </c>
-      <c r="F102" s="102">
+      <c r="F102" s="62">
         <v>3466</v>
       </c>
-      <c r="G102" s="100">
+      <c r="G102" s="60">
         <v>2716</v>
       </c>
-      <c r="H102" s="102">
+      <c r="H102" s="62">
         <v>3904</v>
       </c>
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="2"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="108"/>
-      <c r="G103" s="107"/>
-      <c r="H103" s="108"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="63"/>
     </row>
     <row r="104" spans="2:9" ht="24">
       <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="100">
+      <c r="C104" s="60">
         <v>1528</v>
       </c>
-      <c r="D104" s="102">
+      <c r="D104" s="62">
         <v>2032</v>
       </c>
-      <c r="E104" s="100">
+      <c r="E104" s="60">
         <v>1470</v>
       </c>
-      <c r="F104" s="102">
+      <c r="F104" s="62">
         <v>2113</v>
       </c>
-      <c r="G104" s="100">
+      <c r="G104" s="60">
         <v>1695</v>
       </c>
-      <c r="H104" s="102">
+      <c r="H104" s="62">
         <v>2385</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2"/>
-      <c r="C105" s="107"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="107"/>
-      <c r="F105" s="108"/>
-      <c r="G105" s="107"/>
-      <c r="H105" s="108"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="63"/>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="91">
+      <c r="C106" s="85">
         <v>144</v>
       </c>
-      <c r="D106" s="93">
+      <c r="D106" s="87">
         <v>191</v>
       </c>
-      <c r="E106" s="91">
+      <c r="E106" s="85">
         <v>138</v>
       </c>
-      <c r="F106" s="93">
+      <c r="F106" s="87">
         <v>199</v>
       </c>
-      <c r="G106" s="91">
+      <c r="G106" s="85">
         <v>156</v>
       </c>
-      <c r="H106" s="93">
+      <c r="H106" s="87">
         <v>221</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="2"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="94"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="94"/>
-      <c r="G107" s="92"/>
-      <c r="H107" s="94"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="88"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="86"/>
+      <c r="H107" s="88"/>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="91">
+      <c r="C108" s="85">
         <v>265</v>
       </c>
-      <c r="D108" s="93">
+      <c r="D108" s="87">
         <v>369</v>
       </c>
-      <c r="E108" s="91">
+      <c r="E108" s="85">
         <v>256</v>
       </c>
-      <c r="F108" s="93">
+      <c r="F108" s="87">
         <v>385</v>
       </c>
-      <c r="G108" s="91">
+      <c r="G108" s="85">
         <v>302</v>
       </c>
-      <c r="H108" s="93">
+      <c r="H108" s="87">
         <v>444</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="2"/>
-      <c r="C109" s="92"/>
-      <c r="D109" s="94"/>
-      <c r="E109" s="92"/>
-      <c r="F109" s="94"/>
-      <c r="G109" s="92"/>
-      <c r="H109" s="94"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="86"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="86"/>
+      <c r="H109" s="88"/>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="2"/>
-      <c r="C110" s="91">
+      <c r="C110" s="85">
         <v>50</v>
       </c>
-      <c r="D110" s="93">
+      <c r="D110" s="87">
         <v>119</v>
       </c>
-      <c r="E110" s="91">
+      <c r="E110" s="85">
         <v>50</v>
       </c>
-      <c r="F110" s="93">
+      <c r="F110" s="87">
         <v>120</v>
       </c>
-      <c r="G110" s="91">
+      <c r="G110" s="85">
         <v>63</v>
       </c>
-      <c r="H110" s="93">
+      <c r="H110" s="87">
         <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="2"/>
-      <c r="C111" s="92"/>
-      <c r="D111" s="94"/>
-      <c r="E111" s="92"/>
-      <c r="F111" s="94"/>
-      <c r="G111" s="92"/>
-      <c r="H111" s="94"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="86"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="86"/>
+      <c r="H111" s="88"/>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="2"/>
-      <c r="C112" s="91">
+      <c r="C112" s="85">
         <v>460</v>
       </c>
-      <c r="D112" s="93">
+      <c r="D112" s="87">
         <v>623</v>
       </c>
-      <c r="E112" s="91">
+      <c r="E112" s="85">
         <v>438</v>
       </c>
-      <c r="F112" s="93">
+      <c r="F112" s="87">
         <v>649</v>
       </c>
-      <c r="G112" s="91">
+      <c r="G112" s="85">
         <v>500</v>
       </c>
-      <c r="H112" s="93">
+      <c r="H112" s="87">
         <v>723</v>
       </c>
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="2"/>
-      <c r="C113" s="92"/>
-      <c r="D113" s="94"/>
-      <c r="E113" s="92"/>
-      <c r="F113" s="94"/>
-      <c r="G113" s="92"/>
-      <c r="H113" s="94"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="86"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="86"/>
+      <c r="H113" s="88"/>
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="2"/>
-      <c r="C114" s="100">
+      <c r="C114" s="60">
         <v>1521880</v>
       </c>
-      <c r="D114" s="102">
+      <c r="D114" s="62">
         <v>1811411</v>
       </c>
-      <c r="E114" s="100">
+      <c r="E114" s="60">
         <v>1469577</v>
       </c>
-      <c r="F114" s="102">
+      <c r="F114" s="62">
         <v>1780290</v>
       </c>
-      <c r="G114" s="100">
+      <c r="G114" s="60">
         <v>1708524</v>
       </c>
-      <c r="H114" s="102">
+      <c r="H114" s="62">
         <v>1939878</v>
       </c>
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="2"/>
-      <c r="C115" s="107"/>
-      <c r="D115" s="108"/>
-      <c r="E115" s="107"/>
-      <c r="F115" s="108"/>
-      <c r="G115" s="107"/>
-      <c r="H115" s="108"/>
+      <c r="C115" s="61"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="63"/>
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="2"/>
-      <c r="C116" s="100">
+      <c r="C116" s="60">
         <v>2789</v>
       </c>
-      <c r="D116" s="102">
+      <c r="D116" s="62">
         <v>3801</v>
       </c>
-      <c r="E116" s="100">
+      <c r="E116" s="60">
         <v>2680</v>
       </c>
-      <c r="F116" s="102">
+      <c r="F116" s="62">
         <v>3952</v>
       </c>
-      <c r="G116" s="100">
+      <c r="G116" s="60">
         <v>3097</v>
       </c>
-      <c r="H116" s="102">
+      <c r="H116" s="62">
         <v>4451</v>
       </c>
     </row>
     <row r="117" spans="2:8">
       <c r="B117" s="2"/>
-      <c r="C117" s="107"/>
-      <c r="D117" s="108"/>
-      <c r="E117" s="107"/>
-      <c r="F117" s="108"/>
-      <c r="G117" s="107"/>
-      <c r="H117" s="108"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="63"/>
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="2"/>
-      <c r="C118" s="91">
+      <c r="C118" s="85">
         <v>76.3</v>
       </c>
-      <c r="D118" s="93">
+      <c r="D118" s="87">
         <v>105.6</v>
       </c>
-      <c r="E118" s="91">
+      <c r="E118" s="85">
         <v>74</v>
       </c>
-      <c r="F118" s="93">
+      <c r="F118" s="87">
         <v>110.3</v>
       </c>
-      <c r="G118" s="91">
+      <c r="G118" s="85">
         <v>81.3</v>
       </c>
-      <c r="H118" s="93">
+      <c r="H118" s="87">
         <v>119.4</v>
       </c>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="2"/>
-      <c r="C119" s="92"/>
-      <c r="D119" s="94"/>
-      <c r="E119" s="92"/>
-      <c r="F119" s="94"/>
-      <c r="G119" s="92"/>
-      <c r="H119" s="94"/>
+      <c r="C119" s="86"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="86"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="86"/>
+      <c r="H119" s="88"/>
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="2"/>
-      <c r="C120" s="125">
+      <c r="C120" s="110">
         <v>0</v>
       </c>
-      <c r="D120" s="127">
+      <c r="D120" s="112">
         <v>5.2</v>
       </c>
-      <c r="E120" s="125">
+      <c r="E120" s="110">
         <v>0</v>
       </c>
-      <c r="F120" s="127">
+      <c r="F120" s="112">
         <v>5.5</v>
       </c>
-      <c r="G120" s="125">
+      <c r="G120" s="110">
         <v>0</v>
       </c>
-      <c r="H120" s="127">
+      <c r="H120" s="112">
         <v>5.6</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="2"/>
-      <c r="C121" s="126"/>
-      <c r="D121" s="128"/>
-      <c r="E121" s="126"/>
-      <c r="F121" s="128"/>
-      <c r="G121" s="126"/>
-      <c r="H121" s="128"/>
+      <c r="C121" s="111"/>
+      <c r="D121" s="113"/>
+      <c r="E121" s="111"/>
+      <c r="F121" s="113"/>
+      <c r="G121" s="111"/>
+      <c r="H121" s="113"/>
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="2"/>
-      <c r="C122" s="125">
+      <c r="C122" s="110">
         <v>14.3</v>
       </c>
-      <c r="D122" s="127">
+      <c r="D122" s="112">
         <v>17.100000000000001</v>
       </c>
-      <c r="E122" s="125">
+      <c r="E122" s="110">
         <v>14</v>
       </c>
-      <c r="F122" s="127">
+      <c r="F122" s="112">
         <v>18</v>
       </c>
-      <c r="G122" s="125">
+      <c r="G122" s="110">
         <v>13.3</v>
       </c>
-      <c r="H122" s="127">
+      <c r="H122" s="112">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="123" spans="2:8">
       <c r="B123" s="2"/>
-      <c r="C123" s="126"/>
-      <c r="D123" s="128"/>
-      <c r="E123" s="126"/>
-      <c r="F123" s="128"/>
-      <c r="G123" s="126"/>
-      <c r="H123" s="128"/>
+      <c r="C123" s="111"/>
+      <c r="D123" s="113"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="113"/>
+      <c r="G123" s="111"/>
+      <c r="H123" s="113"/>
     </row>
     <row r="124" spans="2:8">
       <c r="B124" s="2"/>
-      <c r="C124" s="125">
+      <c r="C124" s="110">
         <v>7.3</v>
       </c>
-      <c r="D124" s="127">
+      <c r="D124" s="112">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E124" s="125">
+      <c r="E124" s="110">
         <v>7.2</v>
       </c>
-      <c r="F124" s="127">
+      <c r="F124" s="112">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G124" s="125">
+      <c r="G124" s="110">
         <v>7.8</v>
       </c>
-      <c r="H124" s="127">
+      <c r="H124" s="112">
         <v>9.9</v>
       </c>
     </row>
     <row r="125" spans="2:8">
       <c r="B125" s="2"/>
-      <c r="C125" s="126"/>
-      <c r="D125" s="128"/>
-      <c r="E125" s="126"/>
-      <c r="F125" s="128"/>
-      <c r="G125" s="126"/>
-      <c r="H125" s="128"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="113"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="113"/>
     </row>
     <row r="126" spans="2:8">
       <c r="B126" s="2"/>
-      <c r="C126" s="125">
+      <c r="C126" s="110">
         <v>11.3</v>
       </c>
-      <c r="D126" s="127">
+      <c r="D126" s="112">
         <v>14.8</v>
       </c>
-      <c r="E126" s="125">
+      <c r="E126" s="110">
         <v>11.1</v>
       </c>
-      <c r="F126" s="127">
+      <c r="F126" s="112">
         <v>15.5</v>
       </c>
-      <c r="G126" s="125">
+      <c r="G126" s="110">
         <v>12.1</v>
       </c>
-      <c r="H126" s="127">
+      <c r="H126" s="112">
         <v>16.7</v>
       </c>
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="2"/>
-      <c r="C127" s="126"/>
-      <c r="D127" s="128"/>
-      <c r="E127" s="126"/>
-      <c r="F127" s="128"/>
-      <c r="G127" s="126"/>
-      <c r="H127" s="128"/>
+      <c r="C127" s="111"/>
+      <c r="D127" s="113"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="113"/>
+      <c r="G127" s="111"/>
+      <c r="H127" s="113"/>
     </row>
     <row r="128" spans="2:8">
       <c r="B128" s="2"/>
-      <c r="C128" s="125">
+      <c r="C128" s="110">
         <v>43.4</v>
       </c>
-      <c r="D128" s="127">
+      <c r="D128" s="112">
         <v>59.1</v>
       </c>
-      <c r="E128" s="125">
+      <c r="E128" s="110">
         <v>41.7</v>
       </c>
-      <c r="F128" s="127">
+      <c r="F128" s="112">
         <v>61.5</v>
       </c>
-      <c r="G128" s="125">
+      <c r="G128" s="110">
         <v>48.2</v>
       </c>
-      <c r="H128" s="127">
+      <c r="H128" s="112">
         <v>69.2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" s="2"/>
-      <c r="C129" s="126"/>
-      <c r="D129" s="128"/>
-      <c r="E129" s="126"/>
-      <c r="F129" s="128"/>
-      <c r="G129" s="126"/>
-      <c r="H129" s="128"/>
+      <c r="C129" s="111"/>
+      <c r="D129" s="113"/>
+      <c r="E129" s="111"/>
+      <c r="F129" s="113"/>
+      <c r="G129" s="111"/>
+      <c r="H129" s="113"/>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" s="2"/>
-      <c r="C130" s="91">
+      <c r="C130" s="85">
         <v>96.7</v>
       </c>
-      <c r="D130" s="93">
+      <c r="D130" s="87">
         <v>133.9</v>
       </c>
-      <c r="E130" s="91">
+      <c r="E130" s="85">
         <v>93.8</v>
       </c>
-      <c r="F130" s="93">
+      <c r="F130" s="87">
         <v>139.9</v>
       </c>
-      <c r="G130" s="91">
+      <c r="G130" s="85">
         <v>103.1</v>
       </c>
-      <c r="H130" s="93">
+      <c r="H130" s="87">
         <v>151.4</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" thickBot="1">
       <c r="B131" s="3"/>
-      <c r="C131" s="81"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="81"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="81"/>
-      <c r="H131" s="82"/>
+      <c r="C131" s="98"/>
+      <c r="D131" s="99"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="99"/>
+      <c r="G131" s="98"/>
+      <c r="H131" s="99"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
@@ -6285,101 +6281,101 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="B134" s="110"/>
-      <c r="C134" s="113" t="s">
+      <c r="B134" s="64"/>
+      <c r="C134" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D134" s="133"/>
-      <c r="E134" s="133"/>
-      <c r="F134" s="114"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="69"/>
     </row>
     <row r="135" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B135" s="111"/>
-      <c r="C135" s="115"/>
-      <c r="D135" s="134"/>
-      <c r="E135" s="134"/>
-      <c r="F135" s="116"/>
+      <c r="B135" s="65"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="72"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="B136" s="111"/>
-      <c r="C136" s="117" t="s">
+      <c r="B136" s="65"/>
+      <c r="C136" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="118"/>
-      <c r="E136" s="117" t="s">
+      <c r="D136" s="74"/>
+      <c r="E136" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="F136" s="118"/>
+      <c r="F136" s="74"/>
     </row>
     <row r="137" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B137" s="112"/>
-      <c r="C137" s="115"/>
-      <c r="D137" s="116"/>
-      <c r="E137" s="115"/>
-      <c r="F137" s="116"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="70"/>
+      <c r="F137" s="72"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="B138" s="104" t="s">
+      <c r="B138" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="119" t="s">
+      <c r="C138" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="104" t="s">
+      <c r="D138" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E138" s="119" t="s">
+      <c r="E138" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F138" s="104" t="s">
+      <c r="F138" s="75" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B139" s="106"/>
-      <c r="C139" s="120"/>
-      <c r="D139" s="106"/>
-      <c r="E139" s="120"/>
-      <c r="F139" s="106"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="84"/>
+      <c r="D139" s="76"/>
+      <c r="E139" s="84"/>
+      <c r="F139" s="76"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="B140" s="104" t="s">
+      <c r="B140" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C140" s="121">
+      <c r="C140" s="77">
         <v>0</v>
       </c>
-      <c r="D140" s="123">
+      <c r="D140" s="79">
         <v>0.9</v>
       </c>
-      <c r="E140" s="121">
+      <c r="E140" s="77">
         <v>0</v>
       </c>
-      <c r="F140" s="123">
+      <c r="F140" s="79">
         <v>0.9</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B141" s="106"/>
-      <c r="C141" s="122"/>
-      <c r="D141" s="124"/>
-      <c r="E141" s="122"/>
-      <c r="F141" s="124"/>
+      <c r="B141" s="76"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="80"/>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="109">
+      <c r="C142" s="81">
         <v>582600</v>
       </c>
-      <c r="D142" s="90">
+      <c r="D142" s="82">
         <v>672700</v>
       </c>
-      <c r="E142" s="109">
+      <c r="E142" s="81">
         <v>580400</v>
       </c>
-      <c r="F142" s="90">
+      <c r="F142" s="82">
         <v>662800</v>
       </c>
     </row>
@@ -6387,25 +6383,25 @@
       <c r="B143" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="107"/>
-      <c r="D143" s="108"/>
-      <c r="E143" s="107"/>
-      <c r="F143" s="108"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="63"/>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="100">
+      <c r="C144" s="60">
         <v>32580</v>
       </c>
-      <c r="D144" s="102">
+      <c r="D144" s="62">
         <v>122740</v>
       </c>
-      <c r="E144" s="100">
+      <c r="E144" s="60">
         <v>30410</v>
       </c>
-      <c r="F144" s="102">
+      <c r="F144" s="62">
         <v>112830</v>
       </c>
     </row>
@@ -6413,25 +6409,25 @@
       <c r="B145" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="107"/>
-      <c r="D145" s="108"/>
-      <c r="E145" s="107"/>
-      <c r="F145" s="108"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="63"/>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="100">
+      <c r="C146" s="60">
         <v>550020</v>
       </c>
-      <c r="D146" s="102">
+      <c r="D146" s="62">
         <v>549960</v>
       </c>
-      <c r="E146" s="100">
+      <c r="E146" s="60">
         <v>549990</v>
       </c>
-      <c r="F146" s="102">
+      <c r="F146" s="62">
         <v>549970</v>
       </c>
     </row>
@@ -6439,229 +6435,229 @@
       <c r="B147" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C147" s="107"/>
-      <c r="D147" s="108"/>
-      <c r="E147" s="107"/>
-      <c r="F147" s="108"/>
+      <c r="C147" s="61"/>
+      <c r="D147" s="63"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="63"/>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C148" s="100">
+      <c r="C148" s="60">
         <v>437378</v>
       </c>
-      <c r="D148" s="102">
+      <c r="D148" s="62">
         <v>614994</v>
       </c>
-      <c r="E148" s="100">
+      <c r="E148" s="60">
         <v>409528</v>
       </c>
-      <c r="F148" s="102">
+      <c r="F148" s="62">
         <v>565820</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="4"/>
-      <c r="C149" s="107"/>
-      <c r="D149" s="108"/>
-      <c r="E149" s="107"/>
-      <c r="F149" s="108"/>
+      <c r="C149" s="61"/>
+      <c r="D149" s="63"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="63"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="4"/>
-      <c r="C150" s="91" t="s">
+      <c r="C150" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="93" t="s">
+      <c r="D150" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E150" s="91" t="s">
+      <c r="E150" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F150" s="93" t="s">
+      <c r="F150" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="4"/>
-      <c r="C151" s="92"/>
-      <c r="D151" s="94"/>
-      <c r="E151" s="92"/>
-      <c r="F151" s="94"/>
+      <c r="C151" s="86"/>
+      <c r="D151" s="88"/>
+      <c r="E151" s="86"/>
+      <c r="F151" s="88"/>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="4"/>
-      <c r="C152" s="100">
+      <c r="C152" s="60">
         <v>1495379</v>
       </c>
-      <c r="D152" s="102">
+      <c r="D152" s="62">
         <v>2102643</v>
       </c>
-      <c r="E152" s="100">
+      <c r="E152" s="60">
         <v>1400162</v>
       </c>
-      <c r="F152" s="102">
+      <c r="F152" s="62">
         <v>1934519</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="4"/>
-      <c r="C153" s="107"/>
-      <c r="D153" s="108"/>
-      <c r="E153" s="107"/>
-      <c r="F153" s="108"/>
+      <c r="C153" s="61"/>
+      <c r="D153" s="63"/>
+      <c r="E153" s="61"/>
+      <c r="F153" s="63"/>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="4"/>
-      <c r="C154" s="96">
+      <c r="C154" s="91">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D154" s="98">
+      <c r="D154" s="93">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E154" s="96">
+      <c r="E154" s="91">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F154" s="98">
+      <c r="F154" s="93">
         <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="4"/>
-      <c r="C155" s="97"/>
-      <c r="D155" s="99"/>
-      <c r="E155" s="97"/>
-      <c r="F155" s="99"/>
+      <c r="C155" s="92"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="92"/>
+      <c r="F155" s="94"/>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="4"/>
-      <c r="C156" s="100">
+      <c r="C156" s="60">
         <v>9277</v>
       </c>
-      <c r="D156" s="102">
+      <c r="D156" s="62">
         <v>13046</v>
       </c>
-      <c r="E156" s="100">
+      <c r="E156" s="60">
         <v>8687</v>
       </c>
-      <c r="F156" s="102">
+      <c r="F156" s="62">
         <v>12002</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="16.5" thickBot="1">
       <c r="B157" s="5"/>
-      <c r="C157" s="101"/>
-      <c r="D157" s="103"/>
-      <c r="E157" s="101"/>
-      <c r="F157" s="103"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="90"/>
+      <c r="E157" s="89"/>
+      <c r="F157" s="90"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="104" t="s">
+      <c r="B158" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C158" s="89">
+      <c r="C158" s="96">
         <v>10.7</v>
       </c>
-      <c r="D158" s="95">
+      <c r="D158" s="97">
         <v>20.399999999999999</v>
       </c>
-      <c r="E158" s="89">
+      <c r="E158" s="96">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F158" s="95">
+      <c r="F158" s="97">
         <v>18.3</v>
       </c>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="105"/>
-      <c r="C159" s="92"/>
-      <c r="D159" s="94"/>
-      <c r="E159" s="92"/>
-      <c r="F159" s="94"/>
+      <c r="B159" s="95"/>
+      <c r="C159" s="86"/>
+      <c r="D159" s="88"/>
+      <c r="E159" s="86"/>
+      <c r="F159" s="88"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="105"/>
-      <c r="C160" s="91">
+      <c r="B160" s="95"/>
+      <c r="C160" s="85">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D160" s="93">
+      <c r="D160" s="87">
         <v>4.7</v>
       </c>
-      <c r="E160" s="91">
+      <c r="E160" s="85">
         <v>2</v>
       </c>
-      <c r="F160" s="93">
+      <c r="F160" s="87">
         <v>4.3</v>
       </c>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="105"/>
-      <c r="C161" s="92"/>
-      <c r="D161" s="94"/>
-      <c r="E161" s="92"/>
-      <c r="F161" s="94"/>
+      <c r="B161" s="95"/>
+      <c r="C161" s="86"/>
+      <c r="D161" s="88"/>
+      <c r="E161" s="86"/>
+      <c r="F161" s="88"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="105"/>
-      <c r="C162" s="91">
+      <c r="B162" s="95"/>
+      <c r="C162" s="85">
         <v>8.5</v>
       </c>
-      <c r="D162" s="93">
+      <c r="D162" s="87">
         <v>15.7</v>
       </c>
-      <c r="E162" s="91">
+      <c r="E162" s="85">
         <v>7.7</v>
       </c>
-      <c r="F162" s="93">
+      <c r="F162" s="87">
         <v>14.1</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B163" s="106"/>
-      <c r="C163" s="81"/>
-      <c r="D163" s="82"/>
-      <c r="E163" s="81"/>
-      <c r="F163" s="82"/>
+      <c r="B163" s="76"/>
+      <c r="C163" s="98"/>
+      <c r="D163" s="99"/>
+      <c r="E163" s="98"/>
+      <c r="F163" s="99"/>
     </row>
     <row r="164" spans="2:6" ht="48">
       <c r="B164" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C164" s="89">
+      <c r="C164" s="96">
         <v>204</v>
       </c>
-      <c r="D164" s="95">
+      <c r="D164" s="97">
         <v>20</v>
       </c>
-      <c r="E164" s="89">
+      <c r="E164" s="96">
         <v>204</v>
       </c>
-      <c r="F164" s="95">
+      <c r="F164" s="97">
         <v>20</v>
       </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="4"/>
-      <c r="C165" s="92"/>
-      <c r="D165" s="94"/>
-      <c r="E165" s="92"/>
-      <c r="F165" s="94"/>
+      <c r="C165" s="86"/>
+      <c r="D165" s="88"/>
+      <c r="E165" s="86"/>
+      <c r="F165" s="88"/>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="100">
+      <c r="C166" s="60">
         <v>1783</v>
       </c>
-      <c r="D166" s="93">
+      <c r="D166" s="87">
         <v>217</v>
       </c>
-      <c r="E166" s="100">
+      <c r="E166" s="60">
         <v>1675</v>
       </c>
-      <c r="F166" s="93">
+      <c r="F166" s="87">
         <v>203</v>
       </c>
     </row>
@@ -6669,586 +6665,586 @@
       <c r="B167" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C167" s="107"/>
-      <c r="D167" s="94"/>
-      <c r="E167" s="107"/>
-      <c r="F167" s="94"/>
+      <c r="C167" s="61"/>
+      <c r="D167" s="88"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="88"/>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="4"/>
-      <c r="C168" s="100">
+      <c r="C168" s="60">
         <v>1888</v>
       </c>
-      <c r="D168" s="93">
+      <c r="D168" s="87">
         <v>266</v>
       </c>
-      <c r="E168" s="100">
+      <c r="E168" s="60">
         <v>1768</v>
       </c>
-      <c r="F168" s="93">
+      <c r="F168" s="87">
         <v>244</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="4"/>
-      <c r="C169" s="107"/>
-      <c r="D169" s="94"/>
-      <c r="E169" s="107"/>
-      <c r="F169" s="94"/>
+      <c r="C169" s="61"/>
+      <c r="D169" s="88"/>
+      <c r="E169" s="61"/>
+      <c r="F169" s="88"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="4"/>
-      <c r="C170" s="91">
+      <c r="C170" s="85">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="D170" s="93">
+      <c r="D170" s="87">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E170" s="91">
+      <c r="E170" s="85">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F170" s="93">
+      <c r="F170" s="87">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="4"/>
-      <c r="C171" s="92"/>
-      <c r="D171" s="94"/>
-      <c r="E171" s="92"/>
-      <c r="F171" s="94"/>
+      <c r="C171" s="86"/>
+      <c r="D171" s="88"/>
+      <c r="E171" s="86"/>
+      <c r="F171" s="88"/>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="4"/>
-      <c r="C172" s="91">
+      <c r="C172" s="85">
         <v>0.75149999999999995</v>
       </c>
-      <c r="D172" s="93">
+      <c r="D172" s="87">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="E172" s="91">
+      <c r="E172" s="85">
         <v>0.70630000000000004</v>
       </c>
-      <c r="F172" s="93">
+      <c r="F172" s="87">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="4"/>
-      <c r="C173" s="92"/>
-      <c r="D173" s="94"/>
-      <c r="E173" s="92"/>
-      <c r="F173" s="94"/>
+      <c r="C173" s="86"/>
+      <c r="D173" s="88"/>
+      <c r="E173" s="86"/>
+      <c r="F173" s="88"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="4"/>
-      <c r="C174" s="91">
+      <c r="C174" s="85">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D174" s="93">
+      <c r="D174" s="87">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E174" s="91">
+      <c r="E174" s="85">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F174" s="93">
+      <c r="F174" s="87">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="4"/>
-      <c r="C175" s="92"/>
-      <c r="D175" s="94"/>
-      <c r="E175" s="92"/>
-      <c r="F175" s="94"/>
+      <c r="C175" s="86"/>
+      <c r="D175" s="88"/>
+      <c r="E175" s="86"/>
+      <c r="F175" s="88"/>
     </row>
     <row r="176" spans="2:6">
       <c r="B176" s="4"/>
-      <c r="C176" s="91">
+      <c r="C176" s="85">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D176" s="93">
+      <c r="D176" s="87">
         <v>0.747</v>
       </c>
-      <c r="E176" s="91">
+      <c r="E176" s="85">
         <v>0.57599999999999996</v>
       </c>
-      <c r="F176" s="93">
+      <c r="F176" s="87">
         <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="177" spans="2:6">
       <c r="B177" s="4"/>
-      <c r="C177" s="92"/>
-      <c r="D177" s="94"/>
-      <c r="E177" s="92"/>
-      <c r="F177" s="94"/>
+      <c r="C177" s="86"/>
+      <c r="D177" s="88"/>
+      <c r="E177" s="86"/>
+      <c r="F177" s="88"/>
     </row>
     <row r="178" spans="2:6">
       <c r="B178" s="4"/>
-      <c r="C178" s="91">
+      <c r="C178" s="85">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D178" s="93">
+      <c r="D178" s="87">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E178" s="91">
+      <c r="E178" s="85">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F178" s="93">
+      <c r="F178" s="87">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" s="4"/>
-      <c r="C179" s="92"/>
-      <c r="D179" s="94"/>
-      <c r="E179" s="92"/>
-      <c r="F179" s="94"/>
+      <c r="C179" s="86"/>
+      <c r="D179" s="88"/>
+      <c r="E179" s="86"/>
+      <c r="F179" s="88"/>
     </row>
     <row r="180" spans="2:6">
       <c r="B180" s="4"/>
-      <c r="C180" s="91">
+      <c r="C180" s="85">
         <v>0.114</v>
       </c>
-      <c r="D180" s="93">
+      <c r="D180" s="87">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E180" s="91">
+      <c r="E180" s="85">
         <v>0.107</v>
       </c>
-      <c r="F180" s="93">
+      <c r="F180" s="87">
         <v>0.129</v>
       </c>
     </row>
     <row r="181" spans="2:6">
       <c r="B181" s="4"/>
-      <c r="C181" s="92"/>
-      <c r="D181" s="94"/>
-      <c r="E181" s="92"/>
-      <c r="F181" s="94"/>
+      <c r="C181" s="86"/>
+      <c r="D181" s="88"/>
+      <c r="E181" s="86"/>
+      <c r="F181" s="88"/>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" s="4"/>
-      <c r="C182" s="91">
+      <c r="C182" s="85">
         <v>1.143</v>
       </c>
-      <c r="D182" s="93">
+      <c r="D182" s="87">
         <v>1.143</v>
       </c>
-      <c r="E182" s="91">
+      <c r="E182" s="85">
         <v>1.143</v>
       </c>
-      <c r="F182" s="93">
+      <c r="F182" s="87">
         <v>1.143</v>
       </c>
     </row>
     <row r="183" spans="2:6">
       <c r="B183" s="4"/>
-      <c r="C183" s="92"/>
-      <c r="D183" s="94"/>
-      <c r="E183" s="92"/>
-      <c r="F183" s="94"/>
+      <c r="C183" s="86"/>
+      <c r="D183" s="88"/>
+      <c r="E183" s="86"/>
+      <c r="F183" s="88"/>
     </row>
     <row r="184" spans="2:6">
       <c r="B184" s="4"/>
-      <c r="C184" s="129">
+      <c r="C184" s="100">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D184" s="131">
+      <c r="D184" s="102">
         <v>1.22E-5</v>
       </c>
-      <c r="E184" s="129">
+      <c r="E184" s="100">
         <v>9.4099999999999997E-6</v>
       </c>
-      <c r="F184" s="131">
+      <c r="F184" s="102">
         <v>1.1399999999999999E-5</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="16.5" thickBot="1">
       <c r="B185" s="5"/>
-      <c r="C185" s="130"/>
-      <c r="D185" s="132"/>
-      <c r="E185" s="130"/>
-      <c r="F185" s="132"/>
+      <c r="C185" s="101"/>
+      <c r="D185" s="103"/>
+      <c r="E185" s="101"/>
+      <c r="F185" s="103"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="83" t="s">
+      <c r="B186" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C186" s="84"/>
-      <c r="D186" s="84"/>
-      <c r="E186" s="84"/>
-      <c r="F186" s="85"/>
+      <c r="C186" s="105"/>
+      <c r="D186" s="105"/>
+      <c r="E186" s="105"/>
+      <c r="F186" s="106"/>
     </row>
     <row r="187" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B187" s="86"/>
-      <c r="C187" s="87"/>
-      <c r="D187" s="87"/>
-      <c r="E187" s="87"/>
-      <c r="F187" s="88"/>
+      <c r="B187" s="107"/>
+      <c r="C187" s="108"/>
+      <c r="D187" s="108"/>
+      <c r="E187" s="108"/>
+      <c r="F187" s="109"/>
     </row>
     <row r="188" spans="2:6">
       <c r="B188" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C188" s="109">
+      <c r="C188" s="81">
         <v>1622</v>
       </c>
-      <c r="D188" s="90">
+      <c r="D188" s="82">
         <v>2942</v>
       </c>
-      <c r="E188" s="109">
+      <c r="E188" s="81">
         <v>1647</v>
       </c>
-      <c r="F188" s="90">
+      <c r="F188" s="82">
         <v>2913</v>
       </c>
     </row>
     <row r="189" spans="2:6">
       <c r="B189" s="2"/>
-      <c r="C189" s="107"/>
-      <c r="D189" s="108"/>
-      <c r="E189" s="107"/>
-      <c r="F189" s="108"/>
+      <c r="C189" s="61"/>
+      <c r="D189" s="63"/>
+      <c r="E189" s="61"/>
+      <c r="F189" s="63"/>
     </row>
     <row r="190" spans="2:6" ht="21">
       <c r="B190" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C190" s="100">
+      <c r="C190" s="60">
         <v>1996</v>
       </c>
-      <c r="D190" s="102">
+      <c r="D190" s="62">
         <v>3610</v>
       </c>
-      <c r="E190" s="100">
+      <c r="E190" s="60">
         <v>2024</v>
       </c>
-      <c r="F190" s="102">
+      <c r="F190" s="62">
         <v>3570</v>
       </c>
     </row>
     <row r="191" spans="2:6">
       <c r="B191" s="2"/>
-      <c r="C191" s="107"/>
-      <c r="D191" s="108"/>
-      <c r="E191" s="107"/>
-      <c r="F191" s="108"/>
+      <c r="C191" s="61"/>
+      <c r="D191" s="63"/>
+      <c r="E191" s="61"/>
+      <c r="F191" s="63"/>
     </row>
     <row r="192" spans="2:6" ht="24">
       <c r="B192" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C192" s="100">
+      <c r="C192" s="60">
         <v>1317</v>
       </c>
-      <c r="D192" s="102">
+      <c r="D192" s="62">
         <v>2255</v>
       </c>
-      <c r="E192" s="100">
+      <c r="E192" s="60">
         <v>1345</v>
       </c>
-      <c r="F192" s="102">
+      <c r="F192" s="62">
         <v>2239</v>
       </c>
     </row>
     <row r="193" spans="2:6">
       <c r="B193" s="2"/>
-      <c r="C193" s="107"/>
-      <c r="D193" s="108"/>
-      <c r="E193" s="107"/>
-      <c r="F193" s="108"/>
+      <c r="C193" s="61"/>
+      <c r="D193" s="63"/>
+      <c r="E193" s="61"/>
+      <c r="F193" s="63"/>
     </row>
     <row r="194" spans="2:6">
       <c r="B194" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="91">
+      <c r="C194" s="85">
         <v>124</v>
       </c>
-      <c r="D194" s="93">
+      <c r="D194" s="87">
         <v>213</v>
       </c>
-      <c r="E194" s="91">
+      <c r="E194" s="85">
         <v>127</v>
       </c>
-      <c r="F194" s="93">
+      <c r="F194" s="87">
         <v>211</v>
       </c>
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="2"/>
-      <c r="C195" s="92"/>
-      <c r="D195" s="94"/>
-      <c r="E195" s="92"/>
-      <c r="F195" s="94"/>
+      <c r="C195" s="86"/>
+      <c r="D195" s="88"/>
+      <c r="E195" s="86"/>
+      <c r="F195" s="88"/>
     </row>
     <row r="196" spans="2:6">
       <c r="B196" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C196" s="91">
+      <c r="C196" s="85">
         <v>182</v>
       </c>
-      <c r="D196" s="93">
+      <c r="D196" s="87">
         <v>369</v>
       </c>
-      <c r="E196" s="91">
+      <c r="E196" s="85">
         <v>176</v>
       </c>
-      <c r="F196" s="93">
+      <c r="F196" s="87">
         <v>362</v>
       </c>
     </row>
     <row r="197" spans="2:6">
       <c r="B197" s="2"/>
-      <c r="C197" s="92"/>
-      <c r="D197" s="94"/>
-      <c r="E197" s="92"/>
-      <c r="F197" s="94"/>
+      <c r="C197" s="86"/>
+      <c r="D197" s="88"/>
+      <c r="E197" s="86"/>
+      <c r="F197" s="88"/>
     </row>
     <row r="198" spans="2:6">
       <c r="B198" s="2"/>
-      <c r="C198" s="91">
+      <c r="C198" s="85">
         <v>0</v>
       </c>
-      <c r="D198" s="93">
+      <c r="D198" s="87">
         <v>105</v>
       </c>
-      <c r="E198" s="91">
+      <c r="E198" s="85">
         <v>0</v>
       </c>
-      <c r="F198" s="93">
+      <c r="F198" s="87">
         <v>100</v>
       </c>
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="2"/>
-      <c r="C199" s="92"/>
-      <c r="D199" s="94"/>
-      <c r="E199" s="92"/>
-      <c r="F199" s="94"/>
+      <c r="C199" s="86"/>
+      <c r="D199" s="88"/>
+      <c r="E199" s="86"/>
+      <c r="F199" s="88"/>
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="2"/>
-      <c r="C200" s="91">
+      <c r="C200" s="85">
         <v>374</v>
       </c>
-      <c r="D200" s="93">
+      <c r="D200" s="87">
         <v>667</v>
       </c>
-      <c r="E200" s="91">
+      <c r="E200" s="85">
         <v>377</v>
       </c>
-      <c r="F200" s="93">
+      <c r="F200" s="87">
         <v>657</v>
       </c>
     </row>
     <row r="201" spans="2:6">
       <c r="B201" s="2"/>
-      <c r="C201" s="92"/>
-      <c r="D201" s="94"/>
-      <c r="E201" s="92"/>
-      <c r="F201" s="94"/>
+      <c r="C201" s="86"/>
+      <c r="D201" s="88"/>
+      <c r="E201" s="86"/>
+      <c r="F201" s="88"/>
     </row>
     <row r="202" spans="2:6">
       <c r="B202" s="2"/>
-      <c r="C202" s="100">
+      <c r="C202" s="60">
         <v>1098124</v>
       </c>
-      <c r="D202" s="102">
+      <c r="D202" s="62">
         <v>1985432</v>
       </c>
-      <c r="E202" s="100">
+      <c r="E202" s="60">
         <v>1113445</v>
       </c>
-      <c r="F202" s="102">
+      <c r="F202" s="62">
         <v>1963644</v>
       </c>
     </row>
     <row r="203" spans="2:6">
       <c r="B203" s="2"/>
-      <c r="C203" s="107"/>
-      <c r="D203" s="108"/>
-      <c r="E203" s="107"/>
-      <c r="F203" s="108"/>
+      <c r="C203" s="61"/>
+      <c r="D203" s="63"/>
+      <c r="E203" s="61"/>
+      <c r="F203" s="63"/>
     </row>
     <row r="204" spans="2:6">
       <c r="B204" s="2"/>
-      <c r="C204" s="100">
+      <c r="C204" s="60">
         <v>2264</v>
       </c>
-      <c r="D204" s="102">
+      <c r="D204" s="62">
         <v>4115</v>
       </c>
-      <c r="E204" s="100">
+      <c r="E204" s="60">
         <v>2296</v>
       </c>
-      <c r="F204" s="102">
+      <c r="F204" s="62">
         <v>4070</v>
       </c>
     </row>
     <row r="205" spans="2:6">
       <c r="B205" s="2"/>
-      <c r="C205" s="107"/>
-      <c r="D205" s="108"/>
-      <c r="E205" s="107"/>
-      <c r="F205" s="108"/>
+      <c r="C205" s="61"/>
+      <c r="D205" s="63"/>
+      <c r="E205" s="61"/>
+      <c r="F205" s="63"/>
     </row>
     <row r="206" spans="2:6">
       <c r="B206" s="2"/>
-      <c r="C206" s="91">
+      <c r="C206" s="85">
         <v>59.4</v>
       </c>
-      <c r="D206" s="93">
+      <c r="D206" s="87">
         <v>109.6</v>
       </c>
-      <c r="E206" s="91">
+      <c r="E206" s="85">
         <v>58.9</v>
       </c>
-      <c r="F206" s="93">
+      <c r="F206" s="87">
         <v>106.5</v>
       </c>
     </row>
     <row r="207" spans="2:6">
       <c r="B207" s="2"/>
-      <c r="C207" s="92"/>
-      <c r="D207" s="94"/>
-      <c r="E207" s="92"/>
-      <c r="F207" s="94"/>
+      <c r="C207" s="86"/>
+      <c r="D207" s="88"/>
+      <c r="E207" s="86"/>
+      <c r="F207" s="88"/>
     </row>
     <row r="208" spans="2:6">
       <c r="B208" s="2"/>
-      <c r="C208" s="125">
+      <c r="C208" s="110">
         <v>0</v>
       </c>
-      <c r="D208" s="127">
+      <c r="D208" s="112">
         <v>5.8</v>
       </c>
-      <c r="E208" s="125">
+      <c r="E208" s="110">
         <v>0</v>
       </c>
-      <c r="F208" s="127">
+      <c r="F208" s="112">
         <v>5.6</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="B209" s="2"/>
-      <c r="C209" s="126"/>
-      <c r="D209" s="128"/>
-      <c r="E209" s="126"/>
-      <c r="F209" s="128"/>
+      <c r="C209" s="111"/>
+      <c r="D209" s="113"/>
+      <c r="E209" s="111"/>
+      <c r="F209" s="113"/>
     </row>
     <row r="210" spans="1:6">
       <c r="B210" s="2"/>
-      <c r="C210" s="125">
+      <c r="C210" s="110">
         <v>15.2</v>
       </c>
-      <c r="D210" s="127">
+      <c r="D210" s="112">
         <v>21.3</v>
       </c>
-      <c r="E210" s="125">
+      <c r="E210" s="110">
         <v>14.2</v>
       </c>
-      <c r="F210" s="127">
+      <c r="F210" s="112">
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="B211" s="2"/>
-      <c r="C211" s="126"/>
-      <c r="D211" s="128"/>
-      <c r="E211" s="126"/>
-      <c r="F211" s="128"/>
+      <c r="C211" s="111"/>
+      <c r="D211" s="113"/>
+      <c r="E211" s="111"/>
+      <c r="F211" s="113"/>
     </row>
     <row r="212" spans="1:6">
       <c r="B212" s="2"/>
-      <c r="C212" s="125">
+      <c r="C212" s="110">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D212" s="127">
+      <c r="D212" s="112">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E212" s="125">
+      <c r="E212" s="110">
         <v>5</v>
       </c>
-      <c r="F212" s="127">
+      <c r="F212" s="112">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="B213" s="2"/>
-      <c r="C213" s="126"/>
-      <c r="D213" s="128"/>
-      <c r="E213" s="126"/>
-      <c r="F213" s="128"/>
+      <c r="C213" s="111"/>
+      <c r="D213" s="113"/>
+      <c r="E213" s="111"/>
+      <c r="F213" s="113"/>
     </row>
     <row r="214" spans="1:6">
       <c r="B214" s="2"/>
-      <c r="C214" s="125">
+      <c r="C214" s="110">
         <v>7.8</v>
       </c>
-      <c r="D214" s="127">
+      <c r="D214" s="112">
         <v>13.1</v>
       </c>
-      <c r="E214" s="125">
+      <c r="E214" s="110">
         <v>8</v>
       </c>
-      <c r="F214" s="127">
+      <c r="F214" s="112">
         <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="B215" s="2"/>
-      <c r="C215" s="126"/>
-      <c r="D215" s="128"/>
-      <c r="E215" s="126"/>
-      <c r="F215" s="128"/>
+      <c r="C215" s="111"/>
+      <c r="D215" s="113"/>
+      <c r="E215" s="111"/>
+      <c r="F215" s="113"/>
     </row>
     <row r="216" spans="1:6">
       <c r="B216" s="2"/>
-      <c r="C216" s="125">
+      <c r="C216" s="110">
         <v>31.2</v>
       </c>
-      <c r="D216" s="127">
+      <c r="D216" s="112">
         <v>60.2</v>
       </c>
-      <c r="E216" s="125">
+      <c r="E216" s="110">
         <v>31.7</v>
       </c>
-      <c r="F216" s="127">
+      <c r="F216" s="112">
         <v>59.6</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="B217" s="2"/>
-      <c r="C217" s="126"/>
-      <c r="D217" s="128"/>
-      <c r="E217" s="126"/>
-      <c r="F217" s="128"/>
+      <c r="C217" s="111"/>
+      <c r="D217" s="113"/>
+      <c r="E217" s="111"/>
+      <c r="F217" s="113"/>
     </row>
     <row r="218" spans="1:6">
       <c r="B218" s="2"/>
-      <c r="C218" s="91">
+      <c r="C218" s="85">
         <v>75.3</v>
       </c>
-      <c r="D218" s="93">
+      <c r="D218" s="87">
         <v>139</v>
       </c>
-      <c r="E218" s="91">
+      <c r="E218" s="85">
         <v>74.7</v>
       </c>
-      <c r="F218" s="93">
+      <c r="F218" s="87">
         <v>135.19999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16.5" thickBot="1">
       <c r="B219" s="3"/>
-      <c r="C219" s="81"/>
-      <c r="D219" s="82"/>
-      <c r="E219" s="81"/>
-      <c r="F219" s="82"/>
+      <c r="C219" s="98"/>
+      <c r="D219" s="99"/>
+      <c r="E219" s="98"/>
+      <c r="F219" s="99"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
@@ -7259,69 +7255,69 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="B223" s="110"/>
-      <c r="C223" s="113" t="s">
+      <c r="B223" s="64"/>
+      <c r="C223" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D223" s="114"/>
+      <c r="D223" s="69"/>
     </row>
     <row r="224" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B224" s="111"/>
-      <c r="C224" s="115"/>
-      <c r="D224" s="116"/>
+      <c r="B224" s="65"/>
+      <c r="C224" s="70"/>
+      <c r="D224" s="72"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="111"/>
-      <c r="C225" s="117" t="s">
+      <c r="B225" s="65"/>
+      <c r="C225" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D225" s="118"/>
+      <c r="D225" s="74"/>
     </row>
     <row r="226" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B226" s="112"/>
-      <c r="C226" s="115"/>
-      <c r="D226" s="116"/>
+      <c r="B226" s="66"/>
+      <c r="C226" s="70"/>
+      <c r="D226" s="72"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="104" t="s">
+      <c r="B227" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C227" s="119" t="s">
+      <c r="C227" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="D227" s="104" t="s">
+      <c r="D227" s="75" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B228" s="106"/>
-      <c r="C228" s="120"/>
-      <c r="D228" s="106"/>
+      <c r="B228" s="76"/>
+      <c r="C228" s="84"/>
+      <c r="D228" s="76"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="104" t="s">
+      <c r="B229" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C229" s="121">
+      <c r="C229" s="77">
         <v>0</v>
       </c>
-      <c r="D229" s="123">
+      <c r="D229" s="79">
         <v>0.9</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B230" s="106"/>
-      <c r="C230" s="122"/>
-      <c r="D230" s="124"/>
+      <c r="B230" s="76"/>
+      <c r="C230" s="78"/>
+      <c r="D230" s="80"/>
     </row>
     <row r="231" spans="2:4">
       <c r="B231" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C231" s="109">
+      <c r="C231" s="81">
         <v>564700</v>
       </c>
-      <c r="D231" s="90">
+      <c r="D231" s="82">
         <v>511000</v>
       </c>
     </row>
@@ -7329,17 +7325,17 @@
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="107"/>
-      <c r="D232" s="108"/>
+      <c r="C232" s="61"/>
+      <c r="D232" s="63"/>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C233" s="100">
+      <c r="C233" s="60">
         <v>9620</v>
       </c>
-      <c r="D233" s="102">
+      <c r="D233" s="62">
         <v>37430</v>
       </c>
     </row>
@@ -7347,17 +7343,17 @@
       <c r="B234" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C234" s="107"/>
-      <c r="D234" s="108"/>
+      <c r="C234" s="61"/>
+      <c r="D234" s="63"/>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C235" s="100">
+      <c r="C235" s="60">
         <v>555080</v>
       </c>
-      <c r="D235" s="102">
+      <c r="D235" s="62">
         <v>473570</v>
       </c>
     </row>
@@ -7365,149 +7361,149 @@
       <c r="B236" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C236" s="107"/>
-      <c r="D236" s="108"/>
+      <c r="C236" s="61"/>
+      <c r="D236" s="63"/>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C237" s="91" t="s">
+      <c r="C237" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D237" s="93" t="s">
+      <c r="D237" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" s="4"/>
-      <c r="C238" s="92"/>
-      <c r="D238" s="94"/>
+      <c r="C238" s="86"/>
+      <c r="D238" s="88"/>
     </row>
     <row r="239" spans="2:4">
       <c r="B239" s="4"/>
-      <c r="C239" s="100">
+      <c r="C239" s="60">
         <v>167333</v>
       </c>
-      <c r="D239" s="102">
+      <c r="D239" s="62">
         <v>167333</v>
       </c>
     </row>
     <row r="240" spans="2:4">
       <c r="B240" s="4"/>
-      <c r="C240" s="107"/>
-      <c r="D240" s="108"/>
+      <c r="C240" s="61"/>
+      <c r="D240" s="63"/>
     </row>
     <row r="241" spans="2:4">
       <c r="B241" s="4"/>
-      <c r="C241" s="100">
+      <c r="C241" s="60">
         <v>1105812</v>
       </c>
-      <c r="D241" s="102">
+      <c r="D241" s="62">
         <v>1105812</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" s="4"/>
-      <c r="C242" s="107"/>
-      <c r="D242" s="108"/>
+      <c r="C242" s="61"/>
+      <c r="D242" s="63"/>
     </row>
     <row r="243" spans="2:4">
       <c r="B243" s="4"/>
-      <c r="C243" s="96">
+      <c r="C243" s="91">
         <v>0.502</v>
       </c>
-      <c r="D243" s="98">
+      <c r="D243" s="93">
         <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="244" spans="2:4">
       <c r="B244" s="4"/>
-      <c r="C244" s="97"/>
-      <c r="D244" s="99"/>
+      <c r="C244" s="92"/>
+      <c r="D244" s="94"/>
     </row>
     <row r="245" spans="2:4">
       <c r="B245" s="4"/>
-      <c r="C245" s="100">
+      <c r="C245" s="60">
         <v>6798</v>
       </c>
-      <c r="D245" s="102">
+      <c r="D245" s="62">
         <v>7968</v>
       </c>
     </row>
     <row r="246" spans="2:4" ht="16.5" thickBot="1">
       <c r="B246" s="5"/>
-      <c r="C246" s="101"/>
-      <c r="D246" s="103"/>
+      <c r="C246" s="89"/>
+      <c r="D246" s="90"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="104" t="s">
+      <c r="B247" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C247" s="89">
+      <c r="C247" s="96">
         <v>4.3</v>
       </c>
-      <c r="D247" s="95">
+      <c r="D247" s="97">
         <v>8.4</v>
       </c>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="105"/>
-      <c r="C248" s="92"/>
-      <c r="D248" s="94"/>
+      <c r="B248" s="95"/>
+      <c r="C248" s="86"/>
+      <c r="D248" s="88"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="105"/>
-      <c r="C249" s="91">
+      <c r="B249" s="95"/>
+      <c r="C249" s="85">
         <v>1</v>
       </c>
-      <c r="D249" s="93">
+      <c r="D249" s="87">
         <v>2.1</v>
       </c>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="105"/>
-      <c r="C250" s="92"/>
-      <c r="D250" s="94"/>
+      <c r="B250" s="95"/>
+      <c r="C250" s="86"/>
+      <c r="D250" s="88"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="105"/>
-      <c r="C251" s="91">
+      <c r="B251" s="95"/>
+      <c r="C251" s="85">
         <v>3.3</v>
       </c>
-      <c r="D251" s="93">
+      <c r="D251" s="87">
         <v>6.3</v>
       </c>
     </row>
     <row r="252" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B252" s="106"/>
-      <c r="C252" s="81"/>
-      <c r="D252" s="82"/>
+      <c r="B252" s="76"/>
+      <c r="C252" s="98"/>
+      <c r="D252" s="99"/>
     </row>
     <row r="253" spans="2:4" ht="48">
       <c r="B253" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C253" s="89">
+      <c r="C253" s="96">
         <v>118</v>
       </c>
-      <c r="D253" s="95">
+      <c r="D253" s="97">
         <v>12</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" s="4"/>
-      <c r="C254" s="92"/>
-      <c r="D254" s="94"/>
+      <c r="C254" s="86"/>
+      <c r="D254" s="88"/>
     </row>
     <row r="255" spans="2:4">
       <c r="B255" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C255" s="91">
+      <c r="C255" s="85">
         <v>790</v>
       </c>
-      <c r="D255" s="93">
+      <c r="D255" s="87">
         <v>87</v>
       </c>
     </row>
@@ -7515,383 +7511,871 @@
       <c r="B256" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C256" s="92"/>
-      <c r="D256" s="94"/>
+      <c r="C256" s="86"/>
+      <c r="D256" s="88"/>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" s="4"/>
-      <c r="C257" s="91">
+      <c r="C257" s="85">
         <v>804</v>
       </c>
-      <c r="D257" s="93">
+      <c r="D257" s="87">
         <v>94</v>
       </c>
     </row>
     <row r="258" spans="2:4">
       <c r="B258" s="4"/>
-      <c r="C258" s="92"/>
-      <c r="D258" s="94"/>
+      <c r="C258" s="86"/>
+      <c r="D258" s="88"/>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" s="4"/>
-      <c r="C259" s="91" t="s">
+      <c r="C259" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D259" s="93" t="s">
+      <c r="D259" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" s="4"/>
-      <c r="C260" s="92"/>
-      <c r="D260" s="94"/>
+      <c r="C260" s="86"/>
+      <c r="D260" s="88"/>
     </row>
     <row r="261" spans="2:4">
       <c r="B261" s="4"/>
-      <c r="C261" s="91" t="s">
+      <c r="C261" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D261" s="93" t="s">
+      <c r="D261" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="262" spans="2:4">
       <c r="B262" s="4"/>
-      <c r="C262" s="92"/>
-      <c r="D262" s="94"/>
+      <c r="C262" s="86"/>
+      <c r="D262" s="88"/>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" s="4"/>
-      <c r="C263" s="91">
+      <c r="C263" s="85">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D263" s="93">
+      <c r="D263" s="87">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="264" spans="2:4">
       <c r="B264" s="4"/>
-      <c r="C264" s="92"/>
-      <c r="D264" s="80"/>
+      <c r="C264" s="86"/>
+      <c r="D264" s="116"/>
     </row>
     <row r="265" spans="2:4">
       <c r="B265" s="4"/>
-      <c r="C265" s="91">
+      <c r="C265" s="85">
         <v>0.06</v>
       </c>
-      <c r="D265" s="79">
+      <c r="D265" s="115">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="266" spans="2:4">
       <c r="B266" s="4"/>
-      <c r="C266" s="78"/>
-      <c r="D266" s="80"/>
+      <c r="C266" s="114"/>
+      <c r="D266" s="116"/>
     </row>
     <row r="267" spans="2:4">
       <c r="B267" s="4"/>
-      <c r="C267" s="77" t="s">
+      <c r="C267" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D267" s="79" t="s">
+      <c r="D267" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="268" spans="2:4">
       <c r="B268" s="4"/>
-      <c r="C268" s="78"/>
-      <c r="D268" s="80"/>
+      <c r="C268" s="114"/>
+      <c r="D268" s="116"/>
     </row>
     <row r="269" spans="2:4">
       <c r="B269" s="4"/>
-      <c r="C269" s="77" t="s">
+      <c r="C269" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D269" s="79" t="s">
+      <c r="D269" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="270" spans="2:4">
       <c r="B270" s="4"/>
-      <c r="C270" s="78"/>
-      <c r="D270" s="80"/>
+      <c r="C270" s="114"/>
+      <c r="D270" s="116"/>
     </row>
     <row r="271" spans="2:4">
       <c r="B271" s="4"/>
-      <c r="C271" s="77" t="s">
+      <c r="C271" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D271" s="79" t="s">
+      <c r="D271" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="272" spans="2:4">
       <c r="B272" s="4"/>
-      <c r="C272" s="78"/>
-      <c r="D272" s="80"/>
+      <c r="C272" s="114"/>
+      <c r="D272" s="116"/>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" s="4"/>
-      <c r="C273" s="77" t="s">
+      <c r="C273" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D273" s="79" t="s">
+      <c r="D273" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="274" spans="2:4" ht="16.5" thickBot="1">
       <c r="B274" s="5"/>
-      <c r="C274" s="81"/>
-      <c r="D274" s="82"/>
+      <c r="C274" s="98"/>
+      <c r="D274" s="99"/>
     </row>
     <row r="275" spans="2:4">
-      <c r="B275" s="83" t="s">
+      <c r="B275" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C275" s="84"/>
-      <c r="D275" s="85"/>
+      <c r="C275" s="105"/>
+      <c r="D275" s="106"/>
     </row>
     <row r="276" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B276" s="86"/>
-      <c r="C276" s="87"/>
-      <c r="D276" s="88"/>
+      <c r="B276" s="107"/>
+      <c r="C276" s="108"/>
+      <c r="D276" s="109"/>
     </row>
     <row r="277" spans="2:4">
       <c r="B277" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C277" s="89">
+      <c r="C277" s="96">
         <v>584</v>
       </c>
-      <c r="D277" s="90">
+      <c r="D277" s="82">
         <v>1226</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="B278" s="2"/>
-      <c r="C278" s="78"/>
-      <c r="D278" s="76"/>
+      <c r="C278" s="114"/>
+      <c r="D278" s="118"/>
     </row>
     <row r="279" spans="2:4" ht="21">
       <c r="B279" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C279" s="77">
+      <c r="C279" s="117">
         <v>718</v>
       </c>
-      <c r="D279" s="75">
+      <c r="D279" s="134">
         <v>1497</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="B280" s="2"/>
-      <c r="C280" s="78"/>
-      <c r="D280" s="76"/>
+      <c r="C280" s="114"/>
+      <c r="D280" s="118"/>
     </row>
     <row r="281" spans="2:4" ht="24">
       <c r="B281" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C281" s="77">
+      <c r="C281" s="117">
         <v>482</v>
       </c>
-      <c r="D281" s="79">
+      <c r="D281" s="115">
         <v>926</v>
       </c>
     </row>
     <row r="282" spans="2:4">
       <c r="B282" s="2"/>
-      <c r="C282" s="78"/>
-      <c r="D282" s="80"/>
+      <c r="C282" s="114"/>
+      <c r="D282" s="116"/>
     </row>
     <row r="283" spans="2:4">
       <c r="B283" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C283" s="77">
+      <c r="C283" s="117">
         <v>40</v>
       </c>
-      <c r="D283" s="79">
+      <c r="D283" s="115">
         <v>78</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="B284" s="2"/>
-      <c r="C284" s="78"/>
-      <c r="D284" s="80"/>
+      <c r="C284" s="114"/>
+      <c r="D284" s="116"/>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C285" s="77">
+      <c r="C285" s="117">
         <v>62</v>
       </c>
-      <c r="D285" s="79">
+      <c r="D285" s="115">
         <v>162</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" s="2"/>
-      <c r="C286" s="78"/>
-      <c r="D286" s="80"/>
+      <c r="C286" s="114"/>
+      <c r="D286" s="116"/>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" s="2"/>
-      <c r="C287" s="77">
+      <c r="C287" s="117">
         <v>0</v>
       </c>
-      <c r="D287" s="79">
+      <c r="D287" s="115">
         <v>60</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" s="2"/>
-      <c r="C288" s="78"/>
-      <c r="D288" s="80"/>
+      <c r="C288" s="114"/>
+      <c r="D288" s="116"/>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" s="2"/>
-      <c r="C289" s="77">
+      <c r="C289" s="117">
         <v>133</v>
       </c>
-      <c r="D289" s="79">
+      <c r="D289" s="115">
         <v>271</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="B290" s="2"/>
-      <c r="C290" s="78"/>
-      <c r="D290" s="80"/>
+      <c r="C290" s="114"/>
+      <c r="D290" s="116"/>
     </row>
     <row r="291" spans="2:4">
       <c r="B291" s="2"/>
-      <c r="C291" s="73">
+      <c r="C291" s="132">
         <v>398290</v>
       </c>
-      <c r="D291" s="75">
+      <c r="D291" s="134">
         <v>709039</v>
       </c>
     </row>
     <row r="292" spans="2:4">
       <c r="B292" s="2"/>
-      <c r="C292" s="74"/>
-      <c r="D292" s="76"/>
+      <c r="C292" s="133"/>
+      <c r="D292" s="118"/>
     </row>
     <row r="293" spans="2:4">
       <c r="B293" s="2"/>
-      <c r="C293" s="77">
+      <c r="C293" s="117">
         <v>771</v>
       </c>
-      <c r="D293" s="75">
+      <c r="D293" s="134">
         <v>1614</v>
       </c>
     </row>
     <row r="294" spans="2:4">
       <c r="B294" s="2"/>
-      <c r="C294" s="78"/>
-      <c r="D294" s="76"/>
+      <c r="C294" s="114"/>
+      <c r="D294" s="118"/>
     </row>
     <row r="295" spans="2:4">
       <c r="B295" s="2"/>
-      <c r="C295" s="77">
+      <c r="C295" s="117">
         <v>58.9</v>
       </c>
-      <c r="D295" s="79">
+      <c r="D295" s="115">
         <v>85.9</v>
       </c>
     </row>
     <row r="296" spans="2:4">
       <c r="B296" s="2"/>
-      <c r="C296" s="78"/>
-      <c r="D296" s="80"/>
+      <c r="C296" s="114"/>
+      <c r="D296" s="116"/>
     </row>
     <row r="297" spans="2:4">
       <c r="B297" s="2"/>
-      <c r="C297" s="69">
+      <c r="C297" s="119">
         <v>0</v>
       </c>
-      <c r="D297" s="71">
+      <c r="D297" s="121">
         <v>3.2</v>
       </c>
     </row>
     <row r="298" spans="2:4">
       <c r="B298" s="2"/>
-      <c r="C298" s="70"/>
-      <c r="D298" s="72"/>
+      <c r="C298" s="120"/>
+      <c r="D298" s="122"/>
     </row>
     <row r="299" spans="2:4">
       <c r="B299" s="2"/>
-      <c r="C299" s="69">
+      <c r="C299" s="119">
         <v>44.5</v>
       </c>
-      <c r="D299" s="71">
+      <c r="D299" s="121">
         <v>52.2</v>
       </c>
     </row>
     <row r="300" spans="2:4">
       <c r="B300" s="2"/>
-      <c r="C300" s="70"/>
-      <c r="D300" s="72"/>
+      <c r="C300" s="120"/>
+      <c r="D300" s="122"/>
     </row>
     <row r="301" spans="2:4">
       <c r="B301" s="2"/>
-      <c r="C301" s="69">
+      <c r="C301" s="119">
         <v>1.3</v>
       </c>
-      <c r="D301" s="71">
+      <c r="D301" s="121">
         <v>2.6</v>
       </c>
     </row>
     <row r="302" spans="2:4">
       <c r="B302" s="2"/>
-      <c r="C302" s="70"/>
-      <c r="D302" s="72"/>
+      <c r="C302" s="120"/>
+      <c r="D302" s="122"/>
     </row>
     <row r="303" spans="2:4">
       <c r="B303" s="2"/>
-      <c r="C303" s="69">
+      <c r="C303" s="119">
         <v>3</v>
       </c>
-      <c r="D303" s="71">
+      <c r="D303" s="121">
         <v>5.7</v>
       </c>
     </row>
     <row r="304" spans="2:4">
       <c r="B304" s="2"/>
-      <c r="C304" s="70"/>
-      <c r="D304" s="72"/>
+      <c r="C304" s="120"/>
+      <c r="D304" s="122"/>
     </row>
     <row r="305" spans="2:4">
       <c r="B305" s="2"/>
-      <c r="C305" s="69">
+      <c r="C305" s="119">
         <v>10.1</v>
       </c>
-      <c r="D305" s="71">
+      <c r="D305" s="121">
         <v>22.3</v>
       </c>
     </row>
     <row r="306" spans="2:4">
       <c r="B306" s="2"/>
-      <c r="C306" s="70"/>
-      <c r="D306" s="72"/>
+      <c r="C306" s="120"/>
+      <c r="D306" s="122"/>
     </row>
     <row r="307" spans="2:4">
       <c r="B307" s="2"/>
-      <c r="C307" s="77">
+      <c r="C307" s="117">
         <v>74.7</v>
       </c>
-      <c r="D307" s="79">
+      <c r="D307" s="115">
         <v>108.9</v>
       </c>
     </row>
     <row r="308" spans="2:4" ht="16.5" thickBot="1">
       <c r="B308" s="3"/>
-      <c r="C308" s="81"/>
-      <c r="D308" s="82"/>
+      <c r="C308" s="98"/>
+      <c r="D308" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="512">
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="D303:D304"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="D291:D292"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="D293:D294"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="B275:D276"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="B247:B252"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:D224"/>
+    <mergeCell ref="C225:D226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F206:F207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="B186:F187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="B98:H99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:F135"/>
+    <mergeCell ref="C136:D137"/>
+    <mergeCell ref="E136:F137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
     <mergeCell ref="C144:C145"/>
     <mergeCell ref="D144:D145"/>
     <mergeCell ref="E144:E145"/>
@@ -7916,494 +8400,6 @@
     <mergeCell ref="E142:E143"/>
     <mergeCell ref="F142:F143"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:F135"/>
-    <mergeCell ref="C136:D137"/>
-    <mergeCell ref="E136:F137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="B98:H99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="B186:F187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:F207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:D224"/>
-    <mergeCell ref="C225:D226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="B247:B252"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="B275:D276"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D299:D300"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="D303:D304"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="D291:D292"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="D293:D294"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ccs/plants.xlsx
+++ b/ccs/plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\sustainable-energy-transitions\ccs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA1EE18A-2947-44DF-BE52-5A7598D3AD60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F85988A0-CE78-4BBD-9A72-665B42ED3D0B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COAL and NG calcs" sheetId="3" r:id="rId1"/>

--- a/ccs/plants.xlsx
+++ b/ccs/plants.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\sustainable-energy-transitions\ccs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csala\OneDrive\Github\sustainable-energy-transitions\ccs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F85988A0-CE78-4BBD-9A72-665B42ED3D0B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481DEC3-8B09-4D7A-A493-5AC1C8B5F51A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COAL and NG calcs" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -946,9 +951,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1620,7 +1625,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1820,10 +1825,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1832,10 +1837,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1855,14 +1860,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="32" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1882,47 +1887,185 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="12" fillId="4" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="30" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1935,205 +2078,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2895,24 +2900,24 @@
     </row>
     <row r="11" spans="1:23" ht="33" customHeight="1">
       <c r="K11" s="25"/>
-      <c r="L11" s="126" t="s">
+      <c r="L11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126" t="s">
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="127" t="s">
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="128"/>
+      <c r="W11" s="65"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -3003,15 +3008,15 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="B14" s="64"/>
-      <c r="C14" s="67" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="114"/>
       <c r="K14" s="26" t="s">
         <v>15</v>
       </c>
@@ -3053,13 +3058,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" thickBot="1">
-      <c r="B15" s="65"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="116"/>
       <c r="K15" s="26" t="s">
         <v>33</v>
       </c>
@@ -3101,19 +3106,19 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="65"/>
-      <c r="C16" s="73" t="s">
+      <c r="B16" s="111"/>
+      <c r="C16" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="73" t="s">
+      <c r="D16" s="118"/>
+      <c r="E16" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="73" t="s">
+      <c r="F16" s="118"/>
+      <c r="G16" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="74"/>
+      <c r="H16" s="118"/>
       <c r="K16" s="26" t="s">
         <v>34</v>
       </c>
@@ -3155,13 +3160,13 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B17" s="66"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="72"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="116"/>
       <c r="K17" s="26" t="s">
         <v>20</v>
       </c>
@@ -3251,72 +3256,72 @@
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="104" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="129" t="s">
+      <c r="L19" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="129" t="s">
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="130"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="129" t="s">
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="W19" s="131"/>
+      <c r="W19" s="68"/>
     </row>
     <row r="20" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B20" s="76"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="76"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="106"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="123" t="s">
+      <c r="L20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="123" t="s">
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="125"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="62"/>
       <c r="V20" s="15"/>
       <c r="W20" s="16"/>
     </row>
@@ -3463,25 +3468,25 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="121">
         <v>0</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="123">
         <v>0.9</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="121">
         <v>0</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="123">
         <v>0.9</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="121">
         <v>0</v>
       </c>
-      <c r="H24" s="79">
+      <c r="H24" s="123">
         <v>0.9</v>
       </c>
       <c r="K24" s="26" t="s">
@@ -3537,13 +3542,13 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B25" s="76"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="80"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="124"/>
       <c r="K25" s="26" t="s">
         <v>33</v>
       </c>
@@ -3600,22 +3605,22 @@
       <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="109">
         <v>747800</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="90">
         <v>734000</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="109">
         <v>738200</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="90">
         <v>703700</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="109">
         <v>737000</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="90">
         <v>673400</v>
       </c>
       <c r="K26" s="26" t="s">
@@ -3674,12 +3679,12 @@
       <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="63"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
       <c r="K27" s="26" t="s">
         <v>104</v>
       </c>
@@ -4472,22 +4477,22 @@
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="60">
+      <c r="C43" s="100">
         <v>125750</v>
       </c>
-      <c r="D43" s="62">
+      <c r="D43" s="102">
         <v>190750</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="100">
         <v>113140</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="102">
         <v>190090</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="100">
         <v>108020</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="102">
         <v>176540</v>
       </c>
       <c r="K43" s="31" t="s">
@@ -4528,12 +4533,12 @@
       <c r="B44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="63"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="108"/>
       <c r="K44" s="27" t="s">
         <v>77</v>
       </c>
@@ -5140,22 +5145,22 @@
       <c r="B58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="60">
+      <c r="C58" s="100">
         <v>622050</v>
       </c>
-      <c r="D58" s="62">
+      <c r="D58" s="102">
         <v>543250</v>
       </c>
-      <c r="E58" s="60">
+      <c r="E58" s="100">
         <v>625060</v>
       </c>
-      <c r="F58" s="62">
+      <c r="F58" s="102">
         <v>513610</v>
       </c>
-      <c r="G58" s="60">
+      <c r="G58" s="100">
         <v>628980</v>
       </c>
-      <c r="H58" s="62">
+      <c r="H58" s="102">
         <v>496860</v>
       </c>
       <c r="M58" s="11"/>
@@ -5164,34 +5169,34 @@
       <c r="B59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="63"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="108"/>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="2:23">
       <c r="B60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="60">
+      <c r="C60" s="100">
         <v>466901</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="102">
         <v>487011</v>
       </c>
-      <c r="E60" s="60">
+      <c r="E60" s="100">
         <v>459958</v>
       </c>
-      <c r="F60" s="62">
+      <c r="F60" s="102">
         <v>484212</v>
       </c>
-      <c r="G60" s="60">
+      <c r="G60" s="100">
         <v>436646</v>
       </c>
-      <c r="H60" s="62">
+      <c r="H60" s="102">
         <v>465264</v>
       </c>
       <c r="M60" s="11"/>
@@ -5203,279 +5208,279 @@
       <c r="B61" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="63"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="108"/>
       <c r="U61" s="30"/>
     </row>
     <row r="62" spans="2:23">
       <c r="B62" s="4"/>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="87" t="s">
+      <c r="D62" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="85" t="s">
+      <c r="E62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="85" t="s">
+      <c r="G62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="87" t="s">
+      <c r="H62" s="93" t="s">
         <v>22</v>
       </c>
       <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="2:23">
       <c r="B63" s="4"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="88"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="94"/>
     </row>
     <row r="64" spans="2:23">
       <c r="B64" s="4"/>
-      <c r="C64" s="60">
+      <c r="C64" s="100">
         <v>1596320</v>
       </c>
-      <c r="D64" s="62">
+      <c r="D64" s="102">
         <v>1665074</v>
       </c>
-      <c r="E64" s="60">
+      <c r="E64" s="100">
         <v>1572582</v>
       </c>
-      <c r="F64" s="62">
+      <c r="F64" s="102">
         <v>1655503</v>
       </c>
-      <c r="G64" s="60">
+      <c r="G64" s="100">
         <v>1492878</v>
       </c>
-      <c r="H64" s="62">
+      <c r="H64" s="102">
         <v>1590722</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="63"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="108"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4"/>
-      <c r="C66" s="91">
+      <c r="C66" s="96">
         <v>0.39</v>
       </c>
-      <c r="D66" s="93">
+      <c r="D66" s="98">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E66" s="91">
+      <c r="E66" s="96">
         <v>0.39700000000000002</v>
       </c>
-      <c r="F66" s="93">
+      <c r="F66" s="98">
         <v>0.31</v>
       </c>
-      <c r="G66" s="91">
+      <c r="G66" s="96">
         <v>0.42099999999999999</v>
       </c>
-      <c r="H66" s="93">
+      <c r="H66" s="98">
         <v>0.312</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="94"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="99"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4"/>
-      <c r="C68" s="60">
+      <c r="C68" s="100">
         <v>8756</v>
       </c>
-      <c r="D68" s="62">
+      <c r="D68" s="102">
         <v>10458</v>
       </c>
-      <c r="E68" s="60">
+      <c r="E68" s="100">
         <v>8585</v>
       </c>
-      <c r="F68" s="62">
+      <c r="F68" s="102">
         <v>10998</v>
       </c>
-      <c r="G68" s="60">
+      <c r="G68" s="100">
         <v>8099</v>
       </c>
-      <c r="H68" s="62">
+      <c r="H68" s="102">
         <v>10924</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="16.5" thickBot="1">
       <c r="B69" s="5"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="90"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="103"/>
     </row>
     <row r="70" spans="2:8" ht="33" customHeight="1">
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="96">
+      <c r="C70" s="89">
         <v>7.6</v>
       </c>
-      <c r="D70" s="97">
+      <c r="D70" s="95">
         <v>10.7</v>
       </c>
-      <c r="E70" s="96">
+      <c r="E70" s="89">
         <v>7</v>
       </c>
-      <c r="F70" s="97">
+      <c r="F70" s="95">
         <v>11.1</v>
       </c>
-      <c r="G70" s="96">
+      <c r="G70" s="89">
         <v>6.6</v>
       </c>
-      <c r="H70" s="97">
+      <c r="H70" s="95">
         <v>11.3</v>
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="95"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="88"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="94"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="95"/>
-      <c r="C72" s="85">
+      <c r="B72" s="105"/>
+      <c r="C72" s="91">
         <v>1.6</v>
       </c>
-      <c r="D72" s="87">
+      <c r="D72" s="93">
         <v>2</v>
       </c>
-      <c r="E72" s="85">
+      <c r="E72" s="91">
         <v>1.4</v>
       </c>
-      <c r="F72" s="87">
+      <c r="F72" s="93">
         <v>2.1</v>
       </c>
-      <c r="G72" s="85">
+      <c r="G72" s="91">
         <v>1.2</v>
       </c>
-      <c r="H72" s="87">
+      <c r="H72" s="93">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="95"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="88"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="94"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="95"/>
-      <c r="C74" s="85">
+      <c r="B74" s="105"/>
+      <c r="C74" s="91">
         <v>6</v>
       </c>
-      <c r="D74" s="87">
+      <c r="D74" s="93">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E74" s="85">
+      <c r="E74" s="91">
         <v>5.5</v>
       </c>
-      <c r="F74" s="87">
+      <c r="F74" s="93">
         <v>9</v>
       </c>
-      <c r="G74" s="85">
+      <c r="G74" s="91">
         <v>5.3</v>
       </c>
-      <c r="H74" s="87">
+      <c r="H74" s="93">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B75" s="76"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="99"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="82"/>
     </row>
     <row r="76" spans="2:8" ht="48">
       <c r="B76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="96">
+      <c r="C76" s="89">
         <v>197</v>
       </c>
-      <c r="D76" s="97">
+      <c r="D76" s="95">
         <v>20</v>
       </c>
-      <c r="E76" s="96">
+      <c r="E76" s="89">
         <v>199</v>
       </c>
-      <c r="F76" s="97">
+      <c r="F76" s="95">
         <v>20</v>
       </c>
-      <c r="G76" s="96">
+      <c r="G76" s="89">
         <v>197</v>
       </c>
-      <c r="H76" s="97">
+      <c r="H76" s="95">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="88"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="94"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="60">
+      <c r="C78" s="100">
         <v>1434</v>
       </c>
-      <c r="D78" s="87">
+      <c r="D78" s="93">
         <v>152</v>
       </c>
-      <c r="E78" s="60">
+      <c r="E78" s="100">
         <v>1448</v>
       </c>
-      <c r="F78" s="87">
+      <c r="F78" s="93">
         <v>158</v>
       </c>
-      <c r="G78" s="60">
+      <c r="G78" s="100">
         <v>1361</v>
       </c>
-      <c r="H78" s="87">
+      <c r="H78" s="93">
         <v>161</v>
       </c>
     </row>
@@ -5483,794 +5488,794 @@
       <c r="B79" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="88"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="94"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4"/>
-      <c r="C80" s="60">
+      <c r="C80" s="100">
         <v>1723</v>
       </c>
-      <c r="D80" s="87">
+      <c r="D80" s="93">
         <v>206</v>
       </c>
-      <c r="E80" s="60">
+      <c r="E80" s="100">
         <v>1710</v>
       </c>
-      <c r="F80" s="87">
+      <c r="F80" s="93">
         <v>217</v>
       </c>
-      <c r="G80" s="60">
+      <c r="G80" s="100">
         <v>1595</v>
       </c>
-      <c r="H80" s="87">
+      <c r="H80" s="93">
         <v>218</v>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="4"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="88"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="88"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="94"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="94"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="4"/>
-      <c r="C82" s="85">
+      <c r="C82" s="91">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D82" s="87">
+      <c r="D82" s="93">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E82" s="85">
+      <c r="E82" s="91">
         <v>1.17E-2</v>
       </c>
-      <c r="F82" s="87">
+      <c r="F82" s="93">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="G82" s="85">
+      <c r="G82" s="91">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H82" s="87">
+      <c r="H82" s="93">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="4"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="86"/>
-      <c r="H83" s="88"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="94"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="4"/>
-      <c r="C84" s="85">
+      <c r="C84" s="91">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D84" s="87">
+      <c r="D84" s="93">
         <v>1.66E-2</v>
       </c>
-      <c r="E84" s="85">
+      <c r="E84" s="91">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="F84" s="87">
+      <c r="F84" s="93">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="G84" s="85">
+      <c r="G84" s="91">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H84" s="87">
+      <c r="H84" s="93">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="4"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="88"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="94"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="4"/>
-      <c r="C86" s="85">
+      <c r="C86" s="91">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D86" s="87">
+      <c r="D86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E86" s="85">
+      <c r="E86" s="91">
         <v>0.06</v>
       </c>
-      <c r="F86" s="87">
+      <c r="F86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G86" s="85">
+      <c r="G86" s="91">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H86" s="87">
+      <c r="H86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="4"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="88"/>
-      <c r="G87" s="86"/>
-      <c r="H87" s="88"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="94"/>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="4"/>
-      <c r="C88" s="85">
+      <c r="C88" s="91">
         <v>0.43</v>
       </c>
-      <c r="D88" s="87">
+      <c r="D88" s="93">
         <v>0.376</v>
       </c>
-      <c r="E88" s="85">
+      <c r="E88" s="91">
         <v>0.434</v>
       </c>
-      <c r="F88" s="87">
+      <c r="F88" s="93">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G88" s="85">
+      <c r="G88" s="91">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H88" s="87">
+      <c r="H88" s="93">
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="4"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="88"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="94"/>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="4"/>
-      <c r="C90" s="85">
+      <c r="C90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D90" s="87">
+      <c r="D90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E90" s="85">
+      <c r="E90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="F90" s="87">
+      <c r="F90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G90" s="85">
+      <c r="G90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="H90" s="87">
+      <c r="H90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="4"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="88"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="94"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="4"/>
-      <c r="C92" s="85">
+      <c r="C92" s="91">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D92" s="87">
+      <c r="D92" s="93">
         <v>5.5E-2</v>
       </c>
-      <c r="E92" s="85">
+      <c r="E92" s="91">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F92" s="87">
+      <c r="F92" s="93">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G92" s="85">
+      <c r="G92" s="91">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H92" s="87">
+      <c r="H92" s="93">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="4"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="88"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="88"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="94"/>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="4"/>
-      <c r="C94" s="85">
+      <c r="C94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D94" s="87">
+      <c r="D94" s="93">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E94" s="85">
+      <c r="E94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="F94" s="87">
+      <c r="F94" s="93">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G94" s="85">
+      <c r="G94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="H94" s="87">
+      <c r="H94" s="93">
         <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="4"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="86"/>
-      <c r="H95" s="88"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="94"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="94"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="94"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="4"/>
-      <c r="C96" s="100">
+      <c r="C96" s="129">
         <v>4.16E-6</v>
       </c>
-      <c r="D96" s="102">
+      <c r="D96" s="131">
         <v>4.42E-6</v>
       </c>
-      <c r="E96" s="100">
+      <c r="E96" s="129">
         <v>4.1500000000000001E-6</v>
       </c>
-      <c r="F96" s="102">
+      <c r="F96" s="131">
         <v>4.5900000000000001E-6</v>
       </c>
-      <c r="G96" s="100">
+      <c r="G96" s="129">
         <v>3.9500000000000003E-6</v>
       </c>
-      <c r="H96" s="102">
+      <c r="H96" s="131">
         <v>4.6099999999999999E-6</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="16.5" thickBot="1">
       <c r="B97" s="5"/>
-      <c r="C97" s="101"/>
-      <c r="D97" s="103"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="103"/>
-      <c r="G97" s="101"/>
-      <c r="H97" s="103"/>
+      <c r="C97" s="130"/>
+      <c r="D97" s="132"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="132"/>
+      <c r="G97" s="130"/>
+      <c r="H97" s="132"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="104" t="s">
+      <c r="B98" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="105"/>
-      <c r="D98" s="105"/>
-      <c r="E98" s="105"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="106"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="84"/>
+      <c r="G98" s="84"/>
+      <c r="H98" s="85"/>
     </row>
     <row r="99" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B99" s="107"/>
-      <c r="C99" s="108"/>
-      <c r="D99" s="108"/>
-      <c r="E99" s="108"/>
-      <c r="F99" s="108"/>
-      <c r="G99" s="108"/>
-      <c r="H99" s="109"/>
+      <c r="B99" s="86"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="87"/>
+      <c r="E99" s="87"/>
+      <c r="F99" s="87"/>
+      <c r="G99" s="87"/>
+      <c r="H99" s="88"/>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="81">
+      <c r="C100" s="109">
         <v>1987</v>
       </c>
-      <c r="D100" s="82">
+      <c r="D100" s="90">
         <v>2711</v>
       </c>
-      <c r="E100" s="81">
+      <c r="E100" s="109">
         <v>1913</v>
       </c>
-      <c r="F100" s="82">
+      <c r="F100" s="90">
         <v>2817</v>
       </c>
-      <c r="G100" s="81">
+      <c r="G100" s="109">
         <v>2217</v>
       </c>
-      <c r="H100" s="82">
+      <c r="H100" s="90">
         <v>3181</v>
       </c>
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="2"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="63"/>
+      <c r="C101" s="107"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="107"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="107"/>
+      <c r="H101" s="108"/>
     </row>
     <row r="102" spans="2:9" ht="21">
       <c r="B102" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="60">
+      <c r="C102" s="100">
         <v>2447</v>
       </c>
-      <c r="D102" s="62">
+      <c r="D102" s="102">
         <v>3334</v>
       </c>
-      <c r="E102" s="60">
+      <c r="E102" s="100">
         <v>2351</v>
       </c>
-      <c r="F102" s="62">
+      <c r="F102" s="102">
         <v>3466</v>
       </c>
-      <c r="G102" s="60">
+      <c r="G102" s="100">
         <v>2716</v>
       </c>
-      <c r="H102" s="62">
+      <c r="H102" s="102">
         <v>3904</v>
       </c>
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="2"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="63"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="107"/>
+      <c r="H103" s="108"/>
     </row>
     <row r="104" spans="2:9" ht="24">
       <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="60">
+      <c r="C104" s="100">
         <v>1528</v>
       </c>
-      <c r="D104" s="62">
+      <c r="D104" s="102">
         <v>2032</v>
       </c>
-      <c r="E104" s="60">
+      <c r="E104" s="100">
         <v>1470</v>
       </c>
-      <c r="F104" s="62">
+      <c r="F104" s="102">
         <v>2113</v>
       </c>
-      <c r="G104" s="60">
+      <c r="G104" s="100">
         <v>1695</v>
       </c>
-      <c r="H104" s="62">
+      <c r="H104" s="102">
         <v>2385</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2"/>
-      <c r="C105" s="61"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="63"/>
+      <c r="C105" s="107"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="107"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="107"/>
+      <c r="H105" s="108"/>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="85">
+      <c r="C106" s="91">
         <v>144</v>
       </c>
-      <c r="D106" s="87">
+      <c r="D106" s="93">
         <v>191</v>
       </c>
-      <c r="E106" s="85">
+      <c r="E106" s="91">
         <v>138</v>
       </c>
-      <c r="F106" s="87">
+      <c r="F106" s="93">
         <v>199</v>
       </c>
-      <c r="G106" s="85">
+      <c r="G106" s="91">
         <v>156</v>
       </c>
-      <c r="H106" s="87">
+      <c r="H106" s="93">
         <v>221</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="2"/>
-      <c r="C107" s="86"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="86"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="88"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="94"/>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="85">
+      <c r="C108" s="91">
         <v>265</v>
       </c>
-      <c r="D108" s="87">
+      <c r="D108" s="93">
         <v>369</v>
       </c>
-      <c r="E108" s="85">
+      <c r="E108" s="91">
         <v>256</v>
       </c>
-      <c r="F108" s="87">
+      <c r="F108" s="93">
         <v>385</v>
       </c>
-      <c r="G108" s="85">
+      <c r="G108" s="91">
         <v>302</v>
       </c>
-      <c r="H108" s="87">
+      <c r="H108" s="93">
         <v>444</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="2"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="86"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="88"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="92"/>
+      <c r="F109" s="94"/>
+      <c r="G109" s="92"/>
+      <c r="H109" s="94"/>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="2"/>
-      <c r="C110" s="85">
+      <c r="C110" s="91">
         <v>50</v>
       </c>
-      <c r="D110" s="87">
+      <c r="D110" s="93">
         <v>119</v>
       </c>
-      <c r="E110" s="85">
+      <c r="E110" s="91">
         <v>50</v>
       </c>
-      <c r="F110" s="87">
+      <c r="F110" s="93">
         <v>120</v>
       </c>
-      <c r="G110" s="85">
+      <c r="G110" s="91">
         <v>63</v>
       </c>
-      <c r="H110" s="87">
+      <c r="H110" s="93">
         <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="2"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="88"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="94"/>
+      <c r="E111" s="92"/>
+      <c r="F111" s="94"/>
+      <c r="G111" s="92"/>
+      <c r="H111" s="94"/>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="2"/>
-      <c r="C112" s="85">
+      <c r="C112" s="91">
         <v>460</v>
       </c>
-      <c r="D112" s="87">
+      <c r="D112" s="93">
         <v>623</v>
       </c>
-      <c r="E112" s="85">
+      <c r="E112" s="91">
         <v>438</v>
       </c>
-      <c r="F112" s="87">
+      <c r="F112" s="93">
         <v>649</v>
       </c>
-      <c r="G112" s="85">
+      <c r="G112" s="91">
         <v>500</v>
       </c>
-      <c r="H112" s="87">
+      <c r="H112" s="93">
         <v>723</v>
       </c>
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="2"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="86"/>
-      <c r="H113" s="88"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="92"/>
+      <c r="F113" s="94"/>
+      <c r="G113" s="92"/>
+      <c r="H113" s="94"/>
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="2"/>
-      <c r="C114" s="60">
+      <c r="C114" s="100">
         <v>1521880</v>
       </c>
-      <c r="D114" s="62">
+      <c r="D114" s="102">
         <v>1811411</v>
       </c>
-      <c r="E114" s="60">
+      <c r="E114" s="100">
         <v>1469577</v>
       </c>
-      <c r="F114" s="62">
+      <c r="F114" s="102">
         <v>1780290</v>
       </c>
-      <c r="G114" s="60">
+      <c r="G114" s="100">
         <v>1708524</v>
       </c>
-      <c r="H114" s="62">
+      <c r="H114" s="102">
         <v>1939878</v>
       </c>
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="2"/>
-      <c r="C115" s="61"/>
-      <c r="D115" s="63"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="63"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="63"/>
+      <c r="C115" s="107"/>
+      <c r="D115" s="108"/>
+      <c r="E115" s="107"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="107"/>
+      <c r="H115" s="108"/>
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="2"/>
-      <c r="C116" s="60">
+      <c r="C116" s="100">
         <v>2789</v>
       </c>
-      <c r="D116" s="62">
+      <c r="D116" s="102">
         <v>3801</v>
       </c>
-      <c r="E116" s="60">
+      <c r="E116" s="100">
         <v>2680</v>
       </c>
-      <c r="F116" s="62">
+      <c r="F116" s="102">
         <v>3952</v>
       </c>
-      <c r="G116" s="60">
+      <c r="G116" s="100">
         <v>3097</v>
       </c>
-      <c r="H116" s="62">
+      <c r="H116" s="102">
         <v>4451</v>
       </c>
     </row>
     <row r="117" spans="2:8">
       <c r="B117" s="2"/>
-      <c r="C117" s="61"/>
-      <c r="D117" s="63"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="63"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="63"/>
+      <c r="C117" s="107"/>
+      <c r="D117" s="108"/>
+      <c r="E117" s="107"/>
+      <c r="F117" s="108"/>
+      <c r="G117" s="107"/>
+      <c r="H117" s="108"/>
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="2"/>
-      <c r="C118" s="85">
+      <c r="C118" s="91">
         <v>76.3</v>
       </c>
-      <c r="D118" s="87">
+      <c r="D118" s="93">
         <v>105.6</v>
       </c>
-      <c r="E118" s="85">
+      <c r="E118" s="91">
         <v>74</v>
       </c>
-      <c r="F118" s="87">
+      <c r="F118" s="93">
         <v>110.3</v>
       </c>
-      <c r="G118" s="85">
+      <c r="G118" s="91">
         <v>81.3</v>
       </c>
-      <c r="H118" s="87">
+      <c r="H118" s="93">
         <v>119.4</v>
       </c>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="2"/>
-      <c r="C119" s="86"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="86"/>
-      <c r="H119" s="88"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="92"/>
+      <c r="F119" s="94"/>
+      <c r="G119" s="92"/>
+      <c r="H119" s="94"/>
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="2"/>
-      <c r="C120" s="110">
+      <c r="C120" s="125">
         <v>0</v>
       </c>
-      <c r="D120" s="112">
+      <c r="D120" s="127">
         <v>5.2</v>
       </c>
-      <c r="E120" s="110">
+      <c r="E120" s="125">
         <v>0</v>
       </c>
-      <c r="F120" s="112">
+      <c r="F120" s="127">
         <v>5.5</v>
       </c>
-      <c r="G120" s="110">
+      <c r="G120" s="125">
         <v>0</v>
       </c>
-      <c r="H120" s="112">
+      <c r="H120" s="127">
         <v>5.6</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="2"/>
-      <c r="C121" s="111"/>
-      <c r="D121" s="113"/>
-      <c r="E121" s="111"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="111"/>
-      <c r="H121" s="113"/>
+      <c r="C121" s="126"/>
+      <c r="D121" s="128"/>
+      <c r="E121" s="126"/>
+      <c r="F121" s="128"/>
+      <c r="G121" s="126"/>
+      <c r="H121" s="128"/>
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="2"/>
-      <c r="C122" s="110">
+      <c r="C122" s="125">
         <v>14.3</v>
       </c>
-      <c r="D122" s="112">
+      <c r="D122" s="127">
         <v>17.100000000000001</v>
       </c>
-      <c r="E122" s="110">
+      <c r="E122" s="125">
         <v>14</v>
       </c>
-      <c r="F122" s="112">
+      <c r="F122" s="127">
         <v>18</v>
       </c>
-      <c r="G122" s="110">
+      <c r="G122" s="125">
         <v>13.3</v>
       </c>
-      <c r="H122" s="112">
+      <c r="H122" s="127">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="123" spans="2:8">
       <c r="B123" s="2"/>
-      <c r="C123" s="111"/>
-      <c r="D123" s="113"/>
-      <c r="E123" s="111"/>
-      <c r="F123" s="113"/>
-      <c r="G123" s="111"/>
-      <c r="H123" s="113"/>
+      <c r="C123" s="126"/>
+      <c r="D123" s="128"/>
+      <c r="E123" s="126"/>
+      <c r="F123" s="128"/>
+      <c r="G123" s="126"/>
+      <c r="H123" s="128"/>
     </row>
     <row r="124" spans="2:8">
       <c r="B124" s="2"/>
-      <c r="C124" s="110">
+      <c r="C124" s="125">
         <v>7.3</v>
       </c>
-      <c r="D124" s="112">
+      <c r="D124" s="127">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E124" s="110">
+      <c r="E124" s="125">
         <v>7.2</v>
       </c>
-      <c r="F124" s="112">
+      <c r="F124" s="127">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G124" s="110">
+      <c r="G124" s="125">
         <v>7.8</v>
       </c>
-      <c r="H124" s="112">
+      <c r="H124" s="127">
         <v>9.9</v>
       </c>
     </row>
     <row r="125" spans="2:8">
       <c r="B125" s="2"/>
-      <c r="C125" s="111"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="113"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="113"/>
+      <c r="C125" s="126"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="126"/>
+      <c r="F125" s="128"/>
+      <c r="G125" s="126"/>
+      <c r="H125" s="128"/>
     </row>
     <row r="126" spans="2:8">
       <c r="B126" s="2"/>
-      <c r="C126" s="110">
+      <c r="C126" s="125">
         <v>11.3</v>
       </c>
-      <c r="D126" s="112">
+      <c r="D126" s="127">
         <v>14.8</v>
       </c>
-      <c r="E126" s="110">
+      <c r="E126" s="125">
         <v>11.1</v>
       </c>
-      <c r="F126" s="112">
+      <c r="F126" s="127">
         <v>15.5</v>
       </c>
-      <c r="G126" s="110">
+      <c r="G126" s="125">
         <v>12.1</v>
       </c>
-      <c r="H126" s="112">
+      <c r="H126" s="127">
         <v>16.7</v>
       </c>
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="2"/>
-      <c r="C127" s="111"/>
-      <c r="D127" s="113"/>
-      <c r="E127" s="111"/>
-      <c r="F127" s="113"/>
-      <c r="G127" s="111"/>
-      <c r="H127" s="113"/>
+      <c r="C127" s="126"/>
+      <c r="D127" s="128"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="128"/>
+      <c r="G127" s="126"/>
+      <c r="H127" s="128"/>
     </row>
     <row r="128" spans="2:8">
       <c r="B128" s="2"/>
-      <c r="C128" s="110">
+      <c r="C128" s="125">
         <v>43.4</v>
       </c>
-      <c r="D128" s="112">
+      <c r="D128" s="127">
         <v>59.1</v>
       </c>
-      <c r="E128" s="110">
+      <c r="E128" s="125">
         <v>41.7</v>
       </c>
-      <c r="F128" s="112">
+      <c r="F128" s="127">
         <v>61.5</v>
       </c>
-      <c r="G128" s="110">
+      <c r="G128" s="125">
         <v>48.2</v>
       </c>
-      <c r="H128" s="112">
+      <c r="H128" s="127">
         <v>69.2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" s="2"/>
-      <c r="C129" s="111"/>
-      <c r="D129" s="113"/>
-      <c r="E129" s="111"/>
-      <c r="F129" s="113"/>
-      <c r="G129" s="111"/>
-      <c r="H129" s="113"/>
+      <c r="C129" s="126"/>
+      <c r="D129" s="128"/>
+      <c r="E129" s="126"/>
+      <c r="F129" s="128"/>
+      <c r="G129" s="126"/>
+      <c r="H129" s="128"/>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" s="2"/>
-      <c r="C130" s="85">
+      <c r="C130" s="91">
         <v>96.7</v>
       </c>
-      <c r="D130" s="87">
+      <c r="D130" s="93">
         <v>133.9</v>
       </c>
-      <c r="E130" s="85">
+      <c r="E130" s="91">
         <v>93.8</v>
       </c>
-      <c r="F130" s="87">
+      <c r="F130" s="93">
         <v>139.9</v>
       </c>
-      <c r="G130" s="85">
+      <c r="G130" s="91">
         <v>103.1</v>
       </c>
-      <c r="H130" s="87">
+      <c r="H130" s="93">
         <v>151.4</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" thickBot="1">
       <c r="B131" s="3"/>
-      <c r="C131" s="98"/>
-      <c r="D131" s="99"/>
-      <c r="E131" s="98"/>
-      <c r="F131" s="99"/>
-      <c r="G131" s="98"/>
-      <c r="H131" s="99"/>
+      <c r="C131" s="81"/>
+      <c r="D131" s="82"/>
+      <c r="E131" s="81"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="81"/>
+      <c r="H131" s="82"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
@@ -6281,101 +6286,101 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="B134" s="64"/>
-      <c r="C134" s="67" t="s">
+      <c r="B134" s="110"/>
+      <c r="C134" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="D134" s="68"/>
-      <c r="E134" s="68"/>
-      <c r="F134" s="69"/>
+      <c r="D134" s="133"/>
+      <c r="E134" s="133"/>
+      <c r="F134" s="114"/>
     </row>
     <row r="135" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B135" s="65"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="71"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="72"/>
+      <c r="B135" s="111"/>
+      <c r="C135" s="115"/>
+      <c r="D135" s="134"/>
+      <c r="E135" s="134"/>
+      <c r="F135" s="116"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="B136" s="65"/>
-      <c r="C136" s="73" t="s">
+      <c r="B136" s="111"/>
+      <c r="C136" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="74"/>
-      <c r="E136" s="73" t="s">
+      <c r="D136" s="118"/>
+      <c r="E136" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="F136" s="74"/>
+      <c r="F136" s="118"/>
     </row>
     <row r="137" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B137" s="66"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="70"/>
-      <c r="F137" s="72"/>
+      <c r="B137" s="112"/>
+      <c r="C137" s="115"/>
+      <c r="D137" s="116"/>
+      <c r="E137" s="115"/>
+      <c r="F137" s="116"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="B138" s="75" t="s">
+      <c r="B138" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="83" t="s">
+      <c r="C138" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="75" t="s">
+      <c r="D138" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="E138" s="83" t="s">
+      <c r="E138" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="F138" s="75" t="s">
+      <c r="F138" s="104" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B139" s="76"/>
-      <c r="C139" s="84"/>
-      <c r="D139" s="76"/>
-      <c r="E139" s="84"/>
-      <c r="F139" s="76"/>
+      <c r="B139" s="106"/>
+      <c r="C139" s="120"/>
+      <c r="D139" s="106"/>
+      <c r="E139" s="120"/>
+      <c r="F139" s="106"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="B140" s="75" t="s">
+      <c r="B140" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C140" s="77">
+      <c r="C140" s="121">
         <v>0</v>
       </c>
-      <c r="D140" s="79">
+      <c r="D140" s="123">
         <v>0.9</v>
       </c>
-      <c r="E140" s="77">
+      <c r="E140" s="121">
         <v>0</v>
       </c>
-      <c r="F140" s="79">
+      <c r="F140" s="123">
         <v>0.9</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B141" s="76"/>
-      <c r="C141" s="78"/>
-      <c r="D141" s="80"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="80"/>
+      <c r="B141" s="106"/>
+      <c r="C141" s="122"/>
+      <c r="D141" s="124"/>
+      <c r="E141" s="122"/>
+      <c r="F141" s="124"/>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="81">
+      <c r="C142" s="109">
         <v>582600</v>
       </c>
-      <c r="D142" s="82">
+      <c r="D142" s="90">
         <v>672700</v>
       </c>
-      <c r="E142" s="81">
+      <c r="E142" s="109">
         <v>580400</v>
       </c>
-      <c r="F142" s="82">
+      <c r="F142" s="90">
         <v>662800</v>
       </c>
     </row>
@@ -6383,25 +6388,25 @@
       <c r="B143" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="61"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="63"/>
+      <c r="C143" s="107"/>
+      <c r="D143" s="108"/>
+      <c r="E143" s="107"/>
+      <c r="F143" s="108"/>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="60">
+      <c r="C144" s="100">
         <v>32580</v>
       </c>
-      <c r="D144" s="62">
+      <c r="D144" s="102">
         <v>122740</v>
       </c>
-      <c r="E144" s="60">
+      <c r="E144" s="100">
         <v>30410</v>
       </c>
-      <c r="F144" s="62">
+      <c r="F144" s="102">
         <v>112830</v>
       </c>
     </row>
@@ -6409,25 +6414,25 @@
       <c r="B145" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="61"/>
-      <c r="D145" s="63"/>
-      <c r="E145" s="61"/>
-      <c r="F145" s="63"/>
+      <c r="C145" s="107"/>
+      <c r="D145" s="108"/>
+      <c r="E145" s="107"/>
+      <c r="F145" s="108"/>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="60">
+      <c r="C146" s="100">
         <v>550020</v>
       </c>
-      <c r="D146" s="62">
+      <c r="D146" s="102">
         <v>549960</v>
       </c>
-      <c r="E146" s="60">
+      <c r="E146" s="100">
         <v>549990</v>
       </c>
-      <c r="F146" s="62">
+      <c r="F146" s="102">
         <v>549970</v>
       </c>
     </row>
@@ -6435,229 +6440,229 @@
       <c r="B147" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C147" s="61"/>
-      <c r="D147" s="63"/>
-      <c r="E147" s="61"/>
-      <c r="F147" s="63"/>
+      <c r="C147" s="107"/>
+      <c r="D147" s="108"/>
+      <c r="E147" s="107"/>
+      <c r="F147" s="108"/>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C148" s="60">
+      <c r="C148" s="100">
         <v>437378</v>
       </c>
-      <c r="D148" s="62">
+      <c r="D148" s="102">
         <v>614994</v>
       </c>
-      <c r="E148" s="60">
+      <c r="E148" s="100">
         <v>409528</v>
       </c>
-      <c r="F148" s="62">
+      <c r="F148" s="102">
         <v>565820</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="4"/>
-      <c r="C149" s="61"/>
-      <c r="D149" s="63"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="63"/>
+      <c r="C149" s="107"/>
+      <c r="D149" s="108"/>
+      <c r="E149" s="107"/>
+      <c r="F149" s="108"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="4"/>
-      <c r="C150" s="85" t="s">
+      <c r="C150" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="87" t="s">
+      <c r="D150" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E150" s="85" t="s">
+      <c r="E150" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F150" s="87" t="s">
+      <c r="F150" s="93" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="4"/>
-      <c r="C151" s="86"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="86"/>
-      <c r="F151" s="88"/>
+      <c r="C151" s="92"/>
+      <c r="D151" s="94"/>
+      <c r="E151" s="92"/>
+      <c r="F151" s="94"/>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="4"/>
-      <c r="C152" s="60">
+      <c r="C152" s="100">
         <v>1495379</v>
       </c>
-      <c r="D152" s="62">
+      <c r="D152" s="102">
         <v>2102643</v>
       </c>
-      <c r="E152" s="60">
+      <c r="E152" s="100">
         <v>1400162</v>
       </c>
-      <c r="F152" s="62">
+      <c r="F152" s="102">
         <v>1934519</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="4"/>
-      <c r="C153" s="61"/>
-      <c r="D153" s="63"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="63"/>
+      <c r="C153" s="107"/>
+      <c r="D153" s="108"/>
+      <c r="E153" s="107"/>
+      <c r="F153" s="108"/>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="4"/>
-      <c r="C154" s="91">
+      <c r="C154" s="96">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D154" s="93">
+      <c r="D154" s="98">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E154" s="91">
+      <c r="E154" s="96">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F154" s="93">
+      <c r="F154" s="98">
         <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="4"/>
-      <c r="C155" s="92"/>
-      <c r="D155" s="94"/>
-      <c r="E155" s="92"/>
-      <c r="F155" s="94"/>
+      <c r="C155" s="97"/>
+      <c r="D155" s="99"/>
+      <c r="E155" s="97"/>
+      <c r="F155" s="99"/>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="4"/>
-      <c r="C156" s="60">
+      <c r="C156" s="100">
         <v>9277</v>
       </c>
-      <c r="D156" s="62">
+      <c r="D156" s="102">
         <v>13046</v>
       </c>
-      <c r="E156" s="60">
+      <c r="E156" s="100">
         <v>8687</v>
       </c>
-      <c r="F156" s="62">
+      <c r="F156" s="102">
         <v>12002</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="16.5" thickBot="1">
       <c r="B157" s="5"/>
-      <c r="C157" s="89"/>
-      <c r="D157" s="90"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="90"/>
+      <c r="C157" s="101"/>
+      <c r="D157" s="103"/>
+      <c r="E157" s="101"/>
+      <c r="F157" s="103"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="75" t="s">
+      <c r="B158" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C158" s="96">
+      <c r="C158" s="89">
         <v>10.7</v>
       </c>
-      <c r="D158" s="97">
+      <c r="D158" s="95">
         <v>20.399999999999999</v>
       </c>
-      <c r="E158" s="96">
+      <c r="E158" s="89">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F158" s="97">
+      <c r="F158" s="95">
         <v>18.3</v>
       </c>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="95"/>
-      <c r="C159" s="86"/>
-      <c r="D159" s="88"/>
-      <c r="E159" s="86"/>
-      <c r="F159" s="88"/>
+      <c r="B159" s="105"/>
+      <c r="C159" s="92"/>
+      <c r="D159" s="94"/>
+      <c r="E159" s="92"/>
+      <c r="F159" s="94"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="95"/>
-      <c r="C160" s="85">
+      <c r="B160" s="105"/>
+      <c r="C160" s="91">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D160" s="87">
+      <c r="D160" s="93">
         <v>4.7</v>
       </c>
-      <c r="E160" s="85">
+      <c r="E160" s="91">
         <v>2</v>
       </c>
-      <c r="F160" s="87">
+      <c r="F160" s="93">
         <v>4.3</v>
       </c>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="95"/>
-      <c r="C161" s="86"/>
-      <c r="D161" s="88"/>
-      <c r="E161" s="86"/>
-      <c r="F161" s="88"/>
+      <c r="B161" s="105"/>
+      <c r="C161" s="92"/>
+      <c r="D161" s="94"/>
+      <c r="E161" s="92"/>
+      <c r="F161" s="94"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="95"/>
-      <c r="C162" s="85">
+      <c r="B162" s="105"/>
+      <c r="C162" s="91">
         <v>8.5</v>
       </c>
-      <c r="D162" s="87">
+      <c r="D162" s="93">
         <v>15.7</v>
       </c>
-      <c r="E162" s="85">
+      <c r="E162" s="91">
         <v>7.7</v>
       </c>
-      <c r="F162" s="87">
+      <c r="F162" s="93">
         <v>14.1</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B163" s="76"/>
-      <c r="C163" s="98"/>
-      <c r="D163" s="99"/>
-      <c r="E163" s="98"/>
-      <c r="F163" s="99"/>
+      <c r="B163" s="106"/>
+      <c r="C163" s="81"/>
+      <c r="D163" s="82"/>
+      <c r="E163" s="81"/>
+      <c r="F163" s="82"/>
     </row>
     <row r="164" spans="2:6" ht="48">
       <c r="B164" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C164" s="96">
+      <c r="C164" s="89">
         <v>204</v>
       </c>
-      <c r="D164" s="97">
+      <c r="D164" s="95">
         <v>20</v>
       </c>
-      <c r="E164" s="96">
+      <c r="E164" s="89">
         <v>204</v>
       </c>
-      <c r="F164" s="97">
+      <c r="F164" s="95">
         <v>20</v>
       </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="4"/>
-      <c r="C165" s="86"/>
-      <c r="D165" s="88"/>
-      <c r="E165" s="86"/>
-      <c r="F165" s="88"/>
+      <c r="C165" s="92"/>
+      <c r="D165" s="94"/>
+      <c r="E165" s="92"/>
+      <c r="F165" s="94"/>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="60">
+      <c r="C166" s="100">
         <v>1783</v>
       </c>
-      <c r="D166" s="87">
+      <c r="D166" s="93">
         <v>217</v>
       </c>
-      <c r="E166" s="60">
+      <c r="E166" s="100">
         <v>1675</v>
       </c>
-      <c r="F166" s="87">
+      <c r="F166" s="93">
         <v>203</v>
       </c>
     </row>
@@ -6665,586 +6670,586 @@
       <c r="B167" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C167" s="61"/>
-      <c r="D167" s="88"/>
-      <c r="E167" s="61"/>
-      <c r="F167" s="88"/>
+      <c r="C167" s="107"/>
+      <c r="D167" s="94"/>
+      <c r="E167" s="107"/>
+      <c r="F167" s="94"/>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="4"/>
-      <c r="C168" s="60">
+      <c r="C168" s="100">
         <v>1888</v>
       </c>
-      <c r="D168" s="87">
+      <c r="D168" s="93">
         <v>266</v>
       </c>
-      <c r="E168" s="60">
+      <c r="E168" s="100">
         <v>1768</v>
       </c>
-      <c r="F168" s="87">
+      <c r="F168" s="93">
         <v>244</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="4"/>
-      <c r="C169" s="61"/>
-      <c r="D169" s="88"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="88"/>
+      <c r="C169" s="107"/>
+      <c r="D169" s="94"/>
+      <c r="E169" s="107"/>
+      <c r="F169" s="94"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="4"/>
-      <c r="C170" s="85">
+      <c r="C170" s="91">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="D170" s="87">
+      <c r="D170" s="93">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E170" s="85">
+      <c r="E170" s="91">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F170" s="87">
+      <c r="F170" s="93">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="4"/>
-      <c r="C171" s="86"/>
-      <c r="D171" s="88"/>
-      <c r="E171" s="86"/>
-      <c r="F171" s="88"/>
+      <c r="C171" s="92"/>
+      <c r="D171" s="94"/>
+      <c r="E171" s="92"/>
+      <c r="F171" s="94"/>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="4"/>
-      <c r="C172" s="85">
+      <c r="C172" s="91">
         <v>0.75149999999999995</v>
       </c>
-      <c r="D172" s="87">
+      <c r="D172" s="93">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="E172" s="85">
+      <c r="E172" s="91">
         <v>0.70630000000000004</v>
       </c>
-      <c r="F172" s="87">
+      <c r="F172" s="93">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="4"/>
-      <c r="C173" s="86"/>
-      <c r="D173" s="88"/>
-      <c r="E173" s="86"/>
-      <c r="F173" s="88"/>
+      <c r="C173" s="92"/>
+      <c r="D173" s="94"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="94"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="4"/>
-      <c r="C174" s="85">
+      <c r="C174" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D174" s="87">
+      <c r="D174" s="93">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E174" s="85">
+      <c r="E174" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F174" s="87">
+      <c r="F174" s="93">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="4"/>
-      <c r="C175" s="86"/>
-      <c r="D175" s="88"/>
-      <c r="E175" s="86"/>
-      <c r="F175" s="88"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="94"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="94"/>
     </row>
     <row r="176" spans="2:6">
       <c r="B176" s="4"/>
-      <c r="C176" s="85">
+      <c r="C176" s="91">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D176" s="87">
+      <c r="D176" s="93">
         <v>0.747</v>
       </c>
-      <c r="E176" s="85">
+      <c r="E176" s="91">
         <v>0.57599999999999996</v>
       </c>
-      <c r="F176" s="87">
+      <c r="F176" s="93">
         <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="177" spans="2:6">
       <c r="B177" s="4"/>
-      <c r="C177" s="86"/>
-      <c r="D177" s="88"/>
-      <c r="E177" s="86"/>
-      <c r="F177" s="88"/>
+      <c r="C177" s="92"/>
+      <c r="D177" s="94"/>
+      <c r="E177" s="92"/>
+      <c r="F177" s="94"/>
     </row>
     <row r="178" spans="2:6">
       <c r="B178" s="4"/>
-      <c r="C178" s="85">
+      <c r="C178" s="91">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D178" s="87">
+      <c r="D178" s="93">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E178" s="85">
+      <c r="E178" s="91">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F178" s="87">
+      <c r="F178" s="93">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" s="4"/>
-      <c r="C179" s="86"/>
-      <c r="D179" s="88"/>
-      <c r="E179" s="86"/>
-      <c r="F179" s="88"/>
+      <c r="C179" s="92"/>
+      <c r="D179" s="94"/>
+      <c r="E179" s="92"/>
+      <c r="F179" s="94"/>
     </row>
     <row r="180" spans="2:6">
       <c r="B180" s="4"/>
-      <c r="C180" s="85">
+      <c r="C180" s="91">
         <v>0.114</v>
       </c>
-      <c r="D180" s="87">
+      <c r="D180" s="93">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E180" s="85">
+      <c r="E180" s="91">
         <v>0.107</v>
       </c>
-      <c r="F180" s="87">
+      <c r="F180" s="93">
         <v>0.129</v>
       </c>
     </row>
     <row r="181" spans="2:6">
       <c r="B181" s="4"/>
-      <c r="C181" s="86"/>
-      <c r="D181" s="88"/>
-      <c r="E181" s="86"/>
-      <c r="F181" s="88"/>
+      <c r="C181" s="92"/>
+      <c r="D181" s="94"/>
+      <c r="E181" s="92"/>
+      <c r="F181" s="94"/>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" s="4"/>
-      <c r="C182" s="85">
+      <c r="C182" s="91">
         <v>1.143</v>
       </c>
-      <c r="D182" s="87">
+      <c r="D182" s="93">
         <v>1.143</v>
       </c>
-      <c r="E182" s="85">
+      <c r="E182" s="91">
         <v>1.143</v>
       </c>
-      <c r="F182" s="87">
+      <c r="F182" s="93">
         <v>1.143</v>
       </c>
     </row>
     <row r="183" spans="2:6">
       <c r="B183" s="4"/>
-      <c r="C183" s="86"/>
-      <c r="D183" s="88"/>
-      <c r="E183" s="86"/>
-      <c r="F183" s="88"/>
+      <c r="C183" s="92"/>
+      <c r="D183" s="94"/>
+      <c r="E183" s="92"/>
+      <c r="F183" s="94"/>
     </row>
     <row r="184" spans="2:6">
       <c r="B184" s="4"/>
-      <c r="C184" s="100">
+      <c r="C184" s="129">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D184" s="102">
+      <c r="D184" s="131">
         <v>1.22E-5</v>
       </c>
-      <c r="E184" s="100">
+      <c r="E184" s="129">
         <v>9.4099999999999997E-6</v>
       </c>
-      <c r="F184" s="102">
+      <c r="F184" s="131">
         <v>1.1399999999999999E-5</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="16.5" thickBot="1">
       <c r="B185" s="5"/>
-      <c r="C185" s="101"/>
-      <c r="D185" s="103"/>
-      <c r="E185" s="101"/>
-      <c r="F185" s="103"/>
+      <c r="C185" s="130"/>
+      <c r="D185" s="132"/>
+      <c r="E185" s="130"/>
+      <c r="F185" s="132"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="104" t="s">
+      <c r="B186" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C186" s="105"/>
-      <c r="D186" s="105"/>
-      <c r="E186" s="105"/>
-      <c r="F186" s="106"/>
+      <c r="C186" s="84"/>
+      <c r="D186" s="84"/>
+      <c r="E186" s="84"/>
+      <c r="F186" s="85"/>
     </row>
     <row r="187" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B187" s="107"/>
-      <c r="C187" s="108"/>
-      <c r="D187" s="108"/>
-      <c r="E187" s="108"/>
-      <c r="F187" s="109"/>
+      <c r="B187" s="86"/>
+      <c r="C187" s="87"/>
+      <c r="D187" s="87"/>
+      <c r="E187" s="87"/>
+      <c r="F187" s="88"/>
     </row>
     <row r="188" spans="2:6">
       <c r="B188" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C188" s="81">
+      <c r="C188" s="109">
         <v>1622</v>
       </c>
-      <c r="D188" s="82">
+      <c r="D188" s="90">
         <v>2942</v>
       </c>
-      <c r="E188" s="81">
+      <c r="E188" s="109">
         <v>1647</v>
       </c>
-      <c r="F188" s="82">
+      <c r="F188" s="90">
         <v>2913</v>
       </c>
     </row>
     <row r="189" spans="2:6">
       <c r="B189" s="2"/>
-      <c r="C189" s="61"/>
-      <c r="D189" s="63"/>
-      <c r="E189" s="61"/>
-      <c r="F189" s="63"/>
+      <c r="C189" s="107"/>
+      <c r="D189" s="108"/>
+      <c r="E189" s="107"/>
+      <c r="F189" s="108"/>
     </row>
     <row r="190" spans="2:6" ht="21">
       <c r="B190" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C190" s="60">
+      <c r="C190" s="100">
         <v>1996</v>
       </c>
-      <c r="D190" s="62">
+      <c r="D190" s="102">
         <v>3610</v>
       </c>
-      <c r="E190" s="60">
+      <c r="E190" s="100">
         <v>2024</v>
       </c>
-      <c r="F190" s="62">
+      <c r="F190" s="102">
         <v>3570</v>
       </c>
     </row>
     <row r="191" spans="2:6">
       <c r="B191" s="2"/>
-      <c r="C191" s="61"/>
-      <c r="D191" s="63"/>
-      <c r="E191" s="61"/>
-      <c r="F191" s="63"/>
+      <c r="C191" s="107"/>
+      <c r="D191" s="108"/>
+      <c r="E191" s="107"/>
+      <c r="F191" s="108"/>
     </row>
     <row r="192" spans="2:6" ht="24">
       <c r="B192" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C192" s="60">
+      <c r="C192" s="100">
         <v>1317</v>
       </c>
-      <c r="D192" s="62">
+      <c r="D192" s="102">
         <v>2255</v>
       </c>
-      <c r="E192" s="60">
+      <c r="E192" s="100">
         <v>1345</v>
       </c>
-      <c r="F192" s="62">
+      <c r="F192" s="102">
         <v>2239</v>
       </c>
     </row>
     <row r="193" spans="2:6">
       <c r="B193" s="2"/>
-      <c r="C193" s="61"/>
-      <c r="D193" s="63"/>
-      <c r="E193" s="61"/>
-      <c r="F193" s="63"/>
+      <c r="C193" s="107"/>
+      <c r="D193" s="108"/>
+      <c r="E193" s="107"/>
+      <c r="F193" s="108"/>
     </row>
     <row r="194" spans="2:6">
       <c r="B194" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="85">
+      <c r="C194" s="91">
         <v>124</v>
       </c>
-      <c r="D194" s="87">
+      <c r="D194" s="93">
         <v>213</v>
       </c>
-      <c r="E194" s="85">
+      <c r="E194" s="91">
         <v>127</v>
       </c>
-      <c r="F194" s="87">
+      <c r="F194" s="93">
         <v>211</v>
       </c>
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="2"/>
-      <c r="C195" s="86"/>
-      <c r="D195" s="88"/>
-      <c r="E195" s="86"/>
-      <c r="F195" s="88"/>
+      <c r="C195" s="92"/>
+      <c r="D195" s="94"/>
+      <c r="E195" s="92"/>
+      <c r="F195" s="94"/>
     </row>
     <row r="196" spans="2:6">
       <c r="B196" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C196" s="85">
+      <c r="C196" s="91">
         <v>182</v>
       </c>
-      <c r="D196" s="87">
+      <c r="D196" s="93">
         <v>369</v>
       </c>
-      <c r="E196" s="85">
+      <c r="E196" s="91">
         <v>176</v>
       </c>
-      <c r="F196" s="87">
+      <c r="F196" s="93">
         <v>362</v>
       </c>
     </row>
     <row r="197" spans="2:6">
       <c r="B197" s="2"/>
-      <c r="C197" s="86"/>
-      <c r="D197" s="88"/>
-      <c r="E197" s="86"/>
-      <c r="F197" s="88"/>
+      <c r="C197" s="92"/>
+      <c r="D197" s="94"/>
+      <c r="E197" s="92"/>
+      <c r="F197" s="94"/>
     </row>
     <row r="198" spans="2:6">
       <c r="B198" s="2"/>
-      <c r="C198" s="85">
+      <c r="C198" s="91">
         <v>0</v>
       </c>
-      <c r="D198" s="87">
+      <c r="D198" s="93">
         <v>105</v>
       </c>
-      <c r="E198" s="85">
+      <c r="E198" s="91">
         <v>0</v>
       </c>
-      <c r="F198" s="87">
+      <c r="F198" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="2"/>
-      <c r="C199" s="86"/>
-      <c r="D199" s="88"/>
-      <c r="E199" s="86"/>
-      <c r="F199" s="88"/>
+      <c r="C199" s="92"/>
+      <c r="D199" s="94"/>
+      <c r="E199" s="92"/>
+      <c r="F199" s="94"/>
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="2"/>
-      <c r="C200" s="85">
+      <c r="C200" s="91">
         <v>374</v>
       </c>
-      <c r="D200" s="87">
+      <c r="D200" s="93">
         <v>667</v>
       </c>
-      <c r="E200" s="85">
+      <c r="E200" s="91">
         <v>377</v>
       </c>
-      <c r="F200" s="87">
+      <c r="F200" s="93">
         <v>657</v>
       </c>
     </row>
     <row r="201" spans="2:6">
       <c r="B201" s="2"/>
-      <c r="C201" s="86"/>
-      <c r="D201" s="88"/>
-      <c r="E201" s="86"/>
-      <c r="F201" s="88"/>
+      <c r="C201" s="92"/>
+      <c r="D201" s="94"/>
+      <c r="E201" s="92"/>
+      <c r="F201" s="94"/>
     </row>
     <row r="202" spans="2:6">
       <c r="B202" s="2"/>
-      <c r="C202" s="60">
+      <c r="C202" s="100">
         <v>1098124</v>
       </c>
-      <c r="D202" s="62">
+      <c r="D202" s="102">
         <v>1985432</v>
       </c>
-      <c r="E202" s="60">
+      <c r="E202" s="100">
         <v>1113445</v>
       </c>
-      <c r="F202" s="62">
+      <c r="F202" s="102">
         <v>1963644</v>
       </c>
     </row>
     <row r="203" spans="2:6">
       <c r="B203" s="2"/>
-      <c r="C203" s="61"/>
-      <c r="D203" s="63"/>
-      <c r="E203" s="61"/>
-      <c r="F203" s="63"/>
+      <c r="C203" s="107"/>
+      <c r="D203" s="108"/>
+      <c r="E203" s="107"/>
+      <c r="F203" s="108"/>
     </row>
     <row r="204" spans="2:6">
       <c r="B204" s="2"/>
-      <c r="C204" s="60">
+      <c r="C204" s="100">
         <v>2264</v>
       </c>
-      <c r="D204" s="62">
+      <c r="D204" s="102">
         <v>4115</v>
       </c>
-      <c r="E204" s="60">
+      <c r="E204" s="100">
         <v>2296</v>
       </c>
-      <c r="F204" s="62">
+      <c r="F204" s="102">
         <v>4070</v>
       </c>
     </row>
     <row r="205" spans="2:6">
       <c r="B205" s="2"/>
-      <c r="C205" s="61"/>
-      <c r="D205" s="63"/>
-      <c r="E205" s="61"/>
-      <c r="F205" s="63"/>
+      <c r="C205" s="107"/>
+      <c r="D205" s="108"/>
+      <c r="E205" s="107"/>
+      <c r="F205" s="108"/>
     </row>
     <row r="206" spans="2:6">
       <c r="B206" s="2"/>
-      <c r="C206" s="85">
+      <c r="C206" s="91">
         <v>59.4</v>
       </c>
-      <c r="D206" s="87">
+      <c r="D206" s="93">
         <v>109.6</v>
       </c>
-      <c r="E206" s="85">
+      <c r="E206" s="91">
         <v>58.9</v>
       </c>
-      <c r="F206" s="87">
+      <c r="F206" s="93">
         <v>106.5</v>
       </c>
     </row>
     <row r="207" spans="2:6">
       <c r="B207" s="2"/>
-      <c r="C207" s="86"/>
-      <c r="D207" s="88"/>
-      <c r="E207" s="86"/>
-      <c r="F207" s="88"/>
+      <c r="C207" s="92"/>
+      <c r="D207" s="94"/>
+      <c r="E207" s="92"/>
+      <c r="F207" s="94"/>
     </row>
     <row r="208" spans="2:6">
       <c r="B208" s="2"/>
-      <c r="C208" s="110">
+      <c r="C208" s="125">
         <v>0</v>
       </c>
-      <c r="D208" s="112">
+      <c r="D208" s="127">
         <v>5.8</v>
       </c>
-      <c r="E208" s="110">
+      <c r="E208" s="125">
         <v>0</v>
       </c>
-      <c r="F208" s="112">
+      <c r="F208" s="127">
         <v>5.6</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="B209" s="2"/>
-      <c r="C209" s="111"/>
-      <c r="D209" s="113"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="113"/>
+      <c r="C209" s="126"/>
+      <c r="D209" s="128"/>
+      <c r="E209" s="126"/>
+      <c r="F209" s="128"/>
     </row>
     <row r="210" spans="1:6">
       <c r="B210" s="2"/>
-      <c r="C210" s="110">
+      <c r="C210" s="125">
         <v>15.2</v>
       </c>
-      <c r="D210" s="112">
+      <c r="D210" s="127">
         <v>21.3</v>
       </c>
-      <c r="E210" s="110">
+      <c r="E210" s="125">
         <v>14.2</v>
       </c>
-      <c r="F210" s="112">
+      <c r="F210" s="127">
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="B211" s="2"/>
-      <c r="C211" s="111"/>
-      <c r="D211" s="113"/>
-      <c r="E211" s="111"/>
-      <c r="F211" s="113"/>
+      <c r="C211" s="126"/>
+      <c r="D211" s="128"/>
+      <c r="E211" s="126"/>
+      <c r="F211" s="128"/>
     </row>
     <row r="212" spans="1:6">
       <c r="B212" s="2"/>
-      <c r="C212" s="110">
+      <c r="C212" s="125">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D212" s="112">
+      <c r="D212" s="127">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E212" s="110">
+      <c r="E212" s="125">
         <v>5</v>
       </c>
-      <c r="F212" s="112">
+      <c r="F212" s="127">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="B213" s="2"/>
-      <c r="C213" s="111"/>
-      <c r="D213" s="113"/>
-      <c r="E213" s="111"/>
-      <c r="F213" s="113"/>
+      <c r="C213" s="126"/>
+      <c r="D213" s="128"/>
+      <c r="E213" s="126"/>
+      <c r="F213" s="128"/>
     </row>
     <row r="214" spans="1:6">
       <c r="B214" s="2"/>
-      <c r="C214" s="110">
+      <c r="C214" s="125">
         <v>7.8</v>
       </c>
-      <c r="D214" s="112">
+      <c r="D214" s="127">
         <v>13.1</v>
       </c>
-      <c r="E214" s="110">
+      <c r="E214" s="125">
         <v>8</v>
       </c>
-      <c r="F214" s="112">
+      <c r="F214" s="127">
         <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="B215" s="2"/>
-      <c r="C215" s="111"/>
-      <c r="D215" s="113"/>
-      <c r="E215" s="111"/>
-      <c r="F215" s="113"/>
+      <c r="C215" s="126"/>
+      <c r="D215" s="128"/>
+      <c r="E215" s="126"/>
+      <c r="F215" s="128"/>
     </row>
     <row r="216" spans="1:6">
       <c r="B216" s="2"/>
-      <c r="C216" s="110">
+      <c r="C216" s="125">
         <v>31.2</v>
       </c>
-      <c r="D216" s="112">
+      <c r="D216" s="127">
         <v>60.2</v>
       </c>
-      <c r="E216" s="110">
+      <c r="E216" s="125">
         <v>31.7</v>
       </c>
-      <c r="F216" s="112">
+      <c r="F216" s="127">
         <v>59.6</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="B217" s="2"/>
-      <c r="C217" s="111"/>
-      <c r="D217" s="113"/>
-      <c r="E217" s="111"/>
-      <c r="F217" s="113"/>
+      <c r="C217" s="126"/>
+      <c r="D217" s="128"/>
+      <c r="E217" s="126"/>
+      <c r="F217" s="128"/>
     </row>
     <row r="218" spans="1:6">
       <c r="B218" s="2"/>
-      <c r="C218" s="85">
+      <c r="C218" s="91">
         <v>75.3</v>
       </c>
-      <c r="D218" s="87">
+      <c r="D218" s="93">
         <v>139</v>
       </c>
-      <c r="E218" s="85">
+      <c r="E218" s="91">
         <v>74.7</v>
       </c>
-      <c r="F218" s="87">
+      <c r="F218" s="93">
         <v>135.19999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16.5" thickBot="1">
       <c r="B219" s="3"/>
-      <c r="C219" s="98"/>
-      <c r="D219" s="99"/>
-      <c r="E219" s="98"/>
-      <c r="F219" s="99"/>
+      <c r="C219" s="81"/>
+      <c r="D219" s="82"/>
+      <c r="E219" s="81"/>
+      <c r="F219" s="82"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
@@ -7255,69 +7260,69 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="B223" s="64"/>
-      <c r="C223" s="67" t="s">
+      <c r="B223" s="110"/>
+      <c r="C223" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="D223" s="69"/>
+      <c r="D223" s="114"/>
     </row>
     <row r="224" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B224" s="65"/>
-      <c r="C224" s="70"/>
-      <c r="D224" s="72"/>
+      <c r="B224" s="111"/>
+      <c r="C224" s="115"/>
+      <c r="D224" s="116"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="65"/>
-      <c r="C225" s="73" t="s">
+      <c r="B225" s="111"/>
+      <c r="C225" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D225" s="74"/>
+      <c r="D225" s="118"/>
     </row>
     <row r="226" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B226" s="66"/>
-      <c r="C226" s="70"/>
-      <c r="D226" s="72"/>
+      <c r="B226" s="112"/>
+      <c r="C226" s="115"/>
+      <c r="D226" s="116"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="75" t="s">
+      <c r="B227" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C227" s="83" t="s">
+      <c r="C227" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="D227" s="75" t="s">
+      <c r="D227" s="104" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B228" s="76"/>
-      <c r="C228" s="84"/>
-      <c r="D228" s="76"/>
+      <c r="B228" s="106"/>
+      <c r="C228" s="120"/>
+      <c r="D228" s="106"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="75" t="s">
+      <c r="B229" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C229" s="77">
+      <c r="C229" s="121">
         <v>0</v>
       </c>
-      <c r="D229" s="79">
+      <c r="D229" s="123">
         <v>0.9</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B230" s="76"/>
-      <c r="C230" s="78"/>
-      <c r="D230" s="80"/>
+      <c r="B230" s="106"/>
+      <c r="C230" s="122"/>
+      <c r="D230" s="124"/>
     </row>
     <row r="231" spans="2:4">
       <c r="B231" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C231" s="81">
+      <c r="C231" s="109">
         <v>564700</v>
       </c>
-      <c r="D231" s="82">
+      <c r="D231" s="90">
         <v>511000</v>
       </c>
     </row>
@@ -7325,17 +7330,17 @@
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="61"/>
-      <c r="D232" s="63"/>
+      <c r="C232" s="107"/>
+      <c r="D232" s="108"/>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C233" s="60">
+      <c r="C233" s="100">
         <v>9620</v>
       </c>
-      <c r="D233" s="62">
+      <c r="D233" s="102">
         <v>37430</v>
       </c>
     </row>
@@ -7343,17 +7348,17 @@
       <c r="B234" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C234" s="61"/>
-      <c r="D234" s="63"/>
+      <c r="C234" s="107"/>
+      <c r="D234" s="108"/>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C235" s="60">
+      <c r="C235" s="100">
         <v>555080</v>
       </c>
-      <c r="D235" s="62">
+      <c r="D235" s="102">
         <v>473570</v>
       </c>
     </row>
@@ -7361,149 +7366,149 @@
       <c r="B236" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C236" s="61"/>
-      <c r="D236" s="63"/>
+      <c r="C236" s="107"/>
+      <c r="D236" s="108"/>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C237" s="85" t="s">
+      <c r="C237" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D237" s="87" t="s">
+      <c r="D237" s="93" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" s="4"/>
-      <c r="C238" s="86"/>
-      <c r="D238" s="88"/>
+      <c r="C238" s="92"/>
+      <c r="D238" s="94"/>
     </row>
     <row r="239" spans="2:4">
       <c r="B239" s="4"/>
-      <c r="C239" s="60">
+      <c r="C239" s="100">
         <v>167333</v>
       </c>
-      <c r="D239" s="62">
+      <c r="D239" s="102">
         <v>167333</v>
       </c>
     </row>
     <row r="240" spans="2:4">
       <c r="B240" s="4"/>
-      <c r="C240" s="61"/>
-      <c r="D240" s="63"/>
+      <c r="C240" s="107"/>
+      <c r="D240" s="108"/>
     </row>
     <row r="241" spans="2:4">
       <c r="B241" s="4"/>
-      <c r="C241" s="60">
+      <c r="C241" s="100">
         <v>1105812</v>
       </c>
-      <c r="D241" s="62">
+      <c r="D241" s="102">
         <v>1105812</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" s="4"/>
-      <c r="C242" s="61"/>
-      <c r="D242" s="63"/>
+      <c r="C242" s="107"/>
+      <c r="D242" s="108"/>
     </row>
     <row r="243" spans="2:4">
       <c r="B243" s="4"/>
-      <c r="C243" s="91">
+      <c r="C243" s="96">
         <v>0.502</v>
       </c>
-      <c r="D243" s="93">
+      <c r="D243" s="98">
         <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="244" spans="2:4">
       <c r="B244" s="4"/>
-      <c r="C244" s="92"/>
-      <c r="D244" s="94"/>
+      <c r="C244" s="97"/>
+      <c r="D244" s="99"/>
     </row>
     <row r="245" spans="2:4">
       <c r="B245" s="4"/>
-      <c r="C245" s="60">
+      <c r="C245" s="100">
         <v>6798</v>
       </c>
-      <c r="D245" s="62">
+      <c r="D245" s="102">
         <v>7968</v>
       </c>
     </row>
     <row r="246" spans="2:4" ht="16.5" thickBot="1">
       <c r="B246" s="5"/>
-      <c r="C246" s="89"/>
-      <c r="D246" s="90"/>
+      <c r="C246" s="101"/>
+      <c r="D246" s="103"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="75" t="s">
+      <c r="B247" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C247" s="96">
+      <c r="C247" s="89">
         <v>4.3</v>
       </c>
-      <c r="D247" s="97">
+      <c r="D247" s="95">
         <v>8.4</v>
       </c>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="95"/>
-      <c r="C248" s="86"/>
-      <c r="D248" s="88"/>
+      <c r="B248" s="105"/>
+      <c r="C248" s="92"/>
+      <c r="D248" s="94"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="95"/>
-      <c r="C249" s="85">
+      <c r="B249" s="105"/>
+      <c r="C249" s="91">
         <v>1</v>
       </c>
-      <c r="D249" s="87">
+      <c r="D249" s="93">
         <v>2.1</v>
       </c>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="95"/>
-      <c r="C250" s="86"/>
-      <c r="D250" s="88"/>
+      <c r="B250" s="105"/>
+      <c r="C250" s="92"/>
+      <c r="D250" s="94"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="95"/>
-      <c r="C251" s="85">
+      <c r="B251" s="105"/>
+      <c r="C251" s="91">
         <v>3.3</v>
       </c>
-      <c r="D251" s="87">
+      <c r="D251" s="93">
         <v>6.3</v>
       </c>
     </row>
     <row r="252" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B252" s="76"/>
-      <c r="C252" s="98"/>
-      <c r="D252" s="99"/>
+      <c r="B252" s="106"/>
+      <c r="C252" s="81"/>
+      <c r="D252" s="82"/>
     </row>
     <row r="253" spans="2:4" ht="48">
       <c r="B253" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C253" s="96">
+      <c r="C253" s="89">
         <v>118</v>
       </c>
-      <c r="D253" s="97">
+      <c r="D253" s="95">
         <v>12</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" s="4"/>
-      <c r="C254" s="86"/>
-      <c r="D254" s="88"/>
+      <c r="C254" s="92"/>
+      <c r="D254" s="94"/>
     </row>
     <row r="255" spans="2:4">
       <c r="B255" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C255" s="85">
+      <c r="C255" s="91">
         <v>790</v>
       </c>
-      <c r="D255" s="87">
+      <c r="D255" s="93">
         <v>87</v>
       </c>
     </row>
@@ -7511,383 +7516,871 @@
       <c r="B256" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C256" s="86"/>
-      <c r="D256" s="88"/>
+      <c r="C256" s="92"/>
+      <c r="D256" s="94"/>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" s="4"/>
-      <c r="C257" s="85">
+      <c r="C257" s="91">
         <v>804</v>
       </c>
-      <c r="D257" s="87">
+      <c r="D257" s="93">
         <v>94</v>
       </c>
     </row>
     <row r="258" spans="2:4">
       <c r="B258" s="4"/>
-      <c r="C258" s="86"/>
-      <c r="D258" s="88"/>
+      <c r="C258" s="92"/>
+      <c r="D258" s="94"/>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" s="4"/>
-      <c r="C259" s="85" t="s">
+      <c r="C259" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D259" s="87" t="s">
+      <c r="D259" s="93" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" s="4"/>
-      <c r="C260" s="86"/>
-      <c r="D260" s="88"/>
+      <c r="C260" s="92"/>
+      <c r="D260" s="94"/>
     </row>
     <row r="261" spans="2:4">
       <c r="B261" s="4"/>
-      <c r="C261" s="85" t="s">
+      <c r="C261" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D261" s="87" t="s">
+      <c r="D261" s="93" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="262" spans="2:4">
       <c r="B262" s="4"/>
-      <c r="C262" s="86"/>
-      <c r="D262" s="88"/>
+      <c r="C262" s="92"/>
+      <c r="D262" s="94"/>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" s="4"/>
-      <c r="C263" s="85">
+      <c r="C263" s="91">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D263" s="87">
+      <c r="D263" s="93">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="264" spans="2:4">
       <c r="B264" s="4"/>
-      <c r="C264" s="86"/>
-      <c r="D264" s="116"/>
+      <c r="C264" s="92"/>
+      <c r="D264" s="80"/>
     </row>
     <row r="265" spans="2:4">
       <c r="B265" s="4"/>
-      <c r="C265" s="85">
+      <c r="C265" s="91">
         <v>0.06</v>
       </c>
-      <c r="D265" s="115">
+      <c r="D265" s="79">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="266" spans="2:4">
       <c r="B266" s="4"/>
-      <c r="C266" s="114"/>
-      <c r="D266" s="116"/>
+      <c r="C266" s="78"/>
+      <c r="D266" s="80"/>
     </row>
     <row r="267" spans="2:4">
       <c r="B267" s="4"/>
-      <c r="C267" s="117" t="s">
+      <c r="C267" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D267" s="115" t="s">
+      <c r="D267" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="268" spans="2:4">
       <c r="B268" s="4"/>
-      <c r="C268" s="114"/>
-      <c r="D268" s="116"/>
+      <c r="C268" s="78"/>
+      <c r="D268" s="80"/>
     </row>
     <row r="269" spans="2:4">
       <c r="B269" s="4"/>
-      <c r="C269" s="117" t="s">
+      <c r="C269" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D269" s="115" t="s">
+      <c r="D269" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="270" spans="2:4">
       <c r="B270" s="4"/>
-      <c r="C270" s="114"/>
-      <c r="D270" s="116"/>
+      <c r="C270" s="78"/>
+      <c r="D270" s="80"/>
     </row>
     <row r="271" spans="2:4">
       <c r="B271" s="4"/>
-      <c r="C271" s="117" t="s">
+      <c r="C271" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D271" s="115" t="s">
+      <c r="D271" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="272" spans="2:4">
       <c r="B272" s="4"/>
-      <c r="C272" s="114"/>
-      <c r="D272" s="116"/>
+      <c r="C272" s="78"/>
+      <c r="D272" s="80"/>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" s="4"/>
-      <c r="C273" s="117" t="s">
+      <c r="C273" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D273" s="115" t="s">
+      <c r="D273" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="274" spans="2:4" ht="16.5" thickBot="1">
       <c r="B274" s="5"/>
-      <c r="C274" s="98"/>
-      <c r="D274" s="99"/>
+      <c r="C274" s="81"/>
+      <c r="D274" s="82"/>
     </row>
     <row r="275" spans="2:4">
-      <c r="B275" s="104" t="s">
+      <c r="B275" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C275" s="105"/>
-      <c r="D275" s="106"/>
+      <c r="C275" s="84"/>
+      <c r="D275" s="85"/>
     </row>
     <row r="276" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B276" s="107"/>
-      <c r="C276" s="108"/>
-      <c r="D276" s="109"/>
+      <c r="B276" s="86"/>
+      <c r="C276" s="87"/>
+      <c r="D276" s="88"/>
     </row>
     <row r="277" spans="2:4">
       <c r="B277" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C277" s="96">
+      <c r="C277" s="89">
         <v>584</v>
       </c>
-      <c r="D277" s="82">
+      <c r="D277" s="90">
         <v>1226</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="B278" s="2"/>
-      <c r="C278" s="114"/>
-      <c r="D278" s="118"/>
+      <c r="C278" s="78"/>
+      <c r="D278" s="76"/>
     </row>
     <row r="279" spans="2:4" ht="21">
       <c r="B279" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C279" s="117">
+      <c r="C279" s="77">
         <v>718</v>
       </c>
-      <c r="D279" s="134">
+      <c r="D279" s="75">
         <v>1497</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="B280" s="2"/>
-      <c r="C280" s="114"/>
-      <c r="D280" s="118"/>
+      <c r="C280" s="78"/>
+      <c r="D280" s="76"/>
     </row>
     <row r="281" spans="2:4" ht="24">
       <c r="B281" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C281" s="117">
+      <c r="C281" s="77">
         <v>482</v>
       </c>
-      <c r="D281" s="115">
+      <c r="D281" s="79">
         <v>926</v>
       </c>
     </row>
     <row r="282" spans="2:4">
       <c r="B282" s="2"/>
-      <c r="C282" s="114"/>
-      <c r="D282" s="116"/>
+      <c r="C282" s="78"/>
+      <c r="D282" s="80"/>
     </row>
     <row r="283" spans="2:4">
       <c r="B283" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C283" s="117">
+      <c r="C283" s="77">
         <v>40</v>
       </c>
-      <c r="D283" s="115">
+      <c r="D283" s="79">
         <v>78</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="B284" s="2"/>
-      <c r="C284" s="114"/>
-      <c r="D284" s="116"/>
+      <c r="C284" s="78"/>
+      <c r="D284" s="80"/>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C285" s="117">
+      <c r="C285" s="77">
         <v>62</v>
       </c>
-      <c r="D285" s="115">
+      <c r="D285" s="79">
         <v>162</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" s="2"/>
-      <c r="C286" s="114"/>
-      <c r="D286" s="116"/>
+      <c r="C286" s="78"/>
+      <c r="D286" s="80"/>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" s="2"/>
-      <c r="C287" s="117">
+      <c r="C287" s="77">
         <v>0</v>
       </c>
-      <c r="D287" s="115">
+      <c r="D287" s="79">
         <v>60</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" s="2"/>
-      <c r="C288" s="114"/>
-      <c r="D288" s="116"/>
+      <c r="C288" s="78"/>
+      <c r="D288" s="80"/>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" s="2"/>
-      <c r="C289" s="117">
+      <c r="C289" s="77">
         <v>133</v>
       </c>
-      <c r="D289" s="115">
+      <c r="D289" s="79">
         <v>271</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="B290" s="2"/>
-      <c r="C290" s="114"/>
-      <c r="D290" s="116"/>
+      <c r="C290" s="78"/>
+      <c r="D290" s="80"/>
     </row>
     <row r="291" spans="2:4">
       <c r="B291" s="2"/>
-      <c r="C291" s="132">
+      <c r="C291" s="73">
         <v>398290</v>
       </c>
-      <c r="D291" s="134">
+      <c r="D291" s="75">
         <v>709039</v>
       </c>
     </row>
     <row r="292" spans="2:4">
       <c r="B292" s="2"/>
-      <c r="C292" s="133"/>
-      <c r="D292" s="118"/>
+      <c r="C292" s="74"/>
+      <c r="D292" s="76"/>
     </row>
     <row r="293" spans="2:4">
       <c r="B293" s="2"/>
-      <c r="C293" s="117">
+      <c r="C293" s="77">
         <v>771</v>
       </c>
-      <c r="D293" s="134">
+      <c r="D293" s="75">
         <v>1614</v>
       </c>
     </row>
     <row r="294" spans="2:4">
       <c r="B294" s="2"/>
-      <c r="C294" s="114"/>
-      <c r="D294" s="118"/>
+      <c r="C294" s="78"/>
+      <c r="D294" s="76"/>
     </row>
     <row r="295" spans="2:4">
       <c r="B295" s="2"/>
-      <c r="C295" s="117">
+      <c r="C295" s="77">
         <v>58.9</v>
       </c>
-      <c r="D295" s="115">
+      <c r="D295" s="79">
         <v>85.9</v>
       </c>
     </row>
     <row r="296" spans="2:4">
       <c r="B296" s="2"/>
-      <c r="C296" s="114"/>
-      <c r="D296" s="116"/>
+      <c r="C296" s="78"/>
+      <c r="D296" s="80"/>
     </row>
     <row r="297" spans="2:4">
       <c r="B297" s="2"/>
-      <c r="C297" s="119">
+      <c r="C297" s="69">
         <v>0</v>
       </c>
-      <c r="D297" s="121">
+      <c r="D297" s="71">
         <v>3.2</v>
       </c>
     </row>
     <row r="298" spans="2:4">
       <c r="B298" s="2"/>
-      <c r="C298" s="120"/>
-      <c r="D298" s="122"/>
+      <c r="C298" s="70"/>
+      <c r="D298" s="72"/>
     </row>
     <row r="299" spans="2:4">
       <c r="B299" s="2"/>
-      <c r="C299" s="119">
+      <c r="C299" s="69">
         <v>44.5</v>
       </c>
-      <c r="D299" s="121">
+      <c r="D299" s="71">
         <v>52.2</v>
       </c>
     </row>
     <row r="300" spans="2:4">
       <c r="B300" s="2"/>
-      <c r="C300" s="120"/>
-      <c r="D300" s="122"/>
+      <c r="C300" s="70"/>
+      <c r="D300" s="72"/>
     </row>
     <row r="301" spans="2:4">
       <c r="B301" s="2"/>
-      <c r="C301" s="119">
+      <c r="C301" s="69">
         <v>1.3</v>
       </c>
-      <c r="D301" s="121">
+      <c r="D301" s="71">
         <v>2.6</v>
       </c>
     </row>
     <row r="302" spans="2:4">
       <c r="B302" s="2"/>
-      <c r="C302" s="120"/>
-      <c r="D302" s="122"/>
+      <c r="C302" s="70"/>
+      <c r="D302" s="72"/>
     </row>
     <row r="303" spans="2:4">
       <c r="B303" s="2"/>
-      <c r="C303" s="119">
+      <c r="C303" s="69">
         <v>3</v>
       </c>
-      <c r="D303" s="121">
+      <c r="D303" s="71">
         <v>5.7</v>
       </c>
     </row>
     <row r="304" spans="2:4">
       <c r="B304" s="2"/>
-      <c r="C304" s="120"/>
-      <c r="D304" s="122"/>
+      <c r="C304" s="70"/>
+      <c r="D304" s="72"/>
     </row>
     <row r="305" spans="2:4">
       <c r="B305" s="2"/>
-      <c r="C305" s="119">
+      <c r="C305" s="69">
         <v>10.1</v>
       </c>
-      <c r="D305" s="121">
+      <c r="D305" s="71">
         <v>22.3</v>
       </c>
     </row>
     <row r="306" spans="2:4">
       <c r="B306" s="2"/>
-      <c r="C306" s="120"/>
-      <c r="D306" s="122"/>
+      <c r="C306" s="70"/>
+      <c r="D306" s="72"/>
     </row>
     <row r="307" spans="2:4">
       <c r="B307" s="2"/>
-      <c r="C307" s="117">
+      <c r="C307" s="77">
         <v>74.7</v>
       </c>
-      <c r="D307" s="115">
+      <c r="D307" s="79">
         <v>108.9</v>
       </c>
     </row>
     <row r="308" spans="2:4" ht="16.5" thickBot="1">
       <c r="B308" s="3"/>
-      <c r="C308" s="98"/>
-      <c r="D308" s="99"/>
+      <c r="C308" s="81"/>
+      <c r="D308" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="512">
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:F135"/>
+    <mergeCell ref="C136:D137"/>
+    <mergeCell ref="E136:F137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="B98:H99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="B186:F187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F206:F207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:D224"/>
+    <mergeCell ref="C225:D226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="B247:B252"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="B275:D276"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="D301:D302"/>
     <mergeCell ref="L20:Q20"/>
     <mergeCell ref="R20:U20"/>
     <mergeCell ref="L11:Q11"/>
@@ -7912,494 +8405,6 @@
     <mergeCell ref="D289:D290"/>
     <mergeCell ref="C279:C280"/>
     <mergeCell ref="D279:D280"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D299:D300"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="B275:D276"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="B247:B252"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:D224"/>
-    <mergeCell ref="C225:D226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:F207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="B186:F187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="B98:H99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:F135"/>
-    <mergeCell ref="C136:D137"/>
-    <mergeCell ref="E136:F137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ccs/plants.xlsx
+++ b/ccs/plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csala\OneDrive\Github\sustainable-energy-transitions\ccs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481DEC3-8B09-4D7A-A493-5AC1C8B5F51A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0032BE-475B-4986-9404-56647B197D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7470" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COAL and NG calcs" sheetId="3" r:id="rId1"/>
@@ -1916,6 +1916,195 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1943,18 +2132,6 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1962,183 +2139,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2900,24 +2900,24 @@
     </row>
     <row r="11" spans="1:23" ht="33" customHeight="1">
       <c r="K11" s="25"/>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63" t="s">
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="64" t="s">
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="65"/>
+      <c r="W11" s="128"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -3008,15 +3008,15 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="B14" s="110"/>
-      <c r="C14" s="113" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="114"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="K14" s="26" t="s">
         <v>15</v>
       </c>
@@ -3058,13 +3058,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" thickBot="1">
-      <c r="B15" s="111"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="116"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
       <c r="K15" s="26" t="s">
         <v>33</v>
       </c>
@@ -3106,19 +3106,19 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="111"/>
-      <c r="C16" s="117" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="117" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="117" t="s">
+      <c r="F16" s="74"/>
+      <c r="G16" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="118"/>
+      <c r="H16" s="74"/>
       <c r="K16" s="26" t="s">
         <v>34</v>
       </c>
@@ -3160,13 +3160,13 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B17" s="112"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="72"/>
       <c r="K17" s="26" t="s">
         <v>20</v>
       </c>
@@ -3256,72 +3256,72 @@
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="119" t="s">
+      <c r="G19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="104" t="s">
+      <c r="H19" s="75" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="66" t="s">
+      <c r="L19" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="66" t="s">
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="66" t="s">
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="W19" s="68"/>
+      <c r="W19" s="131"/>
     </row>
     <row r="20" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B20" s="106"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="106"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="76"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="60" t="s">
+      <c r="L20" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="60" t="s">
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="62"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="125"/>
       <c r="V20" s="15"/>
       <c r="W20" s="16"/>
     </row>
@@ -3468,25 +3468,25 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="121">
+      <c r="C24" s="77">
         <v>0</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="79">
         <v>0.9</v>
       </c>
-      <c r="E24" s="121">
+      <c r="E24" s="77">
         <v>0</v>
       </c>
-      <c r="F24" s="123">
+      <c r="F24" s="79">
         <v>0.9</v>
       </c>
-      <c r="G24" s="121">
+      <c r="G24" s="77">
         <v>0</v>
       </c>
-      <c r="H24" s="123">
+      <c r="H24" s="79">
         <v>0.9</v>
       </c>
       <c r="K24" s="26" t="s">
@@ -3542,13 +3542,13 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B25" s="106"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="124"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="80"/>
       <c r="K25" s="26" t="s">
         <v>33</v>
       </c>
@@ -3605,22 +3605,22 @@
       <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="109">
+      <c r="C26" s="81">
         <v>747800</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="82">
         <v>734000</v>
       </c>
-      <c r="E26" s="109">
+      <c r="E26" s="81">
         <v>738200</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="82">
         <v>703700</v>
       </c>
-      <c r="G26" s="109">
+      <c r="G26" s="81">
         <v>737000</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="82">
         <v>673400</v>
       </c>
       <c r="K26" s="26" t="s">
@@ -3679,12 +3679,12 @@
       <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="108"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="63"/>
       <c r="K27" s="26" t="s">
         <v>104</v>
       </c>
@@ -4477,22 +4477,22 @@
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="100">
+      <c r="C43" s="60">
         <v>125750</v>
       </c>
-      <c r="D43" s="102">
+      <c r="D43" s="62">
         <v>190750</v>
       </c>
-      <c r="E43" s="100">
+      <c r="E43" s="60">
         <v>113140</v>
       </c>
-      <c r="F43" s="102">
+      <c r="F43" s="62">
         <v>190090</v>
       </c>
-      <c r="G43" s="100">
+      <c r="G43" s="60">
         <v>108020</v>
       </c>
-      <c r="H43" s="102">
+      <c r="H43" s="62">
         <v>176540</v>
       </c>
       <c r="K43" s="31" t="s">
@@ -4533,12 +4533,12 @@
       <c r="B44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="108"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="63"/>
       <c r="K44" s="27" t="s">
         <v>77</v>
       </c>
@@ -5145,22 +5145,22 @@
       <c r="B58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="100">
+      <c r="C58" s="60">
         <v>622050</v>
       </c>
-      <c r="D58" s="102">
+      <c r="D58" s="62">
         <v>543250</v>
       </c>
-      <c r="E58" s="100">
+      <c r="E58" s="60">
         <v>625060</v>
       </c>
-      <c r="F58" s="102">
+      <c r="F58" s="62">
         <v>513610</v>
       </c>
-      <c r="G58" s="100">
+      <c r="G58" s="60">
         <v>628980</v>
       </c>
-      <c r="H58" s="102">
+      <c r="H58" s="62">
         <v>496860</v>
       </c>
       <c r="M58" s="11"/>
@@ -5169,34 +5169,34 @@
       <c r="B59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="108"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="63"/>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="2:23">
       <c r="B60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="100">
+      <c r="C60" s="60">
         <v>466901</v>
       </c>
-      <c r="D60" s="102">
+      <c r="D60" s="62">
         <v>487011</v>
       </c>
-      <c r="E60" s="100">
+      <c r="E60" s="60">
         <v>459958</v>
       </c>
-      <c r="F60" s="102">
+      <c r="F60" s="62">
         <v>484212</v>
       </c>
-      <c r="G60" s="100">
+      <c r="G60" s="60">
         <v>436646</v>
       </c>
-      <c r="H60" s="102">
+      <c r="H60" s="62">
         <v>465264</v>
       </c>
       <c r="M60" s="11"/>
@@ -5208,279 +5208,279 @@
       <c r="B61" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="107"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="108"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="63"/>
       <c r="U61" s="30"/>
     </row>
     <row r="62" spans="2:23">
       <c r="B62" s="4"/>
-      <c r="C62" s="91" t="s">
+      <c r="C62" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="93" t="s">
+      <c r="D62" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="91" t="s">
+      <c r="E62" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="93" t="s">
+      <c r="F62" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="91" t="s">
+      <c r="G62" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="93" t="s">
+      <c r="H62" s="87" t="s">
         <v>22</v>
       </c>
       <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="2:23">
       <c r="B63" s="4"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="94"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="88"/>
     </row>
     <row r="64" spans="2:23">
       <c r="B64" s="4"/>
-      <c r="C64" s="100">
+      <c r="C64" s="60">
         <v>1596320</v>
       </c>
-      <c r="D64" s="102">
+      <c r="D64" s="62">
         <v>1665074</v>
       </c>
-      <c r="E64" s="100">
+      <c r="E64" s="60">
         <v>1572582</v>
       </c>
-      <c r="F64" s="102">
+      <c r="F64" s="62">
         <v>1655503</v>
       </c>
-      <c r="G64" s="100">
+      <c r="G64" s="60">
         <v>1492878</v>
       </c>
-      <c r="H64" s="102">
+      <c r="H64" s="62">
         <v>1590722</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="108"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="63"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4"/>
-      <c r="C66" s="96">
+      <c r="C66" s="91">
         <v>0.39</v>
       </c>
-      <c r="D66" s="98">
+      <c r="D66" s="93">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E66" s="96">
+      <c r="E66" s="91">
         <v>0.39700000000000002</v>
       </c>
-      <c r="F66" s="98">
+      <c r="F66" s="93">
         <v>0.31</v>
       </c>
-      <c r="G66" s="96">
+      <c r="G66" s="91">
         <v>0.42099999999999999</v>
       </c>
-      <c r="H66" s="98">
+      <c r="H66" s="93">
         <v>0.312</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="99"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="94"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4"/>
-      <c r="C68" s="100">
+      <c r="C68" s="60">
         <v>8756</v>
       </c>
-      <c r="D68" s="102">
+      <c r="D68" s="62">
         <v>10458</v>
       </c>
-      <c r="E68" s="100">
+      <c r="E68" s="60">
         <v>8585</v>
       </c>
-      <c r="F68" s="102">
+      <c r="F68" s="62">
         <v>10998</v>
       </c>
-      <c r="G68" s="100">
+      <c r="G68" s="60">
         <v>8099</v>
       </c>
-      <c r="H68" s="102">
+      <c r="H68" s="62">
         <v>10924</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="16.5" thickBot="1">
       <c r="B69" s="5"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="103"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="90"/>
     </row>
     <row r="70" spans="2:8" ht="33" customHeight="1">
-      <c r="B70" s="104" t="s">
+      <c r="B70" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="89">
+      <c r="C70" s="96">
         <v>7.6</v>
       </c>
-      <c r="D70" s="95">
+      <c r="D70" s="97">
         <v>10.7</v>
       </c>
-      <c r="E70" s="89">
+      <c r="E70" s="96">
         <v>7</v>
       </c>
-      <c r="F70" s="95">
+      <c r="F70" s="97">
         <v>11.1</v>
       </c>
-      <c r="G70" s="89">
+      <c r="G70" s="96">
         <v>6.6</v>
       </c>
-      <c r="H70" s="95">
+      <c r="H70" s="97">
         <v>11.3</v>
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="105"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="94"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="88"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="105"/>
-      <c r="C72" s="91">
+      <c r="B72" s="95"/>
+      <c r="C72" s="85">
         <v>1.6</v>
       </c>
-      <c r="D72" s="93">
+      <c r="D72" s="87">
         <v>2</v>
       </c>
-      <c r="E72" s="91">
+      <c r="E72" s="85">
         <v>1.4</v>
       </c>
-      <c r="F72" s="93">
+      <c r="F72" s="87">
         <v>2.1</v>
       </c>
-      <c r="G72" s="91">
+      <c r="G72" s="85">
         <v>1.2</v>
       </c>
-      <c r="H72" s="93">
+      <c r="H72" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="105"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="94"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="88"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="105"/>
-      <c r="C74" s="91">
+      <c r="B74" s="95"/>
+      <c r="C74" s="85">
         <v>6</v>
       </c>
-      <c r="D74" s="93">
+      <c r="D74" s="87">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E74" s="91">
+      <c r="E74" s="85">
         <v>5.5</v>
       </c>
-      <c r="F74" s="93">
+      <c r="F74" s="87">
         <v>9</v>
       </c>
-      <c r="G74" s="91">
+      <c r="G74" s="85">
         <v>5.3</v>
       </c>
-      <c r="H74" s="93">
+      <c r="H74" s="87">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B75" s="106"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="82"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="99"/>
     </row>
     <row r="76" spans="2:8" ht="48">
       <c r="B76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="89">
+      <c r="C76" s="96">
         <v>197</v>
       </c>
-      <c r="D76" s="95">
+      <c r="D76" s="97">
         <v>20</v>
       </c>
-      <c r="E76" s="89">
+      <c r="E76" s="96">
         <v>199</v>
       </c>
-      <c r="F76" s="95">
+      <c r="F76" s="97">
         <v>20</v>
       </c>
-      <c r="G76" s="89">
+      <c r="G76" s="96">
         <v>197</v>
       </c>
-      <c r="H76" s="95">
+      <c r="H76" s="97">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="94"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="88"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="100">
+      <c r="C78" s="60">
         <v>1434</v>
       </c>
-      <c r="D78" s="93">
+      <c r="D78" s="87">
         <v>152</v>
       </c>
-      <c r="E78" s="100">
+      <c r="E78" s="60">
         <v>1448</v>
       </c>
-      <c r="F78" s="93">
+      <c r="F78" s="87">
         <v>158</v>
       </c>
-      <c r="G78" s="100">
+      <c r="G78" s="60">
         <v>1361</v>
       </c>
-      <c r="H78" s="93">
+      <c r="H78" s="87">
         <v>161</v>
       </c>
     </row>
@@ -5488,794 +5488,794 @@
       <c r="B79" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="107"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="107"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="94"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="88"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4"/>
-      <c r="C80" s="100">
+      <c r="C80" s="60">
         <v>1723</v>
       </c>
-      <c r="D80" s="93">
+      <c r="D80" s="87">
         <v>206</v>
       </c>
-      <c r="E80" s="100">
+      <c r="E80" s="60">
         <v>1710</v>
       </c>
-      <c r="F80" s="93">
+      <c r="F80" s="87">
         <v>217</v>
       </c>
-      <c r="G80" s="100">
+      <c r="G80" s="60">
         <v>1595</v>
       </c>
-      <c r="H80" s="93">
+      <c r="H80" s="87">
         <v>218</v>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="4"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="94"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="88"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="4"/>
-      <c r="C82" s="91">
+      <c r="C82" s="85">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D82" s="93">
+      <c r="D82" s="87">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E82" s="91">
+      <c r="E82" s="85">
         <v>1.17E-2</v>
       </c>
-      <c r="F82" s="93">
+      <c r="F82" s="87">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="G82" s="91">
+      <c r="G82" s="85">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H82" s="93">
+      <c r="H82" s="87">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="4"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="94"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="86"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="88"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="4"/>
-      <c r="C84" s="91">
+      <c r="C84" s="85">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D84" s="93">
+      <c r="D84" s="87">
         <v>1.66E-2</v>
       </c>
-      <c r="E84" s="91">
+      <c r="E84" s="85">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="F84" s="93">
+      <c r="F84" s="87">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="G84" s="91">
+      <c r="G84" s="85">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H84" s="93">
+      <c r="H84" s="87">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="4"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="94"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="86"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="88"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="4"/>
-      <c r="C86" s="91">
+      <c r="C86" s="85">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D86" s="93">
+      <c r="D86" s="87">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E86" s="91">
+      <c r="E86" s="85">
         <v>0.06</v>
       </c>
-      <c r="F86" s="93">
+      <c r="F86" s="87">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G86" s="91">
+      <c r="G86" s="85">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H86" s="93">
+      <c r="H86" s="87">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="4"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="94"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="94"/>
-      <c r="G87" s="92"/>
-      <c r="H87" s="94"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="88"/>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="4"/>
-      <c r="C88" s="91">
+      <c r="C88" s="85">
         <v>0.43</v>
       </c>
-      <c r="D88" s="93">
+      <c r="D88" s="87">
         <v>0.376</v>
       </c>
-      <c r="E88" s="91">
+      <c r="E88" s="85">
         <v>0.434</v>
       </c>
-      <c r="F88" s="93">
+      <c r="F88" s="87">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G88" s="91">
+      <c r="G88" s="85">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H88" s="93">
+      <c r="H88" s="87">
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="4"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="92"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="92"/>
-      <c r="H89" s="94"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="86"/>
+      <c r="H89" s="88"/>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="4"/>
-      <c r="C90" s="91">
+      <c r="C90" s="85">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D90" s="93">
+      <c r="D90" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E90" s="91">
+      <c r="E90" s="85">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="F90" s="93">
+      <c r="F90" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G90" s="91">
+      <c r="G90" s="85">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="H90" s="93">
+      <c r="H90" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="4"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="94"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="94"/>
-      <c r="G91" s="92"/>
-      <c r="H91" s="94"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="88"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="4"/>
-      <c r="C92" s="91">
+      <c r="C92" s="85">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D92" s="93">
+      <c r="D92" s="87">
         <v>5.5E-2</v>
       </c>
-      <c r="E92" s="91">
+      <c r="E92" s="85">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F92" s="93">
+      <c r="F92" s="87">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G92" s="91">
+      <c r="G92" s="85">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H92" s="93">
+      <c r="H92" s="87">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="4"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="94"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="94"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="94"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="88"/>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="4"/>
-      <c r="C94" s="91">
+      <c r="C94" s="85">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D94" s="93">
+      <c r="D94" s="87">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E94" s="91">
+      <c r="E94" s="85">
         <v>0.57099999999999995</v>
       </c>
-      <c r="F94" s="93">
+      <c r="F94" s="87">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G94" s="91">
+      <c r="G94" s="85">
         <v>0.57099999999999995</v>
       </c>
-      <c r="H94" s="93">
+      <c r="H94" s="87">
         <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="4"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="94"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="94"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="94"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="86"/>
+      <c r="H95" s="88"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="4"/>
-      <c r="C96" s="129">
+      <c r="C96" s="100">
         <v>4.16E-6</v>
       </c>
-      <c r="D96" s="131">
+      <c r="D96" s="102">
         <v>4.42E-6</v>
       </c>
-      <c r="E96" s="129">
+      <c r="E96" s="100">
         <v>4.1500000000000001E-6</v>
       </c>
-      <c r="F96" s="131">
+      <c r="F96" s="102">
         <v>4.5900000000000001E-6</v>
       </c>
-      <c r="G96" s="129">
+      <c r="G96" s="100">
         <v>3.9500000000000003E-6</v>
       </c>
-      <c r="H96" s="131">
+      <c r="H96" s="102">
         <v>4.6099999999999999E-6</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="16.5" thickBot="1">
       <c r="B97" s="5"/>
-      <c r="C97" s="130"/>
-      <c r="D97" s="132"/>
-      <c r="E97" s="130"/>
-      <c r="F97" s="132"/>
-      <c r="G97" s="130"/>
-      <c r="H97" s="132"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="103"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="83" t="s">
+      <c r="B98" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="84"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="84"/>
-      <c r="G98" s="84"/>
-      <c r="H98" s="85"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="105"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="106"/>
     </row>
     <row r="99" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B99" s="86"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="87"/>
-      <c r="G99" s="87"/>
-      <c r="H99" s="88"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="109"/>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="109">
+      <c r="C100" s="81">
         <v>1987</v>
       </c>
-      <c r="D100" s="90">
+      <c r="D100" s="82">
         <v>2711</v>
       </c>
-      <c r="E100" s="109">
+      <c r="E100" s="81">
         <v>1913</v>
       </c>
-      <c r="F100" s="90">
+      <c r="F100" s="82">
         <v>2817</v>
       </c>
-      <c r="G100" s="109">
+      <c r="G100" s="81">
         <v>2217</v>
       </c>
-      <c r="H100" s="90">
+      <c r="H100" s="82">
         <v>3181</v>
       </c>
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="2"/>
-      <c r="C101" s="107"/>
-      <c r="D101" s="108"/>
-      <c r="E101" s="107"/>
-      <c r="F101" s="108"/>
-      <c r="G101" s="107"/>
-      <c r="H101" s="108"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="63"/>
     </row>
     <row r="102" spans="2:9" ht="21">
       <c r="B102" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="100">
+      <c r="C102" s="60">
         <v>2447</v>
       </c>
-      <c r="D102" s="102">
+      <c r="D102" s="62">
         <v>3334</v>
       </c>
-      <c r="E102" s="100">
+      <c r="E102" s="60">
         <v>2351</v>
       </c>
-      <c r="F102" s="102">
+      <c r="F102" s="62">
         <v>3466</v>
       </c>
-      <c r="G102" s="100">
+      <c r="G102" s="60">
         <v>2716</v>
       </c>
-      <c r="H102" s="102">
+      <c r="H102" s="62">
         <v>3904</v>
       </c>
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="2"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="108"/>
-      <c r="G103" s="107"/>
-      <c r="H103" s="108"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="63"/>
     </row>
     <row r="104" spans="2:9" ht="24">
       <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="100">
+      <c r="C104" s="60">
         <v>1528</v>
       </c>
-      <c r="D104" s="102">
+      <c r="D104" s="62">
         <v>2032</v>
       </c>
-      <c r="E104" s="100">
+      <c r="E104" s="60">
         <v>1470</v>
       </c>
-      <c r="F104" s="102">
+      <c r="F104" s="62">
         <v>2113</v>
       </c>
-      <c r="G104" s="100">
+      <c r="G104" s="60">
         <v>1695</v>
       </c>
-      <c r="H104" s="102">
+      <c r="H104" s="62">
         <v>2385</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2"/>
-      <c r="C105" s="107"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="107"/>
-      <c r="F105" s="108"/>
-      <c r="G105" s="107"/>
-      <c r="H105" s="108"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="63"/>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="91">
+      <c r="C106" s="85">
         <v>144</v>
       </c>
-      <c r="D106" s="93">
+      <c r="D106" s="87">
         <v>191</v>
       </c>
-      <c r="E106" s="91">
+      <c r="E106" s="85">
         <v>138</v>
       </c>
-      <c r="F106" s="93">
+      <c r="F106" s="87">
         <v>199</v>
       </c>
-      <c r="G106" s="91">
+      <c r="G106" s="85">
         <v>156</v>
       </c>
-      <c r="H106" s="93">
+      <c r="H106" s="87">
         <v>221</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="2"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="94"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="94"/>
-      <c r="G107" s="92"/>
-      <c r="H107" s="94"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="88"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="86"/>
+      <c r="H107" s="88"/>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="91">
+      <c r="C108" s="85">
         <v>265</v>
       </c>
-      <c r="D108" s="93">
+      <c r="D108" s="87">
         <v>369</v>
       </c>
-      <c r="E108" s="91">
+      <c r="E108" s="85">
         <v>256</v>
       </c>
-      <c r="F108" s="93">
+      <c r="F108" s="87">
         <v>385</v>
       </c>
-      <c r="G108" s="91">
+      <c r="G108" s="85">
         <v>302</v>
       </c>
-      <c r="H108" s="93">
+      <c r="H108" s="87">
         <v>444</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="2"/>
-      <c r="C109" s="92"/>
-      <c r="D109" s="94"/>
-      <c r="E109" s="92"/>
-      <c r="F109" s="94"/>
-      <c r="G109" s="92"/>
-      <c r="H109" s="94"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="86"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="86"/>
+      <c r="H109" s="88"/>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="2"/>
-      <c r="C110" s="91">
+      <c r="C110" s="85">
         <v>50</v>
       </c>
-      <c r="D110" s="93">
+      <c r="D110" s="87">
         <v>119</v>
       </c>
-      <c r="E110" s="91">
+      <c r="E110" s="85">
         <v>50</v>
       </c>
-      <c r="F110" s="93">
+      <c r="F110" s="87">
         <v>120</v>
       </c>
-      <c r="G110" s="91">
+      <c r="G110" s="85">
         <v>63</v>
       </c>
-      <c r="H110" s="93">
+      <c r="H110" s="87">
         <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="2"/>
-      <c r="C111" s="92"/>
-      <c r="D111" s="94"/>
-      <c r="E111" s="92"/>
-      <c r="F111" s="94"/>
-      <c r="G111" s="92"/>
-      <c r="H111" s="94"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="86"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="86"/>
+      <c r="H111" s="88"/>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="2"/>
-      <c r="C112" s="91">
+      <c r="C112" s="85">
         <v>460</v>
       </c>
-      <c r="D112" s="93">
+      <c r="D112" s="87">
         <v>623</v>
       </c>
-      <c r="E112" s="91">
+      <c r="E112" s="85">
         <v>438</v>
       </c>
-      <c r="F112" s="93">
+      <c r="F112" s="87">
         <v>649</v>
       </c>
-      <c r="G112" s="91">
+      <c r="G112" s="85">
         <v>500</v>
       </c>
-      <c r="H112" s="93">
+      <c r="H112" s="87">
         <v>723</v>
       </c>
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="2"/>
-      <c r="C113" s="92"/>
-      <c r="D113" s="94"/>
-      <c r="E113" s="92"/>
-      <c r="F113" s="94"/>
-      <c r="G113" s="92"/>
-      <c r="H113" s="94"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="86"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="86"/>
+      <c r="H113" s="88"/>
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="2"/>
-      <c r="C114" s="100">
+      <c r="C114" s="60">
         <v>1521880</v>
       </c>
-      <c r="D114" s="102">
+      <c r="D114" s="62">
         <v>1811411</v>
       </c>
-      <c r="E114" s="100">
+      <c r="E114" s="60">
         <v>1469577</v>
       </c>
-      <c r="F114" s="102">
+      <c r="F114" s="62">
         <v>1780290</v>
       </c>
-      <c r="G114" s="100">
+      <c r="G114" s="60">
         <v>1708524</v>
       </c>
-      <c r="H114" s="102">
+      <c r="H114" s="62">
         <v>1939878</v>
       </c>
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="2"/>
-      <c r="C115" s="107"/>
-      <c r="D115" s="108"/>
-      <c r="E115" s="107"/>
-      <c r="F115" s="108"/>
-      <c r="G115" s="107"/>
-      <c r="H115" s="108"/>
+      <c r="C115" s="61"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="63"/>
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="2"/>
-      <c r="C116" s="100">
+      <c r="C116" s="60">
         <v>2789</v>
       </c>
-      <c r="D116" s="102">
+      <c r="D116" s="62">
         <v>3801</v>
       </c>
-      <c r="E116" s="100">
+      <c r="E116" s="60">
         <v>2680</v>
       </c>
-      <c r="F116" s="102">
+      <c r="F116" s="62">
         <v>3952</v>
       </c>
-      <c r="G116" s="100">
+      <c r="G116" s="60">
         <v>3097</v>
       </c>
-      <c r="H116" s="102">
+      <c r="H116" s="62">
         <v>4451</v>
       </c>
     </row>
     <row r="117" spans="2:8">
       <c r="B117" s="2"/>
-      <c r="C117" s="107"/>
-      <c r="D117" s="108"/>
-      <c r="E117" s="107"/>
-      <c r="F117" s="108"/>
-      <c r="G117" s="107"/>
-      <c r="H117" s="108"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="63"/>
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="2"/>
-      <c r="C118" s="91">
+      <c r="C118" s="85">
         <v>76.3</v>
       </c>
-      <c r="D118" s="93">
+      <c r="D118" s="87">
         <v>105.6</v>
       </c>
-      <c r="E118" s="91">
+      <c r="E118" s="85">
         <v>74</v>
       </c>
-      <c r="F118" s="93">
+      <c r="F118" s="87">
         <v>110.3</v>
       </c>
-      <c r="G118" s="91">
+      <c r="G118" s="85">
         <v>81.3</v>
       </c>
-      <c r="H118" s="93">
+      <c r="H118" s="87">
         <v>119.4</v>
       </c>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="2"/>
-      <c r="C119" s="92"/>
-      <c r="D119" s="94"/>
-      <c r="E119" s="92"/>
-      <c r="F119" s="94"/>
-      <c r="G119" s="92"/>
-      <c r="H119" s="94"/>
+      <c r="C119" s="86"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="86"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="86"/>
+      <c r="H119" s="88"/>
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="2"/>
-      <c r="C120" s="125">
+      <c r="C120" s="110">
         <v>0</v>
       </c>
-      <c r="D120" s="127">
+      <c r="D120" s="112">
         <v>5.2</v>
       </c>
-      <c r="E120" s="125">
+      <c r="E120" s="110">
         <v>0</v>
       </c>
-      <c r="F120" s="127">
+      <c r="F120" s="112">
         <v>5.5</v>
       </c>
-      <c r="G120" s="125">
+      <c r="G120" s="110">
         <v>0</v>
       </c>
-      <c r="H120" s="127">
+      <c r="H120" s="112">
         <v>5.6</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="2"/>
-      <c r="C121" s="126"/>
-      <c r="D121" s="128"/>
-      <c r="E121" s="126"/>
-      <c r="F121" s="128"/>
-      <c r="G121" s="126"/>
-      <c r="H121" s="128"/>
+      <c r="C121" s="111"/>
+      <c r="D121" s="113"/>
+      <c r="E121" s="111"/>
+      <c r="F121" s="113"/>
+      <c r="G121" s="111"/>
+      <c r="H121" s="113"/>
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="2"/>
-      <c r="C122" s="125">
+      <c r="C122" s="110">
         <v>14.3</v>
       </c>
-      <c r="D122" s="127">
+      <c r="D122" s="112">
         <v>17.100000000000001</v>
       </c>
-      <c r="E122" s="125">
+      <c r="E122" s="110">
         <v>14</v>
       </c>
-      <c r="F122" s="127">
+      <c r="F122" s="112">
         <v>18</v>
       </c>
-      <c r="G122" s="125">
+      <c r="G122" s="110">
         <v>13.3</v>
       </c>
-      <c r="H122" s="127">
+      <c r="H122" s="112">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="123" spans="2:8">
       <c r="B123" s="2"/>
-      <c r="C123" s="126"/>
-      <c r="D123" s="128"/>
-      <c r="E123" s="126"/>
-      <c r="F123" s="128"/>
-      <c r="G123" s="126"/>
-      <c r="H123" s="128"/>
+      <c r="C123" s="111"/>
+      <c r="D123" s="113"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="113"/>
+      <c r="G123" s="111"/>
+      <c r="H123" s="113"/>
     </row>
     <row r="124" spans="2:8">
       <c r="B124" s="2"/>
-      <c r="C124" s="125">
+      <c r="C124" s="110">
         <v>7.3</v>
       </c>
-      <c r="D124" s="127">
+      <c r="D124" s="112">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E124" s="125">
+      <c r="E124" s="110">
         <v>7.2</v>
       </c>
-      <c r="F124" s="127">
+      <c r="F124" s="112">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G124" s="125">
+      <c r="G124" s="110">
         <v>7.8</v>
       </c>
-      <c r="H124" s="127">
+      <c r="H124" s="112">
         <v>9.9</v>
       </c>
     </row>
     <row r="125" spans="2:8">
       <c r="B125" s="2"/>
-      <c r="C125" s="126"/>
-      <c r="D125" s="128"/>
-      <c r="E125" s="126"/>
-      <c r="F125" s="128"/>
-      <c r="G125" s="126"/>
-      <c r="H125" s="128"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="113"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="113"/>
     </row>
     <row r="126" spans="2:8">
       <c r="B126" s="2"/>
-      <c r="C126" s="125">
+      <c r="C126" s="110">
         <v>11.3</v>
       </c>
-      <c r="D126" s="127">
+      <c r="D126" s="112">
         <v>14.8</v>
       </c>
-      <c r="E126" s="125">
+      <c r="E126" s="110">
         <v>11.1</v>
       </c>
-      <c r="F126" s="127">
+      <c r="F126" s="112">
         <v>15.5</v>
       </c>
-      <c r="G126" s="125">
+      <c r="G126" s="110">
         <v>12.1</v>
       </c>
-      <c r="H126" s="127">
+      <c r="H126" s="112">
         <v>16.7</v>
       </c>
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="2"/>
-      <c r="C127" s="126"/>
-      <c r="D127" s="128"/>
-      <c r="E127" s="126"/>
-      <c r="F127" s="128"/>
-      <c r="G127" s="126"/>
-      <c r="H127" s="128"/>
+      <c r="C127" s="111"/>
+      <c r="D127" s="113"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="113"/>
+      <c r="G127" s="111"/>
+      <c r="H127" s="113"/>
     </row>
     <row r="128" spans="2:8">
       <c r="B128" s="2"/>
-      <c r="C128" s="125">
+      <c r="C128" s="110">
         <v>43.4</v>
       </c>
-      <c r="D128" s="127">
+      <c r="D128" s="112">
         <v>59.1</v>
       </c>
-      <c r="E128" s="125">
+      <c r="E128" s="110">
         <v>41.7</v>
       </c>
-      <c r="F128" s="127">
+      <c r="F128" s="112">
         <v>61.5</v>
       </c>
-      <c r="G128" s="125">
+      <c r="G128" s="110">
         <v>48.2</v>
       </c>
-      <c r="H128" s="127">
+      <c r="H128" s="112">
         <v>69.2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" s="2"/>
-      <c r="C129" s="126"/>
-      <c r="D129" s="128"/>
-      <c r="E129" s="126"/>
-      <c r="F129" s="128"/>
-      <c r="G129" s="126"/>
-      <c r="H129" s="128"/>
+      <c r="C129" s="111"/>
+      <c r="D129" s="113"/>
+      <c r="E129" s="111"/>
+      <c r="F129" s="113"/>
+      <c r="G129" s="111"/>
+      <c r="H129" s="113"/>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" s="2"/>
-      <c r="C130" s="91">
+      <c r="C130" s="85">
         <v>96.7</v>
       </c>
-      <c r="D130" s="93">
+      <c r="D130" s="87">
         <v>133.9</v>
       </c>
-      <c r="E130" s="91">
+      <c r="E130" s="85">
         <v>93.8</v>
       </c>
-      <c r="F130" s="93">
+      <c r="F130" s="87">
         <v>139.9</v>
       </c>
-      <c r="G130" s="91">
+      <c r="G130" s="85">
         <v>103.1</v>
       </c>
-      <c r="H130" s="93">
+      <c r="H130" s="87">
         <v>151.4</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" thickBot="1">
       <c r="B131" s="3"/>
-      <c r="C131" s="81"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="81"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="81"/>
-      <c r="H131" s="82"/>
+      <c r="C131" s="98"/>
+      <c r="D131" s="99"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="99"/>
+      <c r="G131" s="98"/>
+      <c r="H131" s="99"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
@@ -6286,101 +6286,101 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="B134" s="110"/>
-      <c r="C134" s="113" t="s">
+      <c r="B134" s="64"/>
+      <c r="C134" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D134" s="133"/>
-      <c r="E134" s="133"/>
-      <c r="F134" s="114"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="69"/>
     </row>
     <row r="135" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B135" s="111"/>
-      <c r="C135" s="115"/>
-      <c r="D135" s="134"/>
-      <c r="E135" s="134"/>
-      <c r="F135" s="116"/>
+      <c r="B135" s="65"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="72"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="B136" s="111"/>
-      <c r="C136" s="117" t="s">
+      <c r="B136" s="65"/>
+      <c r="C136" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="118"/>
-      <c r="E136" s="117" t="s">
+      <c r="D136" s="74"/>
+      <c r="E136" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="F136" s="118"/>
+      <c r="F136" s="74"/>
     </row>
     <row r="137" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B137" s="112"/>
-      <c r="C137" s="115"/>
-      <c r="D137" s="116"/>
-      <c r="E137" s="115"/>
-      <c r="F137" s="116"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="70"/>
+      <c r="F137" s="72"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="B138" s="104" t="s">
+      <c r="B138" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="119" t="s">
+      <c r="C138" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="104" t="s">
+      <c r="D138" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E138" s="119" t="s">
+      <c r="E138" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F138" s="104" t="s">
+      <c r="F138" s="75" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B139" s="106"/>
-      <c r="C139" s="120"/>
-      <c r="D139" s="106"/>
-      <c r="E139" s="120"/>
-      <c r="F139" s="106"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="84"/>
+      <c r="D139" s="76"/>
+      <c r="E139" s="84"/>
+      <c r="F139" s="76"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="B140" s="104" t="s">
+      <c r="B140" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C140" s="121">
+      <c r="C140" s="77">
         <v>0</v>
       </c>
-      <c r="D140" s="123">
+      <c r="D140" s="79">
         <v>0.9</v>
       </c>
-      <c r="E140" s="121">
+      <c r="E140" s="77">
         <v>0</v>
       </c>
-      <c r="F140" s="123">
+      <c r="F140" s="79">
         <v>0.9</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B141" s="106"/>
-      <c r="C141" s="122"/>
-      <c r="D141" s="124"/>
-      <c r="E141" s="122"/>
-      <c r="F141" s="124"/>
+      <c r="B141" s="76"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="80"/>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="109">
+      <c r="C142" s="81">
         <v>582600</v>
       </c>
-      <c r="D142" s="90">
+      <c r="D142" s="82">
         <v>672700</v>
       </c>
-      <c r="E142" s="109">
+      <c r="E142" s="81">
         <v>580400</v>
       </c>
-      <c r="F142" s="90">
+      <c r="F142" s="82">
         <v>662800</v>
       </c>
     </row>
@@ -6388,25 +6388,25 @@
       <c r="B143" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="107"/>
-      <c r="D143" s="108"/>
-      <c r="E143" s="107"/>
-      <c r="F143" s="108"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="63"/>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="100">
+      <c r="C144" s="60">
         <v>32580</v>
       </c>
-      <c r="D144" s="102">
+      <c r="D144" s="62">
         <v>122740</v>
       </c>
-      <c r="E144" s="100">
+      <c r="E144" s="60">
         <v>30410</v>
       </c>
-      <c r="F144" s="102">
+      <c r="F144" s="62">
         <v>112830</v>
       </c>
     </row>
@@ -6414,25 +6414,25 @@
       <c r="B145" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="107"/>
-      <c r="D145" s="108"/>
-      <c r="E145" s="107"/>
-      <c r="F145" s="108"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="63"/>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="100">
+      <c r="C146" s="60">
         <v>550020</v>
       </c>
-      <c r="D146" s="102">
+      <c r="D146" s="62">
         <v>549960</v>
       </c>
-      <c r="E146" s="100">
+      <c r="E146" s="60">
         <v>549990</v>
       </c>
-      <c r="F146" s="102">
+      <c r="F146" s="62">
         <v>549970</v>
       </c>
     </row>
@@ -6440,229 +6440,229 @@
       <c r="B147" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C147" s="107"/>
-      <c r="D147" s="108"/>
-      <c r="E147" s="107"/>
-      <c r="F147" s="108"/>
+      <c r="C147" s="61"/>
+      <c r="D147" s="63"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="63"/>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C148" s="100">
+      <c r="C148" s="60">
         <v>437378</v>
       </c>
-      <c r="D148" s="102">
+      <c r="D148" s="62">
         <v>614994</v>
       </c>
-      <c r="E148" s="100">
+      <c r="E148" s="60">
         <v>409528</v>
       </c>
-      <c r="F148" s="102">
+      <c r="F148" s="62">
         <v>565820</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="4"/>
-      <c r="C149" s="107"/>
-      <c r="D149" s="108"/>
-      <c r="E149" s="107"/>
-      <c r="F149" s="108"/>
+      <c r="C149" s="61"/>
+      <c r="D149" s="63"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="63"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="4"/>
-      <c r="C150" s="91" t="s">
+      <c r="C150" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="93" t="s">
+      <c r="D150" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E150" s="91" t="s">
+      <c r="E150" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F150" s="93" t="s">
+      <c r="F150" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="4"/>
-      <c r="C151" s="92"/>
-      <c r="D151" s="94"/>
-      <c r="E151" s="92"/>
-      <c r="F151" s="94"/>
+      <c r="C151" s="86"/>
+      <c r="D151" s="88"/>
+      <c r="E151" s="86"/>
+      <c r="F151" s="88"/>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="4"/>
-      <c r="C152" s="100">
+      <c r="C152" s="60">
         <v>1495379</v>
       </c>
-      <c r="D152" s="102">
+      <c r="D152" s="62">
         <v>2102643</v>
       </c>
-      <c r="E152" s="100">
+      <c r="E152" s="60">
         <v>1400162</v>
       </c>
-      <c r="F152" s="102">
+      <c r="F152" s="62">
         <v>1934519</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="4"/>
-      <c r="C153" s="107"/>
-      <c r="D153" s="108"/>
-      <c r="E153" s="107"/>
-      <c r="F153" s="108"/>
+      <c r="C153" s="61"/>
+      <c r="D153" s="63"/>
+      <c r="E153" s="61"/>
+      <c r="F153" s="63"/>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="4"/>
-      <c r="C154" s="96">
+      <c r="C154" s="91">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D154" s="98">
+      <c r="D154" s="93">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E154" s="96">
+      <c r="E154" s="91">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F154" s="98">
+      <c r="F154" s="93">
         <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="4"/>
-      <c r="C155" s="97"/>
-      <c r="D155" s="99"/>
-      <c r="E155" s="97"/>
-      <c r="F155" s="99"/>
+      <c r="C155" s="92"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="92"/>
+      <c r="F155" s="94"/>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="4"/>
-      <c r="C156" s="100">
+      <c r="C156" s="60">
         <v>9277</v>
       </c>
-      <c r="D156" s="102">
+      <c r="D156" s="62">
         <v>13046</v>
       </c>
-      <c r="E156" s="100">
+      <c r="E156" s="60">
         <v>8687</v>
       </c>
-      <c r="F156" s="102">
+      <c r="F156" s="62">
         <v>12002</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="16.5" thickBot="1">
       <c r="B157" s="5"/>
-      <c r="C157" s="101"/>
-      <c r="D157" s="103"/>
-      <c r="E157" s="101"/>
-      <c r="F157" s="103"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="90"/>
+      <c r="E157" s="89"/>
+      <c r="F157" s="90"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="104" t="s">
+      <c r="B158" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C158" s="89">
+      <c r="C158" s="96">
         <v>10.7</v>
       </c>
-      <c r="D158" s="95">
+      <c r="D158" s="97">
         <v>20.399999999999999</v>
       </c>
-      <c r="E158" s="89">
+      <c r="E158" s="96">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F158" s="95">
+      <c r="F158" s="97">
         <v>18.3</v>
       </c>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="105"/>
-      <c r="C159" s="92"/>
-      <c r="D159" s="94"/>
-      <c r="E159" s="92"/>
-      <c r="F159" s="94"/>
+      <c r="B159" s="95"/>
+      <c r="C159" s="86"/>
+      <c r="D159" s="88"/>
+      <c r="E159" s="86"/>
+      <c r="F159" s="88"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="105"/>
-      <c r="C160" s="91">
+      <c r="B160" s="95"/>
+      <c r="C160" s="85">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D160" s="93">
+      <c r="D160" s="87">
         <v>4.7</v>
       </c>
-      <c r="E160" s="91">
+      <c r="E160" s="85">
         <v>2</v>
       </c>
-      <c r="F160" s="93">
+      <c r="F160" s="87">
         <v>4.3</v>
       </c>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="105"/>
-      <c r="C161" s="92"/>
-      <c r="D161" s="94"/>
-      <c r="E161" s="92"/>
-      <c r="F161" s="94"/>
+      <c r="B161" s="95"/>
+      <c r="C161" s="86"/>
+      <c r="D161" s="88"/>
+      <c r="E161" s="86"/>
+      <c r="F161" s="88"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="105"/>
-      <c r="C162" s="91">
+      <c r="B162" s="95"/>
+      <c r="C162" s="85">
         <v>8.5</v>
       </c>
-      <c r="D162" s="93">
+      <c r="D162" s="87">
         <v>15.7</v>
       </c>
-      <c r="E162" s="91">
+      <c r="E162" s="85">
         <v>7.7</v>
       </c>
-      <c r="F162" s="93">
+      <c r="F162" s="87">
         <v>14.1</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B163" s="106"/>
-      <c r="C163" s="81"/>
-      <c r="D163" s="82"/>
-      <c r="E163" s="81"/>
-      <c r="F163" s="82"/>
+      <c r="B163" s="76"/>
+      <c r="C163" s="98"/>
+      <c r="D163" s="99"/>
+      <c r="E163" s="98"/>
+      <c r="F163" s="99"/>
     </row>
     <row r="164" spans="2:6" ht="48">
       <c r="B164" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C164" s="89">
+      <c r="C164" s="96">
         <v>204</v>
       </c>
-      <c r="D164" s="95">
+      <c r="D164" s="97">
         <v>20</v>
       </c>
-      <c r="E164" s="89">
+      <c r="E164" s="96">
         <v>204</v>
       </c>
-      <c r="F164" s="95">
+      <c r="F164" s="97">
         <v>20</v>
       </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="4"/>
-      <c r="C165" s="92"/>
-      <c r="D165" s="94"/>
-      <c r="E165" s="92"/>
-      <c r="F165" s="94"/>
+      <c r="C165" s="86"/>
+      <c r="D165" s="88"/>
+      <c r="E165" s="86"/>
+      <c r="F165" s="88"/>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="100">
+      <c r="C166" s="60">
         <v>1783</v>
       </c>
-      <c r="D166" s="93">
+      <c r="D166" s="87">
         <v>217</v>
       </c>
-      <c r="E166" s="100">
+      <c r="E166" s="60">
         <v>1675</v>
       </c>
-      <c r="F166" s="93">
+      <c r="F166" s="87">
         <v>203</v>
       </c>
     </row>
@@ -6670,586 +6670,586 @@
       <c r="B167" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C167" s="107"/>
-      <c r="D167" s="94"/>
-      <c r="E167" s="107"/>
-      <c r="F167" s="94"/>
+      <c r="C167" s="61"/>
+      <c r="D167" s="88"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="88"/>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="4"/>
-      <c r="C168" s="100">
+      <c r="C168" s="60">
         <v>1888</v>
       </c>
-      <c r="D168" s="93">
+      <c r="D168" s="87">
         <v>266</v>
       </c>
-      <c r="E168" s="100">
+      <c r="E168" s="60">
         <v>1768</v>
       </c>
-      <c r="F168" s="93">
+      <c r="F168" s="87">
         <v>244</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="4"/>
-      <c r="C169" s="107"/>
-      <c r="D169" s="94"/>
-      <c r="E169" s="107"/>
-      <c r="F169" s="94"/>
+      <c r="C169" s="61"/>
+      <c r="D169" s="88"/>
+      <c r="E169" s="61"/>
+      <c r="F169" s="88"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="4"/>
-      <c r="C170" s="91">
+      <c r="C170" s="85">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="D170" s="93">
+      <c r="D170" s="87">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E170" s="91">
+      <c r="E170" s="85">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F170" s="93">
+      <c r="F170" s="87">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="4"/>
-      <c r="C171" s="92"/>
-      <c r="D171" s="94"/>
-      <c r="E171" s="92"/>
-      <c r="F171" s="94"/>
+      <c r="C171" s="86"/>
+      <c r="D171" s="88"/>
+      <c r="E171" s="86"/>
+      <c r="F171" s="88"/>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="4"/>
-      <c r="C172" s="91">
+      <c r="C172" s="85">
         <v>0.75149999999999995</v>
       </c>
-      <c r="D172" s="93">
+      <c r="D172" s="87">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="E172" s="91">
+      <c r="E172" s="85">
         <v>0.70630000000000004</v>
       </c>
-      <c r="F172" s="93">
+      <c r="F172" s="87">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="4"/>
-      <c r="C173" s="92"/>
-      <c r="D173" s="94"/>
-      <c r="E173" s="92"/>
-      <c r="F173" s="94"/>
+      <c r="C173" s="86"/>
+      <c r="D173" s="88"/>
+      <c r="E173" s="86"/>
+      <c r="F173" s="88"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="4"/>
-      <c r="C174" s="91">
+      <c r="C174" s="85">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D174" s="93">
+      <c r="D174" s="87">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E174" s="91">
+      <c r="E174" s="85">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F174" s="93">
+      <c r="F174" s="87">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="4"/>
-      <c r="C175" s="92"/>
-      <c r="D175" s="94"/>
-      <c r="E175" s="92"/>
-      <c r="F175" s="94"/>
+      <c r="C175" s="86"/>
+      <c r="D175" s="88"/>
+      <c r="E175" s="86"/>
+      <c r="F175" s="88"/>
     </row>
     <row r="176" spans="2:6">
       <c r="B176" s="4"/>
-      <c r="C176" s="91">
+      <c r="C176" s="85">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D176" s="93">
+      <c r="D176" s="87">
         <v>0.747</v>
       </c>
-      <c r="E176" s="91">
+      <c r="E176" s="85">
         <v>0.57599999999999996</v>
       </c>
-      <c r="F176" s="93">
+      <c r="F176" s="87">
         <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="177" spans="2:6">
       <c r="B177" s="4"/>
-      <c r="C177" s="92"/>
-      <c r="D177" s="94"/>
-      <c r="E177" s="92"/>
-      <c r="F177" s="94"/>
+      <c r="C177" s="86"/>
+      <c r="D177" s="88"/>
+      <c r="E177" s="86"/>
+      <c r="F177" s="88"/>
     </row>
     <row r="178" spans="2:6">
       <c r="B178" s="4"/>
-      <c r="C178" s="91">
+      <c r="C178" s="85">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D178" s="93">
+      <c r="D178" s="87">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E178" s="91">
+      <c r="E178" s="85">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F178" s="93">
+      <c r="F178" s="87">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" s="4"/>
-      <c r="C179" s="92"/>
-      <c r="D179" s="94"/>
-      <c r="E179" s="92"/>
-      <c r="F179" s="94"/>
+      <c r="C179" s="86"/>
+      <c r="D179" s="88"/>
+      <c r="E179" s="86"/>
+      <c r="F179" s="88"/>
     </row>
     <row r="180" spans="2:6">
       <c r="B180" s="4"/>
-      <c r="C180" s="91">
+      <c r="C180" s="85">
         <v>0.114</v>
       </c>
-      <c r="D180" s="93">
+      <c r="D180" s="87">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E180" s="91">
+      <c r="E180" s="85">
         <v>0.107</v>
       </c>
-      <c r="F180" s="93">
+      <c r="F180" s="87">
         <v>0.129</v>
       </c>
     </row>
     <row r="181" spans="2:6">
       <c r="B181" s="4"/>
-      <c r="C181" s="92"/>
-      <c r="D181" s="94"/>
-      <c r="E181" s="92"/>
-      <c r="F181" s="94"/>
+      <c r="C181" s="86"/>
+      <c r="D181" s="88"/>
+      <c r="E181" s="86"/>
+      <c r="F181" s="88"/>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" s="4"/>
-      <c r="C182" s="91">
+      <c r="C182" s="85">
         <v>1.143</v>
       </c>
-      <c r="D182" s="93">
+      <c r="D182" s="87">
         <v>1.143</v>
       </c>
-      <c r="E182" s="91">
+      <c r="E182" s="85">
         <v>1.143</v>
       </c>
-      <c r="F182" s="93">
+      <c r="F182" s="87">
         <v>1.143</v>
       </c>
     </row>
     <row r="183" spans="2:6">
       <c r="B183" s="4"/>
-      <c r="C183" s="92"/>
-      <c r="D183" s="94"/>
-      <c r="E183" s="92"/>
-      <c r="F183" s="94"/>
+      <c r="C183" s="86"/>
+      <c r="D183" s="88"/>
+      <c r="E183" s="86"/>
+      <c r="F183" s="88"/>
     </row>
     <row r="184" spans="2:6">
       <c r="B184" s="4"/>
-      <c r="C184" s="129">
+      <c r="C184" s="100">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D184" s="131">
+      <c r="D184" s="102">
         <v>1.22E-5</v>
       </c>
-      <c r="E184" s="129">
+      <c r="E184" s="100">
         <v>9.4099999999999997E-6</v>
       </c>
-      <c r="F184" s="131">
+      <c r="F184" s="102">
         <v>1.1399999999999999E-5</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="16.5" thickBot="1">
       <c r="B185" s="5"/>
-      <c r="C185" s="130"/>
-      <c r="D185" s="132"/>
-      <c r="E185" s="130"/>
-      <c r="F185" s="132"/>
+      <c r="C185" s="101"/>
+      <c r="D185" s="103"/>
+      <c r="E185" s="101"/>
+      <c r="F185" s="103"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="83" t="s">
+      <c r="B186" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C186" s="84"/>
-      <c r="D186" s="84"/>
-      <c r="E186" s="84"/>
-      <c r="F186" s="85"/>
+      <c r="C186" s="105"/>
+      <c r="D186" s="105"/>
+      <c r="E186" s="105"/>
+      <c r="F186" s="106"/>
     </row>
     <row r="187" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B187" s="86"/>
-      <c r="C187" s="87"/>
-      <c r="D187" s="87"/>
-      <c r="E187" s="87"/>
-      <c r="F187" s="88"/>
+      <c r="B187" s="107"/>
+      <c r="C187" s="108"/>
+      <c r="D187" s="108"/>
+      <c r="E187" s="108"/>
+      <c r="F187" s="109"/>
     </row>
     <row r="188" spans="2:6">
       <c r="B188" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C188" s="109">
+      <c r="C188" s="81">
         <v>1622</v>
       </c>
-      <c r="D188" s="90">
+      <c r="D188" s="82">
         <v>2942</v>
       </c>
-      <c r="E188" s="109">
+      <c r="E188" s="81">
         <v>1647</v>
       </c>
-      <c r="F188" s="90">
+      <c r="F188" s="82">
         <v>2913</v>
       </c>
     </row>
     <row r="189" spans="2:6">
       <c r="B189" s="2"/>
-      <c r="C189" s="107"/>
-      <c r="D189" s="108"/>
-      <c r="E189" s="107"/>
-      <c r="F189" s="108"/>
+      <c r="C189" s="61"/>
+      <c r="D189" s="63"/>
+      <c r="E189" s="61"/>
+      <c r="F189" s="63"/>
     </row>
     <row r="190" spans="2:6" ht="21">
       <c r="B190" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C190" s="100">
+      <c r="C190" s="60">
         <v>1996</v>
       </c>
-      <c r="D190" s="102">
+      <c r="D190" s="62">
         <v>3610</v>
       </c>
-      <c r="E190" s="100">
+      <c r="E190" s="60">
         <v>2024</v>
       </c>
-      <c r="F190" s="102">
+      <c r="F190" s="62">
         <v>3570</v>
       </c>
     </row>
     <row r="191" spans="2:6">
       <c r="B191" s="2"/>
-      <c r="C191" s="107"/>
-      <c r="D191" s="108"/>
-      <c r="E191" s="107"/>
-      <c r="F191" s="108"/>
+      <c r="C191" s="61"/>
+      <c r="D191" s="63"/>
+      <c r="E191" s="61"/>
+      <c r="F191" s="63"/>
     </row>
     <row r="192" spans="2:6" ht="24">
       <c r="B192" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C192" s="100">
+      <c r="C192" s="60">
         <v>1317</v>
       </c>
-      <c r="D192" s="102">
+      <c r="D192" s="62">
         <v>2255</v>
       </c>
-      <c r="E192" s="100">
+      <c r="E192" s="60">
         <v>1345</v>
       </c>
-      <c r="F192" s="102">
+      <c r="F192" s="62">
         <v>2239</v>
       </c>
     </row>
     <row r="193" spans="2:6">
       <c r="B193" s="2"/>
-      <c r="C193" s="107"/>
-      <c r="D193" s="108"/>
-      <c r="E193" s="107"/>
-      <c r="F193" s="108"/>
+      <c r="C193" s="61"/>
+      <c r="D193" s="63"/>
+      <c r="E193" s="61"/>
+      <c r="F193" s="63"/>
     </row>
     <row r="194" spans="2:6">
       <c r="B194" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="91">
+      <c r="C194" s="85">
         <v>124</v>
       </c>
-      <c r="D194" s="93">
+      <c r="D194" s="87">
         <v>213</v>
       </c>
-      <c r="E194" s="91">
+      <c r="E194" s="85">
         <v>127</v>
       </c>
-      <c r="F194" s="93">
+      <c r="F194" s="87">
         <v>211</v>
       </c>
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="2"/>
-      <c r="C195" s="92"/>
-      <c r="D195" s="94"/>
-      <c r="E195" s="92"/>
-      <c r="F195" s="94"/>
+      <c r="C195" s="86"/>
+      <c r="D195" s="88"/>
+      <c r="E195" s="86"/>
+      <c r="F195" s="88"/>
     </row>
     <row r="196" spans="2:6">
       <c r="B196" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C196" s="91">
+      <c r="C196" s="85">
         <v>182</v>
       </c>
-      <c r="D196" s="93">
+      <c r="D196" s="87">
         <v>369</v>
       </c>
-      <c r="E196" s="91">
+      <c r="E196" s="85">
         <v>176</v>
       </c>
-      <c r="F196" s="93">
+      <c r="F196" s="87">
         <v>362</v>
       </c>
     </row>
     <row r="197" spans="2:6">
       <c r="B197" s="2"/>
-      <c r="C197" s="92"/>
-      <c r="D197" s="94"/>
-      <c r="E197" s="92"/>
-      <c r="F197" s="94"/>
+      <c r="C197" s="86"/>
+      <c r="D197" s="88"/>
+      <c r="E197" s="86"/>
+      <c r="F197" s="88"/>
     </row>
     <row r="198" spans="2:6">
       <c r="B198" s="2"/>
-      <c r="C198" s="91">
+      <c r="C198" s="85">
         <v>0</v>
       </c>
-      <c r="D198" s="93">
+      <c r="D198" s="87">
         <v>105</v>
       </c>
-      <c r="E198" s="91">
+      <c r="E198" s="85">
         <v>0</v>
       </c>
-      <c r="F198" s="93">
+      <c r="F198" s="87">
         <v>100</v>
       </c>
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="2"/>
-      <c r="C199" s="92"/>
-      <c r="D199" s="94"/>
-      <c r="E199" s="92"/>
-      <c r="F199" s="94"/>
+      <c r="C199" s="86"/>
+      <c r="D199" s="88"/>
+      <c r="E199" s="86"/>
+      <c r="F199" s="88"/>
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="2"/>
-      <c r="C200" s="91">
+      <c r="C200" s="85">
         <v>374</v>
       </c>
-      <c r="D200" s="93">
+      <c r="D200" s="87">
         <v>667</v>
       </c>
-      <c r="E200" s="91">
+      <c r="E200" s="85">
         <v>377</v>
       </c>
-      <c r="F200" s="93">
+      <c r="F200" s="87">
         <v>657</v>
       </c>
     </row>
     <row r="201" spans="2:6">
       <c r="B201" s="2"/>
-      <c r="C201" s="92"/>
-      <c r="D201" s="94"/>
-      <c r="E201" s="92"/>
-      <c r="F201" s="94"/>
+      <c r="C201" s="86"/>
+      <c r="D201" s="88"/>
+      <c r="E201" s="86"/>
+      <c r="F201" s="88"/>
     </row>
     <row r="202" spans="2:6">
       <c r="B202" s="2"/>
-      <c r="C202" s="100">
+      <c r="C202" s="60">
         <v>1098124</v>
       </c>
-      <c r="D202" s="102">
+      <c r="D202" s="62">
         <v>1985432</v>
       </c>
-      <c r="E202" s="100">
+      <c r="E202" s="60">
         <v>1113445</v>
       </c>
-      <c r="F202" s="102">
+      <c r="F202" s="62">
         <v>1963644</v>
       </c>
     </row>
     <row r="203" spans="2:6">
       <c r="B203" s="2"/>
-      <c r="C203" s="107"/>
-      <c r="D203" s="108"/>
-      <c r="E203" s="107"/>
-      <c r="F203" s="108"/>
+      <c r="C203" s="61"/>
+      <c r="D203" s="63"/>
+      <c r="E203" s="61"/>
+      <c r="F203" s="63"/>
     </row>
     <row r="204" spans="2:6">
       <c r="B204" s="2"/>
-      <c r="C204" s="100">
+      <c r="C204" s="60">
         <v>2264</v>
       </c>
-      <c r="D204" s="102">
+      <c r="D204" s="62">
         <v>4115</v>
       </c>
-      <c r="E204" s="100">
+      <c r="E204" s="60">
         <v>2296</v>
       </c>
-      <c r="F204" s="102">
+      <c r="F204" s="62">
         <v>4070</v>
       </c>
     </row>
     <row r="205" spans="2:6">
       <c r="B205" s="2"/>
-      <c r="C205" s="107"/>
-      <c r="D205" s="108"/>
-      <c r="E205" s="107"/>
-      <c r="F205" s="108"/>
+      <c r="C205" s="61"/>
+      <c r="D205" s="63"/>
+      <c r="E205" s="61"/>
+      <c r="F205" s="63"/>
     </row>
     <row r="206" spans="2:6">
       <c r="B206" s="2"/>
-      <c r="C206" s="91">
+      <c r="C206" s="85">
         <v>59.4</v>
       </c>
-      <c r="D206" s="93">
+      <c r="D206" s="87">
         <v>109.6</v>
       </c>
-      <c r="E206" s="91">
+      <c r="E206" s="85">
         <v>58.9</v>
       </c>
-      <c r="F206" s="93">
+      <c r="F206" s="87">
         <v>106.5</v>
       </c>
     </row>
     <row r="207" spans="2:6">
       <c r="B207" s="2"/>
-      <c r="C207" s="92"/>
-      <c r="D207" s="94"/>
-      <c r="E207" s="92"/>
-      <c r="F207" s="94"/>
+      <c r="C207" s="86"/>
+      <c r="D207" s="88"/>
+      <c r="E207" s="86"/>
+      <c r="F207" s="88"/>
     </row>
     <row r="208" spans="2:6">
       <c r="B208" s="2"/>
-      <c r="C208" s="125">
+      <c r="C208" s="110">
         <v>0</v>
       </c>
-      <c r="D208" s="127">
+      <c r="D208" s="112">
         <v>5.8</v>
       </c>
-      <c r="E208" s="125">
+      <c r="E208" s="110">
         <v>0</v>
       </c>
-      <c r="F208" s="127">
+      <c r="F208" s="112">
         <v>5.6</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="B209" s="2"/>
-      <c r="C209" s="126"/>
-      <c r="D209" s="128"/>
-      <c r="E209" s="126"/>
-      <c r="F209" s="128"/>
+      <c r="C209" s="111"/>
+      <c r="D209" s="113"/>
+      <c r="E209" s="111"/>
+      <c r="F209" s="113"/>
     </row>
     <row r="210" spans="1:6">
       <c r="B210" s="2"/>
-      <c r="C210" s="125">
+      <c r="C210" s="110">
         <v>15.2</v>
       </c>
-      <c r="D210" s="127">
+      <c r="D210" s="112">
         <v>21.3</v>
       </c>
-      <c r="E210" s="125">
+      <c r="E210" s="110">
         <v>14.2</v>
       </c>
-      <c r="F210" s="127">
+      <c r="F210" s="112">
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="B211" s="2"/>
-      <c r="C211" s="126"/>
-      <c r="D211" s="128"/>
-      <c r="E211" s="126"/>
-      <c r="F211" s="128"/>
+      <c r="C211" s="111"/>
+      <c r="D211" s="113"/>
+      <c r="E211" s="111"/>
+      <c r="F211" s="113"/>
     </row>
     <row r="212" spans="1:6">
       <c r="B212" s="2"/>
-      <c r="C212" s="125">
+      <c r="C212" s="110">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D212" s="127">
+      <c r="D212" s="112">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E212" s="125">
+      <c r="E212" s="110">
         <v>5</v>
       </c>
-      <c r="F212" s="127">
+      <c r="F212" s="112">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="B213" s="2"/>
-      <c r="C213" s="126"/>
-      <c r="D213" s="128"/>
-      <c r="E213" s="126"/>
-      <c r="F213" s="128"/>
+      <c r="C213" s="111"/>
+      <c r="D213" s="113"/>
+      <c r="E213" s="111"/>
+      <c r="F213" s="113"/>
     </row>
     <row r="214" spans="1:6">
       <c r="B214" s="2"/>
-      <c r="C214" s="125">
+      <c r="C214" s="110">
         <v>7.8</v>
       </c>
-      <c r="D214" s="127">
+      <c r="D214" s="112">
         <v>13.1</v>
       </c>
-      <c r="E214" s="125">
+      <c r="E214" s="110">
         <v>8</v>
       </c>
-      <c r="F214" s="127">
+      <c r="F214" s="112">
         <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="B215" s="2"/>
-      <c r="C215" s="126"/>
-      <c r="D215" s="128"/>
-      <c r="E215" s="126"/>
-      <c r="F215" s="128"/>
+      <c r="C215" s="111"/>
+      <c r="D215" s="113"/>
+      <c r="E215" s="111"/>
+      <c r="F215" s="113"/>
     </row>
     <row r="216" spans="1:6">
       <c r="B216" s="2"/>
-      <c r="C216" s="125">
+      <c r="C216" s="110">
         <v>31.2</v>
       </c>
-      <c r="D216" s="127">
+      <c r="D216" s="112">
         <v>60.2</v>
       </c>
-      <c r="E216" s="125">
+      <c r="E216" s="110">
         <v>31.7</v>
       </c>
-      <c r="F216" s="127">
+      <c r="F216" s="112">
         <v>59.6</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="B217" s="2"/>
-      <c r="C217" s="126"/>
-      <c r="D217" s="128"/>
-      <c r="E217" s="126"/>
-      <c r="F217" s="128"/>
+      <c r="C217" s="111"/>
+      <c r="D217" s="113"/>
+      <c r="E217" s="111"/>
+      <c r="F217" s="113"/>
     </row>
     <row r="218" spans="1:6">
       <c r="B218" s="2"/>
-      <c r="C218" s="91">
+      <c r="C218" s="85">
         <v>75.3</v>
       </c>
-      <c r="D218" s="93">
+      <c r="D218" s="87">
         <v>139</v>
       </c>
-      <c r="E218" s="91">
+      <c r="E218" s="85">
         <v>74.7</v>
       </c>
-      <c r="F218" s="93">
+      <c r="F218" s="87">
         <v>135.19999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16.5" thickBot="1">
       <c r="B219" s="3"/>
-      <c r="C219" s="81"/>
-      <c r="D219" s="82"/>
-      <c r="E219" s="81"/>
-      <c r="F219" s="82"/>
+      <c r="C219" s="98"/>
+      <c r="D219" s="99"/>
+      <c r="E219" s="98"/>
+      <c r="F219" s="99"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
@@ -7260,69 +7260,69 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="B223" s="110"/>
-      <c r="C223" s="113" t="s">
+      <c r="B223" s="64"/>
+      <c r="C223" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D223" s="114"/>
+      <c r="D223" s="69"/>
     </row>
     <row r="224" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B224" s="111"/>
-      <c r="C224" s="115"/>
-      <c r="D224" s="116"/>
+      <c r="B224" s="65"/>
+      <c r="C224" s="70"/>
+      <c r="D224" s="72"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="111"/>
-      <c r="C225" s="117" t="s">
+      <c r="B225" s="65"/>
+      <c r="C225" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D225" s="118"/>
+      <c r="D225" s="74"/>
     </row>
     <row r="226" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B226" s="112"/>
-      <c r="C226" s="115"/>
-      <c r="D226" s="116"/>
+      <c r="B226" s="66"/>
+      <c r="C226" s="70"/>
+      <c r="D226" s="72"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="104" t="s">
+      <c r="B227" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C227" s="119" t="s">
+      <c r="C227" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="D227" s="104" t="s">
+      <c r="D227" s="75" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B228" s="106"/>
-      <c r="C228" s="120"/>
-      <c r="D228" s="106"/>
+      <c r="B228" s="76"/>
+      <c r="C228" s="84"/>
+      <c r="D228" s="76"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="104" t="s">
+      <c r="B229" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C229" s="121">
+      <c r="C229" s="77">
         <v>0</v>
       </c>
-      <c r="D229" s="123">
+      <c r="D229" s="79">
         <v>0.9</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B230" s="106"/>
-      <c r="C230" s="122"/>
-      <c r="D230" s="124"/>
+      <c r="B230" s="76"/>
+      <c r="C230" s="78"/>
+      <c r="D230" s="80"/>
     </row>
     <row r="231" spans="2:4">
       <c r="B231" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C231" s="109">
+      <c r="C231" s="81">
         <v>564700</v>
       </c>
-      <c r="D231" s="90">
+      <c r="D231" s="82">
         <v>511000</v>
       </c>
     </row>
@@ -7330,17 +7330,17 @@
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="107"/>
-      <c r="D232" s="108"/>
+      <c r="C232" s="61"/>
+      <c r="D232" s="63"/>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C233" s="100">
+      <c r="C233" s="60">
         <v>9620</v>
       </c>
-      <c r="D233" s="102">
+      <c r="D233" s="62">
         <v>37430</v>
       </c>
     </row>
@@ -7348,17 +7348,17 @@
       <c r="B234" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C234" s="107"/>
-      <c r="D234" s="108"/>
+      <c r="C234" s="61"/>
+      <c r="D234" s="63"/>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C235" s="100">
+      <c r="C235" s="60">
         <v>555080</v>
       </c>
-      <c r="D235" s="102">
+      <c r="D235" s="62">
         <v>473570</v>
       </c>
     </row>
@@ -7366,149 +7366,149 @@
       <c r="B236" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C236" s="107"/>
-      <c r="D236" s="108"/>
+      <c r="C236" s="61"/>
+      <c r="D236" s="63"/>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C237" s="91" t="s">
+      <c r="C237" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D237" s="93" t="s">
+      <c r="D237" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" s="4"/>
-      <c r="C238" s="92"/>
-      <c r="D238" s="94"/>
+      <c r="C238" s="86"/>
+      <c r="D238" s="88"/>
     </row>
     <row r="239" spans="2:4">
       <c r="B239" s="4"/>
-      <c r="C239" s="100">
+      <c r="C239" s="60">
         <v>167333</v>
       </c>
-      <c r="D239" s="102">
+      <c r="D239" s="62">
         <v>167333</v>
       </c>
     </row>
     <row r="240" spans="2:4">
       <c r="B240" s="4"/>
-      <c r="C240" s="107"/>
-      <c r="D240" s="108"/>
+      <c r="C240" s="61"/>
+      <c r="D240" s="63"/>
     </row>
     <row r="241" spans="2:4">
       <c r="B241" s="4"/>
-      <c r="C241" s="100">
+      <c r="C241" s="60">
         <v>1105812</v>
       </c>
-      <c r="D241" s="102">
+      <c r="D241" s="62">
         <v>1105812</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" s="4"/>
-      <c r="C242" s="107"/>
-      <c r="D242" s="108"/>
+      <c r="C242" s="61"/>
+      <c r="D242" s="63"/>
     </row>
     <row r="243" spans="2:4">
       <c r="B243" s="4"/>
-      <c r="C243" s="96">
+      <c r="C243" s="91">
         <v>0.502</v>
       </c>
-      <c r="D243" s="98">
+      <c r="D243" s="93">
         <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="244" spans="2:4">
       <c r="B244" s="4"/>
-      <c r="C244" s="97"/>
-      <c r="D244" s="99"/>
+      <c r="C244" s="92"/>
+      <c r="D244" s="94"/>
     </row>
     <row r="245" spans="2:4">
       <c r="B245" s="4"/>
-      <c r="C245" s="100">
+      <c r="C245" s="60">
         <v>6798</v>
       </c>
-      <c r="D245" s="102">
+      <c r="D245" s="62">
         <v>7968</v>
       </c>
     </row>
     <row r="246" spans="2:4" ht="16.5" thickBot="1">
       <c r="B246" s="5"/>
-      <c r="C246" s="101"/>
-      <c r="D246" s="103"/>
+      <c r="C246" s="89"/>
+      <c r="D246" s="90"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="104" t="s">
+      <c r="B247" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C247" s="89">
+      <c r="C247" s="96">
         <v>4.3</v>
       </c>
-      <c r="D247" s="95">
+      <c r="D247" s="97">
         <v>8.4</v>
       </c>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="105"/>
-      <c r="C248" s="92"/>
-      <c r="D248" s="94"/>
+      <c r="B248" s="95"/>
+      <c r="C248" s="86"/>
+      <c r="D248" s="88"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="105"/>
-      <c r="C249" s="91">
+      <c r="B249" s="95"/>
+      <c r="C249" s="85">
         <v>1</v>
       </c>
-      <c r="D249" s="93">
+      <c r="D249" s="87">
         <v>2.1</v>
       </c>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="105"/>
-      <c r="C250" s="92"/>
-      <c r="D250" s="94"/>
+      <c r="B250" s="95"/>
+      <c r="C250" s="86"/>
+      <c r="D250" s="88"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="105"/>
-      <c r="C251" s="91">
+      <c r="B251" s="95"/>
+      <c r="C251" s="85">
         <v>3.3</v>
       </c>
-      <c r="D251" s="93">
+      <c r="D251" s="87">
         <v>6.3</v>
       </c>
     </row>
     <row r="252" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B252" s="106"/>
-      <c r="C252" s="81"/>
-      <c r="D252" s="82"/>
+      <c r="B252" s="76"/>
+      <c r="C252" s="98"/>
+      <c r="D252" s="99"/>
     </row>
     <row r="253" spans="2:4" ht="48">
       <c r="B253" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C253" s="89">
+      <c r="C253" s="96">
         <v>118</v>
       </c>
-      <c r="D253" s="95">
+      <c r="D253" s="97">
         <v>12</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" s="4"/>
-      <c r="C254" s="92"/>
-      <c r="D254" s="94"/>
+      <c r="C254" s="86"/>
+      <c r="D254" s="88"/>
     </row>
     <row r="255" spans="2:4">
       <c r="B255" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C255" s="91">
+      <c r="C255" s="85">
         <v>790</v>
       </c>
-      <c r="D255" s="93">
+      <c r="D255" s="87">
         <v>87</v>
       </c>
     </row>
@@ -7516,383 +7516,871 @@
       <c r="B256" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C256" s="92"/>
-      <c r="D256" s="94"/>
+      <c r="C256" s="86"/>
+      <c r="D256" s="88"/>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" s="4"/>
-      <c r="C257" s="91">
+      <c r="C257" s="85">
         <v>804</v>
       </c>
-      <c r="D257" s="93">
+      <c r="D257" s="87">
         <v>94</v>
       </c>
     </row>
     <row r="258" spans="2:4">
       <c r="B258" s="4"/>
-      <c r="C258" s="92"/>
-      <c r="D258" s="94"/>
+      <c r="C258" s="86"/>
+      <c r="D258" s="88"/>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" s="4"/>
-      <c r="C259" s="91" t="s">
+      <c r="C259" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D259" s="93" t="s">
+      <c r="D259" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" s="4"/>
-      <c r="C260" s="92"/>
-      <c r="D260" s="94"/>
+      <c r="C260" s="86"/>
+      <c r="D260" s="88"/>
     </row>
     <row r="261" spans="2:4">
       <c r="B261" s="4"/>
-      <c r="C261" s="91" t="s">
+      <c r="C261" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D261" s="93" t="s">
+      <c r="D261" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="262" spans="2:4">
       <c r="B262" s="4"/>
-      <c r="C262" s="92"/>
-      <c r="D262" s="94"/>
+      <c r="C262" s="86"/>
+      <c r="D262" s="88"/>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" s="4"/>
-      <c r="C263" s="91">
+      <c r="C263" s="85">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D263" s="93">
+      <c r="D263" s="87">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="264" spans="2:4">
       <c r="B264" s="4"/>
-      <c r="C264" s="92"/>
-      <c r="D264" s="80"/>
+      <c r="C264" s="86"/>
+      <c r="D264" s="116"/>
     </row>
     <row r="265" spans="2:4">
       <c r="B265" s="4"/>
-      <c r="C265" s="91">
+      <c r="C265" s="85">
         <v>0.06</v>
       </c>
-      <c r="D265" s="79">
+      <c r="D265" s="115">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="266" spans="2:4">
       <c r="B266" s="4"/>
-      <c r="C266" s="78"/>
-      <c r="D266" s="80"/>
+      <c r="C266" s="114"/>
+      <c r="D266" s="116"/>
     </row>
     <row r="267" spans="2:4">
       <c r="B267" s="4"/>
-      <c r="C267" s="77" t="s">
+      <c r="C267" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D267" s="79" t="s">
+      <c r="D267" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="268" spans="2:4">
       <c r="B268" s="4"/>
-      <c r="C268" s="78"/>
-      <c r="D268" s="80"/>
+      <c r="C268" s="114"/>
+      <c r="D268" s="116"/>
     </row>
     <row r="269" spans="2:4">
       <c r="B269" s="4"/>
-      <c r="C269" s="77" t="s">
+      <c r="C269" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D269" s="79" t="s">
+      <c r="D269" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="270" spans="2:4">
       <c r="B270" s="4"/>
-      <c r="C270" s="78"/>
-      <c r="D270" s="80"/>
+      <c r="C270" s="114"/>
+      <c r="D270" s="116"/>
     </row>
     <row r="271" spans="2:4">
       <c r="B271" s="4"/>
-      <c r="C271" s="77" t="s">
+      <c r="C271" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D271" s="79" t="s">
+      <c r="D271" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="272" spans="2:4">
       <c r="B272" s="4"/>
-      <c r="C272" s="78"/>
-      <c r="D272" s="80"/>
+      <c r="C272" s="114"/>
+      <c r="D272" s="116"/>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" s="4"/>
-      <c r="C273" s="77" t="s">
+      <c r="C273" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D273" s="79" t="s">
+      <c r="D273" s="115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="274" spans="2:4" ht="16.5" thickBot="1">
       <c r="B274" s="5"/>
-      <c r="C274" s="81"/>
-      <c r="D274" s="82"/>
+      <c r="C274" s="98"/>
+      <c r="D274" s="99"/>
     </row>
     <row r="275" spans="2:4">
-      <c r="B275" s="83" t="s">
+      <c r="B275" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C275" s="84"/>
-      <c r="D275" s="85"/>
+      <c r="C275" s="105"/>
+      <c r="D275" s="106"/>
     </row>
     <row r="276" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B276" s="86"/>
-      <c r="C276" s="87"/>
-      <c r="D276" s="88"/>
+      <c r="B276" s="107"/>
+      <c r="C276" s="108"/>
+      <c r="D276" s="109"/>
     </row>
     <row r="277" spans="2:4">
       <c r="B277" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C277" s="89">
+      <c r="C277" s="96">
         <v>584</v>
       </c>
-      <c r="D277" s="90">
+      <c r="D277" s="82">
         <v>1226</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="B278" s="2"/>
-      <c r="C278" s="78"/>
-      <c r="D278" s="76"/>
+      <c r="C278" s="114"/>
+      <c r="D278" s="118"/>
     </row>
     <row r="279" spans="2:4" ht="21">
       <c r="B279" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C279" s="77">
+      <c r="C279" s="117">
         <v>718</v>
       </c>
-      <c r="D279" s="75">
+      <c r="D279" s="134">
         <v>1497</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="B280" s="2"/>
-      <c r="C280" s="78"/>
-      <c r="D280" s="76"/>
+      <c r="C280" s="114"/>
+      <c r="D280" s="118"/>
     </row>
     <row r="281" spans="2:4" ht="24">
       <c r="B281" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C281" s="77">
+      <c r="C281" s="117">
         <v>482</v>
       </c>
-      <c r="D281" s="79">
+      <c r="D281" s="115">
         <v>926</v>
       </c>
     </row>
     <row r="282" spans="2:4">
       <c r="B282" s="2"/>
-      <c r="C282" s="78"/>
-      <c r="D282" s="80"/>
+      <c r="C282" s="114"/>
+      <c r="D282" s="116"/>
     </row>
     <row r="283" spans="2:4">
       <c r="B283" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C283" s="77">
+      <c r="C283" s="117">
         <v>40</v>
       </c>
-      <c r="D283" s="79">
+      <c r="D283" s="115">
         <v>78</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="B284" s="2"/>
-      <c r="C284" s="78"/>
-      <c r="D284" s="80"/>
+      <c r="C284" s="114"/>
+      <c r="D284" s="116"/>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C285" s="77">
+      <c r="C285" s="117">
         <v>62</v>
       </c>
-      <c r="D285" s="79">
+      <c r="D285" s="115">
         <v>162</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" s="2"/>
-      <c r="C286" s="78"/>
-      <c r="D286" s="80"/>
+      <c r="C286" s="114"/>
+      <c r="D286" s="116"/>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" s="2"/>
-      <c r="C287" s="77">
+      <c r="C287" s="117">
         <v>0</v>
       </c>
-      <c r="D287" s="79">
+      <c r="D287" s="115">
         <v>60</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" s="2"/>
-      <c r="C288" s="78"/>
-      <c r="D288" s="80"/>
+      <c r="C288" s="114"/>
+      <c r="D288" s="116"/>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" s="2"/>
-      <c r="C289" s="77">
+      <c r="C289" s="117">
         <v>133</v>
       </c>
-      <c r="D289" s="79">
+      <c r="D289" s="115">
         <v>271</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="B290" s="2"/>
-      <c r="C290" s="78"/>
-      <c r="D290" s="80"/>
+      <c r="C290" s="114"/>
+      <c r="D290" s="116"/>
     </row>
     <row r="291" spans="2:4">
       <c r="B291" s="2"/>
-      <c r="C291" s="73">
+      <c r="C291" s="132">
         <v>398290</v>
       </c>
-      <c r="D291" s="75">
+      <c r="D291" s="134">
         <v>709039</v>
       </c>
     </row>
     <row r="292" spans="2:4">
       <c r="B292" s="2"/>
-      <c r="C292" s="74"/>
-      <c r="D292" s="76"/>
+      <c r="C292" s="133"/>
+      <c r="D292" s="118"/>
     </row>
     <row r="293" spans="2:4">
       <c r="B293" s="2"/>
-      <c r="C293" s="77">
+      <c r="C293" s="117">
         <v>771</v>
       </c>
-      <c r="D293" s="75">
+      <c r="D293" s="134">
         <v>1614</v>
       </c>
     </row>
     <row r="294" spans="2:4">
       <c r="B294" s="2"/>
-      <c r="C294" s="78"/>
-      <c r="D294" s="76"/>
+      <c r="C294" s="114"/>
+      <c r="D294" s="118"/>
     </row>
     <row r="295" spans="2:4">
       <c r="B295" s="2"/>
-      <c r="C295" s="77">
+      <c r="C295" s="117">
         <v>58.9</v>
       </c>
-      <c r="D295" s="79">
+      <c r="D295" s="115">
         <v>85.9</v>
       </c>
     </row>
     <row r="296" spans="2:4">
       <c r="B296" s="2"/>
-      <c r="C296" s="78"/>
-      <c r="D296" s="80"/>
+      <c r="C296" s="114"/>
+      <c r="D296" s="116"/>
     </row>
     <row r="297" spans="2:4">
       <c r="B297" s="2"/>
-      <c r="C297" s="69">
+      <c r="C297" s="119">
         <v>0</v>
       </c>
-      <c r="D297" s="71">
+      <c r="D297" s="121">
         <v>3.2</v>
       </c>
     </row>
     <row r="298" spans="2:4">
       <c r="B298" s="2"/>
-      <c r="C298" s="70"/>
-      <c r="D298" s="72"/>
+      <c r="C298" s="120"/>
+      <c r="D298" s="122"/>
     </row>
     <row r="299" spans="2:4">
       <c r="B299" s="2"/>
-      <c r="C299" s="69">
+      <c r="C299" s="119">
         <v>44.5</v>
       </c>
-      <c r="D299" s="71">
+      <c r="D299" s="121">
         <v>52.2</v>
       </c>
     </row>
     <row r="300" spans="2:4">
       <c r="B300" s="2"/>
-      <c r="C300" s="70"/>
-      <c r="D300" s="72"/>
+      <c r="C300" s="120"/>
+      <c r="D300" s="122"/>
     </row>
     <row r="301" spans="2:4">
       <c r="B301" s="2"/>
-      <c r="C301" s="69">
+      <c r="C301" s="119">
         <v>1.3</v>
       </c>
-      <c r="D301" s="71">
+      <c r="D301" s="121">
         <v>2.6</v>
       </c>
     </row>
     <row r="302" spans="2:4">
       <c r="B302" s="2"/>
-      <c r="C302" s="70"/>
-      <c r="D302" s="72"/>
+      <c r="C302" s="120"/>
+      <c r="D302" s="122"/>
     </row>
     <row r="303" spans="2:4">
       <c r="B303" s="2"/>
-      <c r="C303" s="69">
+      <c r="C303" s="119">
         <v>3</v>
       </c>
-      <c r="D303" s="71">
+      <c r="D303" s="121">
         <v>5.7</v>
       </c>
     </row>
     <row r="304" spans="2:4">
       <c r="B304" s="2"/>
-      <c r="C304" s="70"/>
-      <c r="D304" s="72"/>
+      <c r="C304" s="120"/>
+      <c r="D304" s="122"/>
     </row>
     <row r="305" spans="2:4">
       <c r="B305" s="2"/>
-      <c r="C305" s="69">
+      <c r="C305" s="119">
         <v>10.1</v>
       </c>
-      <c r="D305" s="71">
+      <c r="D305" s="121">
         <v>22.3</v>
       </c>
     </row>
     <row r="306" spans="2:4">
       <c r="B306" s="2"/>
-      <c r="C306" s="70"/>
-      <c r="D306" s="72"/>
+      <c r="C306" s="120"/>
+      <c r="D306" s="122"/>
     </row>
     <row r="307" spans="2:4">
       <c r="B307" s="2"/>
-      <c r="C307" s="77">
+      <c r="C307" s="117">
         <v>74.7</v>
       </c>
-      <c r="D307" s="79">
+      <c r="D307" s="115">
         <v>108.9</v>
       </c>
     </row>
     <row r="308" spans="2:4" ht="16.5" thickBot="1">
       <c r="B308" s="3"/>
-      <c r="C308" s="81"/>
-      <c r="D308" s="82"/>
+      <c r="C308" s="98"/>
+      <c r="D308" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="512">
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="D303:D304"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="D291:D292"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="D293:D294"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="B275:D276"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="B247:B252"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:D224"/>
+    <mergeCell ref="C225:D226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F206:F207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="B186:F187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="B98:H99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:F135"/>
+    <mergeCell ref="C136:D137"/>
+    <mergeCell ref="E136:F137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
     <mergeCell ref="C144:C145"/>
     <mergeCell ref="D144:D145"/>
     <mergeCell ref="E144:E145"/>
@@ -7917,494 +8405,6 @@
     <mergeCell ref="E142:E143"/>
     <mergeCell ref="F142:F143"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:F135"/>
-    <mergeCell ref="C136:D137"/>
-    <mergeCell ref="E136:F137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="B98:H99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="B186:F187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:F207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:D224"/>
-    <mergeCell ref="C225:D226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="B247:B252"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="B275:D276"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D299:D300"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="D303:D304"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="D291:D292"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="D293:D294"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ccs/plants.xlsx
+++ b/ccs/plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csala\OneDrive\Github\sustainable-energy-transitions\ccs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0032BE-475B-4986-9404-56647B197D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6EBA2F-49B2-425B-A8A7-0DC8FB93DD54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8415" yWindow="465" windowWidth="6675" windowHeight="7725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COAL and NG calcs" sheetId="3" r:id="rId1"/>
@@ -1916,18 +1916,156 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1940,205 +2078,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2674,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="108" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2867,7 +2867,7 @@
         <v>79</v>
       </c>
       <c r="L7" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2878,13 +2878,13 @@
         <v>115</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
         <v>116</v>
       </c>
       <c r="O8">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2900,24 +2900,24 @@
     </row>
     <row r="11" spans="1:23" ht="33" customHeight="1">
       <c r="K11" s="25"/>
-      <c r="L11" s="126" t="s">
+      <c r="L11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126" t="s">
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="127" t="s">
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="128"/>
+      <c r="W11" s="65"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -3008,15 +3008,15 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="B14" s="64"/>
-      <c r="C14" s="67" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="114"/>
       <c r="K14" s="26" t="s">
         <v>15</v>
       </c>
@@ -3058,13 +3058,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" thickBot="1">
-      <c r="B15" s="65"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="116"/>
       <c r="K15" s="26" t="s">
         <v>33</v>
       </c>
@@ -3106,19 +3106,19 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="65"/>
-      <c r="C16" s="73" t="s">
+      <c r="B16" s="111"/>
+      <c r="C16" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="73" t="s">
+      <c r="D16" s="118"/>
+      <c r="E16" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="73" t="s">
+      <c r="F16" s="118"/>
+      <c r="G16" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="74"/>
+      <c r="H16" s="118"/>
       <c r="K16" s="26" t="s">
         <v>34</v>
       </c>
@@ -3160,13 +3160,13 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B17" s="66"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="72"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="116"/>
       <c r="K17" s="26" t="s">
         <v>20</v>
       </c>
@@ -3256,72 +3256,72 @@
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="104" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="129" t="s">
+      <c r="L19" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="129" t="s">
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="130"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="129" t="s">
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="W19" s="131"/>
+      <c r="W19" s="68"/>
     </row>
     <row r="20" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B20" s="76"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="76"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="106"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="123" t="s">
+      <c r="L20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="123" t="s">
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="125"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="62"/>
       <c r="V20" s="15"/>
       <c r="W20" s="16"/>
     </row>
@@ -3468,25 +3468,25 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="121">
         <v>0</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="123">
         <v>0.9</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="121">
         <v>0</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="123">
         <v>0.9</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="121">
         <v>0</v>
       </c>
-      <c r="H24" s="79">
+      <c r="H24" s="123">
         <v>0.9</v>
       </c>
       <c r="K24" s="26" t="s">
@@ -3542,13 +3542,13 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B25" s="76"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="80"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="124"/>
       <c r="K25" s="26" t="s">
         <v>33</v>
       </c>
@@ -3605,22 +3605,22 @@
       <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="109">
         <v>747800</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="90">
         <v>734000</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="109">
         <v>738200</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="90">
         <v>703700</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="109">
         <v>737000</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="90">
         <v>673400</v>
       </c>
       <c r="K26" s="26" t="s">
@@ -3679,12 +3679,12 @@
       <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="63"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
       <c r="K27" s="26" t="s">
         <v>104</v>
       </c>
@@ -3876,51 +3876,51 @@
       </c>
       <c r="L31" s="55">
         <f>L26*8760*$L$6*$L$7/1000000</f>
-        <v>148804.06017549758</v>
+        <v>175063.60020646776</v>
       </c>
       <c r="M31" s="19">
         <f t="shared" ref="M31:W31" si="9">M26*8760*$L$6*$L$7/1000000</f>
-        <v>124587.72491791769</v>
+        <v>146573.79402107964</v>
       </c>
       <c r="N31" s="54">
         <f t="shared" si="9"/>
-        <v>151781.14393053277</v>
+        <v>178566.05168297974</v>
       </c>
       <c r="O31" s="19">
         <f t="shared" si="9"/>
-        <v>118471.04346856334</v>
+        <v>139377.69819830981</v>
       </c>
       <c r="P31" s="54">
         <f t="shared" si="9"/>
-        <v>160887.25466396115</v>
+        <v>189279.12313407197</v>
       </c>
       <c r="Q31" s="19">
         <f t="shared" si="9"/>
-        <v>119274.84911792017</v>
+        <v>140323.35190343548</v>
       </c>
       <c r="R31" s="54">
         <f t="shared" si="9"/>
-        <v>140454.55829968586</v>
+        <v>165240.65682315981</v>
       </c>
       <c r="S31" s="19">
         <f t="shared" si="9"/>
-        <v>99879.07589342336</v>
+        <v>117504.79516873337</v>
       </c>
       <c r="T31" s="54">
         <f t="shared" si="9"/>
-        <v>149998.00526459728</v>
+        <v>176468.24148776152</v>
       </c>
       <c r="U31" s="19">
         <f t="shared" si="9"/>
-        <v>108561.290339684</v>
+        <v>127719.16510551058</v>
       </c>
       <c r="V31" s="55">
         <f t="shared" si="9"/>
-        <v>123993.77039999999</v>
+        <v>145875.024</v>
       </c>
       <c r="W31" s="19">
         <f t="shared" si="9"/>
-        <v>105786.06660000001</v>
+        <v>124454.196</v>
       </c>
     </row>
     <row r="32" spans="2:23">
@@ -3936,51 +3936,51 @@
       </c>
       <c r="L32" s="55">
         <f>L24*8760*$L$6*$L$7/1000000</f>
-        <v>178885.42110640154</v>
+        <v>210453.43659576654</v>
       </c>
       <c r="M32" s="19">
         <f>M24*8760*$L$6*$L$7/1000000</f>
-        <v>168333.89800230387</v>
+        <v>198039.88000271042</v>
       </c>
       <c r="N32" s="54">
         <f t="shared" ref="N32:W32" si="10">N24*8760*$L$6*$L$7/1000000</f>
-        <v>179254.53628374761</v>
+        <v>210887.68974558546</v>
       </c>
       <c r="O32" s="19">
         <f t="shared" si="10"/>
-        <v>162317.85457609475</v>
+        <v>190962.18185422913</v>
       </c>
       <c r="P32" s="54">
         <f t="shared" si="10"/>
-        <v>188517.76954329136</v>
+        <v>221785.61122740162</v>
       </c>
       <c r="Q32" s="19">
         <f t="shared" si="10"/>
-        <v>161654.55741256577</v>
+        <v>190181.83225007739</v>
       </c>
       <c r="R32" s="54">
         <f t="shared" si="10"/>
-        <v>148774.27305442892</v>
+        <v>175028.55653462224</v>
       </c>
       <c r="S32" s="19">
         <f t="shared" si="10"/>
-        <v>122170.07482999834</v>
+        <v>143729.49979999804</v>
       </c>
       <c r="T32" s="54">
         <f t="shared" si="10"/>
-        <v>158291.68213162469</v>
+        <v>186225.50839014669</v>
       </c>
       <c r="U32" s="19">
         <f t="shared" si="10"/>
-        <v>130833.36043264643</v>
+        <v>153921.60050899579</v>
       </c>
       <c r="V32" s="54">
         <f t="shared" si="10"/>
-        <v>126142.686</v>
+        <v>148403.16</v>
       </c>
       <c r="W32" s="19">
         <f t="shared" si="10"/>
-        <v>114147.18</v>
+        <v>134290.79999999999</v>
       </c>
     </row>
     <row r="33" spans="2:23">
@@ -4098,51 +4098,51 @@
       </c>
       <c r="L35" s="55">
         <f>L25*8760*$L$6*$L$7/1000000+$L$4*L34*$L$6+L32/L17/L37</f>
-        <v>40899.180944565414</v>
+        <v>61761.29234865513</v>
       </c>
       <c r="M35" s="19">
         <f>L25*8760*$L$6*$L$7/1000000+$L$4*(L34+M33)*$L$6+L32/L17/L37</f>
-        <v>41725.172673978268</v>
+        <v>62587.284078067984</v>
       </c>
       <c r="N35" s="54">
         <f>N25*8760*$L$6*$L$7/1000000+$L$4*N34*$L$6+N32/N17/N37</f>
-        <v>38065.224830015555</v>
+        <v>58224.38876552842</v>
       </c>
       <c r="O35" s="19">
         <f>N25*8760*$L$6*$L$7/1000000+$L$4*(N34+O33)*$L$6+N32/N17/N37</f>
-        <v>39001.129584355003</v>
+        <v>59160.293519867875</v>
       </c>
       <c r="P35" s="54">
         <f>P25*8760*$L$6*$L$7/1000000+$L$4*P34*$L$6+P32/P17/P37</f>
-        <v>38772.080371684679</v>
+        <v>58832.249050351296</v>
       </c>
       <c r="Q35" s="19">
         <f>P25*8760*$L$6*$L$7/1000000+$L$4*(P34+Q33)*$L$6+P32/P17/P37</f>
-        <v>39560.184106920104</v>
+        <v>59620.352785586729</v>
       </c>
       <c r="R35" s="54">
         <f>R25*8760*$L$6*$L$7/1000000+$L$4*R34*$L$6+R32/R17/R37</f>
-        <v>17265.306826059077</v>
+        <v>32442.360172135846</v>
       </c>
       <c r="S35" s="19">
         <f>R25*8760*$L$6*$L$7/1000000+$L$4*(R34+S33)*$L$6+R32/R17/R37</f>
-        <v>18232.128773430428</v>
+        <v>33409.182119507197</v>
       </c>
       <c r="T35" s="54">
         <f>T25*8760*$L$6*$L$7/1000000+$L$4*T34*$L$6+T32/T17/T37</f>
-        <v>17372.161085921696</v>
+        <v>32493.751887310849</v>
       </c>
       <c r="U35" s="19">
         <f>T25*8760*$L$6*$L$7/1000000+$L$4*(T34+U33)*$L$6+T32/T17/T37</f>
-        <v>18357.799190637896</v>
+        <v>33479.389992027049</v>
       </c>
       <c r="V35" s="54">
         <f>V25*8760*$L$6*$L$7/1000000+$L$4*V34*$L$6+V32/V17/V37</f>
-        <v>7084.345227420964</v>
+        <v>17912.338741859763</v>
       </c>
       <c r="W35" s="19">
         <f>V25*8760*$L$6*$L$7/1000000+$L$4*(V34+W33)*$L$6+V32/V17/V37</f>
-        <v>7626.8633716209642</v>
+        <v>18454.856886059762</v>
       </c>
     </row>
     <row r="36" spans="2:23">
@@ -4159,32 +4159,32 @@
       <c r="L36" s="54"/>
       <c r="M36" s="53">
         <f>M27*8760*$L$6*$L$7/1000000</f>
-        <v>10551.523104097703</v>
+        <v>12413.556593056122</v>
       </c>
       <c r="N36" s="54"/>
       <c r="O36" s="19">
         <f>O27*8760*$L$6*$L$7/1000000</f>
-        <v>16936.681707652882</v>
+        <v>19925.50789135633</v>
       </c>
       <c r="P36" s="54"/>
       <c r="Q36" s="19">
         <f>Q27*8760*$L$6*$L$7/1000000</f>
-        <v>26863.212130725584</v>
+        <v>31603.778977324215</v>
       </c>
       <c r="R36" s="54"/>
       <c r="S36" s="19">
         <f>S27*8760*$L$6*$L$7/1000000</f>
-        <v>26604.198224430562</v>
+        <v>31299.056734624191</v>
       </c>
       <c r="T36" s="54"/>
       <c r="U36" s="19">
         <f>U27*8760*$L$6*$L$7/1000000</f>
-        <v>27458.321698978267</v>
+        <v>32303.907881150903</v>
       </c>
       <c r="V36" s="54"/>
       <c r="W36" s="19">
         <f>W27*8760*$L$6*$L$7/1000000</f>
-        <v>11995.505999999999</v>
+        <v>14112.36</v>
       </c>
     </row>
     <row r="37" spans="2:23">
@@ -4200,32 +4200,32 @@
       </c>
       <c r="L37" s="54">
         <f>$M$8</f>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M37" s="19"/>
       <c r="N37" s="54">
         <f>$M$8</f>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O37" s="19"/>
       <c r="P37" s="54">
         <f>$M$8</f>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="Q37" s="19"/>
       <c r="R37" s="54">
         <f>$M$8</f>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="S37" s="19"/>
       <c r="T37" s="54">
         <f>$M$8</f>
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="U37" s="19"/>
       <c r="V37" s="54">
         <f>$O$8</f>
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="W37" s="19"/>
     </row>
@@ -4242,51 +4242,51 @@
       </c>
       <c r="L38" s="55">
         <f>L32/SUM(L33:L36)</f>
-        <v>4.1290341640957307</v>
+        <v>3.2788108042546948</v>
       </c>
       <c r="M38" s="53">
         <f t="shared" ref="M38:W38" si="11">M32/SUM(M33:M36)</f>
-        <v>3.0390866528346501</v>
+        <v>2.53527459946684</v>
       </c>
       <c r="N38" s="55">
         <f t="shared" si="11"/>
-        <v>4.4365151307565469</v>
+        <v>3.4820910397905629</v>
       </c>
       <c r="O38" s="53">
         <f t="shared" si="11"/>
-        <v>2.748501128670624</v>
+        <v>2.3230037478079182</v>
       </c>
       <c r="P38" s="55">
         <f t="shared" si="11"/>
-        <v>4.5291712967473616</v>
+        <v>3.5955603172943285</v>
       </c>
       <c r="Q38" s="53">
         <f t="shared" si="11"/>
-        <v>2.3116266158874876</v>
+        <v>2.0075813085116638</v>
       </c>
       <c r="R38" s="55">
         <f t="shared" si="11"/>
-        <v>7.8669194645397376</v>
+        <v>5.1345444532077575</v>
       </c>
       <c r="S38" s="53">
         <f t="shared" si="11"/>
-        <v>2.58352784792852</v>
+        <v>2.1401059338237802</v>
       </c>
       <c r="T38" s="55">
         <f t="shared" si="11"/>
-        <v>8.2656567173266229</v>
+        <v>5.4337321514085231</v>
       </c>
       <c r="U38" s="53">
         <f t="shared" si="11"/>
-        <v>2.7022835564136893</v>
+        <v>2.2508742745680874</v>
       </c>
       <c r="V38" s="55">
         <f>V32/SUM(V33:V36)</f>
-        <v>16.6264794901541</v>
+        <v>8.0588858150574438</v>
       </c>
       <c r="W38" s="53">
         <f t="shared" si="11"/>
-        <v>5.5473249400403395</v>
+        <v>4.0060706804058137</v>
       </c>
     </row>
     <row r="39" spans="2:23">
@@ -4303,32 +4303,32 @@
       <c r="L39" s="55"/>
       <c r="M39" s="53">
         <f>(M35/M34+1)*L38/(M35/M34+1+M44+M43*(M35/M34+1)*L38)</f>
-        <v>2.4467644652828477</v>
+        <v>2.1233338401666049</v>
       </c>
       <c r="N39" s="55"/>
       <c r="O39" s="53">
         <f>(O35/O34+1)*N38/(O35/O34+1+O44+O43*(O35/O34+1)*N38)</f>
-        <v>2.2265965564451902</v>
+        <v>1.9596809656481751</v>
       </c>
       <c r="P39" s="55"/>
       <c r="Q39" s="53">
         <f>(Q35/Q34+1)*P38/(Q35/Q34+1+Q44+Q43*(Q35/Q34+1)*P38)</f>
-        <v>2.071022623197984</v>
+        <v>1.8529228127188295</v>
       </c>
       <c r="R39" s="55"/>
       <c r="S39" s="53">
         <f>(S35/S34+1)*R38/(S35/S34+1+S44+S43*(S35/S34+1)*R38)</f>
-        <v>2.3744308727761942</v>
+        <v>2.0486666666009112</v>
       </c>
       <c r="T39" s="55"/>
       <c r="U39" s="53">
         <f>(U35/U34+1)*T38/(U35/U34+1+U44+U43*(U35/U34+1)*T38)</f>
-        <v>2.4865359983134669</v>
+        <v>2.1525220944123737</v>
       </c>
       <c r="V39" s="55"/>
       <c r="W39" s="53">
         <f>(W35/W34+1)*V38/(W35/W34+1+W44+W43*(W35/W34+1)*V38)</f>
-        <v>4.7543529427286524</v>
+        <v>3.6511065496794282</v>
       </c>
     </row>
     <row r="40" spans="2:23">
@@ -4344,51 +4344,51 @@
       </c>
       <c r="L40" s="55">
         <f>L31/(L34+L47+L48)</f>
-        <v>11.236913298061774</v>
+        <v>6.0794272527494737</v>
       </c>
       <c r="M40" s="53">
         <f>M31/(M34+M48+M47+M33)</f>
-        <v>8.4427616870745119</v>
+        <v>4.8357613620059681</v>
       </c>
       <c r="N40" s="55">
         <f>N31/(N34+N47+N48)</f>
-        <v>11.737806190641715</v>
+        <v>6.3227391552840864</v>
       </c>
       <c r="O40" s="53">
         <f>O31/(O34+O48+O47+O33)</f>
-        <v>8.0885335389443753</v>
+        <v>4.6524821639042564</v>
       </c>
       <c r="P40" s="55">
         <f>P31/(P34+P47+P48)</f>
-        <v>11.498105505868555</v>
+        <v>6.4873390414641712</v>
       </c>
       <c r="Q40" s="53">
         <f>Q31/(Q34+Q48+Q47+Q33)</f>
-        <v>7.7263770803865333</v>
+        <v>4.5825027138135157</v>
       </c>
       <c r="R40" s="55">
         <f>R31/(R34+R47+R48)</f>
-        <v>13.260861841705252</v>
+        <v>6.7998787828074398</v>
       </c>
       <c r="S40" s="53">
         <f>S31/(S34+S48+S47+S33)</f>
-        <v>8.0781071207814286</v>
+        <v>4.5067552591131346</v>
       </c>
       <c r="T40" s="55">
         <f>T31/(T34+T47+T48)</f>
-        <v>13.815978247643779</v>
+        <v>7.1984219777731537</v>
       </c>
       <c r="U40" s="53">
         <f>U31/(U34+U48+U47+U33)</f>
-        <v>8.5725321954165885</v>
+        <v>4.8522100558615469</v>
       </c>
       <c r="V40" s="55">
         <f>V31/(V34+V47+V48)</f>
-        <v>22.801610217630895</v>
+        <v>9.1822034013065998</v>
       </c>
       <c r="W40" s="53">
         <f>W31/(W34+W48+W47+W33)</f>
-        <v>16.445417600228957</v>
+        <v>7.372298503671054</v>
       </c>
     </row>
     <row r="41" spans="2:23">
@@ -4404,51 +4404,51 @@
       </c>
       <c r="L41" s="55">
         <f>L48/(L34*(1+$L$6*$L$4))</f>
-        <v>1.4825775498059688</v>
+        <v>4.3984397897056882</v>
       </c>
       <c r="M41" s="53">
         <f>L40*(1-M43)*(L41+1)/(L41+M45+1)</f>
-        <v>8.4427616870745101</v>
+        <v>4.8357613620059681</v>
       </c>
       <c r="N41" s="55">
         <f>N48/(N34*(1+$L$6*$L$4))</f>
-        <v>1.5127752717666074</v>
+        <v>4.4880289392564325</v>
       </c>
       <c r="O41" s="53">
         <f>N40*(1-O43)*(N41+1)/(N41+O44+1)</f>
-        <v>8.0885335389443735</v>
+        <v>4.6524821639042582</v>
       </c>
       <c r="P41" s="55">
         <f>P48/(P34*(1+$L$6*$L$4))</f>
-        <v>1.2309264522268968</v>
+        <v>3.6518534132562674</v>
       </c>
       <c r="Q41" s="53">
         <f>P40*(1-Q43)*(P41+1)/(P41+Q44+1)</f>
-        <v>7.7263770803865315</v>
+        <v>4.5825027138135157</v>
       </c>
       <c r="R41" s="55">
         <f>R48/(R34*(1+$L$6*$L$4))</f>
-        <v>1.9247805659128892</v>
+        <v>5.7103464359563976</v>
       </c>
       <c r="S41" s="53">
         <f>R40*(1-S43)*(R41+1)/(R41+S44+1)</f>
-        <v>8.0781071207814286</v>
+        <v>4.5067552591131328</v>
       </c>
       <c r="T41" s="55">
         <f>T48/(T34*(1+$L$6*$L$4))</f>
-        <v>1.7749811449472319</v>
+        <v>5.2659287164674904</v>
       </c>
       <c r="U41" s="53">
         <f>T40*(1-U43)*(T41+1)/(T41+U44+1)</f>
-        <v>8.5725321954165885</v>
+        <v>4.8522100558615486</v>
       </c>
       <c r="V41" s="55">
         <f>V48/(V34*(1+$L$6*$L$4))</f>
-        <v>3.9188923097716648</v>
+        <v>13.37033846863274</v>
       </c>
       <c r="W41" s="53">
         <f>V40*(1-W43)*(V41+1)/(V41+W44+1)</f>
-        <v>16.445417600228957</v>
+        <v>7.372298503671054</v>
       </c>
     </row>
     <row r="42" spans="2:23">
@@ -4477,22 +4477,22 @@
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="60">
+      <c r="C43" s="100">
         <v>125750</v>
       </c>
-      <c r="D43" s="62">
+      <c r="D43" s="102">
         <v>190750</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="100">
         <v>113140</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="102">
         <v>190090</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="100">
         <v>108020</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="102">
         <v>176540</v>
       </c>
       <c r="K43" s="31" t="s">
@@ -4533,12 +4533,12 @@
       <c r="B44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="63"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="108"/>
       <c r="K44" s="27" t="s">
         <v>77</v>
       </c>
@@ -4615,51 +4615,51 @@
       </c>
       <c r="L46" s="45">
         <f>L25*8760*$L$6*$L$7/1000000</f>
-        <v>30081.360930903975</v>
+        <v>35389.836389298798</v>
       </c>
       <c r="M46" s="46">
         <f>M29*8760*$L$6*$L$7/1000000</f>
-        <v>24216.335257579911</v>
+        <v>28489.80618538813</v>
       </c>
       <c r="N46" s="45">
         <f>N25*8760*$L$6*$L$7/1000000</f>
-        <v>27473.392353214858</v>
+        <v>32321.638062605718</v>
       </c>
       <c r="O46" s="57">
         <f>O29*8760*$L$6*$L$7/1000000</f>
-        <v>33310.100461969443</v>
+        <v>39188.353484669933</v>
       </c>
       <c r="P46" s="45">
         <f t="shared" ref="P46:W46" si="12">P25*8760*$L$6*$L$7/1000000</f>
-        <v>27630.514879330167</v>
+        <v>32506.488093329608</v>
       </c>
       <c r="Q46" s="46">
         <f t="shared" si="12"/>
-        <v>42379.708294645621</v>
+        <v>49858.480346641903</v>
       </c>
       <c r="R46" s="45">
         <f t="shared" si="12"/>
-        <v>8319.7147547430377</v>
+        <v>9787.8997114623962</v>
       </c>
       <c r="S46" s="46">
         <f t="shared" si="12"/>
-        <v>22290.998936574993</v>
+        <v>26224.704631264696</v>
       </c>
       <c r="T46" s="58">
         <f t="shared" si="12"/>
-        <v>8293.6768670274068</v>
+        <v>9757.2669023851849</v>
       </c>
       <c r="U46" s="46">
         <f t="shared" si="12"/>
-        <v>22272.070092962425</v>
+        <v>26202.435403485208</v>
       </c>
       <c r="V46" s="45">
         <f t="shared" si="12"/>
-        <v>2148.9155999999998</v>
+        <v>2528.136</v>
       </c>
       <c r="W46" s="46">
         <f t="shared" si="12"/>
-        <v>8361.1134000000002</v>
+        <v>9836.6039999999994</v>
       </c>
     </row>
     <row r="47" spans="2:23">
@@ -4735,51 +4735,51 @@
       </c>
       <c r="L48" s="45">
         <f>L32/L17/L37</f>
-        <v>7908.2856368877783</v>
+        <v>23461.921582582669</v>
       </c>
       <c r="M48" s="46">
         <f>L32/L17/L37</f>
-        <v>7908.2856368877783</v>
+        <v>23461.921582582669</v>
       </c>
       <c r="N48" s="45">
         <f>N32/N17/N37</f>
-        <v>7784.8751968968818</v>
+        <v>23095.793423018888</v>
       </c>
       <c r="O48" s="46">
         <f>N32/N17/N37</f>
-        <v>7784.8751968968818</v>
+        <v>23095.793423018888</v>
       </c>
       <c r="P48" s="45">
         <f>P32/P17/P37</f>
-        <v>7720.4426874965748</v>
+        <v>22904.638152163756</v>
       </c>
       <c r="Q48" s="46">
         <f>P32/P17/P37</f>
-        <v>7720.4426874965748</v>
+        <v>22904.638152163756</v>
       </c>
       <c r="R48" s="45">
         <f>R32/R17/R37</f>
-        <v>6970.3088949788662</v>
+        <v>20679.177284336278</v>
       </c>
       <c r="S48" s="46">
         <f>R32/R17/R37</f>
-        <v>6970.3088949788662</v>
+        <v>20679.177284336278</v>
       </c>
       <c r="T48" s="45">
         <f>T32/T17/T37</f>
-        <v>6944.4451229106207</v>
+        <v>20602.445888941995</v>
       </c>
       <c r="U48" s="46">
         <f>T32/T17/T37</f>
-        <v>6944.4451229106207</v>
+        <v>20602.445888941995</v>
       </c>
       <c r="V48" s="45">
         <f>V32/V17/V37</f>
-        <v>4332.4181206209641</v>
+        <v>14781.191235059761</v>
       </c>
       <c r="W48" s="46">
         <f>V32/V17/V37</f>
-        <v>4332.4181206209641</v>
+        <v>14781.191235059761</v>
       </c>
     </row>
     <row r="49" spans="2:23">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="L49" s="56">
         <f>L48/(L34+L47)</f>
-        <v>1.4825775498059692</v>
+        <v>4.3984397897056891</v>
       </c>
       <c r="M49" s="43">
         <f>(M42-M40)/M40</f>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="N49" s="56">
         <f>N48/(N34+N47)</f>
-        <v>1.5127752717666074</v>
+        <v>4.4880289392564325</v>
       </c>
       <c r="O49" s="43">
         <f>(O42-O40)/O40</f>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="P49" s="56">
         <f>P48/(P34+P47)</f>
-        <v>1.2309264522268968</v>
+        <v>3.6518534132562674</v>
       </c>
       <c r="Q49" s="43">
         <f>(Q42-Q40)/Q40</f>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="R49" s="56">
         <f>R48/(R34+R47)</f>
-        <v>1.9247805659128894</v>
+        <v>5.7103464359563985</v>
       </c>
       <c r="S49" s="43">
         <f>(S42-S40)/S40</f>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="T49" s="56">
         <f>T48/(T34+T47)</f>
-        <v>1.7749811449472319</v>
+        <v>5.2659287164674913</v>
       </c>
       <c r="U49" s="43">
         <f>(U42-U40)/U40</f>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="V49" s="56">
         <f>V48/(V34+V47)</f>
-        <v>3.9188923097716657</v>
+        <v>13.370338468632744</v>
       </c>
       <c r="W49" s="43">
         <f>(W42-W40)/W40</f>
@@ -5046,51 +5046,51 @@
       </c>
       <c r="L55" s="47">
         <f>L34/L32</f>
-        <v>1.3553994314620826E-2</v>
+        <v>1.15208951674277E-2</v>
       </c>
       <c r="M55" s="47">
         <f t="shared" ref="M55:W55" si="14">M34/M32</f>
-        <v>1.4403587212193794E-2</v>
+        <v>1.2243049130364727E-2</v>
       </c>
       <c r="N55" s="47">
         <f t="shared" si="14"/>
-        <v>1.3049215462440684E-2</v>
+        <v>1.1091833143074579E-2</v>
       </c>
       <c r="O55" s="47">
         <f t="shared" si="14"/>
-        <v>1.4410805716323262E-2</v>
+        <v>1.2249184858874771E-2</v>
       </c>
       <c r="P55" s="47">
         <f t="shared" si="14"/>
-        <v>1.5122901557883423E-2</v>
+        <v>1.2854466324200909E-2</v>
       </c>
       <c r="Q55" s="47">
         <f t="shared" si="14"/>
-        <v>1.7635974613687815E-2</v>
+        <v>1.499057842163464E-2</v>
       </c>
       <c r="R55" s="47">
         <f t="shared" si="14"/>
-        <v>1.1064206732921475E-2</v>
+        <v>9.4045757229832549E-3</v>
       </c>
       <c r="S55" s="47">
         <f t="shared" si="14"/>
-        <v>1.3473588486418157E-2</v>
+        <v>1.1452550213455434E-2</v>
       </c>
       <c r="T55" s="47">
         <f t="shared" si="14"/>
-        <v>1.1234740128928281E-2</v>
+        <v>9.5495291095890385E-3</v>
       </c>
       <c r="U55" s="47">
         <f t="shared" si="14"/>
-        <v>1.3592602891486793E-2</v>
+        <v>1.1553712457763776E-2</v>
       </c>
       <c r="V55" s="47">
         <f t="shared" si="14"/>
-        <v>3.9836601307189539E-3</v>
+        <v>3.3861111111111106E-3</v>
       </c>
       <c r="W55" s="47">
         <f t="shared" si="14"/>
-        <v>4.4022952560019441E-3</v>
+        <v>3.7419509676016524E-3</v>
       </c>
     </row>
     <row r="56" spans="2:23">
@@ -5145,22 +5145,22 @@
       <c r="B58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="60">
+      <c r="C58" s="100">
         <v>622050</v>
       </c>
-      <c r="D58" s="62">
+      <c r="D58" s="102">
         <v>543250</v>
       </c>
-      <c r="E58" s="60">
+      <c r="E58" s="100">
         <v>625060</v>
       </c>
-      <c r="F58" s="62">
+      <c r="F58" s="102">
         <v>513610</v>
       </c>
-      <c r="G58" s="60">
+      <c r="G58" s="100">
         <v>628980</v>
       </c>
-      <c r="H58" s="62">
+      <c r="H58" s="102">
         <v>496860</v>
       </c>
       <c r="M58" s="11"/>
@@ -5169,34 +5169,34 @@
       <c r="B59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="63"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="108"/>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="2:23">
       <c r="B60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="60">
+      <c r="C60" s="100">
         <v>466901</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="102">
         <v>487011</v>
       </c>
-      <c r="E60" s="60">
+      <c r="E60" s="100">
         <v>459958</v>
       </c>
-      <c r="F60" s="62">
+      <c r="F60" s="102">
         <v>484212</v>
       </c>
-      <c r="G60" s="60">
+      <c r="G60" s="100">
         <v>436646</v>
       </c>
-      <c r="H60" s="62">
+      <c r="H60" s="102">
         <v>465264</v>
       </c>
       <c r="M60" s="11"/>
@@ -5208,279 +5208,279 @@
       <c r="B61" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="63"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="108"/>
       <c r="U61" s="30"/>
     </row>
     <row r="62" spans="2:23">
       <c r="B62" s="4"/>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="87" t="s">
+      <c r="D62" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="85" t="s">
+      <c r="E62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="85" t="s">
+      <c r="G62" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="87" t="s">
+      <c r="H62" s="93" t="s">
         <v>22</v>
       </c>
       <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="2:23">
       <c r="B63" s="4"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="88"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="94"/>
     </row>
     <row r="64" spans="2:23">
       <c r="B64" s="4"/>
-      <c r="C64" s="60">
+      <c r="C64" s="100">
         <v>1596320</v>
       </c>
-      <c r="D64" s="62">
+      <c r="D64" s="102">
         <v>1665074</v>
       </c>
-      <c r="E64" s="60">
+      <c r="E64" s="100">
         <v>1572582</v>
       </c>
-      <c r="F64" s="62">
+      <c r="F64" s="102">
         <v>1655503</v>
       </c>
-      <c r="G64" s="60">
+      <c r="G64" s="100">
         <v>1492878</v>
       </c>
-      <c r="H64" s="62">
+      <c r="H64" s="102">
         <v>1590722</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="63"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="108"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4"/>
-      <c r="C66" s="91">
+      <c r="C66" s="96">
         <v>0.39</v>
       </c>
-      <c r="D66" s="93">
+      <c r="D66" s="98">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E66" s="91">
+      <c r="E66" s="96">
         <v>0.39700000000000002</v>
       </c>
-      <c r="F66" s="93">
+      <c r="F66" s="98">
         <v>0.31</v>
       </c>
-      <c r="G66" s="91">
+      <c r="G66" s="96">
         <v>0.42099999999999999</v>
       </c>
-      <c r="H66" s="93">
+      <c r="H66" s="98">
         <v>0.312</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="94"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="99"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4"/>
-      <c r="C68" s="60">
+      <c r="C68" s="100">
         <v>8756</v>
       </c>
-      <c r="D68" s="62">
+      <c r="D68" s="102">
         <v>10458</v>
       </c>
-      <c r="E68" s="60">
+      <c r="E68" s="100">
         <v>8585</v>
       </c>
-      <c r="F68" s="62">
+      <c r="F68" s="102">
         <v>10998</v>
       </c>
-      <c r="G68" s="60">
+      <c r="G68" s="100">
         <v>8099</v>
       </c>
-      <c r="H68" s="62">
+      <c r="H68" s="102">
         <v>10924</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="16.5" thickBot="1">
       <c r="B69" s="5"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="90"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="103"/>
     </row>
     <row r="70" spans="2:8" ht="33" customHeight="1">
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="96">
+      <c r="C70" s="89">
         <v>7.6</v>
       </c>
-      <c r="D70" s="97">
+      <c r="D70" s="95">
         <v>10.7</v>
       </c>
-      <c r="E70" s="96">
+      <c r="E70" s="89">
         <v>7</v>
       </c>
-      <c r="F70" s="97">
+      <c r="F70" s="95">
         <v>11.1</v>
       </c>
-      <c r="G70" s="96">
+      <c r="G70" s="89">
         <v>6.6</v>
       </c>
-      <c r="H70" s="97">
+      <c r="H70" s="95">
         <v>11.3</v>
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="95"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="88"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="94"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="95"/>
-      <c r="C72" s="85">
+      <c r="B72" s="105"/>
+      <c r="C72" s="91">
         <v>1.6</v>
       </c>
-      <c r="D72" s="87">
+      <c r="D72" s="93">
         <v>2</v>
       </c>
-      <c r="E72" s="85">
+      <c r="E72" s="91">
         <v>1.4</v>
       </c>
-      <c r="F72" s="87">
+      <c r="F72" s="93">
         <v>2.1</v>
       </c>
-      <c r="G72" s="85">
+      <c r="G72" s="91">
         <v>1.2</v>
       </c>
-      <c r="H72" s="87">
+      <c r="H72" s="93">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="95"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="88"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="94"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="95"/>
-      <c r="C74" s="85">
+      <c r="B74" s="105"/>
+      <c r="C74" s="91">
         <v>6</v>
       </c>
-      <c r="D74" s="87">
+      <c r="D74" s="93">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E74" s="85">
+      <c r="E74" s="91">
         <v>5.5</v>
       </c>
-      <c r="F74" s="87">
+      <c r="F74" s="93">
         <v>9</v>
       </c>
-      <c r="G74" s="85">
+      <c r="G74" s="91">
         <v>5.3</v>
       </c>
-      <c r="H74" s="87">
+      <c r="H74" s="93">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B75" s="76"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="99"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="82"/>
     </row>
     <row r="76" spans="2:8" ht="48">
       <c r="B76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="96">
+      <c r="C76" s="89">
         <v>197</v>
       </c>
-      <c r="D76" s="97">
+      <c r="D76" s="95">
         <v>20</v>
       </c>
-      <c r="E76" s="96">
+      <c r="E76" s="89">
         <v>199</v>
       </c>
-      <c r="F76" s="97">
+      <c r="F76" s="95">
         <v>20</v>
       </c>
-      <c r="G76" s="96">
+      <c r="G76" s="89">
         <v>197</v>
       </c>
-      <c r="H76" s="97">
+      <c r="H76" s="95">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="88"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="94"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="60">
+      <c r="C78" s="100">
         <v>1434</v>
       </c>
-      <c r="D78" s="87">
+      <c r="D78" s="93">
         <v>152</v>
       </c>
-      <c r="E78" s="60">
+      <c r="E78" s="100">
         <v>1448</v>
       </c>
-      <c r="F78" s="87">
+      <c r="F78" s="93">
         <v>158</v>
       </c>
-      <c r="G78" s="60">
+      <c r="G78" s="100">
         <v>1361</v>
       </c>
-      <c r="H78" s="87">
+      <c r="H78" s="93">
         <v>161</v>
       </c>
     </row>
@@ -5488,794 +5488,794 @@
       <c r="B79" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="88"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="94"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4"/>
-      <c r="C80" s="60">
+      <c r="C80" s="100">
         <v>1723</v>
       </c>
-      <c r="D80" s="87">
+      <c r="D80" s="93">
         <v>206</v>
       </c>
-      <c r="E80" s="60">
+      <c r="E80" s="100">
         <v>1710</v>
       </c>
-      <c r="F80" s="87">
+      <c r="F80" s="93">
         <v>217</v>
       </c>
-      <c r="G80" s="60">
+      <c r="G80" s="100">
         <v>1595</v>
       </c>
-      <c r="H80" s="87">
+      <c r="H80" s="93">
         <v>218</v>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="4"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="88"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="88"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="94"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="94"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="4"/>
-      <c r="C82" s="85">
+      <c r="C82" s="91">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D82" s="87">
+      <c r="D82" s="93">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E82" s="85">
+      <c r="E82" s="91">
         <v>1.17E-2</v>
       </c>
-      <c r="F82" s="87">
+      <c r="F82" s="93">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="G82" s="85">
+      <c r="G82" s="91">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H82" s="87">
+      <c r="H82" s="93">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="4"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="86"/>
-      <c r="H83" s="88"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="94"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="4"/>
-      <c r="C84" s="85">
+      <c r="C84" s="91">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D84" s="87">
+      <c r="D84" s="93">
         <v>1.66E-2</v>
       </c>
-      <c r="E84" s="85">
+      <c r="E84" s="91">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="F84" s="87">
+      <c r="F84" s="93">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="G84" s="85">
+      <c r="G84" s="91">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H84" s="87">
+      <c r="H84" s="93">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="4"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="88"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="94"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="4"/>
-      <c r="C86" s="85">
+      <c r="C86" s="91">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D86" s="87">
+      <c r="D86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E86" s="85">
+      <c r="E86" s="91">
         <v>0.06</v>
       </c>
-      <c r="F86" s="87">
+      <c r="F86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G86" s="85">
+      <c r="G86" s="91">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H86" s="87">
+      <c r="H86" s="93">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="4"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="88"/>
-      <c r="G87" s="86"/>
-      <c r="H87" s="88"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="94"/>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="4"/>
-      <c r="C88" s="85">
+      <c r="C88" s="91">
         <v>0.43</v>
       </c>
-      <c r="D88" s="87">
+      <c r="D88" s="93">
         <v>0.376</v>
       </c>
-      <c r="E88" s="85">
+      <c r="E88" s="91">
         <v>0.434</v>
       </c>
-      <c r="F88" s="87">
+      <c r="F88" s="93">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G88" s="85">
+      <c r="G88" s="91">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H88" s="87">
+      <c r="H88" s="93">
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="4"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="88"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="94"/>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="4"/>
-      <c r="C90" s="85">
+      <c r="C90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D90" s="87">
+      <c r="D90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E90" s="85">
+      <c r="E90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="F90" s="87">
+      <c r="F90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G90" s="85">
+      <c r="G90" s="91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="H90" s="87">
+      <c r="H90" s="93">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="4"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="88"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="94"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="4"/>
-      <c r="C92" s="85">
+      <c r="C92" s="91">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D92" s="87">
+      <c r="D92" s="93">
         <v>5.5E-2</v>
       </c>
-      <c r="E92" s="85">
+      <c r="E92" s="91">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F92" s="87">
+      <c r="F92" s="93">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G92" s="85">
+      <c r="G92" s="91">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H92" s="87">
+      <c r="H92" s="93">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="4"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="88"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="88"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="94"/>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="4"/>
-      <c r="C94" s="85">
+      <c r="C94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D94" s="87">
+      <c r="D94" s="93">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E94" s="85">
+      <c r="E94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="F94" s="87">
+      <c r="F94" s="93">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G94" s="85">
+      <c r="G94" s="91">
         <v>0.57099999999999995</v>
       </c>
-      <c r="H94" s="87">
+      <c r="H94" s="93">
         <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="4"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="86"/>
-      <c r="H95" s="88"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="94"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="94"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="94"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="4"/>
-      <c r="C96" s="100">
+      <c r="C96" s="129">
         <v>4.16E-6</v>
       </c>
-      <c r="D96" s="102">
+      <c r="D96" s="131">
         <v>4.42E-6</v>
       </c>
-      <c r="E96" s="100">
+      <c r="E96" s="129">
         <v>4.1500000000000001E-6</v>
       </c>
-      <c r="F96" s="102">
+      <c r="F96" s="131">
         <v>4.5900000000000001E-6</v>
       </c>
-      <c r="G96" s="100">
+      <c r="G96" s="129">
         <v>3.9500000000000003E-6</v>
       </c>
-      <c r="H96" s="102">
+      <c r="H96" s="131">
         <v>4.6099999999999999E-6</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="16.5" thickBot="1">
       <c r="B97" s="5"/>
-      <c r="C97" s="101"/>
-      <c r="D97" s="103"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="103"/>
-      <c r="G97" s="101"/>
-      <c r="H97" s="103"/>
+      <c r="C97" s="130"/>
+      <c r="D97" s="132"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="132"/>
+      <c r="G97" s="130"/>
+      <c r="H97" s="132"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="104" t="s">
+      <c r="B98" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="105"/>
-      <c r="D98" s="105"/>
-      <c r="E98" s="105"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="106"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="84"/>
+      <c r="G98" s="84"/>
+      <c r="H98" s="85"/>
     </row>
     <row r="99" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B99" s="107"/>
-      <c r="C99" s="108"/>
-      <c r="D99" s="108"/>
-      <c r="E99" s="108"/>
-      <c r="F99" s="108"/>
-      <c r="G99" s="108"/>
-      <c r="H99" s="109"/>
+      <c r="B99" s="86"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="87"/>
+      <c r="E99" s="87"/>
+      <c r="F99" s="87"/>
+      <c r="G99" s="87"/>
+      <c r="H99" s="88"/>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="81">
+      <c r="C100" s="109">
         <v>1987</v>
       </c>
-      <c r="D100" s="82">
+      <c r="D100" s="90">
         <v>2711</v>
       </c>
-      <c r="E100" s="81">
+      <c r="E100" s="109">
         <v>1913</v>
       </c>
-      <c r="F100" s="82">
+      <c r="F100" s="90">
         <v>2817</v>
       </c>
-      <c r="G100" s="81">
+      <c r="G100" s="109">
         <v>2217</v>
       </c>
-      <c r="H100" s="82">
+      <c r="H100" s="90">
         <v>3181</v>
       </c>
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="2"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="63"/>
+      <c r="C101" s="107"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="107"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="107"/>
+      <c r="H101" s="108"/>
     </row>
     <row r="102" spans="2:9" ht="21">
       <c r="B102" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="60">
+      <c r="C102" s="100">
         <v>2447</v>
       </c>
-      <c r="D102" s="62">
+      <c r="D102" s="102">
         <v>3334</v>
       </c>
-      <c r="E102" s="60">
+      <c r="E102" s="100">
         <v>2351</v>
       </c>
-      <c r="F102" s="62">
+      <c r="F102" s="102">
         <v>3466</v>
       </c>
-      <c r="G102" s="60">
+      <c r="G102" s="100">
         <v>2716</v>
       </c>
-      <c r="H102" s="62">
+      <c r="H102" s="102">
         <v>3904</v>
       </c>
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="2"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="63"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="107"/>
+      <c r="H103" s="108"/>
     </row>
     <row r="104" spans="2:9" ht="24">
       <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="60">
+      <c r="C104" s="100">
         <v>1528</v>
       </c>
-      <c r="D104" s="62">
+      <c r="D104" s="102">
         <v>2032</v>
       </c>
-      <c r="E104" s="60">
+      <c r="E104" s="100">
         <v>1470</v>
       </c>
-      <c r="F104" s="62">
+      <c r="F104" s="102">
         <v>2113</v>
       </c>
-      <c r="G104" s="60">
+      <c r="G104" s="100">
         <v>1695</v>
       </c>
-      <c r="H104" s="62">
+      <c r="H104" s="102">
         <v>2385</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2"/>
-      <c r="C105" s="61"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="63"/>
+      <c r="C105" s="107"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="107"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="107"/>
+      <c r="H105" s="108"/>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="85">
+      <c r="C106" s="91">
         <v>144</v>
       </c>
-      <c r="D106" s="87">
+      <c r="D106" s="93">
         <v>191</v>
       </c>
-      <c r="E106" s="85">
+      <c r="E106" s="91">
         <v>138</v>
       </c>
-      <c r="F106" s="87">
+      <c r="F106" s="93">
         <v>199</v>
       </c>
-      <c r="G106" s="85">
+      <c r="G106" s="91">
         <v>156</v>
       </c>
-      <c r="H106" s="87">
+      <c r="H106" s="93">
         <v>221</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="2"/>
-      <c r="C107" s="86"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="86"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="88"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="94"/>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="85">
+      <c r="C108" s="91">
         <v>265</v>
       </c>
-      <c r="D108" s="87">
+      <c r="D108" s="93">
         <v>369</v>
       </c>
-      <c r="E108" s="85">
+      <c r="E108" s="91">
         <v>256</v>
       </c>
-      <c r="F108" s="87">
+      <c r="F108" s="93">
         <v>385</v>
       </c>
-      <c r="G108" s="85">
+      <c r="G108" s="91">
         <v>302</v>
       </c>
-      <c r="H108" s="87">
+      <c r="H108" s="93">
         <v>444</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="2"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="86"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="88"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="92"/>
+      <c r="F109" s="94"/>
+      <c r="G109" s="92"/>
+      <c r="H109" s="94"/>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="2"/>
-      <c r="C110" s="85">
+      <c r="C110" s="91">
         <v>50</v>
       </c>
-      <c r="D110" s="87">
+      <c r="D110" s="93">
         <v>119</v>
       </c>
-      <c r="E110" s="85">
+      <c r="E110" s="91">
         <v>50</v>
       </c>
-      <c r="F110" s="87">
+      <c r="F110" s="93">
         <v>120</v>
       </c>
-      <c r="G110" s="85">
+      <c r="G110" s="91">
         <v>63</v>
       </c>
-      <c r="H110" s="87">
+      <c r="H110" s="93">
         <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="2"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="88"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="94"/>
+      <c r="E111" s="92"/>
+      <c r="F111" s="94"/>
+      <c r="G111" s="92"/>
+      <c r="H111" s="94"/>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="2"/>
-      <c r="C112" s="85">
+      <c r="C112" s="91">
         <v>460</v>
       </c>
-      <c r="D112" s="87">
+      <c r="D112" s="93">
         <v>623</v>
       </c>
-      <c r="E112" s="85">
+      <c r="E112" s="91">
         <v>438</v>
       </c>
-      <c r="F112" s="87">
+      <c r="F112" s="93">
         <v>649</v>
       </c>
-      <c r="G112" s="85">
+      <c r="G112" s="91">
         <v>500</v>
       </c>
-      <c r="H112" s="87">
+      <c r="H112" s="93">
         <v>723</v>
       </c>
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="2"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="86"/>
-      <c r="H113" s="88"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="92"/>
+      <c r="F113" s="94"/>
+      <c r="G113" s="92"/>
+      <c r="H113" s="94"/>
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="2"/>
-      <c r="C114" s="60">
+      <c r="C114" s="100">
         <v>1521880</v>
       </c>
-      <c r="D114" s="62">
+      <c r="D114" s="102">
         <v>1811411</v>
       </c>
-      <c r="E114" s="60">
+      <c r="E114" s="100">
         <v>1469577</v>
       </c>
-      <c r="F114" s="62">
+      <c r="F114" s="102">
         <v>1780290</v>
       </c>
-      <c r="G114" s="60">
+      <c r="G114" s="100">
         <v>1708524</v>
       </c>
-      <c r="H114" s="62">
+      <c r="H114" s="102">
         <v>1939878</v>
       </c>
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="2"/>
-      <c r="C115" s="61"/>
-      <c r="D115" s="63"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="63"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="63"/>
+      <c r="C115" s="107"/>
+      <c r="D115" s="108"/>
+      <c r="E115" s="107"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="107"/>
+      <c r="H115" s="108"/>
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="2"/>
-      <c r="C116" s="60">
+      <c r="C116" s="100">
         <v>2789</v>
       </c>
-      <c r="D116" s="62">
+      <c r="D116" s="102">
         <v>3801</v>
       </c>
-      <c r="E116" s="60">
+      <c r="E116" s="100">
         <v>2680</v>
       </c>
-      <c r="F116" s="62">
+      <c r="F116" s="102">
         <v>3952</v>
       </c>
-      <c r="G116" s="60">
+      <c r="G116" s="100">
         <v>3097</v>
       </c>
-      <c r="H116" s="62">
+      <c r="H116" s="102">
         <v>4451</v>
       </c>
     </row>
     <row r="117" spans="2:8">
       <c r="B117" s="2"/>
-      <c r="C117" s="61"/>
-      <c r="D117" s="63"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="63"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="63"/>
+      <c r="C117" s="107"/>
+      <c r="D117" s="108"/>
+      <c r="E117" s="107"/>
+      <c r="F117" s="108"/>
+      <c r="G117" s="107"/>
+      <c r="H117" s="108"/>
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="2"/>
-      <c r="C118" s="85">
+      <c r="C118" s="91">
         <v>76.3</v>
       </c>
-      <c r="D118" s="87">
+      <c r="D118" s="93">
         <v>105.6</v>
       </c>
-      <c r="E118" s="85">
+      <c r="E118" s="91">
         <v>74</v>
       </c>
-      <c r="F118" s="87">
+      <c r="F118" s="93">
         <v>110.3</v>
       </c>
-      <c r="G118" s="85">
+      <c r="G118" s="91">
         <v>81.3</v>
       </c>
-      <c r="H118" s="87">
+      <c r="H118" s="93">
         <v>119.4</v>
       </c>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="2"/>
-      <c r="C119" s="86"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="86"/>
-      <c r="H119" s="88"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="92"/>
+      <c r="F119" s="94"/>
+      <c r="G119" s="92"/>
+      <c r="H119" s="94"/>
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="2"/>
-      <c r="C120" s="110">
+      <c r="C120" s="125">
         <v>0</v>
       </c>
-      <c r="D120" s="112">
+      <c r="D120" s="127">
         <v>5.2</v>
       </c>
-      <c r="E120" s="110">
+      <c r="E120" s="125">
         <v>0</v>
       </c>
-      <c r="F120" s="112">
+      <c r="F120" s="127">
         <v>5.5</v>
       </c>
-      <c r="G120" s="110">
+      <c r="G120" s="125">
         <v>0</v>
       </c>
-      <c r="H120" s="112">
+      <c r="H120" s="127">
         <v>5.6</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="2"/>
-      <c r="C121" s="111"/>
-      <c r="D121" s="113"/>
-      <c r="E121" s="111"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="111"/>
-      <c r="H121" s="113"/>
+      <c r="C121" s="126"/>
+      <c r="D121" s="128"/>
+      <c r="E121" s="126"/>
+      <c r="F121" s="128"/>
+      <c r="G121" s="126"/>
+      <c r="H121" s="128"/>
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="2"/>
-      <c r="C122" s="110">
+      <c r="C122" s="125">
         <v>14.3</v>
       </c>
-      <c r="D122" s="112">
+      <c r="D122" s="127">
         <v>17.100000000000001</v>
       </c>
-      <c r="E122" s="110">
+      <c r="E122" s="125">
         <v>14</v>
       </c>
-      <c r="F122" s="112">
+      <c r="F122" s="127">
         <v>18</v>
       </c>
-      <c r="G122" s="110">
+      <c r="G122" s="125">
         <v>13.3</v>
       </c>
-      <c r="H122" s="112">
+      <c r="H122" s="127">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="123" spans="2:8">
       <c r="B123" s="2"/>
-      <c r="C123" s="111"/>
-      <c r="D123" s="113"/>
-      <c r="E123" s="111"/>
-      <c r="F123" s="113"/>
-      <c r="G123" s="111"/>
-      <c r="H123" s="113"/>
+      <c r="C123" s="126"/>
+      <c r="D123" s="128"/>
+      <c r="E123" s="126"/>
+      <c r="F123" s="128"/>
+      <c r="G123" s="126"/>
+      <c r="H123" s="128"/>
     </row>
     <row r="124" spans="2:8">
       <c r="B124" s="2"/>
-      <c r="C124" s="110">
+      <c r="C124" s="125">
         <v>7.3</v>
       </c>
-      <c r="D124" s="112">
+      <c r="D124" s="127">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E124" s="110">
+      <c r="E124" s="125">
         <v>7.2</v>
       </c>
-      <c r="F124" s="112">
+      <c r="F124" s="127">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G124" s="110">
+      <c r="G124" s="125">
         <v>7.8</v>
       </c>
-      <c r="H124" s="112">
+      <c r="H124" s="127">
         <v>9.9</v>
       </c>
     </row>
     <row r="125" spans="2:8">
       <c r="B125" s="2"/>
-      <c r="C125" s="111"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="113"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="113"/>
+      <c r="C125" s="126"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="126"/>
+      <c r="F125" s="128"/>
+      <c r="G125" s="126"/>
+      <c r="H125" s="128"/>
     </row>
     <row r="126" spans="2:8">
       <c r="B126" s="2"/>
-      <c r="C126" s="110">
+      <c r="C126" s="125">
         <v>11.3</v>
       </c>
-      <c r="D126" s="112">
+      <c r="D126" s="127">
         <v>14.8</v>
       </c>
-      <c r="E126" s="110">
+      <c r="E126" s="125">
         <v>11.1</v>
       </c>
-      <c r="F126" s="112">
+      <c r="F126" s="127">
         <v>15.5</v>
       </c>
-      <c r="G126" s="110">
+      <c r="G126" s="125">
         <v>12.1</v>
       </c>
-      <c r="H126" s="112">
+      <c r="H126" s="127">
         <v>16.7</v>
       </c>
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="2"/>
-      <c r="C127" s="111"/>
-      <c r="D127" s="113"/>
-      <c r="E127" s="111"/>
-      <c r="F127" s="113"/>
-      <c r="G127" s="111"/>
-      <c r="H127" s="113"/>
+      <c r="C127" s="126"/>
+      <c r="D127" s="128"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="128"/>
+      <c r="G127" s="126"/>
+      <c r="H127" s="128"/>
     </row>
     <row r="128" spans="2:8">
       <c r="B128" s="2"/>
-      <c r="C128" s="110">
+      <c r="C128" s="125">
         <v>43.4</v>
       </c>
-      <c r="D128" s="112">
+      <c r="D128" s="127">
         <v>59.1</v>
       </c>
-      <c r="E128" s="110">
+      <c r="E128" s="125">
         <v>41.7</v>
       </c>
-      <c r="F128" s="112">
+      <c r="F128" s="127">
         <v>61.5</v>
       </c>
-      <c r="G128" s="110">
+      <c r="G128" s="125">
         <v>48.2</v>
       </c>
-      <c r="H128" s="112">
+      <c r="H128" s="127">
         <v>69.2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" s="2"/>
-      <c r="C129" s="111"/>
-      <c r="D129" s="113"/>
-      <c r="E129" s="111"/>
-      <c r="F129" s="113"/>
-      <c r="G129" s="111"/>
-      <c r="H129" s="113"/>
+      <c r="C129" s="126"/>
+      <c r="D129" s="128"/>
+      <c r="E129" s="126"/>
+      <c r="F129" s="128"/>
+      <c r="G129" s="126"/>
+      <c r="H129" s="128"/>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" s="2"/>
-      <c r="C130" s="85">
+      <c r="C130" s="91">
         <v>96.7</v>
       </c>
-      <c r="D130" s="87">
+      <c r="D130" s="93">
         <v>133.9</v>
       </c>
-      <c r="E130" s="85">
+      <c r="E130" s="91">
         <v>93.8</v>
       </c>
-      <c r="F130" s="87">
+      <c r="F130" s="93">
         <v>139.9</v>
       </c>
-      <c r="G130" s="85">
+      <c r="G130" s="91">
         <v>103.1</v>
       </c>
-      <c r="H130" s="87">
+      <c r="H130" s="93">
         <v>151.4</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" thickBot="1">
       <c r="B131" s="3"/>
-      <c r="C131" s="98"/>
-      <c r="D131" s="99"/>
-      <c r="E131" s="98"/>
-      <c r="F131" s="99"/>
-      <c r="G131" s="98"/>
-      <c r="H131" s="99"/>
+      <c r="C131" s="81"/>
+      <c r="D131" s="82"/>
+      <c r="E131" s="81"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="81"/>
+      <c r="H131" s="82"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
@@ -6286,101 +6286,101 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="B134" s="64"/>
-      <c r="C134" s="67" t="s">
+      <c r="B134" s="110"/>
+      <c r="C134" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="D134" s="68"/>
-      <c r="E134" s="68"/>
-      <c r="F134" s="69"/>
+      <c r="D134" s="133"/>
+      <c r="E134" s="133"/>
+      <c r="F134" s="114"/>
     </row>
     <row r="135" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B135" s="65"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="71"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="72"/>
+      <c r="B135" s="111"/>
+      <c r="C135" s="115"/>
+      <c r="D135" s="134"/>
+      <c r="E135" s="134"/>
+      <c r="F135" s="116"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="B136" s="65"/>
-      <c r="C136" s="73" t="s">
+      <c r="B136" s="111"/>
+      <c r="C136" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="74"/>
-      <c r="E136" s="73" t="s">
+      <c r="D136" s="118"/>
+      <c r="E136" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="F136" s="74"/>
+      <c r="F136" s="118"/>
     </row>
     <row r="137" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B137" s="66"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="70"/>
-      <c r="F137" s="72"/>
+      <c r="B137" s="112"/>
+      <c r="C137" s="115"/>
+      <c r="D137" s="116"/>
+      <c r="E137" s="115"/>
+      <c r="F137" s="116"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="B138" s="75" t="s">
+      <c r="B138" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="83" t="s">
+      <c r="C138" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="75" t="s">
+      <c r="D138" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="E138" s="83" t="s">
+      <c r="E138" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="F138" s="75" t="s">
+      <c r="F138" s="104" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B139" s="76"/>
-      <c r="C139" s="84"/>
-      <c r="D139" s="76"/>
-      <c r="E139" s="84"/>
-      <c r="F139" s="76"/>
+      <c r="B139" s="106"/>
+      <c r="C139" s="120"/>
+      <c r="D139" s="106"/>
+      <c r="E139" s="120"/>
+      <c r="F139" s="106"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="B140" s="75" t="s">
+      <c r="B140" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C140" s="77">
+      <c r="C140" s="121">
         <v>0</v>
       </c>
-      <c r="D140" s="79">
+      <c r="D140" s="123">
         <v>0.9</v>
       </c>
-      <c r="E140" s="77">
+      <c r="E140" s="121">
         <v>0</v>
       </c>
-      <c r="F140" s="79">
+      <c r="F140" s="123">
         <v>0.9</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B141" s="76"/>
-      <c r="C141" s="78"/>
-      <c r="D141" s="80"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="80"/>
+      <c r="B141" s="106"/>
+      <c r="C141" s="122"/>
+      <c r="D141" s="124"/>
+      <c r="E141" s="122"/>
+      <c r="F141" s="124"/>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="81">
+      <c r="C142" s="109">
         <v>582600</v>
       </c>
-      <c r="D142" s="82">
+      <c r="D142" s="90">
         <v>672700</v>
       </c>
-      <c r="E142" s="81">
+      <c r="E142" s="109">
         <v>580400</v>
       </c>
-      <c r="F142" s="82">
+      <c r="F142" s="90">
         <v>662800</v>
       </c>
     </row>
@@ -6388,25 +6388,25 @@
       <c r="B143" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="61"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="63"/>
+      <c r="C143" s="107"/>
+      <c r="D143" s="108"/>
+      <c r="E143" s="107"/>
+      <c r="F143" s="108"/>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="60">
+      <c r="C144" s="100">
         <v>32580</v>
       </c>
-      <c r="D144" s="62">
+      <c r="D144" s="102">
         <v>122740</v>
       </c>
-      <c r="E144" s="60">
+      <c r="E144" s="100">
         <v>30410</v>
       </c>
-      <c r="F144" s="62">
+      <c r="F144" s="102">
         <v>112830</v>
       </c>
     </row>
@@ -6414,25 +6414,25 @@
       <c r="B145" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="61"/>
-      <c r="D145" s="63"/>
-      <c r="E145" s="61"/>
-      <c r="F145" s="63"/>
+      <c r="C145" s="107"/>
+      <c r="D145" s="108"/>
+      <c r="E145" s="107"/>
+      <c r="F145" s="108"/>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="60">
+      <c r="C146" s="100">
         <v>550020</v>
       </c>
-      <c r="D146" s="62">
+      <c r="D146" s="102">
         <v>549960</v>
       </c>
-      <c r="E146" s="60">
+      <c r="E146" s="100">
         <v>549990</v>
       </c>
-      <c r="F146" s="62">
+      <c r="F146" s="102">
         <v>549970</v>
       </c>
     </row>
@@ -6440,229 +6440,229 @@
       <c r="B147" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C147" s="61"/>
-      <c r="D147" s="63"/>
-      <c r="E147" s="61"/>
-      <c r="F147" s="63"/>
+      <c r="C147" s="107"/>
+      <c r="D147" s="108"/>
+      <c r="E147" s="107"/>
+      <c r="F147" s="108"/>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C148" s="60">
+      <c r="C148" s="100">
         <v>437378</v>
       </c>
-      <c r="D148" s="62">
+      <c r="D148" s="102">
         <v>614994</v>
       </c>
-      <c r="E148" s="60">
+      <c r="E148" s="100">
         <v>409528</v>
       </c>
-      <c r="F148" s="62">
+      <c r="F148" s="102">
         <v>565820</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="4"/>
-      <c r="C149" s="61"/>
-      <c r="D149" s="63"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="63"/>
+      <c r="C149" s="107"/>
+      <c r="D149" s="108"/>
+      <c r="E149" s="107"/>
+      <c r="F149" s="108"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="4"/>
-      <c r="C150" s="85" t="s">
+      <c r="C150" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="87" t="s">
+      <c r="D150" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E150" s="85" t="s">
+      <c r="E150" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F150" s="87" t="s">
+      <c r="F150" s="93" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="4"/>
-      <c r="C151" s="86"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="86"/>
-      <c r="F151" s="88"/>
+      <c r="C151" s="92"/>
+      <c r="D151" s="94"/>
+      <c r="E151" s="92"/>
+      <c r="F151" s="94"/>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="4"/>
-      <c r="C152" s="60">
+      <c r="C152" s="100">
         <v>1495379</v>
       </c>
-      <c r="D152" s="62">
+      <c r="D152" s="102">
         <v>2102643</v>
       </c>
-      <c r="E152" s="60">
+      <c r="E152" s="100">
         <v>1400162</v>
       </c>
-      <c r="F152" s="62">
+      <c r="F152" s="102">
         <v>1934519</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="4"/>
-      <c r="C153" s="61"/>
-      <c r="D153" s="63"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="63"/>
+      <c r="C153" s="107"/>
+      <c r="D153" s="108"/>
+      <c r="E153" s="107"/>
+      <c r="F153" s="108"/>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="4"/>
-      <c r="C154" s="91">
+      <c r="C154" s="96">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D154" s="93">
+      <c r="D154" s="98">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E154" s="91">
+      <c r="E154" s="96">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F154" s="93">
+      <c r="F154" s="98">
         <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="4"/>
-      <c r="C155" s="92"/>
-      <c r="D155" s="94"/>
-      <c r="E155" s="92"/>
-      <c r="F155" s="94"/>
+      <c r="C155" s="97"/>
+      <c r="D155" s="99"/>
+      <c r="E155" s="97"/>
+      <c r="F155" s="99"/>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="4"/>
-      <c r="C156" s="60">
+      <c r="C156" s="100">
         <v>9277</v>
       </c>
-      <c r="D156" s="62">
+      <c r="D156" s="102">
         <v>13046</v>
       </c>
-      <c r="E156" s="60">
+      <c r="E156" s="100">
         <v>8687</v>
       </c>
-      <c r="F156" s="62">
+      <c r="F156" s="102">
         <v>12002</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="16.5" thickBot="1">
       <c r="B157" s="5"/>
-      <c r="C157" s="89"/>
-      <c r="D157" s="90"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="90"/>
+      <c r="C157" s="101"/>
+      <c r="D157" s="103"/>
+      <c r="E157" s="101"/>
+      <c r="F157" s="103"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="75" t="s">
+      <c r="B158" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C158" s="96">
+      <c r="C158" s="89">
         <v>10.7</v>
       </c>
-      <c r="D158" s="97">
+      <c r="D158" s="95">
         <v>20.399999999999999</v>
       </c>
-      <c r="E158" s="96">
+      <c r="E158" s="89">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F158" s="97">
+      <c r="F158" s="95">
         <v>18.3</v>
       </c>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="95"/>
-      <c r="C159" s="86"/>
-      <c r="D159" s="88"/>
-      <c r="E159" s="86"/>
-      <c r="F159" s="88"/>
+      <c r="B159" s="105"/>
+      <c r="C159" s="92"/>
+      <c r="D159" s="94"/>
+      <c r="E159" s="92"/>
+      <c r="F159" s="94"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="95"/>
-      <c r="C160" s="85">
+      <c r="B160" s="105"/>
+      <c r="C160" s="91">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D160" s="87">
+      <c r="D160" s="93">
         <v>4.7</v>
       </c>
-      <c r="E160" s="85">
+      <c r="E160" s="91">
         <v>2</v>
       </c>
-      <c r="F160" s="87">
+      <c r="F160" s="93">
         <v>4.3</v>
       </c>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="95"/>
-      <c r="C161" s="86"/>
-      <c r="D161" s="88"/>
-      <c r="E161" s="86"/>
-      <c r="F161" s="88"/>
+      <c r="B161" s="105"/>
+      <c r="C161" s="92"/>
+      <c r="D161" s="94"/>
+      <c r="E161" s="92"/>
+      <c r="F161" s="94"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="95"/>
-      <c r="C162" s="85">
+      <c r="B162" s="105"/>
+      <c r="C162" s="91">
         <v>8.5</v>
       </c>
-      <c r="D162" s="87">
+      <c r="D162" s="93">
         <v>15.7</v>
       </c>
-      <c r="E162" s="85">
+      <c r="E162" s="91">
         <v>7.7</v>
       </c>
-      <c r="F162" s="87">
+      <c r="F162" s="93">
         <v>14.1</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B163" s="76"/>
-      <c r="C163" s="98"/>
-      <c r="D163" s="99"/>
-      <c r="E163" s="98"/>
-      <c r="F163" s="99"/>
+      <c r="B163" s="106"/>
+      <c r="C163" s="81"/>
+      <c r="D163" s="82"/>
+      <c r="E163" s="81"/>
+      <c r="F163" s="82"/>
     </row>
     <row r="164" spans="2:6" ht="48">
       <c r="B164" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C164" s="96">
+      <c r="C164" s="89">
         <v>204</v>
       </c>
-      <c r="D164" s="97">
+      <c r="D164" s="95">
         <v>20</v>
       </c>
-      <c r="E164" s="96">
+      <c r="E164" s="89">
         <v>204</v>
       </c>
-      <c r="F164" s="97">
+      <c r="F164" s="95">
         <v>20</v>
       </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="4"/>
-      <c r="C165" s="86"/>
-      <c r="D165" s="88"/>
-      <c r="E165" s="86"/>
-      <c r="F165" s="88"/>
+      <c r="C165" s="92"/>
+      <c r="D165" s="94"/>
+      <c r="E165" s="92"/>
+      <c r="F165" s="94"/>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="60">
+      <c r="C166" s="100">
         <v>1783</v>
       </c>
-      <c r="D166" s="87">
+      <c r="D166" s="93">
         <v>217</v>
       </c>
-      <c r="E166" s="60">
+      <c r="E166" s="100">
         <v>1675</v>
       </c>
-      <c r="F166" s="87">
+      <c r="F166" s="93">
         <v>203</v>
       </c>
     </row>
@@ -6670,586 +6670,586 @@
       <c r="B167" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C167" s="61"/>
-      <c r="D167" s="88"/>
-      <c r="E167" s="61"/>
-      <c r="F167" s="88"/>
+      <c r="C167" s="107"/>
+      <c r="D167" s="94"/>
+      <c r="E167" s="107"/>
+      <c r="F167" s="94"/>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" s="4"/>
-      <c r="C168" s="60">
+      <c r="C168" s="100">
         <v>1888</v>
       </c>
-      <c r="D168" s="87">
+      <c r="D168" s="93">
         <v>266</v>
       </c>
-      <c r="E168" s="60">
+      <c r="E168" s="100">
         <v>1768</v>
       </c>
-      <c r="F168" s="87">
+      <c r="F168" s="93">
         <v>244</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" s="4"/>
-      <c r="C169" s="61"/>
-      <c r="D169" s="88"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="88"/>
+      <c r="C169" s="107"/>
+      <c r="D169" s="94"/>
+      <c r="E169" s="107"/>
+      <c r="F169" s="94"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="4"/>
-      <c r="C170" s="85">
+      <c r="C170" s="91">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="D170" s="87">
+      <c r="D170" s="93">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E170" s="85">
+      <c r="E170" s="91">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F170" s="87">
+      <c r="F170" s="93">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="4"/>
-      <c r="C171" s="86"/>
-      <c r="D171" s="88"/>
-      <c r="E171" s="86"/>
-      <c r="F171" s="88"/>
+      <c r="C171" s="92"/>
+      <c r="D171" s="94"/>
+      <c r="E171" s="92"/>
+      <c r="F171" s="94"/>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="4"/>
-      <c r="C172" s="85">
+      <c r="C172" s="91">
         <v>0.75149999999999995</v>
       </c>
-      <c r="D172" s="87">
+      <c r="D172" s="93">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="E172" s="85">
+      <c r="E172" s="91">
         <v>0.70630000000000004</v>
       </c>
-      <c r="F172" s="87">
+      <c r="F172" s="93">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="4"/>
-      <c r="C173" s="86"/>
-      <c r="D173" s="88"/>
-      <c r="E173" s="86"/>
-      <c r="F173" s="88"/>
+      <c r="C173" s="92"/>
+      <c r="D173" s="94"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="94"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="4"/>
-      <c r="C174" s="85">
+      <c r="C174" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D174" s="87">
+      <c r="D174" s="93">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E174" s="85">
+      <c r="E174" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F174" s="87">
+      <c r="F174" s="93">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="4"/>
-      <c r="C175" s="86"/>
-      <c r="D175" s="88"/>
-      <c r="E175" s="86"/>
-      <c r="F175" s="88"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="94"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="94"/>
     </row>
     <row r="176" spans="2:6">
       <c r="B176" s="4"/>
-      <c r="C176" s="85">
+      <c r="C176" s="91">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D176" s="87">
+      <c r="D176" s="93">
         <v>0.747</v>
       </c>
-      <c r="E176" s="85">
+      <c r="E176" s="91">
         <v>0.57599999999999996</v>
       </c>
-      <c r="F176" s="87">
+      <c r="F176" s="93">
         <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="177" spans="2:6">
       <c r="B177" s="4"/>
-      <c r="C177" s="86"/>
-      <c r="D177" s="88"/>
-      <c r="E177" s="86"/>
-      <c r="F177" s="88"/>
+      <c r="C177" s="92"/>
+      <c r="D177" s="94"/>
+      <c r="E177" s="92"/>
+      <c r="F177" s="94"/>
     </row>
     <row r="178" spans="2:6">
       <c r="B178" s="4"/>
-      <c r="C178" s="85">
+      <c r="C178" s="91">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D178" s="87">
+      <c r="D178" s="93">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E178" s="85">
+      <c r="E178" s="91">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F178" s="87">
+      <c r="F178" s="93">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" s="4"/>
-      <c r="C179" s="86"/>
-      <c r="D179" s="88"/>
-      <c r="E179" s="86"/>
-      <c r="F179" s="88"/>
+      <c r="C179" s="92"/>
+      <c r="D179" s="94"/>
+      <c r="E179" s="92"/>
+      <c r="F179" s="94"/>
     </row>
     <row r="180" spans="2:6">
       <c r="B180" s="4"/>
-      <c r="C180" s="85">
+      <c r="C180" s="91">
         <v>0.114</v>
       </c>
-      <c r="D180" s="87">
+      <c r="D180" s="93">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E180" s="85">
+      <c r="E180" s="91">
         <v>0.107</v>
       </c>
-      <c r="F180" s="87">
+      <c r="F180" s="93">
         <v>0.129</v>
       </c>
     </row>
     <row r="181" spans="2:6">
       <c r="B181" s="4"/>
-      <c r="C181" s="86"/>
-      <c r="D181" s="88"/>
-      <c r="E181" s="86"/>
-      <c r="F181" s="88"/>
+      <c r="C181" s="92"/>
+      <c r="D181" s="94"/>
+      <c r="E181" s="92"/>
+      <c r="F181" s="94"/>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" s="4"/>
-      <c r="C182" s="85">
+      <c r="C182" s="91">
         <v>1.143</v>
       </c>
-      <c r="D182" s="87">
+      <c r="D182" s="93">
         <v>1.143</v>
       </c>
-      <c r="E182" s="85">
+      <c r="E182" s="91">
         <v>1.143</v>
       </c>
-      <c r="F182" s="87">
+      <c r="F182" s="93">
         <v>1.143</v>
       </c>
     </row>
     <row r="183" spans="2:6">
       <c r="B183" s="4"/>
-      <c r="C183" s="86"/>
-      <c r="D183" s="88"/>
-      <c r="E183" s="86"/>
-      <c r="F183" s="88"/>
+      <c r="C183" s="92"/>
+      <c r="D183" s="94"/>
+      <c r="E183" s="92"/>
+      <c r="F183" s="94"/>
     </row>
     <row r="184" spans="2:6">
       <c r="B184" s="4"/>
-      <c r="C184" s="100">
+      <c r="C184" s="129">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D184" s="102">
+      <c r="D184" s="131">
         <v>1.22E-5</v>
       </c>
-      <c r="E184" s="100">
+      <c r="E184" s="129">
         <v>9.4099999999999997E-6</v>
       </c>
-      <c r="F184" s="102">
+      <c r="F184" s="131">
         <v>1.1399999999999999E-5</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="16.5" thickBot="1">
       <c r="B185" s="5"/>
-      <c r="C185" s="101"/>
-      <c r="D185" s="103"/>
-      <c r="E185" s="101"/>
-      <c r="F185" s="103"/>
+      <c r="C185" s="130"/>
+      <c r="D185" s="132"/>
+      <c r="E185" s="130"/>
+      <c r="F185" s="132"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="104" t="s">
+      <c r="B186" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C186" s="105"/>
-      <c r="D186" s="105"/>
-      <c r="E186" s="105"/>
-      <c r="F186" s="106"/>
+      <c r="C186" s="84"/>
+      <c r="D186" s="84"/>
+      <c r="E186" s="84"/>
+      <c r="F186" s="85"/>
     </row>
     <row r="187" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B187" s="107"/>
-      <c r="C187" s="108"/>
-      <c r="D187" s="108"/>
-      <c r="E187" s="108"/>
-      <c r="F187" s="109"/>
+      <c r="B187" s="86"/>
+      <c r="C187" s="87"/>
+      <c r="D187" s="87"/>
+      <c r="E187" s="87"/>
+      <c r="F187" s="88"/>
     </row>
     <row r="188" spans="2:6">
       <c r="B188" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C188" s="81">
+      <c r="C188" s="109">
         <v>1622</v>
       </c>
-      <c r="D188" s="82">
+      <c r="D188" s="90">
         <v>2942</v>
       </c>
-      <c r="E188" s="81">
+      <c r="E188" s="109">
         <v>1647</v>
       </c>
-      <c r="F188" s="82">
+      <c r="F188" s="90">
         <v>2913</v>
       </c>
     </row>
     <row r="189" spans="2:6">
       <c r="B189" s="2"/>
-      <c r="C189" s="61"/>
-      <c r="D189" s="63"/>
-      <c r="E189" s="61"/>
-      <c r="F189" s="63"/>
+      <c r="C189" s="107"/>
+      <c r="D189" s="108"/>
+      <c r="E189" s="107"/>
+      <c r="F189" s="108"/>
     </row>
     <row r="190" spans="2:6" ht="21">
       <c r="B190" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C190" s="60">
+      <c r="C190" s="100">
         <v>1996</v>
       </c>
-      <c r="D190" s="62">
+      <c r="D190" s="102">
         <v>3610</v>
       </c>
-      <c r="E190" s="60">
+      <c r="E190" s="100">
         <v>2024</v>
       </c>
-      <c r="F190" s="62">
+      <c r="F190" s="102">
         <v>3570</v>
       </c>
     </row>
     <row r="191" spans="2:6">
       <c r="B191" s="2"/>
-      <c r="C191" s="61"/>
-      <c r="D191" s="63"/>
-      <c r="E191" s="61"/>
-      <c r="F191" s="63"/>
+      <c r="C191" s="107"/>
+      <c r="D191" s="108"/>
+      <c r="E191" s="107"/>
+      <c r="F191" s="108"/>
     </row>
     <row r="192" spans="2:6" ht="24">
       <c r="B192" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C192" s="60">
+      <c r="C192" s="100">
         <v>1317</v>
       </c>
-      <c r="D192" s="62">
+      <c r="D192" s="102">
         <v>2255</v>
       </c>
-      <c r="E192" s="60">
+      <c r="E192" s="100">
         <v>1345</v>
       </c>
-      <c r="F192" s="62">
+      <c r="F192" s="102">
         <v>2239</v>
       </c>
     </row>
     <row r="193" spans="2:6">
       <c r="B193" s="2"/>
-      <c r="C193" s="61"/>
-      <c r="D193" s="63"/>
-      <c r="E193" s="61"/>
-      <c r="F193" s="63"/>
+      <c r="C193" s="107"/>
+      <c r="D193" s="108"/>
+      <c r="E193" s="107"/>
+      <c r="F193" s="108"/>
     </row>
     <row r="194" spans="2:6">
       <c r="B194" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="85">
+      <c r="C194" s="91">
         <v>124</v>
       </c>
-      <c r="D194" s="87">
+      <c r="D194" s="93">
         <v>213</v>
       </c>
-      <c r="E194" s="85">
+      <c r="E194" s="91">
         <v>127</v>
       </c>
-      <c r="F194" s="87">
+      <c r="F194" s="93">
         <v>211</v>
       </c>
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="2"/>
-      <c r="C195" s="86"/>
-      <c r="D195" s="88"/>
-      <c r="E195" s="86"/>
-      <c r="F195" s="88"/>
+      <c r="C195" s="92"/>
+      <c r="D195" s="94"/>
+      <c r="E195" s="92"/>
+      <c r="F195" s="94"/>
     </row>
     <row r="196" spans="2:6">
       <c r="B196" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C196" s="85">
+      <c r="C196" s="91">
         <v>182</v>
       </c>
-      <c r="D196" s="87">
+      <c r="D196" s="93">
         <v>369</v>
       </c>
-      <c r="E196" s="85">
+      <c r="E196" s="91">
         <v>176</v>
       </c>
-      <c r="F196" s="87">
+      <c r="F196" s="93">
         <v>362</v>
       </c>
     </row>
     <row r="197" spans="2:6">
       <c r="B197" s="2"/>
-      <c r="C197" s="86"/>
-      <c r="D197" s="88"/>
-      <c r="E197" s="86"/>
-      <c r="F197" s="88"/>
+      <c r="C197" s="92"/>
+      <c r="D197" s="94"/>
+      <c r="E197" s="92"/>
+      <c r="F197" s="94"/>
     </row>
     <row r="198" spans="2:6">
       <c r="B198" s="2"/>
-      <c r="C198" s="85">
+      <c r="C198" s="91">
         <v>0</v>
       </c>
-      <c r="D198" s="87">
+      <c r="D198" s="93">
         <v>105</v>
       </c>
-      <c r="E198" s="85">
+      <c r="E198" s="91">
         <v>0</v>
       </c>
-      <c r="F198" s="87">
+      <c r="F198" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="2"/>
-      <c r="C199" s="86"/>
-      <c r="D199" s="88"/>
-      <c r="E199" s="86"/>
-      <c r="F199" s="88"/>
+      <c r="C199" s="92"/>
+      <c r="D199" s="94"/>
+      <c r="E199" s="92"/>
+      <c r="F199" s="94"/>
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="2"/>
-      <c r="C200" s="85">
+      <c r="C200" s="91">
         <v>374</v>
       </c>
-      <c r="D200" s="87">
+      <c r="D200" s="93">
         <v>667</v>
       </c>
-      <c r="E200" s="85">
+      <c r="E200" s="91">
         <v>377</v>
       </c>
-      <c r="F200" s="87">
+      <c r="F200" s="93">
         <v>657</v>
       </c>
     </row>
     <row r="201" spans="2:6">
       <c r="B201" s="2"/>
-      <c r="C201" s="86"/>
-      <c r="D201" s="88"/>
-      <c r="E201" s="86"/>
-      <c r="F201" s="88"/>
+      <c r="C201" s="92"/>
+      <c r="D201" s="94"/>
+      <c r="E201" s="92"/>
+      <c r="F201" s="94"/>
     </row>
     <row r="202" spans="2:6">
       <c r="B202" s="2"/>
-      <c r="C202" s="60">
+      <c r="C202" s="100">
         <v>1098124</v>
       </c>
-      <c r="D202" s="62">
+      <c r="D202" s="102">
         <v>1985432</v>
       </c>
-      <c r="E202" s="60">
+      <c r="E202" s="100">
         <v>1113445</v>
       </c>
-      <c r="F202" s="62">
+      <c r="F202" s="102">
         <v>1963644</v>
       </c>
     </row>
     <row r="203" spans="2:6">
       <c r="B203" s="2"/>
-      <c r="C203" s="61"/>
-      <c r="D203" s="63"/>
-      <c r="E203" s="61"/>
-      <c r="F203" s="63"/>
+      <c r="C203" s="107"/>
+      <c r="D203" s="108"/>
+      <c r="E203" s="107"/>
+      <c r="F203" s="108"/>
     </row>
     <row r="204" spans="2:6">
       <c r="B204" s="2"/>
-      <c r="C204" s="60">
+      <c r="C204" s="100">
         <v>2264</v>
       </c>
-      <c r="D204" s="62">
+      <c r="D204" s="102">
         <v>4115</v>
       </c>
-      <c r="E204" s="60">
+      <c r="E204" s="100">
         <v>2296</v>
       </c>
-      <c r="F204" s="62">
+      <c r="F204" s="102">
         <v>4070</v>
       </c>
     </row>
     <row r="205" spans="2:6">
       <c r="B205" s="2"/>
-      <c r="C205" s="61"/>
-      <c r="D205" s="63"/>
-      <c r="E205" s="61"/>
-      <c r="F205" s="63"/>
+      <c r="C205" s="107"/>
+      <c r="D205" s="108"/>
+      <c r="E205" s="107"/>
+      <c r="F205" s="108"/>
     </row>
     <row r="206" spans="2:6">
       <c r="B206" s="2"/>
-      <c r="C206" s="85">
+      <c r="C206" s="91">
         <v>59.4</v>
       </c>
-      <c r="D206" s="87">
+      <c r="D206" s="93">
         <v>109.6</v>
       </c>
-      <c r="E206" s="85">
+      <c r="E206" s="91">
         <v>58.9</v>
       </c>
-      <c r="F206" s="87">
+      <c r="F206" s="93">
         <v>106.5</v>
       </c>
     </row>
     <row r="207" spans="2:6">
       <c r="B207" s="2"/>
-      <c r="C207" s="86"/>
-      <c r="D207" s="88"/>
-      <c r="E207" s="86"/>
-      <c r="F207" s="88"/>
+      <c r="C207" s="92"/>
+      <c r="D207" s="94"/>
+      <c r="E207" s="92"/>
+      <c r="F207" s="94"/>
     </row>
     <row r="208" spans="2:6">
       <c r="B208" s="2"/>
-      <c r="C208" s="110">
+      <c r="C208" s="125">
         <v>0</v>
       </c>
-      <c r="D208" s="112">
+      <c r="D208" s="127">
         <v>5.8</v>
       </c>
-      <c r="E208" s="110">
+      <c r="E208" s="125">
         <v>0</v>
       </c>
-      <c r="F208" s="112">
+      <c r="F208" s="127">
         <v>5.6</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="B209" s="2"/>
-      <c r="C209" s="111"/>
-      <c r="D209" s="113"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="113"/>
+      <c r="C209" s="126"/>
+      <c r="D209" s="128"/>
+      <c r="E209" s="126"/>
+      <c r="F209" s="128"/>
     </row>
     <row r="210" spans="1:6">
       <c r="B210" s="2"/>
-      <c r="C210" s="110">
+      <c r="C210" s="125">
         <v>15.2</v>
       </c>
-      <c r="D210" s="112">
+      <c r="D210" s="127">
         <v>21.3</v>
       </c>
-      <c r="E210" s="110">
+      <c r="E210" s="125">
         <v>14.2</v>
       </c>
-      <c r="F210" s="112">
+      <c r="F210" s="127">
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="B211" s="2"/>
-      <c r="C211" s="111"/>
-      <c r="D211" s="113"/>
-      <c r="E211" s="111"/>
-      <c r="F211" s="113"/>
+      <c r="C211" s="126"/>
+      <c r="D211" s="128"/>
+      <c r="E211" s="126"/>
+      <c r="F211" s="128"/>
     </row>
     <row r="212" spans="1:6">
       <c r="B212" s="2"/>
-      <c r="C212" s="110">
+      <c r="C212" s="125">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D212" s="112">
+      <c r="D212" s="127">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E212" s="110">
+      <c r="E212" s="125">
         <v>5</v>
       </c>
-      <c r="F212" s="112">
+      <c r="F212" s="127">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="B213" s="2"/>
-      <c r="C213" s="111"/>
-      <c r="D213" s="113"/>
-      <c r="E213" s="111"/>
-      <c r="F213" s="113"/>
+      <c r="C213" s="126"/>
+      <c r="D213" s="128"/>
+      <c r="E213" s="126"/>
+      <c r="F213" s="128"/>
     </row>
     <row r="214" spans="1:6">
       <c r="B214" s="2"/>
-      <c r="C214" s="110">
+      <c r="C214" s="125">
         <v>7.8</v>
       </c>
-      <c r="D214" s="112">
+      <c r="D214" s="127">
         <v>13.1</v>
       </c>
-      <c r="E214" s="110">
+      <c r="E214" s="125">
         <v>8</v>
       </c>
-      <c r="F214" s="112">
+      <c r="F214" s="127">
         <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="B215" s="2"/>
-      <c r="C215" s="111"/>
-      <c r="D215" s="113"/>
-      <c r="E215" s="111"/>
-      <c r="F215" s="113"/>
+      <c r="C215" s="126"/>
+      <c r="D215" s="128"/>
+      <c r="E215" s="126"/>
+      <c r="F215" s="128"/>
     </row>
     <row r="216" spans="1:6">
       <c r="B216" s="2"/>
-      <c r="C216" s="110">
+      <c r="C216" s="125">
         <v>31.2</v>
       </c>
-      <c r="D216" s="112">
+      <c r="D216" s="127">
         <v>60.2</v>
       </c>
-      <c r="E216" s="110">
+      <c r="E216" s="125">
         <v>31.7</v>
       </c>
-      <c r="F216" s="112">
+      <c r="F216" s="127">
         <v>59.6</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="B217" s="2"/>
-      <c r="C217" s="111"/>
-      <c r="D217" s="113"/>
-      <c r="E217" s="111"/>
-      <c r="F217" s="113"/>
+      <c r="C217" s="126"/>
+      <c r="D217" s="128"/>
+      <c r="E217" s="126"/>
+      <c r="F217" s="128"/>
     </row>
     <row r="218" spans="1:6">
       <c r="B218" s="2"/>
-      <c r="C218" s="85">
+      <c r="C218" s="91">
         <v>75.3</v>
       </c>
-      <c r="D218" s="87">
+      <c r="D218" s="93">
         <v>139</v>
       </c>
-      <c r="E218" s="85">
+      <c r="E218" s="91">
         <v>74.7</v>
       </c>
-      <c r="F218" s="87">
+      <c r="F218" s="93">
         <v>135.19999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16.5" thickBot="1">
       <c r="B219" s="3"/>
-      <c r="C219" s="98"/>
-      <c r="D219" s="99"/>
-      <c r="E219" s="98"/>
-      <c r="F219" s="99"/>
+      <c r="C219" s="81"/>
+      <c r="D219" s="82"/>
+      <c r="E219" s="81"/>
+      <c r="F219" s="82"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
@@ -7260,69 +7260,69 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="B223" s="64"/>
-      <c r="C223" s="67" t="s">
+      <c r="B223" s="110"/>
+      <c r="C223" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="D223" s="69"/>
+      <c r="D223" s="114"/>
     </row>
     <row r="224" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B224" s="65"/>
-      <c r="C224" s="70"/>
-      <c r="D224" s="72"/>
+      <c r="B224" s="111"/>
+      <c r="C224" s="115"/>
+      <c r="D224" s="116"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="65"/>
-      <c r="C225" s="73" t="s">
+      <c r="B225" s="111"/>
+      <c r="C225" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D225" s="74"/>
+      <c r="D225" s="118"/>
     </row>
     <row r="226" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B226" s="66"/>
-      <c r="C226" s="70"/>
-      <c r="D226" s="72"/>
+      <c r="B226" s="112"/>
+      <c r="C226" s="115"/>
+      <c r="D226" s="116"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="75" t="s">
+      <c r="B227" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C227" s="83" t="s">
+      <c r="C227" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="D227" s="75" t="s">
+      <c r="D227" s="104" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B228" s="76"/>
-      <c r="C228" s="84"/>
-      <c r="D228" s="76"/>
+      <c r="B228" s="106"/>
+      <c r="C228" s="120"/>
+      <c r="D228" s="106"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="75" t="s">
+      <c r="B229" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C229" s="77">
+      <c r="C229" s="121">
         <v>0</v>
       </c>
-      <c r="D229" s="79">
+      <c r="D229" s="123">
         <v>0.9</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B230" s="76"/>
-      <c r="C230" s="78"/>
-      <c r="D230" s="80"/>
+      <c r="B230" s="106"/>
+      <c r="C230" s="122"/>
+      <c r="D230" s="124"/>
     </row>
     <row r="231" spans="2:4">
       <c r="B231" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C231" s="81">
+      <c r="C231" s="109">
         <v>564700</v>
       </c>
-      <c r="D231" s="82">
+      <c r="D231" s="90">
         <v>511000</v>
       </c>
     </row>
@@ -7330,17 +7330,17 @@
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="61"/>
-      <c r="D232" s="63"/>
+      <c r="C232" s="107"/>
+      <c r="D232" s="108"/>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C233" s="60">
+      <c r="C233" s="100">
         <v>9620</v>
       </c>
-      <c r="D233" s="62">
+      <c r="D233" s="102">
         <v>37430</v>
       </c>
     </row>
@@ -7348,17 +7348,17 @@
       <c r="B234" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C234" s="61"/>
-      <c r="D234" s="63"/>
+      <c r="C234" s="107"/>
+      <c r="D234" s="108"/>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C235" s="60">
+      <c r="C235" s="100">
         <v>555080</v>
       </c>
-      <c r="D235" s="62">
+      <c r="D235" s="102">
         <v>473570</v>
       </c>
     </row>
@@ -7366,149 +7366,149 @@
       <c r="B236" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C236" s="61"/>
-      <c r="D236" s="63"/>
+      <c r="C236" s="107"/>
+      <c r="D236" s="108"/>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C237" s="85" t="s">
+      <c r="C237" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D237" s="87" t="s">
+      <c r="D237" s="93" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" s="4"/>
-      <c r="C238" s="86"/>
-      <c r="D238" s="88"/>
+      <c r="C238" s="92"/>
+      <c r="D238" s="94"/>
     </row>
     <row r="239" spans="2:4">
       <c r="B239" s="4"/>
-      <c r="C239" s="60">
+      <c r="C239" s="100">
         <v>167333</v>
       </c>
-      <c r="D239" s="62">
+      <c r="D239" s="102">
         <v>167333</v>
       </c>
     </row>
     <row r="240" spans="2:4">
       <c r="B240" s="4"/>
-      <c r="C240" s="61"/>
-      <c r="D240" s="63"/>
+      <c r="C240" s="107"/>
+      <c r="D240" s="108"/>
     </row>
     <row r="241" spans="2:4">
       <c r="B241" s="4"/>
-      <c r="C241" s="60">
+      <c r="C241" s="100">
         <v>1105812</v>
       </c>
-      <c r="D241" s="62">
+      <c r="D241" s="102">
         <v>1105812</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" s="4"/>
-      <c r="C242" s="61"/>
-      <c r="D242" s="63"/>
+      <c r="C242" s="107"/>
+      <c r="D242" s="108"/>
     </row>
     <row r="243" spans="2:4">
       <c r="B243" s="4"/>
-      <c r="C243" s="91">
+      <c r="C243" s="96">
         <v>0.502</v>
       </c>
-      <c r="D243" s="93">
+      <c r="D243" s="98">
         <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="244" spans="2:4">
       <c r="B244" s="4"/>
-      <c r="C244" s="92"/>
-      <c r="D244" s="94"/>
+      <c r="C244" s="97"/>
+      <c r="D244" s="99"/>
     </row>
     <row r="245" spans="2:4">
       <c r="B245" s="4"/>
-      <c r="C245" s="60">
+      <c r="C245" s="100">
         <v>6798</v>
       </c>
-      <c r="D245" s="62">
+      <c r="D245" s="102">
         <v>7968</v>
       </c>
     </row>
     <row r="246" spans="2:4" ht="16.5" thickBot="1">
       <c r="B246" s="5"/>
-      <c r="C246" s="89"/>
-      <c r="D246" s="90"/>
+      <c r="C246" s="101"/>
+      <c r="D246" s="103"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="75" t="s">
+      <c r="B247" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C247" s="96">
+      <c r="C247" s="89">
         <v>4.3</v>
       </c>
-      <c r="D247" s="97">
+      <c r="D247" s="95">
         <v>8.4</v>
       </c>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="95"/>
-      <c r="C248" s="86"/>
-      <c r="D248" s="88"/>
+      <c r="B248" s="105"/>
+      <c r="C248" s="92"/>
+      <c r="D248" s="94"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="95"/>
-      <c r="C249" s="85">
+      <c r="B249" s="105"/>
+      <c r="C249" s="91">
         <v>1</v>
       </c>
-      <c r="D249" s="87">
+      <c r="D249" s="93">
         <v>2.1</v>
       </c>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="95"/>
-      <c r="C250" s="86"/>
-      <c r="D250" s="88"/>
+      <c r="B250" s="105"/>
+      <c r="C250" s="92"/>
+      <c r="D250" s="94"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="95"/>
-      <c r="C251" s="85">
+      <c r="B251" s="105"/>
+      <c r="C251" s="91">
         <v>3.3</v>
       </c>
-      <c r="D251" s="87">
+      <c r="D251" s="93">
         <v>6.3</v>
       </c>
     </row>
     <row r="252" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B252" s="76"/>
-      <c r="C252" s="98"/>
-      <c r="D252" s="99"/>
+      <c r="B252" s="106"/>
+      <c r="C252" s="81"/>
+      <c r="D252" s="82"/>
     </row>
     <row r="253" spans="2:4" ht="48">
       <c r="B253" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C253" s="96">
+      <c r="C253" s="89">
         <v>118</v>
       </c>
-      <c r="D253" s="97">
+      <c r="D253" s="95">
         <v>12</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" s="4"/>
-      <c r="C254" s="86"/>
-      <c r="D254" s="88"/>
+      <c r="C254" s="92"/>
+      <c r="D254" s="94"/>
     </row>
     <row r="255" spans="2:4">
       <c r="B255" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C255" s="85">
+      <c r="C255" s="91">
         <v>790</v>
       </c>
-      <c r="D255" s="87">
+      <c r="D255" s="93">
         <v>87</v>
       </c>
     </row>
@@ -7516,383 +7516,871 @@
       <c r="B256" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C256" s="86"/>
-      <c r="D256" s="88"/>
+      <c r="C256" s="92"/>
+      <c r="D256" s="94"/>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" s="4"/>
-      <c r="C257" s="85">
+      <c r="C257" s="91">
         <v>804</v>
       </c>
-      <c r="D257" s="87">
+      <c r="D257" s="93">
         <v>94</v>
       </c>
     </row>
     <row r="258" spans="2:4">
       <c r="B258" s="4"/>
-      <c r="C258" s="86"/>
-      <c r="D258" s="88"/>
+      <c r="C258" s="92"/>
+      <c r="D258" s="94"/>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" s="4"/>
-      <c r="C259" s="85" t="s">
+      <c r="C259" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D259" s="87" t="s">
+      <c r="D259" s="93" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" s="4"/>
-      <c r="C260" s="86"/>
-      <c r="D260" s="88"/>
+      <c r="C260" s="92"/>
+      <c r="D260" s="94"/>
     </row>
     <row r="261" spans="2:4">
       <c r="B261" s="4"/>
-      <c r="C261" s="85" t="s">
+      <c r="C261" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D261" s="87" t="s">
+      <c r="D261" s="93" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="262" spans="2:4">
       <c r="B262" s="4"/>
-      <c r="C262" s="86"/>
-      <c r="D262" s="88"/>
+      <c r="C262" s="92"/>
+      <c r="D262" s="94"/>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" s="4"/>
-      <c r="C263" s="85">
+      <c r="C263" s="91">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D263" s="87">
+      <c r="D263" s="93">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="264" spans="2:4">
       <c r="B264" s="4"/>
-      <c r="C264" s="86"/>
-      <c r="D264" s="116"/>
+      <c r="C264" s="92"/>
+      <c r="D264" s="80"/>
     </row>
     <row r="265" spans="2:4">
       <c r="B265" s="4"/>
-      <c r="C265" s="85">
+      <c r="C265" s="91">
         <v>0.06</v>
       </c>
-      <c r="D265" s="115">
+      <c r="D265" s="79">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="266" spans="2:4">
       <c r="B266" s="4"/>
-      <c r="C266" s="114"/>
-      <c r="D266" s="116"/>
+      <c r="C266" s="78"/>
+      <c r="D266" s="80"/>
     </row>
     <row r="267" spans="2:4">
       <c r="B267" s="4"/>
-      <c r="C267" s="117" t="s">
+      <c r="C267" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D267" s="115" t="s">
+      <c r="D267" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="268" spans="2:4">
       <c r="B268" s="4"/>
-      <c r="C268" s="114"/>
-      <c r="D268" s="116"/>
+      <c r="C268" s="78"/>
+      <c r="D268" s="80"/>
     </row>
     <row r="269" spans="2:4">
       <c r="B269" s="4"/>
-      <c r="C269" s="117" t="s">
+      <c r="C269" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D269" s="115" t="s">
+      <c r="D269" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="270" spans="2:4">
       <c r="B270" s="4"/>
-      <c r="C270" s="114"/>
-      <c r="D270" s="116"/>
+      <c r="C270" s="78"/>
+      <c r="D270" s="80"/>
     </row>
     <row r="271" spans="2:4">
       <c r="B271" s="4"/>
-      <c r="C271" s="117" t="s">
+      <c r="C271" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D271" s="115" t="s">
+      <c r="D271" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="272" spans="2:4">
       <c r="B272" s="4"/>
-      <c r="C272" s="114"/>
-      <c r="D272" s="116"/>
+      <c r="C272" s="78"/>
+      <c r="D272" s="80"/>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" s="4"/>
-      <c r="C273" s="117" t="s">
+      <c r="C273" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D273" s="115" t="s">
+      <c r="D273" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="274" spans="2:4" ht="16.5" thickBot="1">
       <c r="B274" s="5"/>
-      <c r="C274" s="98"/>
-      <c r="D274" s="99"/>
+      <c r="C274" s="81"/>
+      <c r="D274" s="82"/>
     </row>
     <row r="275" spans="2:4">
-      <c r="B275" s="104" t="s">
+      <c r="B275" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C275" s="105"/>
-      <c r="D275" s="106"/>
+      <c r="C275" s="84"/>
+      <c r="D275" s="85"/>
     </row>
     <row r="276" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B276" s="107"/>
-      <c r="C276" s="108"/>
-      <c r="D276" s="109"/>
+      <c r="B276" s="86"/>
+      <c r="C276" s="87"/>
+      <c r="D276" s="88"/>
     </row>
     <row r="277" spans="2:4">
       <c r="B277" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C277" s="96">
+      <c r="C277" s="89">
         <v>584</v>
       </c>
-      <c r="D277" s="82">
+      <c r="D277" s="90">
         <v>1226</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="B278" s="2"/>
-      <c r="C278" s="114"/>
-      <c r="D278" s="118"/>
+      <c r="C278" s="78"/>
+      <c r="D278" s="76"/>
     </row>
     <row r="279" spans="2:4" ht="21">
       <c r="B279" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C279" s="117">
+      <c r="C279" s="77">
         <v>718</v>
       </c>
-      <c r="D279" s="134">
+      <c r="D279" s="75">
         <v>1497</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="B280" s="2"/>
-      <c r="C280" s="114"/>
-      <c r="D280" s="118"/>
+      <c r="C280" s="78"/>
+      <c r="D280" s="76"/>
     </row>
     <row r="281" spans="2:4" ht="24">
       <c r="B281" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C281" s="117">
+      <c r="C281" s="77">
         <v>482</v>
       </c>
-      <c r="D281" s="115">
+      <c r="D281" s="79">
         <v>926</v>
       </c>
     </row>
     <row r="282" spans="2:4">
       <c r="B282" s="2"/>
-      <c r="C282" s="114"/>
-      <c r="D282" s="116"/>
+      <c r="C282" s="78"/>
+      <c r="D282" s="80"/>
     </row>
     <row r="283" spans="2:4">
       <c r="B283" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C283" s="117">
+      <c r="C283" s="77">
         <v>40</v>
       </c>
-      <c r="D283" s="115">
+      <c r="D283" s="79">
         <v>78</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="B284" s="2"/>
-      <c r="C284" s="114"/>
-      <c r="D284" s="116"/>
+      <c r="C284" s="78"/>
+      <c r="D284" s="80"/>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C285" s="117">
+      <c r="C285" s="77">
         <v>62</v>
       </c>
-      <c r="D285" s="115">
+      <c r="D285" s="79">
         <v>162</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" s="2"/>
-      <c r="C286" s="114"/>
-      <c r="D286" s="116"/>
+      <c r="C286" s="78"/>
+      <c r="D286" s="80"/>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" s="2"/>
-      <c r="C287" s="117">
+      <c r="C287" s="77">
         <v>0</v>
       </c>
-      <c r="D287" s="115">
+      <c r="D287" s="79">
         <v>60</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" s="2"/>
-      <c r="C288" s="114"/>
-      <c r="D288" s="116"/>
+      <c r="C288" s="78"/>
+      <c r="D288" s="80"/>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" s="2"/>
-      <c r="C289" s="117">
+      <c r="C289" s="77">
         <v>133</v>
       </c>
-      <c r="D289" s="115">
+      <c r="D289" s="79">
         <v>271</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="B290" s="2"/>
-      <c r="C290" s="114"/>
-      <c r="D290" s="116"/>
+      <c r="C290" s="78"/>
+      <c r="D290" s="80"/>
     </row>
     <row r="291" spans="2:4">
       <c r="B291" s="2"/>
-      <c r="C291" s="132">
+      <c r="C291" s="73">
         <v>398290</v>
       </c>
-      <c r="D291" s="134">
+      <c r="D291" s="75">
         <v>709039</v>
       </c>
     </row>
     <row r="292" spans="2:4">
       <c r="B292" s="2"/>
-      <c r="C292" s="133"/>
-      <c r="D292" s="118"/>
+      <c r="C292" s="74"/>
+      <c r="D292" s="76"/>
     </row>
     <row r="293" spans="2:4">
       <c r="B293" s="2"/>
-      <c r="C293" s="117">
+      <c r="C293" s="77">
         <v>771</v>
       </c>
-      <c r="D293" s="134">
+      <c r="D293" s="75">
         <v>1614</v>
       </c>
     </row>
     <row r="294" spans="2:4">
       <c r="B294" s="2"/>
-      <c r="C294" s="114"/>
-      <c r="D294" s="118"/>
+      <c r="C294" s="78"/>
+      <c r="D294" s="76"/>
     </row>
     <row r="295" spans="2:4">
       <c r="B295" s="2"/>
-      <c r="C295" s="117">
+      <c r="C295" s="77">
         <v>58.9</v>
       </c>
-      <c r="D295" s="115">
+      <c r="D295" s="79">
         <v>85.9</v>
       </c>
     </row>
     <row r="296" spans="2:4">
       <c r="B296" s="2"/>
-      <c r="C296" s="114"/>
-      <c r="D296" s="116"/>
+      <c r="C296" s="78"/>
+      <c r="D296" s="80"/>
     </row>
     <row r="297" spans="2:4">
       <c r="B297" s="2"/>
-      <c r="C297" s="119">
+      <c r="C297" s="69">
         <v>0</v>
       </c>
-      <c r="D297" s="121">
+      <c r="D297" s="71">
         <v>3.2</v>
       </c>
     </row>
     <row r="298" spans="2:4">
       <c r="B298" s="2"/>
-      <c r="C298" s="120"/>
-      <c r="D298" s="122"/>
+      <c r="C298" s="70"/>
+      <c r="D298" s="72"/>
     </row>
     <row r="299" spans="2:4">
       <c r="B299" s="2"/>
-      <c r="C299" s="119">
+      <c r="C299" s="69">
         <v>44.5</v>
       </c>
-      <c r="D299" s="121">
+      <c r="D299" s="71">
         <v>52.2</v>
       </c>
     </row>
     <row r="300" spans="2:4">
       <c r="B300" s="2"/>
-      <c r="C300" s="120"/>
-      <c r="D300" s="122"/>
+      <c r="C300" s="70"/>
+      <c r="D300" s="72"/>
     </row>
     <row r="301" spans="2:4">
       <c r="B301" s="2"/>
-      <c r="C301" s="119">
+      <c r="C301" s="69">
         <v>1.3</v>
       </c>
-      <c r="D301" s="121">
+      <c r="D301" s="71">
         <v>2.6</v>
       </c>
     </row>
     <row r="302" spans="2:4">
       <c r="B302" s="2"/>
-      <c r="C302" s="120"/>
-      <c r="D302" s="122"/>
+      <c r="C302" s="70"/>
+      <c r="D302" s="72"/>
     </row>
     <row r="303" spans="2:4">
       <c r="B303" s="2"/>
-      <c r="C303" s="119">
+      <c r="C303" s="69">
         <v>3</v>
       </c>
-      <c r="D303" s="121">
+      <c r="D303" s="71">
         <v>5.7</v>
       </c>
     </row>
     <row r="304" spans="2:4">
       <c r="B304" s="2"/>
-      <c r="C304" s="120"/>
-      <c r="D304" s="122"/>
+      <c r="C304" s="70"/>
+      <c r="D304" s="72"/>
     </row>
     <row r="305" spans="2:4">
       <c r="B305" s="2"/>
-      <c r="C305" s="119">
+      <c r="C305" s="69">
         <v>10.1</v>
       </c>
-      <c r="D305" s="121">
+      <c r="D305" s="71">
         <v>22.3</v>
       </c>
     </row>
     <row r="306" spans="2:4">
       <c r="B306" s="2"/>
-      <c r="C306" s="120"/>
-      <c r="D306" s="122"/>
+      <c r="C306" s="70"/>
+      <c r="D306" s="72"/>
     </row>
     <row r="307" spans="2:4">
       <c r="B307" s="2"/>
-      <c r="C307" s="117">
+      <c r="C307" s="77">
         <v>74.7</v>
       </c>
-      <c r="D307" s="115">
+      <c r="D307" s="79">
         <v>108.9</v>
       </c>
     </row>
     <row r="308" spans="2:4" ht="16.5" thickBot="1">
       <c r="B308" s="3"/>
-      <c r="C308" s="98"/>
-      <c r="D308" s="99"/>
+      <c r="C308" s="81"/>
+      <c r="D308" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="512">
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:F135"/>
+    <mergeCell ref="C136:D137"/>
+    <mergeCell ref="E136:F137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="B98:H99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="B186:F187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F206:F207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="C223:D224"/>
+    <mergeCell ref="C225:D226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="B247:B252"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="B275:D276"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="D301:D302"/>
     <mergeCell ref="L20:Q20"/>
     <mergeCell ref="R20:U20"/>
     <mergeCell ref="L11:Q11"/>
@@ -7917,494 +8405,6 @@
     <mergeCell ref="D289:D290"/>
     <mergeCell ref="C279:C280"/>
     <mergeCell ref="D279:D280"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D299:D300"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="B275:D276"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="B247:B252"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="C223:D224"/>
-    <mergeCell ref="C225:D226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:F207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="B186:F187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="B98:H99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:F135"/>
-    <mergeCell ref="C136:D137"/>
-    <mergeCell ref="E136:F137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
